--- a/presidential_forecast.xlsx
+++ b/presidential_forecast.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21929237-BB1F-614A-B07F-164D5E402639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCD158E-E419-5544-93AB-34B9C4061060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{8705FA9F-56CD-4041-A2AF-8023962B8A84}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="14060" windowHeight="17460" activeTab="1" xr2:uid="{8705FA9F-56CD-4041-A2AF-8023962B8A84}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="evrace" sheetId="1" r:id="rId1"/>
+    <sheet name="bubble map" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,12 +35,525 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="173">
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>gopWin</t>
+  </si>
+  <si>
+    <t>demWin</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
   <si>
     <t>textX</t>
   </si>
   <si>
-    <t>dataPoint</t>
+    <t>label</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>xValue</t>
+  </si>
+  <si>
+    <t>yValue</t>
+  </si>
+  <si>
+    <t>pageLink</t>
+  </si>
+  <si>
+    <t>alabama</t>
+  </si>
+  <si>
+    <t>alaska</t>
+  </si>
+  <si>
+    <t>arizona</t>
+  </si>
+  <si>
+    <t>arkansas</t>
+  </si>
+  <si>
+    <t>california</t>
+  </si>
+  <si>
+    <t>colorado</t>
+  </si>
+  <si>
+    <t>connecticut</t>
+  </si>
+  <si>
+    <t>delaware</t>
+  </si>
+  <si>
+    <t>florida</t>
+  </si>
+  <si>
+    <t>georgia</t>
+  </si>
+  <si>
+    <t>hawaii</t>
+  </si>
+  <si>
+    <t>idaho</t>
+  </si>
+  <si>
+    <t>illinois</t>
+  </si>
+  <si>
+    <t>indiana</t>
+  </si>
+  <si>
+    <t>iowa</t>
+  </si>
+  <si>
+    <t>kansas</t>
+  </si>
+  <si>
+    <t>kentucky</t>
+  </si>
+  <si>
+    <t>louisiana</t>
+  </si>
+  <si>
+    <t>maine</t>
+  </si>
+  <si>
+    <t>maryland</t>
+  </si>
+  <si>
+    <t>massachusetts</t>
+  </si>
+  <si>
+    <t>michigan</t>
+  </si>
+  <si>
+    <t>minnesota</t>
+  </si>
+  <si>
+    <t>missouri</t>
+  </si>
+  <si>
+    <t>mississippi</t>
+  </si>
+  <si>
+    <t>montana</t>
+  </si>
+  <si>
+    <t>nebraska</t>
+  </si>
+  <si>
+    <t>nevada</t>
+  </si>
+  <si>
+    <t>new_hampshire</t>
+  </si>
+  <si>
+    <t>new_jersey</t>
+  </si>
+  <si>
+    <t>new_mexico</t>
+  </si>
+  <si>
+    <t>new_york</t>
+  </si>
+  <si>
+    <t>north_carolina</t>
+  </si>
+  <si>
+    <t>north_dakota</t>
+  </si>
+  <si>
+    <t>ohio</t>
+  </si>
+  <si>
+    <t>oklahoma</t>
+  </si>
+  <si>
+    <t>oregon</t>
+  </si>
+  <si>
+    <t>pennsylvania</t>
+  </si>
+  <si>
+    <t>rhode_island</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Maine-1</t>
+  </si>
+  <si>
+    <t>Maine-2</t>
+  </si>
+  <si>
+    <t>Nebraska-1</t>
+  </si>
+  <si>
+    <t>Nebraska-2</t>
+  </si>
+  <si>
+    <t>Nebraska-3</t>
+  </si>
+  <si>
+    <t>south_carolina</t>
+  </si>
+  <si>
+    <t>south_dakota</t>
+  </si>
+  <si>
+    <t>tennessee</t>
+  </si>
+  <si>
+    <t>texas</t>
+  </si>
+  <si>
+    <t>utah</t>
+  </si>
+  <si>
+    <t>vermont</t>
+  </si>
+  <si>
+    <t>virginia</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>west_virginia</t>
+  </si>
+  <si>
+    <t>wisconsin</t>
+  </si>
+  <si>
+    <t>wyoming</t>
+  </si>
+  <si>
+    <t>dc</t>
+  </si>
+  <si>
+    <t>maine_1</t>
+  </si>
+  <si>
+    <t>maine_2</t>
+  </si>
+  <si>
+    <t>nebraska_1</t>
+  </si>
+  <si>
+    <t>nebraska_2</t>
+  </si>
+  <si>
+    <t>nebraska_3</t>
+  </si>
+  <si>
+    <t>tippingPoint</t>
   </si>
 </sst>
 </file>
@@ -147,23 +661,20 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="A2" t="str">
-            <v>AL</v>
-          </cell>
           <cell r="B2">
             <v>9</v>
           </cell>
           <cell r="C2">
-            <v>0.99791667547255214</v>
+            <v>0.99398981432329681</v>
           </cell>
           <cell r="D2">
-            <v>2.0833245274478607E-3</v>
+            <v>6.0101856767031947E-3</v>
           </cell>
           <cell r="E2">
-            <v>248.95833773627606</v>
+            <v>246.9949071616484</v>
           </cell>
           <cell r="F2">
-            <v>1.0416622637239357</v>
+            <v>3.0050928383516009</v>
           </cell>
           <cell r="G2">
             <v>9</v>
@@ -176,23 +687,20 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>AK</v>
-          </cell>
           <cell r="B3">
             <v>3</v>
           </cell>
           <cell r="C3">
-            <v>0.90016613877844665</v>
+            <v>0.87691055618023661</v>
           </cell>
           <cell r="D3">
-            <v>9.9833861221553355E-2</v>
+            <v>0.12308944381976339</v>
           </cell>
           <cell r="E3">
-            <v>200.08306938922331</v>
+            <v>188.4552780901183</v>
           </cell>
           <cell r="F3">
-            <v>49.916930610776689</v>
+            <v>61.544721909881702</v>
           </cell>
           <cell r="G3">
             <v>3</v>
@@ -205,23 +713,20 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4" t="str">
-            <v>AZ</v>
-          </cell>
           <cell r="B4">
             <v>11</v>
           </cell>
           <cell r="C4">
-            <v>0.60831598432307776</v>
+            <v>0.59867880078826752</v>
           </cell>
           <cell r="D4">
-            <v>0.39168401567692224</v>
+            <v>0.40132119921173248</v>
           </cell>
           <cell r="E4">
-            <v>54.157992161538878</v>
+            <v>49.339400394133762</v>
           </cell>
           <cell r="F4">
-            <v>195.84200783846111</v>
+            <v>200.66059960586625</v>
           </cell>
           <cell r="G4">
             <v>11</v>
@@ -234,23 +739,20 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>AR</v>
-          </cell>
           <cell r="B5">
             <v>6</v>
           </cell>
           <cell r="C5">
-            <v>0.99852000744197211</v>
+            <v>0.99543850348481111</v>
           </cell>
           <cell r="D5">
-            <v>1.4799925580278872E-3</v>
+            <v>4.5614965151888898E-3</v>
           </cell>
           <cell r="E5">
-            <v>249.26000372098605</v>
+            <v>247.71925174240556</v>
           </cell>
           <cell r="F5">
-            <v>0.73999627901395115</v>
+            <v>2.2807482575944391</v>
           </cell>
           <cell r="G5">
             <v>6</v>
@@ -263,23 +765,20 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="A6" t="str">
-            <v>CA</v>
-          </cell>
           <cell r="B6">
             <v>55</v>
           </cell>
           <cell r="C6">
-            <v>3.0622160029541088E-6</v>
+            <v>5.2443424179922943E-5</v>
           </cell>
           <cell r="D6">
-            <v>0.99999693778399701</v>
+            <v>0.99994755657582013</v>
           </cell>
           <cell r="E6">
-            <v>249.99846889199856</v>
+            <v>249.97377828791002</v>
           </cell>
           <cell r="F6">
-            <v>1.5311080014441814E-3</v>
+            <v>2.62217120899777E-2</v>
           </cell>
           <cell r="G6">
             <v>55</v>
@@ -292,23 +791,20 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7" t="str">
-            <v>CO</v>
-          </cell>
           <cell r="B7">
             <v>9</v>
           </cell>
           <cell r="C7">
-            <v>0.25507891966116525</v>
+            <v>0.27484407209645012</v>
           </cell>
           <cell r="D7">
-            <v>0.74492108033883475</v>
+            <v>0.72515592790354988</v>
           </cell>
           <cell r="E7">
-            <v>122.46054016941738</v>
+            <v>112.57796395177495</v>
           </cell>
           <cell r="F7">
-            <v>127.53945983058262</v>
+            <v>137.42203604822504</v>
           </cell>
           <cell r="G7">
             <v>9</v>
@@ -321,23 +817,20 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8" t="str">
-            <v>CT</v>
-          </cell>
           <cell r="B8">
             <v>7</v>
           </cell>
           <cell r="C8">
-            <v>7.8452788792680139E-2</v>
+            <v>0.10088082787210056</v>
           </cell>
           <cell r="D8">
-            <v>0.92154721120731986</v>
+            <v>0.89911917212789949</v>
           </cell>
           <cell r="E8">
-            <v>210.77360560365995</v>
+            <v>199.55958606394972</v>
           </cell>
           <cell r="F8">
-            <v>39.226394396340055</v>
+            <v>50.440413936050277</v>
           </cell>
           <cell r="G8">
             <v>7</v>
@@ -350,23 +843,20 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>DE</v>
-          </cell>
           <cell r="B9">
             <v>3</v>
           </cell>
           <cell r="C9">
-            <v>7.0294522215813435E-2</v>
+            <v>9.2015492101282112E-2</v>
           </cell>
           <cell r="D9">
-            <v>0.92970547778418655</v>
+            <v>0.90798450789871787</v>
           </cell>
           <cell r="E9">
-            <v>214.8527388920933</v>
+            <v>203.99225394935891</v>
           </cell>
           <cell r="F9">
-            <v>35.147261107906701</v>
+            <v>46.007746050641089</v>
           </cell>
           <cell r="G9">
             <v>3</v>
@@ -379,23 +869,20 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10" t="str">
-            <v>FL</v>
-          </cell>
           <cell r="B10">
             <v>29</v>
           </cell>
           <cell r="C10">
-            <v>0.54066954300621894</v>
+            <v>0.53698337528069362</v>
           </cell>
           <cell r="D10">
-            <v>0.45933045699378106</v>
+            <v>0.46301662471930638</v>
           </cell>
           <cell r="E10">
-            <v>20.334771503109472</v>
+            <v>18.491687640346811</v>
           </cell>
           <cell r="F10">
-            <v>229.66522849689053</v>
+            <v>231.50831235965319</v>
           </cell>
           <cell r="G10">
             <v>29</v>
@@ -408,23 +895,20 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>GA</v>
-          </cell>
           <cell r="B11">
             <v>16</v>
           </cell>
           <cell r="C11">
-            <v>0.7004488955100725</v>
+            <v>0.68358309526451877</v>
           </cell>
           <cell r="D11">
-            <v>0.2995511044899275</v>
+            <v>0.31641690473548123</v>
           </cell>
           <cell r="E11">
-            <v>100.22444775503625</v>
+            <v>91.79154763225938</v>
           </cell>
           <cell r="F11">
-            <v>149.77555224496376</v>
+            <v>158.20845236774062</v>
           </cell>
           <cell r="G11">
             <v>16</v>
@@ -437,23 +921,20 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="A12" t="str">
-            <v>HI</v>
-          </cell>
           <cell r="B12">
             <v>4</v>
           </cell>
           <cell r="C12">
-            <v>8.6154142444227585E-6</v>
+            <v>8.5626849524750848E-5</v>
           </cell>
           <cell r="D12">
-            <v>0.99999138458575554</v>
+            <v>0.99991437315047527</v>
           </cell>
           <cell r="E12">
-            <v>249.99569229287778</v>
+            <v>249.95718657523764</v>
           </cell>
           <cell r="F12">
-            <v>4.3077071222228369E-3</v>
+            <v>4.2813424762357499E-2</v>
           </cell>
           <cell r="G12">
             <v>4</v>
@@ -466,23 +947,20 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="A13" t="str">
-            <v>ID</v>
-          </cell>
           <cell r="B13">
             <v>4</v>
           </cell>
           <cell r="C13">
-            <v>0.99967692878267633</v>
+            <v>0.99861631864262157</v>
           </cell>
           <cell r="D13">
-            <v>3.2307121732366717E-4</v>
+            <v>1.3836813573784301E-3</v>
           </cell>
           <cell r="E13">
-            <v>249.83846439133819</v>
+            <v>249.3081593213108</v>
           </cell>
           <cell r="F13">
-            <v>0.16153560866180783</v>
+            <v>0.69184067868920351</v>
           </cell>
           <cell r="G13">
             <v>4</v>
@@ -495,23 +973,20 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14" t="str">
-            <v>IL</v>
-          </cell>
           <cell r="B14">
             <v>20</v>
           </cell>
           <cell r="C14">
-            <v>5.7462872284401827E-2</v>
+            <v>7.7921294447547945E-2</v>
           </cell>
           <cell r="D14">
-            <v>0.94253712771559817</v>
+            <v>0.92207870555245208</v>
           </cell>
           <cell r="E14">
-            <v>221.26856385779911</v>
+            <v>211.03935277622602</v>
           </cell>
           <cell r="F14">
-            <v>28.731436142200891</v>
+            <v>38.960647223773975</v>
           </cell>
           <cell r="G14">
             <v>20</v>
@@ -524,23 +999,20 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15" t="str">
-            <v>IN</v>
-          </cell>
           <cell r="B15">
             <v>11</v>
           </cell>
           <cell r="C15">
-            <v>0.93475356400841503</v>
+            <v>0.9135062498768588</v>
           </cell>
           <cell r="D15">
-            <v>6.5246435991584972E-2</v>
+            <v>8.64937501231412E-2</v>
           </cell>
           <cell r="E15">
-            <v>217.37678200420748</v>
+            <v>206.75312493842938</v>
           </cell>
           <cell r="F15">
-            <v>32.623217995792515</v>
+            <v>43.24687506157062</v>
           </cell>
           <cell r="G15">
             <v>11</v>
@@ -553,23 +1025,20 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16" t="str">
-            <v>IA</v>
-          </cell>
           <cell r="B16">
             <v>6</v>
           </cell>
           <cell r="C16">
-            <v>0.66249498244783922</v>
+            <v>0.64843877459065635</v>
           </cell>
           <cell r="D16">
-            <v>0.33750501755216078</v>
+            <v>0.35156122540934365</v>
           </cell>
           <cell r="E16">
-            <v>81.24749122391961</v>
+            <v>74.219387295328175</v>
           </cell>
           <cell r="F16">
-            <v>168.75250877608039</v>
+            <v>175.78061270467182</v>
           </cell>
           <cell r="G16">
             <v>6</v>
@@ -582,23 +1051,20 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17" t="str">
-            <v>KS</v>
-          </cell>
           <cell r="B17">
             <v>6</v>
           </cell>
           <cell r="C17">
-            <v>0.95675420395559607</v>
+            <v>0.93815334801063321</v>
           </cell>
           <cell r="D17">
-            <v>4.3245796044403928E-2</v>
+            <v>6.1846651989366785E-2</v>
           </cell>
           <cell r="E17">
-            <v>228.37710197779805</v>
+            <v>219.07667400531662</v>
           </cell>
           <cell r="F17">
-            <v>21.622898022201952</v>
+            <v>30.923325994683381</v>
           </cell>
           <cell r="G17">
             <v>6</v>
@@ -611,23 +1077,20 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18" t="str">
-            <v>KY</v>
-          </cell>
           <cell r="B18">
             <v>8</v>
           </cell>
           <cell r="C18">
-            <v>0.99800235845044116</v>
+            <v>0.9942192330403411</v>
           </cell>
           <cell r="D18">
-            <v>1.9976415495588373E-3</v>
+            <v>5.7807669596589006E-3</v>
           </cell>
           <cell r="E18">
-            <v>249.0011792252206</v>
+            <v>247.10961652017053</v>
           </cell>
           <cell r="F18">
-            <v>0.99882077477940356</v>
+            <v>2.8903834798294668</v>
           </cell>
           <cell r="G18">
             <v>8</v>
@@ -640,23 +1103,20 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19" t="str">
-            <v>LA</v>
-          </cell>
           <cell r="B19">
             <v>8</v>
           </cell>
           <cell r="C19">
-            <v>0.97791081516231271</v>
+            <v>0.96366969174141881</v>
           </cell>
           <cell r="D19">
-            <v>2.2089184837687292E-2</v>
+            <v>3.633030825858119E-2</v>
           </cell>
           <cell r="E19">
-            <v>238.95540758115635</v>
+            <v>231.83484587070939</v>
           </cell>
           <cell r="F19">
-            <v>11.044592418843649</v>
+            <v>18.165154129290613</v>
           </cell>
           <cell r="G19">
             <v>8</v>
@@ -669,23 +1129,20 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20" t="str">
-            <v>ME</v>
-          </cell>
           <cell r="B20">
             <v>2</v>
           </cell>
           <cell r="C20">
-            <v>0.28856792656545383</v>
+            <v>0.30620567433935336</v>
           </cell>
           <cell r="D20">
-            <v>0.71143207343454617</v>
+            <v>0.69379432566064669</v>
           </cell>
           <cell r="E20">
-            <v>105.7160367172731</v>
+            <v>96.897162830323325</v>
           </cell>
           <cell r="F20">
-            <v>144.28396328272692</v>
+            <v>153.10283716967666</v>
           </cell>
           <cell r="G20">
             <v>2</v>
@@ -698,23 +1155,20 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="A21" t="str">
-            <v>MD</v>
-          </cell>
           <cell r="B21">
             <v>10</v>
           </cell>
           <cell r="C21">
-            <v>1.8131770739811851E-3</v>
+            <v>5.4170897503696552E-3</v>
           </cell>
           <cell r="D21">
-            <v>0.99818682292601879</v>
+            <v>0.9945829102496303</v>
           </cell>
           <cell r="E21">
-            <v>249.0934114630094</v>
+            <v>247.29145512481517</v>
           </cell>
           <cell r="F21">
-            <v>0.90658853699059705</v>
+            <v>2.7085448751848276</v>
           </cell>
           <cell r="G21">
             <v>10</v>
@@ -727,23 +1181,20 @@
           </cell>
         </row>
         <row r="22">
-          <cell r="A22" t="str">
-            <v>MA</v>
-          </cell>
           <cell r="B22">
             <v>11</v>
           </cell>
           <cell r="C22">
-            <v>6.1966358930420939E-4</v>
+            <v>2.4013146351760601E-3</v>
           </cell>
           <cell r="D22">
-            <v>0.99938033641069579</v>
+            <v>0.99759868536482399</v>
           </cell>
           <cell r="E22">
-            <v>249.69016820534787</v>
+            <v>248.79934268241195</v>
           </cell>
           <cell r="F22">
-            <v>0.30983179465212629</v>
+            <v>1.2006573175880533</v>
           </cell>
           <cell r="G22">
             <v>11</v>
@@ -756,23 +1207,20 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23" t="str">
-            <v>MI</v>
-          </cell>
           <cell r="B23">
             <v>16</v>
           </cell>
           <cell r="C23">
-            <v>0.38165852960277658</v>
+            <v>0.39214246895643673</v>
           </cell>
           <cell r="D23">
-            <v>0.61834147039722342</v>
+            <v>0.60785753104356322</v>
           </cell>
           <cell r="E23">
-            <v>59.170735198611709</v>
+            <v>53.928765521781628</v>
           </cell>
           <cell r="F23">
-            <v>190.82926480138829</v>
+            <v>196.07123447821837</v>
           </cell>
           <cell r="G23">
             <v>16</v>
@@ -785,23 +1233,20 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="A24" t="str">
-            <v>MN</v>
-          </cell>
           <cell r="B24">
             <v>10</v>
           </cell>
           <cell r="C24">
-            <v>0.31187379802307413</v>
+            <v>0.32786844655247088</v>
           </cell>
           <cell r="D24">
-            <v>0.68812620197692587</v>
+            <v>0.67213155344752917</v>
           </cell>
           <cell r="E24">
-            <v>94.063100988462935</v>
+            <v>86.065776723764571</v>
           </cell>
           <cell r="F24">
-            <v>155.93689901153707</v>
+            <v>163.93422327623543</v>
           </cell>
           <cell r="G24">
             <v>10</v>
@@ -814,23 +1259,20 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="A25" t="str">
-            <v>MS</v>
-          </cell>
           <cell r="B25">
             <v>6</v>
           </cell>
           <cell r="C25">
-            <v>0.93350926214002827</v>
+            <v>0.91196072553744745</v>
           </cell>
           <cell r="D25">
-            <v>6.6490737859971727E-2</v>
+            <v>8.8039274462552553E-2</v>
           </cell>
           <cell r="E25">
-            <v>216.75463107001414</v>
+            <v>205.98036276872372</v>
           </cell>
           <cell r="F25">
-            <v>33.245368929985858</v>
+            <v>44.019637231276278</v>
           </cell>
           <cell r="G25">
             <v>6</v>
@@ -843,23 +1285,20 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26" t="str">
-            <v>MO</v>
-          </cell>
           <cell r="B26">
             <v>10</v>
           </cell>
           <cell r="C26">
-            <v>0.93046698592450316</v>
+            <v>0.90883519064701124</v>
           </cell>
           <cell r="D26">
-            <v>6.9533014075496835E-2</v>
+            <v>9.1164809352988763E-2</v>
           </cell>
           <cell r="E26">
-            <v>215.23349296225155</v>
+            <v>204.41759532350562</v>
           </cell>
           <cell r="F26">
-            <v>34.766507037748454</v>
+            <v>45.582404676494377</v>
           </cell>
           <cell r="G26">
             <v>10</v>
@@ -872,23 +1311,20 @@
           </cell>
         </row>
         <row r="27">
-          <cell r="A27" t="str">
-            <v>MT</v>
-          </cell>
           <cell r="B27">
             <v>3</v>
           </cell>
           <cell r="C27">
-            <v>0.92316075445096857</v>
+            <v>0.90092932177088569</v>
           </cell>
           <cell r="D27">
-            <v>7.6839245549031432E-2</v>
+            <v>9.9070678229114306E-2</v>
           </cell>
           <cell r="E27">
-            <v>211.58037722548428</v>
+            <v>200.46466088544284</v>
           </cell>
           <cell r="F27">
-            <v>38.419622774515716</v>
+            <v>49.535339114557161</v>
           </cell>
           <cell r="G27">
             <v>3</v>
@@ -901,23 +1337,20 @@
           </cell>
         </row>
         <row r="28">
-          <cell r="A28" t="str">
-            <v>NE</v>
-          </cell>
           <cell r="B28">
             <v>2</v>
           </cell>
           <cell r="C28">
-            <v>0.99427228133865742</v>
+            <v>0.98703151434058145</v>
           </cell>
           <cell r="D28">
-            <v>5.7277186613425846E-3</v>
+            <v>1.2968485659418549E-2</v>
           </cell>
           <cell r="E28">
-            <v>247.13614066932871</v>
+            <v>243.51575717029075</v>
           </cell>
           <cell r="F28">
-            <v>2.8638593306712892</v>
+            <v>6.4842428297092454</v>
           </cell>
           <cell r="G28">
             <v>2</v>
@@ -930,23 +1363,20 @@
           </cell>
         </row>
         <row r="29">
-          <cell r="A29" t="str">
-            <v>NV</v>
-          </cell>
           <cell r="B29">
             <v>6</v>
           </cell>
           <cell r="C29">
-            <v>0.38852756071000638</v>
+            <v>0.39843367583041944</v>
           </cell>
           <cell r="D29">
-            <v>0.61147243928999362</v>
+            <v>0.60156632416958056</v>
           </cell>
           <cell r="E29">
-            <v>55.736219644996808</v>
+            <v>50.783162084790277</v>
           </cell>
           <cell r="F29">
-            <v>194.26378035500318</v>
+            <v>199.21683791520974</v>
           </cell>
           <cell r="G29">
             <v>6</v>
@@ -959,23 +1389,20 @@
           </cell>
         </row>
         <row r="30">
-          <cell r="A30" t="str">
-            <v>NH</v>
-          </cell>
           <cell r="B30">
             <v>4</v>
           </cell>
           <cell r="C30">
-            <v>0.3528346478092676</v>
+            <v>0.36568544695139188</v>
           </cell>
           <cell r="D30">
-            <v>0.64716535219073235</v>
+            <v>0.63431455304860807</v>
           </cell>
           <cell r="E30">
-            <v>73.582676095366196</v>
+            <v>67.157276524304052</v>
           </cell>
           <cell r="F30">
-            <v>176.4173239046338</v>
+            <v>182.84272347569595</v>
           </cell>
           <cell r="G30">
             <v>4</v>
@@ -988,23 +1415,20 @@
           </cell>
         </row>
         <row r="31">
-          <cell r="A31" t="str">
-            <v>NJ</v>
-          </cell>
           <cell r="B31">
             <v>14</v>
           </cell>
           <cell r="C31">
-            <v>8.3469039495048969E-2</v>
+            <v>0.10623061695858292</v>
           </cell>
           <cell r="D31">
-            <v>0.91653096050495098</v>
+            <v>0.89376938304141706</v>
           </cell>
           <cell r="E31">
-            <v>208.26548025247553</v>
+            <v>196.88469152070854</v>
           </cell>
           <cell r="F31">
-            <v>41.734519747524473</v>
+            <v>53.115308479291457</v>
           </cell>
           <cell r="G31">
             <v>14</v>
@@ -1017,23 +1441,20 @@
           </cell>
         </row>
         <row r="32">
-          <cell r="A32" t="str">
-            <v>NM</v>
-          </cell>
           <cell r="B32">
             <v>5</v>
           </cell>
           <cell r="C32">
-            <v>0.15793786555229311</v>
+            <v>0.18163701968590681</v>
           </cell>
           <cell r="D32">
-            <v>0.84206213444770683</v>
+            <v>0.81836298031409316</v>
           </cell>
           <cell r="E32">
-            <v>171.03106722385343</v>
+            <v>159.18149015704657</v>
           </cell>
           <cell r="F32">
-            <v>78.968932776146573</v>
+            <v>90.818509842953432</v>
           </cell>
           <cell r="G32">
             <v>5</v>
@@ -1046,23 +1467,20 @@
           </cell>
         </row>
         <row r="33">
-          <cell r="A33" t="str">
-            <v>NY</v>
-          </cell>
           <cell r="B33">
             <v>29</v>
           </cell>
           <cell r="C33">
-            <v>9.8013041294949272E-3</v>
+            <v>1.9189997860945596E-2</v>
           </cell>
           <cell r="D33">
-            <v>0.99019869587050502</v>
+            <v>0.98081000213905445</v>
           </cell>
           <cell r="E33">
-            <v>245.09934793525252</v>
+            <v>240.4050010695272</v>
           </cell>
           <cell r="F33">
-            <v>4.9006520647474758</v>
+            <v>9.5949989304727978</v>
           </cell>
           <cell r="G33">
             <v>29</v>
@@ -1075,23 +1493,20 @@
           </cell>
         </row>
         <row r="34">
-          <cell r="A34" t="str">
-            <v>NC</v>
-          </cell>
           <cell r="B34">
             <v>15</v>
           </cell>
           <cell r="C34">
-            <v>0.59641751135819809</v>
+            <v>0.58780030899632263</v>
           </cell>
           <cell r="D34">
-            <v>0.40358248864180191</v>
+            <v>0.41219969100367737</v>
           </cell>
           <cell r="E34">
-            <v>48.208755679099049</v>
+            <v>43.900154498161314</v>
           </cell>
           <cell r="F34">
-            <v>201.79124432090094</v>
+            <v>206.09984550183867</v>
           </cell>
           <cell r="G34">
             <v>15</v>
@@ -1104,23 +1519,20 @@
           </cell>
         </row>
         <row r="35">
-          <cell r="A35" t="str">
-            <v>ND</v>
-          </cell>
           <cell r="B35">
             <v>3</v>
           </cell>
           <cell r="C35">
-            <v>0.99985864461675167</v>
+            <v>0.99924798800491021</v>
           </cell>
           <cell r="D35">
-            <v>1.4135538324833163E-4</v>
+            <v>7.5201199508978522E-4</v>
           </cell>
           <cell r="E35">
-            <v>249.92932230837584</v>
+            <v>249.62399400245511</v>
           </cell>
           <cell r="F35">
-            <v>7.0677691624155159E-2</v>
+            <v>0.37600599754489394</v>
           </cell>
           <cell r="G35">
             <v>3</v>
@@ -1133,23 +1545,20 @@
           </cell>
         </row>
         <row r="36">
-          <cell r="A36" t="str">
-            <v>OH</v>
-          </cell>
           <cell r="B36">
             <v>18</v>
           </cell>
           <cell r="C36">
-            <v>0.73573941541912802</v>
+            <v>0.71654869406148969</v>
           </cell>
           <cell r="D36">
-            <v>0.26426058458087198</v>
+            <v>0.28345130593851031</v>
           </cell>
           <cell r="E36">
-            <v>117.86970770956403</v>
+            <v>108.27434703074483</v>
           </cell>
           <cell r="F36">
-            <v>132.13029229043599</v>
+            <v>141.72565296925518</v>
           </cell>
           <cell r="G36">
             <v>18</v>
@@ -1162,23 +1571,20 @@
           </cell>
         </row>
         <row r="37">
-          <cell r="A37" t="str">
-            <v>OK</v>
-          </cell>
           <cell r="B37">
             <v>7</v>
           </cell>
           <cell r="C37">
-            <v>0.99979608950423704</v>
+            <v>0.99903751943119845</v>
           </cell>
           <cell r="D37">
-            <v>2.0391049576296005E-4</v>
+            <v>9.624805688015492E-4</v>
           </cell>
           <cell r="E37">
-            <v>249.89804475211849</v>
+            <v>249.51875971559923</v>
           </cell>
           <cell r="F37">
-            <v>0.10195524788150578</v>
+            <v>0.48124028440076927</v>
           </cell>
           <cell r="G37">
             <v>7</v>
@@ -1191,23 +1597,20 @@
           </cell>
         </row>
         <row r="38">
-          <cell r="A38" t="str">
-            <v>OR</v>
-          </cell>
           <cell r="B38">
             <v>7</v>
           </cell>
           <cell r="C38">
-            <v>0.11605477687348385</v>
+            <v>0.13986526897532298</v>
           </cell>
           <cell r="D38">
-            <v>0.88394522312651613</v>
+            <v>0.86013473102467697</v>
           </cell>
           <cell r="E38">
-            <v>191.97261156325806</v>
+            <v>180.06736551233851</v>
           </cell>
           <cell r="F38">
-            <v>58.027388436741944</v>
+            <v>69.932634487661488</v>
           </cell>
           <cell r="G38">
             <v>7</v>
@@ -1220,23 +1623,20 @@
           </cell>
         </row>
         <row r="39">
-          <cell r="A39" t="str">
-            <v>PA</v>
-          </cell>
           <cell r="B39">
             <v>20</v>
           </cell>
           <cell r="C39">
-            <v>0.43798264829714662</v>
+            <v>0.44358136102356804</v>
           </cell>
           <cell r="D39">
-            <v>0.56201735170285338</v>
+            <v>0.55641863897643196</v>
           </cell>
           <cell r="E39">
-            <v>31.008675851426691</v>
+            <v>28.209319488215979</v>
           </cell>
           <cell r="F39">
-            <v>218.99132414857331</v>
+            <v>221.79068051178402</v>
           </cell>
           <cell r="G39">
             <v>20</v>
@@ -1249,23 +1649,20 @@
           </cell>
         </row>
         <row r="40">
-          <cell r="A40" t="str">
-            <v>RI</v>
-          </cell>
           <cell r="B40">
             <v>4</v>
           </cell>
           <cell r="C40">
-            <v>3.5107992366830848E-2</v>
+            <v>5.2429124252093166E-2</v>
           </cell>
           <cell r="D40">
-            <v>0.96489200763316918</v>
+            <v>0.94757087574790688</v>
           </cell>
           <cell r="E40">
-            <v>232.44600381658458</v>
+            <v>223.78543787395338</v>
           </cell>
           <cell r="F40">
-            <v>17.553996183415421</v>
+            <v>26.214562126046616</v>
           </cell>
           <cell r="G40">
             <v>4</v>
@@ -1278,23 +1675,20 @@
           </cell>
         </row>
         <row r="41">
-          <cell r="A41" t="str">
-            <v>SC</v>
-          </cell>
           <cell r="B41">
             <v>9</v>
           </cell>
           <cell r="C41">
-            <v>0.90072228203817006</v>
+            <v>0.87751328507730775</v>
           </cell>
           <cell r="D41">
-            <v>9.9277717961829937E-2</v>
+            <v>0.12248671492269225</v>
           </cell>
           <cell r="E41">
-            <v>200.36114101908504</v>
+            <v>188.75664253865386</v>
           </cell>
           <cell r="F41">
-            <v>49.638858980914961</v>
+            <v>61.243357461346136</v>
           </cell>
           <cell r="G41">
             <v>9</v>
@@ -1307,23 +1701,20 @@
           </cell>
         </row>
         <row r="42">
-          <cell r="A42" t="str">
-            <v>SD</v>
-          </cell>
           <cell r="B42">
             <v>3</v>
           </cell>
           <cell r="C42">
-            <v>0.99898386963031127</v>
+            <v>0.99653884438293605</v>
           </cell>
           <cell r="D42">
-            <v>1.0161303696887281E-3</v>
+            <v>3.461155617063949E-3</v>
           </cell>
           <cell r="E42">
-            <v>249.49193481515564</v>
+            <v>248.26942219146804</v>
           </cell>
           <cell r="F42">
-            <v>0.50806518484435514</v>
+            <v>1.7305778085319616</v>
           </cell>
           <cell r="G42">
             <v>3</v>
@@ -1336,23 +1727,20 @@
           </cell>
         </row>
         <row r="43">
-          <cell r="A43" t="str">
-            <v>TN</v>
-          </cell>
           <cell r="B43">
             <v>11</v>
           </cell>
           <cell r="C43">
-            <v>0.99431470779597542</v>
+            <v>0.98717680189582446</v>
           </cell>
           <cell r="D43">
-            <v>5.6852922040245835E-3</v>
+            <v>1.2823198104175537E-2</v>
           </cell>
           <cell r="E43">
-            <v>247.15735389798769</v>
+            <v>243.58840094791222</v>
           </cell>
           <cell r="F43">
-            <v>2.8426461020123099</v>
+            <v>6.4115990520877801</v>
           </cell>
           <cell r="G43">
             <v>11</v>
@@ -1365,23 +1753,20 @@
           </cell>
         </row>
         <row r="44">
-          <cell r="A44" t="str">
-            <v>TX</v>
-          </cell>
           <cell r="B44">
             <v>38</v>
           </cell>
           <cell r="C44">
-            <v>0.82593847449697844</v>
+            <v>0.8027732355937196</v>
           </cell>
           <cell r="D44">
-            <v>0.17406152550302156</v>
+            <v>0.1972267644062804</v>
           </cell>
           <cell r="E44">
-            <v>162.96923724848921</v>
+            <v>151.38661779685981</v>
           </cell>
           <cell r="F44">
-            <v>87.030762751510792</v>
+            <v>98.613382203140191</v>
           </cell>
           <cell r="G44">
             <v>38</v>
@@ -1394,23 +1779,20 @@
           </cell>
         </row>
         <row r="45">
-          <cell r="A45" t="str">
-            <v>UT</v>
-          </cell>
           <cell r="B45">
             <v>6</v>
           </cell>
           <cell r="C45">
-            <v>0.99933598651032085</v>
+            <v>0.99751195589779007</v>
           </cell>
           <cell r="D45">
-            <v>6.6401348967914942E-4</v>
+            <v>2.4880441022099298E-3</v>
           </cell>
           <cell r="E45">
-            <v>249.66799325516041</v>
+            <v>248.75597794889504</v>
           </cell>
           <cell r="F45">
-            <v>0.33200674483958892</v>
+            <v>1.2440220511049631</v>
           </cell>
           <cell r="G45">
             <v>6</v>
@@ -1423,23 +1805,20 @@
           </cell>
         </row>
         <row r="46">
-          <cell r="A46" t="str">
-            <v>VT</v>
-          </cell>
           <cell r="B46">
             <v>3</v>
           </cell>
           <cell r="C46">
-            <v>1.4184774663763479E-4</v>
+            <v>7.5305270719718128E-4</v>
           </cell>
           <cell r="D46">
-            <v>0.99985815225336239</v>
+            <v>0.99924694729280283</v>
           </cell>
           <cell r="E46">
-            <v>249.9290761266812</v>
+            <v>249.62347364640141</v>
           </cell>
           <cell r="F46">
-            <v>7.0923873318804453E-2</v>
+            <v>0.37652635359859232</v>
           </cell>
           <cell r="G46">
             <v>3</v>
@@ -1452,23 +1831,20 @@
           </cell>
         </row>
         <row r="47">
-          <cell r="A47" t="str">
-            <v>VA</v>
-          </cell>
           <cell r="B47">
             <v>13</v>
           </cell>
           <cell r="C47">
-            <v>0.25794884591717704</v>
+            <v>0.27753296112237857</v>
           </cell>
           <cell r="D47">
-            <v>0.74205115408282296</v>
+            <v>0.72246703887762143</v>
           </cell>
           <cell r="E47">
-            <v>121.02557704141148</v>
+            <v>111.23351943881073</v>
           </cell>
           <cell r="F47">
-            <v>128.97442295858852</v>
+            <v>138.76648056118927</v>
           </cell>
           <cell r="G47">
             <v>13</v>
@@ -1481,23 +1857,20 @@
           </cell>
         </row>
         <row r="48">
-          <cell r="A48" t="str">
-            <v>WA</v>
-          </cell>
           <cell r="B48">
             <v>12</v>
           </cell>
           <cell r="C48">
-            <v>6.9982594671904819E-2</v>
+            <v>9.1732923464213675E-2</v>
           </cell>
           <cell r="D48">
-            <v>0.93001740532809518</v>
+            <v>0.90826707653578631</v>
           </cell>
           <cell r="E48">
-            <v>215.00870266404758</v>
+            <v>204.13353826789313</v>
           </cell>
           <cell r="F48">
-            <v>34.991297335952424</v>
+            <v>45.86646173210687</v>
           </cell>
           <cell r="G48">
             <v>12</v>
@@ -1510,23 +1883,20 @@
           </cell>
         </row>
         <row r="49">
-          <cell r="A49" t="str">
-            <v>WV</v>
-          </cell>
           <cell r="B49">
             <v>5</v>
           </cell>
           <cell r="C49">
-            <v>0.99976103479613976</v>
+            <v>0.99891018720365632</v>
           </cell>
           <cell r="D49">
-            <v>2.3896520386024189E-4</v>
+            <v>1.089812796343681E-3</v>
           </cell>
           <cell r="E49">
-            <v>249.88051739806986</v>
+            <v>249.4550936018282</v>
           </cell>
           <cell r="F49">
-            <v>0.11948260193014448</v>
+            <v>0.54490639817180408</v>
           </cell>
           <cell r="G49">
             <v>5</v>
@@ -1539,23 +1909,20 @@
           </cell>
         </row>
         <row r="50">
-          <cell r="A50" t="str">
-            <v>WI</v>
-          </cell>
           <cell r="B50">
             <v>10</v>
           </cell>
           <cell r="C50">
-            <v>0.48461047248202133</v>
+            <v>0.4860089193294459</v>
           </cell>
           <cell r="D50">
-            <v>0.51538952751797873</v>
+            <v>0.5139910806705541</v>
           </cell>
           <cell r="E50">
-            <v>7.6947637589893372</v>
+            <v>6.9955403352770507</v>
           </cell>
           <cell r="F50">
-            <v>242.30523624101068</v>
+            <v>243.00445966472296</v>
           </cell>
           <cell r="G50">
             <v>10</v>
@@ -1568,23 +1935,20 @@
           </cell>
         </row>
         <row r="51">
-          <cell r="A51" t="str">
-            <v>WY</v>
-          </cell>
           <cell r="B51">
             <v>3</v>
           </cell>
           <cell r="C51">
-            <v>0.99999989362532282</v>
+            <v>0.99999704169522574</v>
           </cell>
           <cell r="D51">
-            <v>1.0637467717788951E-7</v>
+            <v>2.9583047742587354E-6</v>
           </cell>
           <cell r="E51">
-            <v>249.99994681266142</v>
+            <v>249.99852084761284</v>
           </cell>
           <cell r="F51">
-            <v>5.3187338579618881E-5</v>
+            <v>1.4791523871622303E-3</v>
           </cell>
           <cell r="G51">
             <v>3</v>
@@ -1597,23 +1961,20 @@
           </cell>
         </row>
         <row r="52">
-          <cell r="A52" t="str">
-            <v>DC</v>
-          </cell>
           <cell r="B52">
             <v>3</v>
           </cell>
           <cell r="C52">
-            <v>1.181992375897988E-17</v>
+            <v>7.2118245624597554E-14</v>
           </cell>
           <cell r="D52">
-            <v>1</v>
+            <v>0.99999999999992784</v>
           </cell>
           <cell r="E52">
-            <v>250</v>
+            <v>249.99999999996393</v>
           </cell>
           <cell r="F52">
-            <v>0</v>
+            <v>3.6067149267182685E-11</v>
           </cell>
           <cell r="G52">
             <v>3</v>
@@ -1626,23 +1987,20 @@
           </cell>
         </row>
         <row r="53">
-          <cell r="A53" t="str">
-            <v>ME1</v>
-          </cell>
           <cell r="B53">
             <v>1</v>
           </cell>
           <cell r="C53">
-            <v>6.7379199109628765E-2</v>
+            <v>8.9271322951606655E-2</v>
           </cell>
           <cell r="D53">
-            <v>0.93262080089037125</v>
+            <v>0.91072867704839333</v>
           </cell>
           <cell r="E53">
-            <v>216.31040044518562</v>
+            <v>205.36433852419665</v>
           </cell>
           <cell r="F53">
-            <v>33.689599554814379</v>
+            <v>44.635661475803346</v>
           </cell>
           <cell r="G53">
             <v>1</v>
@@ -1655,23 +2013,20 @@
           </cell>
         </row>
         <row r="54">
-          <cell r="A54" t="str">
-            <v>ME2</v>
-          </cell>
           <cell r="B54">
             <v>1</v>
           </cell>
           <cell r="C54">
-            <v>0.62047865165725047</v>
+            <v>0.60980883376140671</v>
           </cell>
           <cell r="D54">
-            <v>0.37952134834274953</v>
+            <v>0.39019116623859329</v>
           </cell>
           <cell r="E54">
-            <v>60.239325828625233</v>
+            <v>54.904416880703351</v>
           </cell>
           <cell r="F54">
-            <v>189.76067417137477</v>
+            <v>195.09558311929663</v>
           </cell>
           <cell r="G54">
             <v>1</v>
@@ -1684,23 +2039,20 @@
           </cell>
         </row>
         <row r="55">
-          <cell r="A55" t="str">
-            <v>NE1</v>
-          </cell>
           <cell r="B55">
             <v>1</v>
           </cell>
           <cell r="C55">
-            <v>0.97361826010133523</v>
+            <v>0.95790712499300013</v>
           </cell>
           <cell r="D55">
-            <v>2.6381739898664769E-2</v>
+            <v>4.2092875006999875E-2</v>
           </cell>
           <cell r="E55">
-            <v>236.80913005066762</v>
+            <v>228.95356249650004</v>
           </cell>
           <cell r="F55">
-            <v>13.190869949332381</v>
+            <v>21.046437503499959</v>
           </cell>
           <cell r="G55">
             <v>1</v>
@@ -1713,23 +2065,20 @@
           </cell>
         </row>
         <row r="56">
-          <cell r="A56" t="str">
-            <v>NE2</v>
-          </cell>
           <cell r="B56">
             <v>1</v>
           </cell>
           <cell r="C56">
-            <v>0.60101056692669497</v>
+            <v>0.59199455473588891</v>
           </cell>
           <cell r="D56">
-            <v>0.39898943307330503</v>
+            <v>0.40800544526411109</v>
           </cell>
           <cell r="E56">
-            <v>50.505283463347482</v>
+            <v>45.997277367944456</v>
           </cell>
           <cell r="F56">
-            <v>199.4947165366525</v>
+            <v>204.00272263205554</v>
           </cell>
           <cell r="G56">
             <v>1</v>
@@ -1742,23 +2091,20 @@
           </cell>
         </row>
         <row r="57">
-          <cell r="A57" t="str">
-            <v>NE3</v>
-          </cell>
           <cell r="B57">
             <v>1</v>
           </cell>
           <cell r="C57">
-            <v>0.99999986012884345</v>
+            <v>0.99999687482924493</v>
           </cell>
           <cell r="D57">
-            <v>1.3987115654590099E-7</v>
+            <v>3.1251707550694618E-6</v>
           </cell>
           <cell r="E57">
-            <v>249.99993006442173</v>
+            <v>249.99843741462246</v>
           </cell>
           <cell r="F57">
-            <v>6.9935578267177334E-5</v>
+            <v>1.5625853775418364E-3</v>
           </cell>
           <cell r="G57">
             <v>1</v>
@@ -1771,7 +2117,288 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="N2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="N3">
+            <v>5.0000000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="N4">
+            <v>6.9750000000000006E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="N7">
+            <v>1.745E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="N8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="N9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="N10">
+            <v>0.108</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="N11">
+            <v>2.75E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="N12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="N13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="N14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="N15">
+            <v>2.0000000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="N16">
+            <v>4.4400000000000002E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="N17">
+            <v>1.4999999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="N18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="N19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="N20">
+            <v>3.2649999999999998E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="N21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="N22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="N23">
+            <v>7.0949999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="N24">
+            <v>3.9899999999999998E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="N25">
+            <v>4.4999999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="N26">
+            <v>2.5000000000000001E-4</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="N27">
+            <v>5.9999999999999995E-4</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="N28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="N29">
+            <v>8.4849999999999995E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="N30">
+            <v>7.0550000000000002E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="N31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="N32">
+            <v>1.65E-3</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="N33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="N34">
+            <v>8.7400000000000005E-2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="N35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="N36">
+            <v>1.89E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="N37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="N38">
+            <v>1E-4</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="N39">
+            <v>9.7299999999999998E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="N40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="N41">
+            <v>6.9999999999999999E-4</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="N42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="N43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="N44">
+            <v>4.5500000000000002E-3</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="N45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="N46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="N47">
+            <v>1.555E-2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="N48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="N49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="N50">
+            <v>0.12035</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="N51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="N52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="N53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="N54">
+            <v>4.1399999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="N55">
+            <v>5.0000000000000002E-5</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="N56">
+            <v>4.3900000000000002E-2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="N57">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
@@ -2084,13 +2711,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7649265-3E81-1C49-BA70-C3ABF2543A49}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="4" max="7" width="10.83203125" style="1"/>
+    <col min="3" max="6" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2098,2335 +2725,4115 @@
         <f>[1]Sheet1!A1</f>
         <v>state</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="str">
+      <c r="B1" t="str">
         <f>[1]Sheet1!B1</f>
         <v>electoralVotes</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="C1" s="1" t="str">
         <f>[1]Sheet1!C1</f>
         <v>gopWin</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="D1" s="1" t="str">
         <f>[1]Sheet1!D1</f>
         <v>demWin</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="E1" s="1" t="str">
         <f>[1]Sheet1!E1</f>
         <v>winHeight</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="F1" s="1" t="str">
         <f>[1]Sheet1!F1</f>
         <v>winY</v>
       </c>
-      <c r="H1" t="str">
+      <c r="G1" t="str">
         <f>[1]Sheet1!G1</f>
         <v>evWidth</v>
       </c>
-      <c r="I1" t="str">
+      <c r="H1" t="str">
         <f>[1]Sheet1!I1</f>
         <v>evX</v>
       </c>
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="str">
-        <f>[1]Sheet1!A2</f>
-        <v>AL</v>
+      <c r="A2" t="s">
+        <v>99</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
         <f>[1]Sheet1!B2</f>
         <v>9</v>
       </c>
+      <c r="C2" s="2">
+        <f ca="1">INT([1]Sheet1!C2*1000)/10</f>
+        <v>99.3</v>
+      </c>
       <c r="D2" s="2">
-        <f ca="1">INT([1]Sheet1!C2*1000)/10</f>
-        <v>99.7</v>
-      </c>
-      <c r="E2" s="2">
         <f ca="1">INT([1]Sheet1!D2*1000)/10</f>
-        <v>0.2</v>
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="1">
+        <f ca="1">[1]Sheet1!E2</f>
+        <v>246.9949071616484</v>
       </c>
       <c r="F2" s="1">
-        <f ca="1">[1]Sheet1!E2</f>
-        <v>248.95833773627606</v>
-      </c>
-      <c r="G2" s="1">
         <f ca="1">[1]Sheet1!F2</f>
-        <v>1.0416622637239357</v>
-      </c>
-      <c r="H2">
+        <v>3.0050928383516009</v>
+      </c>
+      <c r="G2">
         <f>[1]Sheet1!G2</f>
         <v>9</v>
       </c>
-      <c r="I2">
+      <c r="H2">
         <f ca="1">[1]Sheet1!I2</f>
         <v>483</v>
       </c>
-      <c r="J2">
+      <c r="I2">
         <f ca="1">[1]Sheet1!J2</f>
         <v>487.5</v>
       </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" t="str">
-        <f>[1]Sheet1!A3</f>
-        <v>AK</v>
+      <c r="A3" t="s">
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
         <f>[1]Sheet1!B3</f>
         <v>3</v>
       </c>
+      <c r="C3" s="2">
+        <f ca="1">INT([1]Sheet1!C3*1000)/10</f>
+        <v>87.6</v>
+      </c>
       <c r="D3" s="2">
-        <f ca="1">INT([1]Sheet1!C3*1000)/10</f>
-        <v>90</v>
-      </c>
-      <c r="E3" s="2">
         <f ca="1">INT([1]Sheet1!D3*1000)/10</f>
-        <v>9.9</v>
+        <v>12.3</v>
+      </c>
+      <c r="E3" s="1">
+        <f ca="1">[1]Sheet1!E3</f>
+        <v>188.4552780901183</v>
       </c>
       <c r="F3" s="1">
-        <f ca="1">[1]Sheet1!E3</f>
-        <v>200.08306938922331</v>
-      </c>
-      <c r="G3" s="1">
         <f ca="1">[1]Sheet1!F3</f>
-        <v>49.916930610776689</v>
-      </c>
-      <c r="H3">
+        <v>61.544721909881702</v>
+      </c>
+      <c r="G3">
         <f>[1]Sheet1!G3</f>
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="H3">
         <f ca="1">[1]Sheet1!I3</f>
         <v>413</v>
       </c>
-      <c r="J3">
+      <c r="I3">
         <f ca="1">[1]Sheet1!J3</f>
         <v>414.5</v>
       </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="str">
-        <f>[1]Sheet1!A4</f>
-        <v>AZ</v>
+      <c r="A4" t="s">
+        <v>101</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
         <f>[1]Sheet1!B4</f>
         <v>11</v>
       </c>
+      <c r="C4" s="2">
+        <f ca="1">INT([1]Sheet1!C4*1000)/10</f>
+        <v>59.8</v>
+      </c>
       <c r="D4" s="2">
-        <f ca="1">INT([1]Sheet1!C4*1000)/10</f>
-        <v>60.8</v>
-      </c>
-      <c r="E4" s="2">
         <f ca="1">INT([1]Sheet1!D4*1000)/10</f>
-        <v>39.1</v>
+        <v>40.1</v>
+      </c>
+      <c r="E4" s="1">
+        <f ca="1">[1]Sheet1!E4</f>
+        <v>49.339400394133762</v>
       </c>
       <c r="F4" s="1">
-        <f ca="1">[1]Sheet1!E4</f>
-        <v>54.157992161538878</v>
-      </c>
-      <c r="G4" s="1">
         <f ca="1">[1]Sheet1!F4</f>
-        <v>195.84200783846111</v>
-      </c>
-      <c r="H4">
+        <v>200.66059960586625</v>
+      </c>
+      <c r="G4">
         <f>[1]Sheet1!G4</f>
         <v>11</v>
       </c>
-      <c r="I4">
+      <c r="H4">
         <f ca="1">[1]Sheet1!I4</f>
         <v>323</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <f ca="1">[1]Sheet1!J4</f>
         <v>328.5</v>
       </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="str">
-        <f>[1]Sheet1!A5</f>
-        <v>AR</v>
+      <c r="A5" t="s">
+        <v>102</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
         <f>[1]Sheet1!B5</f>
         <v>6</v>
       </c>
+      <c r="C5" s="2">
+        <f ca="1">INT([1]Sheet1!C5*1000)/10</f>
+        <v>99.5</v>
+      </c>
       <c r="D5" s="2">
-        <f ca="1">INT([1]Sheet1!C5*1000)/10</f>
-        <v>99.8</v>
-      </c>
-      <c r="E5" s="2">
         <f ca="1">INT([1]Sheet1!D5*1000)/10</f>
-        <v>0.1</v>
+        <v>0.4</v>
+      </c>
+      <c r="E5" s="1">
+        <f ca="1">[1]Sheet1!E5</f>
+        <v>247.71925174240556</v>
       </c>
       <c r="F5" s="1">
-        <f ca="1">[1]Sheet1!E5</f>
-        <v>249.26000372098605</v>
-      </c>
-      <c r="G5" s="1">
         <f ca="1">[1]Sheet1!F5</f>
-        <v>0.73999627901395115</v>
-      </c>
-      <c r="H5">
+        <v>2.2807482575944391</v>
+      </c>
+      <c r="G5">
         <f>[1]Sheet1!G5</f>
         <v>6</v>
       </c>
-      <c r="I5">
+      <c r="H5">
         <f ca="1">[1]Sheet1!I5</f>
         <v>500</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <f ca="1">[1]Sheet1!J5</f>
         <v>503</v>
       </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="str">
-        <f>[1]Sheet1!A6</f>
-        <v>CA</v>
+      <c r="A6" t="s">
+        <v>103</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
         <f>[1]Sheet1!B6</f>
         <v>55</v>
       </c>
-      <c r="D6" s="2">
+      <c r="C6" s="2">
         <f ca="1">INT([1]Sheet1!C6*1000)/10</f>
         <v>0</v>
       </c>
-      <c r="E6" s="2">
+      <c r="D6" s="2">
         <f ca="1">INT([1]Sheet1!D6*1000)/10</f>
         <v>99.9</v>
       </c>
+      <c r="E6" s="1">
+        <f ca="1">[1]Sheet1!E6</f>
+        <v>249.97377828791002</v>
+      </c>
       <c r="F6" s="1">
-        <f ca="1">[1]Sheet1!E6</f>
-        <v>249.99846889199856</v>
-      </c>
-      <c r="G6" s="1">
         <f ca="1">[1]Sheet1!F6</f>
-        <v>1.5311080014441814E-3</v>
-      </c>
-      <c r="H6">
+        <v>2.62217120899777E-2</v>
+      </c>
+      <c r="G6">
         <f>[1]Sheet1!G6</f>
         <v>55</v>
       </c>
-      <c r="I6">
+      <c r="H6">
         <f ca="1">[1]Sheet1!I6</f>
         <v>3</v>
       </c>
-      <c r="J6">
+      <c r="I6">
         <f ca="1">[1]Sheet1!J6</f>
         <v>30.5</v>
       </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" t="str">
-        <f>[1]Sheet1!A7</f>
-        <v>CO</v>
+      <c r="A7" t="s">
+        <v>104</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
         <f>[1]Sheet1!B7</f>
         <v>9</v>
       </c>
+      <c r="C7" s="2">
+        <f ca="1">INT([1]Sheet1!C7*1000)/10</f>
+        <v>27.4</v>
+      </c>
       <c r="D7" s="2">
-        <f ca="1">INT([1]Sheet1!C7*1000)/10</f>
-        <v>25.5</v>
-      </c>
-      <c r="E7" s="2">
         <f ca="1">INT([1]Sheet1!D7*1000)/10</f>
-        <v>74.400000000000006</v>
+        <v>72.5</v>
+      </c>
+      <c r="E7" s="1">
+        <f ca="1">[1]Sheet1!E7</f>
+        <v>112.57796395177495</v>
       </c>
       <c r="F7" s="1">
-        <f ca="1">[1]Sheet1!E7</f>
-        <v>122.46054016941738</v>
-      </c>
-      <c r="G7" s="1">
         <f ca="1">[1]Sheet1!F7</f>
-        <v>127.53945983058262</v>
-      </c>
-      <c r="H7">
+        <v>137.42203604822504</v>
+      </c>
+      <c r="G7">
         <f>[1]Sheet1!G7</f>
         <v>9</v>
       </c>
-      <c r="I7">
+      <c r="H7">
         <f ca="1">[1]Sheet1!I7</f>
         <v>188</v>
       </c>
-      <c r="J7">
+      <c r="I7">
         <f ca="1">[1]Sheet1!J7</f>
         <v>192.5</v>
       </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="str">
-        <f>[1]Sheet1!A8</f>
-        <v>CT</v>
+      <c r="A8" t="s">
+        <v>105</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
         <f>[1]Sheet1!B8</f>
         <v>7</v>
       </c>
+      <c r="C8" s="2">
+        <f ca="1">INT([1]Sheet1!C8*1000)/10</f>
+        <v>10</v>
+      </c>
       <c r="D8" s="2">
-        <f ca="1">INT([1]Sheet1!C8*1000)/10</f>
-        <v>7.8</v>
-      </c>
-      <c r="E8" s="2">
         <f ca="1">INT([1]Sheet1!D8*1000)/10</f>
-        <v>92.1</v>
+        <v>89.9</v>
+      </c>
+      <c r="E8" s="1">
+        <f ca="1">[1]Sheet1!E8</f>
+        <v>199.55958606394972</v>
       </c>
       <c r="F8" s="1">
-        <f ca="1">[1]Sheet1!E8</f>
-        <v>210.77360560365995</v>
-      </c>
-      <c r="G8" s="1">
         <f ca="1">[1]Sheet1!F8</f>
-        <v>39.226394396340055</v>
-      </c>
-      <c r="H8">
+        <v>50.440413936050277</v>
+      </c>
+      <c r="G8">
         <f>[1]Sheet1!G8</f>
         <v>7</v>
       </c>
-      <c r="I8">
+      <c r="H8">
         <f ca="1">[1]Sheet1!I8</f>
         <v>155</v>
       </c>
-      <c r="J8">
+      <c r="I8">
         <f ca="1">[1]Sheet1!J8</f>
         <v>158.5</v>
       </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" t="str">
-        <f>[1]Sheet1!A9</f>
-        <v>DE</v>
+      <c r="A9" t="s">
+        <v>106</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
         <f>[1]Sheet1!B9</f>
         <v>3</v>
       </c>
+      <c r="C9" s="2">
+        <f ca="1">INT([1]Sheet1!C9*1000)/10</f>
+        <v>9.1999999999999993</v>
+      </c>
       <c r="D9" s="2">
-        <f ca="1">INT([1]Sheet1!C9*1000)/10</f>
-        <v>7</v>
-      </c>
-      <c r="E9" s="2">
         <f ca="1">INT([1]Sheet1!D9*1000)/10</f>
-        <v>92.9</v>
+        <v>90.7</v>
+      </c>
+      <c r="E9" s="1">
+        <f ca="1">[1]Sheet1!E9</f>
+        <v>203.99225394935891</v>
       </c>
       <c r="F9" s="1">
-        <f ca="1">[1]Sheet1!E9</f>
-        <v>214.8527388920933</v>
-      </c>
-      <c r="G9" s="1">
         <f ca="1">[1]Sheet1!F9</f>
-        <v>35.147261107906701</v>
-      </c>
-      <c r="H9">
+        <v>46.007746050641089</v>
+      </c>
+      <c r="G9">
         <f>[1]Sheet1!G9</f>
         <v>3</v>
       </c>
-      <c r="I9">
+      <c r="H9">
         <f ca="1">[1]Sheet1!I9</f>
         <v>152</v>
       </c>
-      <c r="J9">
+      <c r="I9">
         <f ca="1">[1]Sheet1!J9</f>
         <v>153.5</v>
       </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="str">
-        <f>[1]Sheet1!A10</f>
-        <v>FL</v>
+      <c r="A10" t="s">
+        <v>107</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
         <f>[1]Sheet1!B10</f>
         <v>29</v>
       </c>
+      <c r="C10" s="2">
+        <f ca="1">INT([1]Sheet1!C10*1000)/10</f>
+        <v>53.6</v>
+      </c>
       <c r="D10" s="2">
-        <f ca="1">INT([1]Sheet1!C10*1000)/10</f>
-        <v>54</v>
-      </c>
-      <c r="E10" s="2">
         <f ca="1">INT([1]Sheet1!D10*1000)/10</f>
-        <v>45.9</v>
+        <v>46.3</v>
+      </c>
+      <c r="E10" s="1">
+        <f ca="1">[1]Sheet1!E10</f>
+        <v>18.491687640346811</v>
       </c>
       <c r="F10" s="1">
-        <f ca="1">[1]Sheet1!E10</f>
-        <v>20.334771503109472</v>
-      </c>
-      <c r="G10" s="1">
         <f ca="1">[1]Sheet1!F10</f>
-        <v>229.66522849689053</v>
-      </c>
-      <c r="H10">
+        <v>231.50831235965319</v>
+      </c>
+      <c r="G10">
         <f>[1]Sheet1!G10</f>
         <v>29</v>
       </c>
-      <c r="I10">
+      <c r="H10">
         <f ca="1">[1]Sheet1!I10</f>
         <v>278</v>
       </c>
-      <c r="J10">
+      <c r="I10">
         <f ca="1">[1]Sheet1!J10</f>
         <v>292.5</v>
       </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" t="str">
-        <f>[1]Sheet1!A11</f>
-        <v>GA</v>
+      <c r="A11" t="s">
+        <v>108</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
         <f>[1]Sheet1!B11</f>
         <v>16</v>
       </c>
+      <c r="C11" s="2">
+        <f ca="1">INT([1]Sheet1!C11*1000)/10</f>
+        <v>68.3</v>
+      </c>
       <c r="D11" s="2">
-        <f ca="1">INT([1]Sheet1!C11*1000)/10</f>
-        <v>70</v>
-      </c>
-      <c r="E11" s="2">
         <f ca="1">INT([1]Sheet1!D11*1000)/10</f>
-        <v>29.9</v>
+        <v>31.6</v>
+      </c>
+      <c r="E11" s="1">
+        <f ca="1">[1]Sheet1!E11</f>
+        <v>91.79154763225938</v>
       </c>
       <c r="F11" s="1">
-        <f ca="1">[1]Sheet1!E11</f>
-        <v>100.22444775503625</v>
-      </c>
-      <c r="G11" s="1">
         <f ca="1">[1]Sheet1!F11</f>
-        <v>149.77555224496376</v>
-      </c>
-      <c r="H11">
+        <v>158.20845236774062</v>
+      </c>
+      <c r="G11">
         <f>[1]Sheet1!G11</f>
         <v>16</v>
       </c>
-      <c r="I11">
+      <c r="H11">
         <f ca="1">[1]Sheet1!I11</f>
         <v>341</v>
       </c>
-      <c r="J11">
+      <c r="I11">
         <f ca="1">[1]Sheet1!J11</f>
         <v>349</v>
       </c>
+      <c r="J11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" t="str">
-        <f>[1]Sheet1!A12</f>
-        <v>HI</v>
+      <c r="A12" t="s">
+        <v>109</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
         <f>[1]Sheet1!B12</f>
         <v>4</v>
       </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2">
         <f ca="1">INT([1]Sheet1!C12*1000)/10</f>
         <v>0</v>
       </c>
-      <c r="E12" s="2">
+      <c r="D12" s="2">
         <f ca="1">INT([1]Sheet1!D12*1000)/10</f>
         <v>99.9</v>
       </c>
+      <c r="E12" s="1">
+        <f ca="1">[1]Sheet1!E12</f>
+        <v>249.95718657523764</v>
+      </c>
       <c r="F12" s="1">
-        <f ca="1">[1]Sheet1!E12</f>
-        <v>249.99569229287778</v>
-      </c>
-      <c r="G12" s="1">
         <f ca="1">[1]Sheet1!F12</f>
-        <v>4.3077071222228369E-3</v>
-      </c>
-      <c r="H12">
+        <v>4.2813424762357499E-2</v>
+      </c>
+      <c r="G12">
         <f>[1]Sheet1!G12</f>
         <v>4</v>
       </c>
-      <c r="I12">
+      <c r="H12">
         <f ca="1">[1]Sheet1!I12</f>
         <v>58</v>
       </c>
-      <c r="J12">
+      <c r="I12">
         <f ca="1">[1]Sheet1!J12</f>
         <v>60</v>
       </c>
+      <c r="J12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" t="str">
-        <f>[1]Sheet1!A13</f>
-        <v>ID</v>
+      <c r="A13" t="s">
+        <v>110</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
         <f>[1]Sheet1!B13</f>
         <v>4</v>
       </c>
+      <c r="C13" s="2">
+        <f ca="1">INT([1]Sheet1!C13*1000)/10</f>
+        <v>99.8</v>
+      </c>
       <c r="D13" s="2">
-        <f ca="1">INT([1]Sheet1!C13*1000)/10</f>
-        <v>99.9</v>
-      </c>
-      <c r="E13" s="2">
         <f ca="1">INT([1]Sheet1!D13*1000)/10</f>
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="1">
+        <f ca="1">[1]Sheet1!E13</f>
+        <v>249.3081593213108</v>
       </c>
       <c r="F13" s="1">
-        <f ca="1">[1]Sheet1!E13</f>
-        <v>249.83846439133819</v>
-      </c>
-      <c r="G13" s="1">
         <f ca="1">[1]Sheet1!F13</f>
-        <v>0.16153560866180783</v>
-      </c>
-      <c r="H13">
+        <v>0.69184067868920351</v>
+      </c>
+      <c r="G13">
         <f>[1]Sheet1!G13</f>
         <v>4</v>
       </c>
-      <c r="I13">
+      <c r="H13">
         <f ca="1">[1]Sheet1!I13</f>
         <v>515</v>
       </c>
-      <c r="J13">
+      <c r="I13">
         <f ca="1">[1]Sheet1!J13</f>
         <v>517</v>
       </c>
+      <c r="J13" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" t="str">
-        <f>[1]Sheet1!A14</f>
-        <v>IL</v>
+      <c r="A14" t="s">
+        <v>111</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
         <f>[1]Sheet1!B14</f>
         <v>20</v>
       </c>
+      <c r="C14" s="2">
+        <f ca="1">INT([1]Sheet1!C14*1000)/10</f>
+        <v>7.7</v>
+      </c>
       <c r="D14" s="2">
-        <f ca="1">INT([1]Sheet1!C14*1000)/10</f>
-        <v>5.7</v>
-      </c>
-      <c r="E14" s="2">
         <f ca="1">INT([1]Sheet1!D14*1000)/10</f>
-        <v>94.2</v>
+        <v>92.2</v>
+      </c>
+      <c r="E14" s="1">
+        <f ca="1">[1]Sheet1!E14</f>
+        <v>211.03935277622602</v>
       </c>
       <c r="F14" s="1">
-        <f ca="1">[1]Sheet1!E14</f>
-        <v>221.26856385779911</v>
-      </c>
-      <c r="G14" s="1">
         <f ca="1">[1]Sheet1!F14</f>
-        <v>28.731436142200891</v>
-      </c>
-      <c r="H14">
+        <v>38.960647223773975</v>
+      </c>
+      <c r="G14">
         <f>[1]Sheet1!G14</f>
         <v>20</v>
       </c>
-      <c r="I14">
+      <c r="H14">
         <f ca="1">[1]Sheet1!I14</f>
         <v>119</v>
       </c>
-      <c r="J14">
+      <c r="I14">
         <f ca="1">[1]Sheet1!J14</f>
         <v>129</v>
       </c>
+      <c r="J14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" t="str">
-        <f>[1]Sheet1!A15</f>
-        <v>IN</v>
+      <c r="A15" t="s">
+        <v>112</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
         <f>[1]Sheet1!B15</f>
         <v>11</v>
       </c>
+      <c r="C15" s="2">
+        <f ca="1">INT([1]Sheet1!C15*1000)/10</f>
+        <v>91.3</v>
+      </c>
       <c r="D15" s="2">
-        <f ca="1">INT([1]Sheet1!C15*1000)/10</f>
-        <v>93.4</v>
-      </c>
-      <c r="E15" s="2">
         <f ca="1">INT([1]Sheet1!D15*1000)/10</f>
-        <v>6.5</v>
+        <v>8.6</v>
+      </c>
+      <c r="E15" s="1">
+        <f ca="1">[1]Sheet1!E15</f>
+        <v>206.75312493842938</v>
       </c>
       <c r="F15" s="1">
-        <f ca="1">[1]Sheet1!E15</f>
-        <v>217.37678200420748</v>
-      </c>
-      <c r="G15" s="1">
         <f ca="1">[1]Sheet1!F15</f>
-        <v>32.623217995792515</v>
-      </c>
-      <c r="H15">
+        <v>43.24687506157062</v>
+      </c>
+      <c r="G15">
         <f>[1]Sheet1!G15</f>
         <v>11</v>
       </c>
-      <c r="I15">
+      <c r="H15">
         <f ca="1">[1]Sheet1!I15</f>
         <v>444</v>
       </c>
-      <c r="J15">
+      <c r="I15">
         <f ca="1">[1]Sheet1!J15</f>
         <v>449.5</v>
       </c>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" t="str">
-        <f>[1]Sheet1!A16</f>
-        <v>IA</v>
+      <c r="A16" t="s">
+        <v>113</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
         <f>[1]Sheet1!B16</f>
         <v>6</v>
       </c>
+      <c r="C16" s="2">
+        <f ca="1">INT([1]Sheet1!C16*1000)/10</f>
+        <v>64.8</v>
+      </c>
       <c r="D16" s="2">
-        <f ca="1">INT([1]Sheet1!C16*1000)/10</f>
-        <v>66.2</v>
-      </c>
-      <c r="E16" s="2">
         <f ca="1">INT([1]Sheet1!D16*1000)/10</f>
-        <v>33.700000000000003</v>
+        <v>35.1</v>
+      </c>
+      <c r="E16" s="1">
+        <f ca="1">[1]Sheet1!E16</f>
+        <v>74.219387295328175</v>
       </c>
       <c r="F16" s="1">
-        <f ca="1">[1]Sheet1!E16</f>
-        <v>81.24749122391961</v>
-      </c>
-      <c r="G16" s="1">
         <f ca="1">[1]Sheet1!F16</f>
-        <v>168.75250877608039</v>
-      </c>
-      <c r="H16">
+        <v>175.78061270467182</v>
+      </c>
+      <c r="G16">
         <f>[1]Sheet1!G16</f>
         <v>6</v>
       </c>
-      <c r="I16">
+      <c r="H16">
         <f ca="1">[1]Sheet1!I16</f>
         <v>335</v>
       </c>
-      <c r="J16">
+      <c r="I16">
         <f ca="1">[1]Sheet1!J16</f>
         <v>338</v>
       </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" t="str">
-        <f>[1]Sheet1!A17</f>
-        <v>KS</v>
+      <c r="A17" t="s">
+        <v>114</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
         <f>[1]Sheet1!B17</f>
         <v>6</v>
       </c>
+      <c r="C17" s="2">
+        <f ca="1">INT([1]Sheet1!C17*1000)/10</f>
+        <v>93.8</v>
+      </c>
       <c r="D17" s="2">
-        <f ca="1">INT([1]Sheet1!C17*1000)/10</f>
-        <v>95.6</v>
-      </c>
-      <c r="E17" s="2">
         <f ca="1">INT([1]Sheet1!D17*1000)/10</f>
-        <v>4.3</v>
+        <v>6.1</v>
+      </c>
+      <c r="E17" s="1">
+        <f ca="1">[1]Sheet1!E17</f>
+        <v>219.07667400531662</v>
       </c>
       <c r="F17" s="1">
-        <f ca="1">[1]Sheet1!E17</f>
-        <v>228.37710197779805</v>
-      </c>
-      <c r="G17" s="1">
         <f ca="1">[1]Sheet1!F17</f>
-        <v>21.622898022201952</v>
-      </c>
-      <c r="H17">
+        <v>30.923325994683381</v>
+      </c>
+      <c r="G17">
         <f>[1]Sheet1!G17</f>
         <v>6</v>
       </c>
-      <c r="I17">
+      <c r="H17">
         <f ca="1">[1]Sheet1!I17</f>
         <v>455</v>
       </c>
-      <c r="J17">
+      <c r="I17">
         <f ca="1">[1]Sheet1!J17</f>
         <v>458</v>
       </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" t="str">
-        <f>[1]Sheet1!A18</f>
-        <v>KY</v>
+      <c r="A18" t="s">
+        <v>115</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
         <f>[1]Sheet1!B18</f>
         <v>8</v>
       </c>
+      <c r="C18" s="2">
+        <f ca="1">INT([1]Sheet1!C18*1000)/10</f>
+        <v>99.4</v>
+      </c>
       <c r="D18" s="2">
-        <f ca="1">INT([1]Sheet1!C18*1000)/10</f>
-        <v>99.8</v>
-      </c>
-      <c r="E18" s="2">
         <f ca="1">INT([1]Sheet1!D18*1000)/10</f>
-        <v>0.1</v>
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="1">
+        <f ca="1">[1]Sheet1!E18</f>
+        <v>247.10961652017053</v>
       </c>
       <c r="F18" s="1">
-        <f ca="1">[1]Sheet1!E18</f>
-        <v>249.0011792252206</v>
-      </c>
-      <c r="G18" s="1">
         <f ca="1">[1]Sheet1!F18</f>
-        <v>0.99882077477940356</v>
-      </c>
-      <c r="H18">
+        <v>2.8903834798294668</v>
+      </c>
+      <c r="G18">
         <f>[1]Sheet1!G18</f>
         <v>8</v>
       </c>
-      <c r="I18">
+      <c r="H18">
         <f ca="1">[1]Sheet1!I18</f>
         <v>492</v>
       </c>
-      <c r="J18">
+      <c r="I18">
         <f ca="1">[1]Sheet1!J18</f>
         <v>496</v>
       </c>
+      <c r="J18" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" t="str">
-        <f>[1]Sheet1!A19</f>
-        <v>LA</v>
+      <c r="A19" t="s">
+        <v>116</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
         <f>[1]Sheet1!B19</f>
         <v>8</v>
       </c>
+      <c r="C19" s="2">
+        <f ca="1">INT([1]Sheet1!C19*1000)/10</f>
+        <v>96.3</v>
+      </c>
       <c r="D19" s="2">
-        <f ca="1">INT([1]Sheet1!C19*1000)/10</f>
-        <v>97.7</v>
-      </c>
-      <c r="E19" s="2">
         <f ca="1">INT([1]Sheet1!D19*1000)/10</f>
-        <v>2.2000000000000002</v>
+        <v>3.6</v>
+      </c>
+      <c r="E19" s="1">
+        <f ca="1">[1]Sheet1!E19</f>
+        <v>231.83484587070939</v>
       </c>
       <c r="F19" s="1">
-        <f ca="1">[1]Sheet1!E19</f>
-        <v>238.95540758115635</v>
-      </c>
-      <c r="G19" s="1">
         <f ca="1">[1]Sheet1!F19</f>
-        <v>11.044592418843649</v>
-      </c>
-      <c r="H19">
+        <v>18.165154129290613</v>
+      </c>
+      <c r="G19">
         <f>[1]Sheet1!G19</f>
         <v>8</v>
       </c>
-      <c r="I19">
+      <c r="H19">
         <f ca="1">[1]Sheet1!I19</f>
         <v>462</v>
       </c>
-      <c r="J19">
+      <c r="I19">
         <f ca="1">[1]Sheet1!J19</f>
         <v>466</v>
       </c>
+      <c r="J19" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" t="str">
-        <f>[1]Sheet1!A20</f>
-        <v>ME</v>
+      <c r="A20" t="s">
+        <v>117</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
         <f>[1]Sheet1!B20</f>
         <v>2</v>
       </c>
+      <c r="C20" s="2">
+        <f ca="1">INT([1]Sheet1!C20*1000)/10</f>
+        <v>30.6</v>
+      </c>
       <c r="D20" s="2">
-        <f ca="1">INT([1]Sheet1!C20*1000)/10</f>
-        <v>28.8</v>
-      </c>
-      <c r="E20" s="2">
         <f ca="1">INT([1]Sheet1!D20*1000)/10</f>
-        <v>71.099999999999994</v>
+        <v>69.3</v>
+      </c>
+      <c r="E20" s="1">
+        <f ca="1">[1]Sheet1!E20</f>
+        <v>96.897162830323325</v>
       </c>
       <c r="F20" s="1">
-        <f ca="1">[1]Sheet1!E20</f>
-        <v>105.7160367172731</v>
-      </c>
-      <c r="G20" s="1">
         <f ca="1">[1]Sheet1!F20</f>
-        <v>144.28396328272692</v>
-      </c>
-      <c r="H20">
+        <v>153.10283716967666</v>
+      </c>
+      <c r="G20">
         <f>[1]Sheet1!G20</f>
         <v>2</v>
       </c>
-      <c r="I20">
+      <c r="H20">
         <f ca="1">[1]Sheet1!I20</f>
         <v>210</v>
       </c>
-      <c r="J20">
+      <c r="I20">
         <f ca="1">[1]Sheet1!J20</f>
         <v>211</v>
       </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" t="str">
-        <f>[1]Sheet1!A21</f>
-        <v>MD</v>
+      <c r="A21" t="s">
+        <v>118</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
         <f>[1]Sheet1!B21</f>
         <v>10</v>
       </c>
+      <c r="C21" s="2">
+        <f ca="1">INT([1]Sheet1!C21*1000)/10</f>
+        <v>0.5</v>
+      </c>
       <c r="D21" s="2">
-        <f ca="1">INT([1]Sheet1!C21*1000)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="E21" s="2">
         <f ca="1">INT([1]Sheet1!D21*1000)/10</f>
-        <v>99.8</v>
+        <v>99.4</v>
+      </c>
+      <c r="E21" s="1">
+        <f ca="1">[1]Sheet1!E21</f>
+        <v>247.29145512481517</v>
       </c>
       <c r="F21" s="1">
-        <f ca="1">[1]Sheet1!E21</f>
-        <v>249.0934114630094</v>
-      </c>
-      <c r="G21" s="1">
         <f ca="1">[1]Sheet1!F21</f>
-        <v>0.90658853699059705</v>
-      </c>
-      <c r="H21">
+        <v>2.7085448751848276</v>
+      </c>
+      <c r="G21">
         <f>[1]Sheet1!G21</f>
         <v>10</v>
       </c>
-      <c r="I21">
+      <c r="H21">
         <f ca="1">[1]Sheet1!I21</f>
         <v>76</v>
       </c>
-      <c r="J21">
+      <c r="I21">
         <f ca="1">[1]Sheet1!J21</f>
         <v>81</v>
       </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" t="str">
-        <f>[1]Sheet1!A22</f>
-        <v>MA</v>
+      <c r="A22" t="s">
+        <v>119</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
         <f>[1]Sheet1!B22</f>
         <v>11</v>
       </c>
+      <c r="C22" s="2">
+        <f ca="1">INT([1]Sheet1!C22*1000)/10</f>
+        <v>0.2</v>
+      </c>
       <c r="D22" s="2">
-        <f ca="1">INT([1]Sheet1!C22*1000)/10</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
         <f ca="1">INT([1]Sheet1!D22*1000)/10</f>
-        <v>99.9</v>
+        <v>99.7</v>
+      </c>
+      <c r="E22" s="1">
+        <f ca="1">[1]Sheet1!E22</f>
+        <v>248.79934268241195</v>
       </c>
       <c r="F22" s="1">
-        <f ca="1">[1]Sheet1!E22</f>
-        <v>249.69016820534787</v>
-      </c>
-      <c r="G22" s="1">
         <f ca="1">[1]Sheet1!F22</f>
-        <v>0.30983179465212629</v>
-      </c>
-      <c r="H22">
+        <v>1.2006573175880533</v>
+      </c>
+      <c r="G22">
         <f>[1]Sheet1!G22</f>
         <v>11</v>
       </c>
-      <c r="I22">
+      <c r="H22">
         <f ca="1">[1]Sheet1!I22</f>
         <v>65</v>
       </c>
-      <c r="J22">
+      <c r="I22">
         <f ca="1">[1]Sheet1!J22</f>
         <v>70.5</v>
       </c>
+      <c r="J22" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" t="str">
-        <f>[1]Sheet1!A23</f>
-        <v>MI</v>
+      <c r="A23" t="s">
+        <v>120</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
         <f>[1]Sheet1!B23</f>
         <v>16</v>
       </c>
+      <c r="C23" s="2">
+        <f ca="1">INT([1]Sheet1!C23*1000)/10</f>
+        <v>39.200000000000003</v>
+      </c>
       <c r="D23" s="2">
-        <f ca="1">INT([1]Sheet1!C23*1000)/10</f>
-        <v>38.1</v>
-      </c>
-      <c r="E23" s="2">
         <f ca="1">INT([1]Sheet1!D23*1000)/10</f>
-        <v>61.8</v>
+        <v>60.7</v>
+      </c>
+      <c r="E23" s="1">
+        <f ca="1">[1]Sheet1!E23</f>
+        <v>53.928765521781628</v>
       </c>
       <c r="F23" s="1">
-        <f ca="1">[1]Sheet1!E23</f>
-        <v>59.170735198611709</v>
-      </c>
-      <c r="G23" s="1">
         <f ca="1">[1]Sheet1!F23</f>
-        <v>190.82926480138829</v>
-      </c>
-      <c r="H23">
+        <v>196.07123447821837</v>
+      </c>
+      <c r="G23">
         <f>[1]Sheet1!G23</f>
         <v>16</v>
       </c>
-      <c r="I23">
+      <c r="H23">
         <f ca="1">[1]Sheet1!I23</f>
         <v>226</v>
       </c>
-      <c r="J23">
+      <c r="I23">
         <f ca="1">[1]Sheet1!J23</f>
         <v>234</v>
       </c>
+      <c r="J23" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" t="str">
-        <f>[1]Sheet1!A24</f>
-        <v>MN</v>
+      <c r="A24" t="s">
+        <v>121</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
         <f>[1]Sheet1!B24</f>
         <v>10</v>
       </c>
+      <c r="C24" s="2">
+        <f ca="1">INT([1]Sheet1!C24*1000)/10</f>
+        <v>32.700000000000003</v>
+      </c>
       <c r="D24" s="2">
-        <f ca="1">INT([1]Sheet1!C24*1000)/10</f>
-        <v>31.1</v>
-      </c>
-      <c r="E24" s="2">
         <f ca="1">INT([1]Sheet1!D24*1000)/10</f>
-        <v>68.8</v>
+        <v>67.2</v>
+      </c>
+      <c r="E24" s="1">
+        <f ca="1">[1]Sheet1!E24</f>
+        <v>86.065776723764571</v>
       </c>
       <c r="F24" s="1">
-        <f ca="1">[1]Sheet1!E24</f>
-        <v>94.063100988462935</v>
-      </c>
-      <c r="G24" s="1">
         <f ca="1">[1]Sheet1!F24</f>
-        <v>155.93689901153707</v>
-      </c>
-      <c r="H24">
+        <v>163.93422327623543</v>
+      </c>
+      <c r="G24">
         <f>[1]Sheet1!G24</f>
         <v>10</v>
       </c>
-      <c r="I24">
+      <c r="H24">
         <f ca="1">[1]Sheet1!I24</f>
         <v>212</v>
       </c>
-      <c r="J24">
+      <c r="I24">
         <f ca="1">[1]Sheet1!J24</f>
         <v>217</v>
       </c>
+      <c r="J24" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" t="str">
-        <f>[1]Sheet1!A25</f>
-        <v>MS</v>
+      <c r="A25" t="s">
+        <v>122</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
         <f>[1]Sheet1!B25</f>
         <v>6</v>
       </c>
+      <c r="C25" s="2">
+        <f ca="1">INT([1]Sheet1!C25*1000)/10</f>
+        <v>91.1</v>
+      </c>
       <c r="D25" s="2">
-        <f ca="1">INT([1]Sheet1!C25*1000)/10</f>
-        <v>93.3</v>
-      </c>
-      <c r="E25" s="2">
         <f ca="1">INT([1]Sheet1!D25*1000)/10</f>
-        <v>6.6</v>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E25" s="1">
+        <f ca="1">[1]Sheet1!E25</f>
+        <v>205.98036276872372</v>
       </c>
       <c r="F25" s="1">
-        <f ca="1">[1]Sheet1!E25</f>
-        <v>216.75463107001414</v>
-      </c>
-      <c r="G25" s="1">
         <f ca="1">[1]Sheet1!F25</f>
-        <v>33.245368929985858</v>
-      </c>
-      <c r="H25">
+        <v>44.019637231276278</v>
+      </c>
+      <c r="G25">
         <f>[1]Sheet1!G25</f>
         <v>6</v>
       </c>
-      <c r="I25">
+      <c r="H25">
         <f ca="1">[1]Sheet1!I25</f>
         <v>438</v>
       </c>
-      <c r="J25">
+      <c r="I25">
         <f ca="1">[1]Sheet1!J25</f>
         <v>441</v>
       </c>
+      <c r="J25" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" t="str">
-        <f>[1]Sheet1!A26</f>
-        <v>MO</v>
+      <c r="A26" t="s">
+        <v>123</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
         <f>[1]Sheet1!B26</f>
         <v>10</v>
       </c>
+      <c r="C26" s="2">
+        <f ca="1">INT([1]Sheet1!C26*1000)/10</f>
+        <v>90.8</v>
+      </c>
       <c r="D26" s="2">
-        <f ca="1">INT([1]Sheet1!C26*1000)/10</f>
-        <v>93</v>
-      </c>
-      <c r="E26" s="2">
         <f ca="1">INT([1]Sheet1!D26*1000)/10</f>
-        <v>6.9</v>
+        <v>9.1</v>
+      </c>
+      <c r="E26" s="1">
+        <f ca="1">[1]Sheet1!E26</f>
+        <v>204.41759532350562</v>
       </c>
       <c r="F26" s="1">
-        <f ca="1">[1]Sheet1!E26</f>
-        <v>215.23349296225155</v>
-      </c>
-      <c r="G26" s="1">
         <f ca="1">[1]Sheet1!F26</f>
-        <v>34.766507037748454</v>
-      </c>
-      <c r="H26">
+        <v>45.582404676494377</v>
+      </c>
+      <c r="G26">
         <f>[1]Sheet1!G26</f>
         <v>10</v>
       </c>
-      <c r="I26">
+      <c r="H26">
         <f ca="1">[1]Sheet1!I26</f>
         <v>428</v>
       </c>
-      <c r="J26">
+      <c r="I26">
         <f ca="1">[1]Sheet1!J26</f>
         <v>433</v>
       </c>
+      <c r="J26" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" t="str">
-        <f>[1]Sheet1!A27</f>
-        <v>MT</v>
+      <c r="A27" t="s">
+        <v>124</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
         <f>[1]Sheet1!B27</f>
         <v>3</v>
       </c>
+      <c r="C27" s="2">
+        <f ca="1">INT([1]Sheet1!C27*1000)/10</f>
+        <v>90</v>
+      </c>
       <c r="D27" s="2">
-        <f ca="1">INT([1]Sheet1!C27*1000)/10</f>
-        <v>92.3</v>
-      </c>
-      <c r="E27" s="2">
         <f ca="1">INT([1]Sheet1!D27*1000)/10</f>
-        <v>7.6</v>
+        <v>9.9</v>
+      </c>
+      <c r="E27" s="1">
+        <f ca="1">[1]Sheet1!E27</f>
+        <v>200.46466088544284</v>
       </c>
       <c r="F27" s="1">
-        <f ca="1">[1]Sheet1!E27</f>
-        <v>211.58037722548428</v>
-      </c>
-      <c r="G27" s="1">
         <f ca="1">[1]Sheet1!F27</f>
-        <v>38.419622774515716</v>
-      </c>
-      <c r="H27">
+        <v>49.535339114557161</v>
+      </c>
+      <c r="G27">
         <f>[1]Sheet1!G27</f>
         <v>3</v>
       </c>
-      <c r="I27">
+      <c r="H27">
         <f ca="1">[1]Sheet1!I27</f>
         <v>425</v>
       </c>
-      <c r="J27">
+      <c r="I27">
         <f ca="1">[1]Sheet1!J27</f>
         <v>426.5</v>
       </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" t="str">
-        <f>[1]Sheet1!A28</f>
-        <v>NE</v>
+      <c r="A28" t="s">
+        <v>125</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
         <f>[1]Sheet1!B28</f>
         <v>2</v>
       </c>
+      <c r="C28" s="2">
+        <f ca="1">INT([1]Sheet1!C28*1000)/10</f>
+        <v>98.7</v>
+      </c>
       <c r="D28" s="2">
-        <f ca="1">INT([1]Sheet1!C28*1000)/10</f>
-        <v>99.4</v>
-      </c>
-      <c r="E28" s="2">
         <f ca="1">INT([1]Sheet1!D28*1000)/10</f>
-        <v>0.5</v>
+        <v>1.2</v>
+      </c>
+      <c r="E28" s="1">
+        <f ca="1">[1]Sheet1!E28</f>
+        <v>243.51575717029075</v>
       </c>
       <c r="F28" s="1">
-        <f ca="1">[1]Sheet1!E28</f>
-        <v>247.13614066932871</v>
-      </c>
-      <c r="G28" s="1">
         <f ca="1">[1]Sheet1!F28</f>
-        <v>2.8638593306712892</v>
-      </c>
-      <c r="H28">
+        <v>6.4842428297092454</v>
+      </c>
+      <c r="G28">
         <f>[1]Sheet1!G28</f>
         <v>2</v>
       </c>
-      <c r="I28">
+      <c r="H28">
         <f ca="1">[1]Sheet1!I28</f>
         <v>470</v>
       </c>
-      <c r="J28">
+      <c r="I28">
         <f ca="1">[1]Sheet1!J28</f>
         <v>471</v>
       </c>
+      <c r="J28" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" t="str">
-        <f>[1]Sheet1!A29</f>
-        <v>NV</v>
+      <c r="A29" t="s">
+        <v>126</v>
       </c>
       <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
         <f>[1]Sheet1!B29</f>
         <v>6</v>
       </c>
+      <c r="C29" s="2">
+        <f ca="1">INT([1]Sheet1!C29*1000)/10</f>
+        <v>39.799999999999997</v>
+      </c>
       <c r="D29" s="2">
-        <f ca="1">INT([1]Sheet1!C29*1000)/10</f>
-        <v>38.799999999999997</v>
-      </c>
-      <c r="E29" s="2">
         <f ca="1">INT([1]Sheet1!D29*1000)/10</f>
-        <v>61.1</v>
+        <v>60.1</v>
+      </c>
+      <c r="E29" s="1">
+        <f ca="1">[1]Sheet1!E29</f>
+        <v>50.783162084790277</v>
       </c>
       <c r="F29" s="1">
-        <f ca="1">[1]Sheet1!E29</f>
-        <v>55.736219644996808</v>
-      </c>
-      <c r="G29" s="1">
         <f ca="1">[1]Sheet1!F29</f>
-        <v>194.26378035500318</v>
-      </c>
-      <c r="H29">
+        <v>199.21683791520974</v>
+      </c>
+      <c r="G29">
         <f>[1]Sheet1!G29</f>
         <v>6</v>
       </c>
-      <c r="I29">
+      <c r="H29">
         <f ca="1">[1]Sheet1!I29</f>
         <v>242</v>
       </c>
-      <c r="J29">
+      <c r="I29">
         <f ca="1">[1]Sheet1!J29</f>
         <v>245</v>
       </c>
+      <c r="J29" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" t="str">
-        <f>[1]Sheet1!A30</f>
-        <v>NH</v>
+      <c r="A30" t="s">
+        <v>127</v>
       </c>
       <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
         <f>[1]Sheet1!B30</f>
         <v>4</v>
       </c>
+      <c r="C30" s="2">
+        <f ca="1">INT([1]Sheet1!C30*1000)/10</f>
+        <v>36.5</v>
+      </c>
       <c r="D30" s="2">
-        <f ca="1">INT([1]Sheet1!C30*1000)/10</f>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E30" s="2">
         <f ca="1">INT([1]Sheet1!D30*1000)/10</f>
-        <v>64.7</v>
+        <v>63.4</v>
+      </c>
+      <c r="E30" s="1">
+        <f ca="1">[1]Sheet1!E30</f>
+        <v>67.157276524304052</v>
       </c>
       <c r="F30" s="1">
-        <f ca="1">[1]Sheet1!E30</f>
-        <v>73.582676095366196</v>
-      </c>
-      <c r="G30" s="1">
         <f ca="1">[1]Sheet1!F30</f>
-        <v>176.4173239046338</v>
-      </c>
-      <c r="H30">
+        <v>182.84272347569595</v>
+      </c>
+      <c r="G30">
         <f>[1]Sheet1!G30</f>
         <v>4</v>
       </c>
-      <c r="I30">
+      <c r="H30">
         <f ca="1">[1]Sheet1!I30</f>
         <v>222</v>
       </c>
-      <c r="J30">
+      <c r="I30">
         <f ca="1">[1]Sheet1!J30</f>
         <v>224</v>
       </c>
+      <c r="J30" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" t="str">
-        <f>[1]Sheet1!A31</f>
-        <v>NJ</v>
+      <c r="A31" t="s">
+        <v>128</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
         <f>[1]Sheet1!B31</f>
         <v>14</v>
       </c>
+      <c r="C31" s="2">
+        <f ca="1">INT([1]Sheet1!C31*1000)/10</f>
+        <v>10.6</v>
+      </c>
       <c r="D31" s="2">
-        <f ca="1">INT([1]Sheet1!C31*1000)/10</f>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E31" s="2">
         <f ca="1">INT([1]Sheet1!D31*1000)/10</f>
-        <v>91.6</v>
+        <v>89.3</v>
+      </c>
+      <c r="E31" s="1">
+        <f ca="1">[1]Sheet1!E31</f>
+        <v>196.88469152070854</v>
       </c>
       <c r="F31" s="1">
-        <f ca="1">[1]Sheet1!E31</f>
-        <v>208.26548025247553</v>
-      </c>
-      <c r="G31" s="1">
         <f ca="1">[1]Sheet1!F31</f>
-        <v>41.734519747524473</v>
-      </c>
-      <c r="H31">
+        <v>53.115308479291457</v>
+      </c>
+      <c r="G31">
         <f>[1]Sheet1!G31</f>
         <v>14</v>
       </c>
-      <c r="I31">
+      <c r="H31">
         <f ca="1">[1]Sheet1!I31</f>
         <v>162</v>
       </c>
-      <c r="J31">
+      <c r="I31">
         <f ca="1">[1]Sheet1!J31</f>
         <v>169</v>
       </c>
+      <c r="J31" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" t="str">
-        <f>[1]Sheet1!A32</f>
-        <v>NM</v>
+      <c r="A32" t="s">
+        <v>129</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
         <f>[1]Sheet1!B32</f>
         <v>5</v>
       </c>
+      <c r="C32" s="2">
+        <f ca="1">INT([1]Sheet1!C32*1000)/10</f>
+        <v>18.100000000000001</v>
+      </c>
       <c r="D32" s="2">
-        <f ca="1">INT([1]Sheet1!C32*1000)/10</f>
-        <v>15.7</v>
-      </c>
-      <c r="E32" s="2">
         <f ca="1">INT([1]Sheet1!D32*1000)/10</f>
-        <v>84.2</v>
+        <v>81.8</v>
+      </c>
+      <c r="E32" s="1">
+        <f ca="1">[1]Sheet1!E32</f>
+        <v>159.18149015704657</v>
       </c>
       <c r="F32" s="1">
-        <f ca="1">[1]Sheet1!E32</f>
-        <v>171.03106722385343</v>
-      </c>
-      <c r="G32" s="1">
         <f ca="1">[1]Sheet1!F32</f>
-        <v>78.968932776146573</v>
-      </c>
-      <c r="H32">
+        <v>90.818509842953432</v>
+      </c>
+      <c r="G32">
         <f>[1]Sheet1!G32</f>
         <v>5</v>
       </c>
-      <c r="I32">
+      <c r="H32">
         <f ca="1">[1]Sheet1!I32</f>
         <v>183</v>
       </c>
-      <c r="J32">
+      <c r="I32">
         <f ca="1">[1]Sheet1!J32</f>
         <v>185.5</v>
       </c>
+      <c r="J32" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" t="str">
-        <f>[1]Sheet1!A33</f>
-        <v>NY</v>
+      <c r="A33" t="s">
+        <v>130</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
         <f>[1]Sheet1!B33</f>
         <v>29</v>
       </c>
+      <c r="C33" s="2">
+        <f ca="1">INT([1]Sheet1!C33*1000)/10</f>
+        <v>1.9</v>
+      </c>
       <c r="D33" s="2">
-        <f ca="1">INT([1]Sheet1!C33*1000)/10</f>
-        <v>0.9</v>
-      </c>
-      <c r="E33" s="2">
         <f ca="1">INT([1]Sheet1!D33*1000)/10</f>
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="E33" s="1">
+        <f ca="1">[1]Sheet1!E33</f>
+        <v>240.4050010695272</v>
       </c>
       <c r="F33" s="1">
-        <f ca="1">[1]Sheet1!E33</f>
-        <v>245.09934793525252</v>
-      </c>
-      <c r="G33" s="1">
         <f ca="1">[1]Sheet1!F33</f>
-        <v>4.9006520647474758</v>
-      </c>
-      <c r="H33">
+        <v>9.5949989304727978</v>
+      </c>
+      <c r="G33">
         <f>[1]Sheet1!G33</f>
         <v>29</v>
       </c>
-      <c r="I33">
+      <c r="H33">
         <f ca="1">[1]Sheet1!I33</f>
         <v>86</v>
       </c>
-      <c r="J33">
+      <c r="I33">
         <f ca="1">[1]Sheet1!J33</f>
         <v>100.5</v>
       </c>
+      <c r="J33" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" t="str">
-        <f>[1]Sheet1!A34</f>
-        <v>NC</v>
+      <c r="A34" t="s">
+        <v>131</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
         <f>[1]Sheet1!B34</f>
         <v>15</v>
       </c>
+      <c r="C34" s="2">
+        <f ca="1">INT([1]Sheet1!C34*1000)/10</f>
+        <v>58.7</v>
+      </c>
       <c r="D34" s="2">
-        <f ca="1">INT([1]Sheet1!C34*1000)/10</f>
-        <v>59.6</v>
-      </c>
-      <c r="E34" s="2">
         <f ca="1">INT([1]Sheet1!D34*1000)/10</f>
-        <v>40.299999999999997</v>
+        <v>41.2</v>
+      </c>
+      <c r="E34" s="1">
+        <f ca="1">[1]Sheet1!E34</f>
+        <v>43.900154498161314</v>
       </c>
       <c r="F34" s="1">
-        <f ca="1">[1]Sheet1!E34</f>
-        <v>48.208755679099049</v>
-      </c>
-      <c r="G34" s="1">
         <f ca="1">[1]Sheet1!F34</f>
-        <v>201.79124432090094</v>
-      </c>
-      <c r="H34">
+        <v>206.09984550183867</v>
+      </c>
+      <c r="G34">
         <f>[1]Sheet1!G34</f>
         <v>15</v>
       </c>
-      <c r="I34">
+      <c r="H34">
         <f ca="1">[1]Sheet1!I34</f>
         <v>307</v>
       </c>
-      <c r="J34">
+      <c r="I34">
         <f ca="1">[1]Sheet1!J34</f>
         <v>314.5</v>
       </c>
+      <c r="J34" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" t="str">
-        <f>[1]Sheet1!A35</f>
-        <v>ND</v>
+      <c r="A35" t="s">
+        <v>132</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
         <f>[1]Sheet1!B35</f>
         <v>3</v>
       </c>
-      <c r="D35" s="2">
+      <c r="C35" s="2">
         <f ca="1">INT([1]Sheet1!C35*1000)/10</f>
         <v>99.9</v>
       </c>
-      <c r="E35" s="2">
+      <c r="D35" s="2">
         <f ca="1">INT([1]Sheet1!D35*1000)/10</f>
         <v>0</v>
       </c>
+      <c r="E35" s="1">
+        <f ca="1">[1]Sheet1!E35</f>
+        <v>249.62399400245511</v>
+      </c>
       <c r="F35" s="1">
-        <f ca="1">[1]Sheet1!E35</f>
-        <v>249.92932230837584</v>
-      </c>
-      <c r="G35" s="1">
         <f ca="1">[1]Sheet1!F35</f>
-        <v>7.0677691624155159E-2</v>
-      </c>
-      <c r="H35">
+        <v>0.37600599754489394</v>
+      </c>
+      <c r="G35">
         <f>[1]Sheet1!G35</f>
         <v>3</v>
       </c>
-      <c r="I35">
+      <c r="H35">
         <f ca="1">[1]Sheet1!I35</f>
         <v>531</v>
       </c>
-      <c r="J35">
+      <c r="I35">
         <f ca="1">[1]Sheet1!J35</f>
         <v>532.5</v>
       </c>
+      <c r="J35" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" t="str">
-        <f>[1]Sheet1!A36</f>
-        <v>OH</v>
+      <c r="A36" t="s">
+        <v>133</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
         <f>[1]Sheet1!B36</f>
         <v>18</v>
       </c>
+      <c r="C36" s="2">
+        <f ca="1">INT([1]Sheet1!C36*1000)/10</f>
+        <v>71.599999999999994</v>
+      </c>
       <c r="D36" s="2">
-        <f ca="1">INT([1]Sheet1!C36*1000)/10</f>
-        <v>73.5</v>
-      </c>
-      <c r="E36" s="2">
         <f ca="1">INT([1]Sheet1!D36*1000)/10</f>
-        <v>26.4</v>
+        <v>28.3</v>
+      </c>
+      <c r="E36" s="1">
+        <f ca="1">[1]Sheet1!E36</f>
+        <v>108.27434703074483</v>
       </c>
       <c r="F36" s="1">
-        <f ca="1">[1]Sheet1!E36</f>
-        <v>117.86970770956403</v>
-      </c>
-      <c r="G36" s="1">
         <f ca="1">[1]Sheet1!F36</f>
-        <v>132.13029229043599</v>
-      </c>
-      <c r="H36">
+        <v>141.72565296925518</v>
+      </c>
+      <c r="G36">
         <f>[1]Sheet1!G36</f>
         <v>18</v>
       </c>
-      <c r="I36">
+      <c r="H36">
         <f ca="1">[1]Sheet1!I36</f>
         <v>357</v>
       </c>
-      <c r="J36">
+      <c r="I36">
         <f ca="1">[1]Sheet1!J36</f>
         <v>366</v>
       </c>
+      <c r="J36" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" t="str">
-        <f>[1]Sheet1!A37</f>
-        <v>OK</v>
+      <c r="A37" t="s">
+        <v>134</v>
       </c>
       <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
         <f>[1]Sheet1!B37</f>
         <v>7</v>
       </c>
-      <c r="D37" s="2">
+      <c r="C37" s="2">
         <f ca="1">INT([1]Sheet1!C37*1000)/10</f>
         <v>99.9</v>
       </c>
-      <c r="E37" s="2">
+      <c r="D37" s="2">
         <f ca="1">INT([1]Sheet1!D37*1000)/10</f>
         <v>0</v>
       </c>
+      <c r="E37" s="1">
+        <f ca="1">[1]Sheet1!E37</f>
+        <v>249.51875971559923</v>
+      </c>
       <c r="F37" s="1">
-        <f ca="1">[1]Sheet1!E37</f>
-        <v>249.89804475211849</v>
-      </c>
-      <c r="G37" s="1">
         <f ca="1">[1]Sheet1!F37</f>
-        <v>0.10195524788150578</v>
-      </c>
-      <c r="H37">
+        <v>0.48124028440076927</v>
+      </c>
+      <c r="G37">
         <f>[1]Sheet1!G37</f>
         <v>7</v>
       </c>
-      <c r="I37">
+      <c r="H37">
         <f ca="1">[1]Sheet1!I37</f>
         <v>524</v>
       </c>
-      <c r="J37">
+      <c r="I37">
         <f ca="1">[1]Sheet1!J37</f>
         <v>527.5</v>
       </c>
+      <c r="J37" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" t="str">
-        <f>[1]Sheet1!A38</f>
-        <v>OR</v>
+      <c r="A38" t="s">
+        <v>135</v>
       </c>
       <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
         <f>[1]Sheet1!B38</f>
         <v>7</v>
       </c>
+      <c r="C38" s="2">
+        <f ca="1">INT([1]Sheet1!C38*1000)/10</f>
+        <v>13.9</v>
+      </c>
       <c r="D38" s="2">
-        <f ca="1">INT([1]Sheet1!C38*1000)/10</f>
-        <v>11.6</v>
-      </c>
-      <c r="E38" s="2">
         <f ca="1">INT([1]Sheet1!D38*1000)/10</f>
-        <v>88.3</v>
+        <v>86</v>
+      </c>
+      <c r="E38" s="1">
+        <f ca="1">[1]Sheet1!E38</f>
+        <v>180.06736551233851</v>
       </c>
       <c r="F38" s="1">
-        <f ca="1">[1]Sheet1!E38</f>
-        <v>191.97261156325806</v>
-      </c>
-      <c r="G38" s="1">
         <f ca="1">[1]Sheet1!F38</f>
-        <v>58.027388436741944</v>
-      </c>
-      <c r="H38">
+        <v>69.932634487661488</v>
+      </c>
+      <c r="G38">
         <f>[1]Sheet1!G38</f>
         <v>7</v>
       </c>
-      <c r="I38">
+      <c r="H38">
         <f ca="1">[1]Sheet1!I38</f>
         <v>176</v>
       </c>
-      <c r="J38">
+      <c r="I38">
         <f ca="1">[1]Sheet1!J38</f>
         <v>179.5</v>
       </c>
+      <c r="J38" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" t="str">
-        <f>[1]Sheet1!A39</f>
-        <v>PA</v>
+      <c r="A39" t="s">
+        <v>136</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
         <f>[1]Sheet1!B39</f>
         <v>20</v>
       </c>
+      <c r="C39" s="2">
+        <f ca="1">INT([1]Sheet1!C39*1000)/10</f>
+        <v>44.3</v>
+      </c>
       <c r="D39" s="2">
-        <f ca="1">INT([1]Sheet1!C39*1000)/10</f>
-        <v>43.7</v>
-      </c>
-      <c r="E39" s="2">
         <f ca="1">INT([1]Sheet1!D39*1000)/10</f>
-        <v>56.2</v>
+        <v>55.6</v>
+      </c>
+      <c r="E39" s="1">
+        <f ca="1">[1]Sheet1!E39</f>
+        <v>28.209319488215979</v>
       </c>
       <c r="F39" s="1">
-        <f ca="1">[1]Sheet1!E39</f>
-        <v>31.008675851426691</v>
-      </c>
-      <c r="G39" s="1">
         <f ca="1">[1]Sheet1!F39</f>
-        <v>218.99132414857331</v>
-      </c>
-      <c r="H39">
+        <v>221.79068051178402</v>
+      </c>
+      <c r="G39">
         <f>[1]Sheet1!G39</f>
         <v>20</v>
       </c>
-      <c r="I39">
+      <c r="H39">
         <f ca="1">[1]Sheet1!I39</f>
         <v>248</v>
       </c>
-      <c r="J39">
+      <c r="I39">
         <f ca="1">[1]Sheet1!J39</f>
         <v>258</v>
       </c>
+      <c r="J39" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" t="str">
-        <f>[1]Sheet1!A40</f>
-        <v>RI</v>
+      <c r="A40" t="s">
+        <v>137</v>
       </c>
       <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
         <f>[1]Sheet1!B40</f>
         <v>4</v>
       </c>
+      <c r="C40" s="2">
+        <f ca="1">INT([1]Sheet1!C40*1000)/10</f>
+        <v>5.2</v>
+      </c>
       <c r="D40" s="2">
-        <f ca="1">INT([1]Sheet1!C40*1000)/10</f>
-        <v>3.5</v>
-      </c>
-      <c r="E40" s="2">
         <f ca="1">INT([1]Sheet1!D40*1000)/10</f>
-        <v>96.4</v>
+        <v>94.7</v>
+      </c>
+      <c r="E40" s="1">
+        <f ca="1">[1]Sheet1!E40</f>
+        <v>223.78543787395338</v>
       </c>
       <c r="F40" s="1">
-        <f ca="1">[1]Sheet1!E40</f>
-        <v>232.44600381658458</v>
-      </c>
-      <c r="G40" s="1">
         <f ca="1">[1]Sheet1!F40</f>
-        <v>17.553996183415421</v>
-      </c>
-      <c r="H40">
+        <v>26.214562126046616</v>
+      </c>
+      <c r="G40">
         <f>[1]Sheet1!G40</f>
         <v>4</v>
       </c>
-      <c r="I40">
+      <c r="H40">
         <f ca="1">[1]Sheet1!I40</f>
         <v>115</v>
       </c>
-      <c r="J40">
+      <c r="I40">
         <f ca="1">[1]Sheet1!J40</f>
         <v>117</v>
       </c>
+      <c r="J40" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" t="str">
-        <f>[1]Sheet1!A41</f>
-        <v>SC</v>
+      <c r="A41" t="s">
+        <v>138</v>
       </c>
       <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
         <f>[1]Sheet1!B41</f>
         <v>9</v>
       </c>
+      <c r="C41" s="2">
+        <f ca="1">INT([1]Sheet1!C41*1000)/10</f>
+        <v>87.7</v>
+      </c>
       <c r="D41" s="2">
-        <f ca="1">INT([1]Sheet1!C41*1000)/10</f>
-        <v>90</v>
-      </c>
-      <c r="E41" s="2">
         <f ca="1">INT([1]Sheet1!D41*1000)/10</f>
-        <v>9.9</v>
+        <v>12.2</v>
+      </c>
+      <c r="E41" s="1">
+        <f ca="1">[1]Sheet1!E41</f>
+        <v>188.75664253865386</v>
       </c>
       <c r="F41" s="1">
-        <f ca="1">[1]Sheet1!E41</f>
-        <v>200.36114101908504</v>
-      </c>
-      <c r="G41" s="1">
         <f ca="1">[1]Sheet1!F41</f>
-        <v>49.638858980914961</v>
-      </c>
-      <c r="H41">
+        <v>61.243357461346136</v>
+      </c>
+      <c r="G41">
         <f>[1]Sheet1!G41</f>
         <v>9</v>
       </c>
-      <c r="I41">
+      <c r="H41">
         <f ca="1">[1]Sheet1!I41</f>
         <v>416</v>
       </c>
-      <c r="J41">
+      <c r="I41">
         <f ca="1">[1]Sheet1!J41</f>
         <v>420.5</v>
       </c>
+      <c r="J41" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" t="str">
-        <f>[1]Sheet1!A42</f>
-        <v>SD</v>
+      <c r="A42" t="s">
+        <v>139</v>
       </c>
       <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
         <f>[1]Sheet1!B42</f>
         <v>3</v>
       </c>
+      <c r="C42" s="2">
+        <f ca="1">INT([1]Sheet1!C42*1000)/10</f>
+        <v>99.6</v>
+      </c>
       <c r="D42" s="2">
-        <f ca="1">INT([1]Sheet1!C42*1000)/10</f>
-        <v>99.8</v>
-      </c>
-      <c r="E42" s="2">
         <f ca="1">INT([1]Sheet1!D42*1000)/10</f>
-        <v>0.1</v>
+        <v>0.3</v>
+      </c>
+      <c r="E42" s="1">
+        <f ca="1">[1]Sheet1!E42</f>
+        <v>248.26942219146804</v>
       </c>
       <c r="F42" s="1">
-        <f ca="1">[1]Sheet1!E42</f>
-        <v>249.49193481515564</v>
-      </c>
-      <c r="G42" s="1">
         <f ca="1">[1]Sheet1!F42</f>
-        <v>0.50806518484435514</v>
-      </c>
-      <c r="H42">
+        <v>1.7305778085319616</v>
+      </c>
+      <c r="G42">
         <f>[1]Sheet1!G42</f>
         <v>3</v>
       </c>
-      <c r="I42">
+      <c r="H42">
         <f ca="1">[1]Sheet1!I42</f>
         <v>506</v>
       </c>
-      <c r="J42">
+      <c r="I42">
         <f ca="1">[1]Sheet1!J42</f>
         <v>507.5</v>
       </c>
+      <c r="J42" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" t="str">
-        <f>[1]Sheet1!A43</f>
-        <v>TN</v>
+      <c r="A43" t="s">
+        <v>140</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
         <f>[1]Sheet1!B43</f>
         <v>11</v>
       </c>
+      <c r="C43" s="2">
+        <f ca="1">INT([1]Sheet1!C43*1000)/10</f>
+        <v>98.7</v>
+      </c>
       <c r="D43" s="2">
-        <f ca="1">INT([1]Sheet1!C43*1000)/10</f>
-        <v>99.4</v>
-      </c>
-      <c r="E43" s="2">
         <f ca="1">INT([1]Sheet1!D43*1000)/10</f>
-        <v>0.5</v>
+        <v>1.2</v>
+      </c>
+      <c r="E43" s="1">
+        <f ca="1">[1]Sheet1!E43</f>
+        <v>243.58840094791222</v>
       </c>
       <c r="F43" s="1">
-        <f ca="1">[1]Sheet1!E43</f>
-        <v>247.15735389798769</v>
-      </c>
-      <c r="G43" s="1">
         <f ca="1">[1]Sheet1!F43</f>
-        <v>2.8426461020123099</v>
-      </c>
-      <c r="H43">
+        <v>6.4115990520877801</v>
+      </c>
+      <c r="G43">
         <f>[1]Sheet1!G43</f>
         <v>11</v>
       </c>
-      <c r="I43">
+      <c r="H43">
         <f ca="1">[1]Sheet1!I43</f>
         <v>472</v>
       </c>
-      <c r="J43">
+      <c r="I43">
         <f ca="1">[1]Sheet1!J43</f>
         <v>477.5</v>
       </c>
+      <c r="J43" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" t="str">
-        <f>[1]Sheet1!A44</f>
-        <v>TX</v>
+      <c r="A44" t="s">
+        <v>141</v>
       </c>
       <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
         <f>[1]Sheet1!B44</f>
         <v>38</v>
       </c>
+      <c r="C44" s="2">
+        <f ca="1">INT([1]Sheet1!C44*1000)/10</f>
+        <v>80.2</v>
+      </c>
       <c r="D44" s="2">
-        <f ca="1">INT([1]Sheet1!C44*1000)/10</f>
-        <v>82.5</v>
-      </c>
-      <c r="E44" s="2">
         <f ca="1">INT([1]Sheet1!D44*1000)/10</f>
-        <v>17.399999999999999</v>
+        <v>19.7</v>
+      </c>
+      <c r="E44" s="1">
+        <f ca="1">[1]Sheet1!E44</f>
+        <v>151.38661779685981</v>
       </c>
       <c r="F44" s="1">
-        <f ca="1">[1]Sheet1!E44</f>
-        <v>162.96923724848921</v>
-      </c>
-      <c r="G44" s="1">
         <f ca="1">[1]Sheet1!F44</f>
-        <v>87.030762751510792</v>
-      </c>
-      <c r="H44">
+        <v>98.613382203140191</v>
+      </c>
+      <c r="G44">
         <f>[1]Sheet1!G44</f>
         <v>38</v>
       </c>
-      <c r="I44">
+      <c r="H44">
         <f ca="1">[1]Sheet1!I44</f>
         <v>375</v>
       </c>
-      <c r="J44">
+      <c r="I44">
         <f ca="1">[1]Sheet1!J44</f>
         <v>394</v>
       </c>
+      <c r="J44" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" t="str">
-        <f>[1]Sheet1!A45</f>
-        <v>UT</v>
+      <c r="A45" t="s">
+        <v>142</v>
       </c>
       <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
         <f>[1]Sheet1!B45</f>
         <v>6</v>
       </c>
+      <c r="C45" s="2">
+        <f ca="1">INT([1]Sheet1!C45*1000)/10</f>
+        <v>99.7</v>
+      </c>
       <c r="D45" s="2">
-        <f ca="1">INT([1]Sheet1!C45*1000)/10</f>
-        <v>99.9</v>
-      </c>
-      <c r="E45" s="2">
         <f ca="1">INT([1]Sheet1!D45*1000)/10</f>
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="E45" s="1">
+        <f ca="1">[1]Sheet1!E45</f>
+        <v>248.75597794889504</v>
       </c>
       <c r="F45" s="1">
-        <f ca="1">[1]Sheet1!E45</f>
-        <v>249.66799325516041</v>
-      </c>
-      <c r="G45" s="1">
         <f ca="1">[1]Sheet1!F45</f>
-        <v>0.33200674483958892</v>
-      </c>
-      <c r="H45">
+        <v>1.2440220511049631</v>
+      </c>
+      <c r="G45">
         <f>[1]Sheet1!G45</f>
         <v>6</v>
       </c>
-      <c r="I45">
+      <c r="H45">
         <f ca="1">[1]Sheet1!I45</f>
         <v>509</v>
       </c>
-      <c r="J45">
+      <c r="I45">
         <f ca="1">[1]Sheet1!J45</f>
         <v>512</v>
       </c>
+      <c r="J45" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" t="str">
-        <f>[1]Sheet1!A46</f>
-        <v>VT</v>
+      <c r="A46" t="s">
+        <v>143</v>
       </c>
       <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
         <f>[1]Sheet1!B46</f>
         <v>3</v>
       </c>
-      <c r="D46" s="2">
+      <c r="C46" s="2">
         <f ca="1">INT([1]Sheet1!C46*1000)/10</f>
         <v>0</v>
       </c>
-      <c r="E46" s="2">
+      <c r="D46" s="2">
         <f ca="1">INT([1]Sheet1!D46*1000)/10</f>
         <v>99.9</v>
       </c>
+      <c r="E46" s="1">
+        <f ca="1">[1]Sheet1!E46</f>
+        <v>249.62347364640141</v>
+      </c>
       <c r="F46" s="1">
-        <f ca="1">[1]Sheet1!E46</f>
-        <v>249.9290761266812</v>
-      </c>
-      <c r="G46" s="1">
         <f ca="1">[1]Sheet1!F46</f>
-        <v>7.0923873318804453E-2</v>
-      </c>
-      <c r="H46">
+        <v>0.37652635359859232</v>
+      </c>
+      <c r="G46">
         <f>[1]Sheet1!G46</f>
         <v>3</v>
       </c>
-      <c r="I46">
+      <c r="H46">
         <f ca="1">[1]Sheet1!I46</f>
         <v>62</v>
       </c>
-      <c r="J46">
+      <c r="I46">
         <f ca="1">[1]Sheet1!J46</f>
         <v>63.5</v>
       </c>
+      <c r="J46" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" t="str">
-        <f>[1]Sheet1!A47</f>
-        <v>VA</v>
+      <c r="A47" t="s">
+        <v>144</v>
       </c>
       <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
         <f>[1]Sheet1!B47</f>
         <v>13</v>
       </c>
+      <c r="C47" s="2">
+        <f ca="1">INT([1]Sheet1!C47*1000)/10</f>
+        <v>27.7</v>
+      </c>
       <c r="D47" s="2">
-        <f ca="1">INT([1]Sheet1!C47*1000)/10</f>
-        <v>25.7</v>
-      </c>
-      <c r="E47" s="2">
         <f ca="1">INT([1]Sheet1!D47*1000)/10</f>
-        <v>74.2</v>
+        <v>72.2</v>
+      </c>
+      <c r="E47" s="1">
+        <f ca="1">[1]Sheet1!E47</f>
+        <v>111.23351943881073</v>
       </c>
       <c r="F47" s="1">
-        <f ca="1">[1]Sheet1!E47</f>
-        <v>121.02557704141148</v>
-      </c>
-      <c r="G47" s="1">
         <f ca="1">[1]Sheet1!F47</f>
-        <v>128.97442295858852</v>
-      </c>
-      <c r="H47">
+        <v>138.76648056118927</v>
+      </c>
+      <c r="G47">
         <f>[1]Sheet1!G47</f>
         <v>13</v>
       </c>
-      <c r="I47">
+      <c r="H47">
         <f ca="1">[1]Sheet1!I47</f>
         <v>197</v>
       </c>
-      <c r="J47">
+      <c r="I47">
         <f ca="1">[1]Sheet1!J47</f>
         <v>203.5</v>
       </c>
+      <c r="J47" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" t="str">
-        <f>[1]Sheet1!A48</f>
-        <v>WA</v>
+      <c r="A48" t="s">
+        <v>145</v>
       </c>
       <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
         <f>[1]Sheet1!B48</f>
         <v>12</v>
       </c>
+      <c r="C48" s="2">
+        <f ca="1">INT([1]Sheet1!C48*1000)/10</f>
+        <v>9.1</v>
+      </c>
       <c r="D48" s="2">
-        <f ca="1">INT([1]Sheet1!C48*1000)/10</f>
-        <v>6.9</v>
-      </c>
-      <c r="E48" s="2">
         <f ca="1">INT([1]Sheet1!D48*1000)/10</f>
-        <v>93</v>
+        <v>90.8</v>
+      </c>
+      <c r="E48" s="1">
+        <f ca="1">[1]Sheet1!E48</f>
+        <v>204.13353826789313</v>
       </c>
       <c r="F48" s="1">
-        <f ca="1">[1]Sheet1!E48</f>
-        <v>215.00870266404758</v>
-      </c>
-      <c r="G48" s="1">
         <f ca="1">[1]Sheet1!F48</f>
-        <v>34.991297335952424</v>
-      </c>
-      <c r="H48">
+        <v>45.86646173210687</v>
+      </c>
+      <c r="G48">
         <f>[1]Sheet1!G48</f>
         <v>12</v>
       </c>
-      <c r="I48">
+      <c r="H48">
         <f ca="1">[1]Sheet1!I48</f>
         <v>140</v>
       </c>
-      <c r="J48">
+      <c r="I48">
         <f ca="1">[1]Sheet1!J48</f>
         <v>146</v>
       </c>
+      <c r="J48" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" t="str">
-        <f>[1]Sheet1!A49</f>
-        <v>WV</v>
+      <c r="A49" t="s">
+        <v>146</v>
       </c>
       <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
         <f>[1]Sheet1!B49</f>
         <v>5</v>
       </c>
+      <c r="C49" s="2">
+        <f ca="1">INT([1]Sheet1!C49*1000)/10</f>
+        <v>99.8</v>
+      </c>
       <c r="D49" s="2">
-        <f ca="1">INT([1]Sheet1!C49*1000)/10</f>
-        <v>99.9</v>
-      </c>
-      <c r="E49" s="2">
         <f ca="1">INT([1]Sheet1!D49*1000)/10</f>
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="1">
+        <f ca="1">[1]Sheet1!E49</f>
+        <v>249.4550936018282</v>
       </c>
       <c r="F49" s="1">
-        <f ca="1">[1]Sheet1!E49</f>
-        <v>249.88051739806986</v>
-      </c>
-      <c r="G49" s="1">
         <f ca="1">[1]Sheet1!F49</f>
-        <v>0.11948260193014448</v>
-      </c>
-      <c r="H49">
+        <v>0.54490639817180408</v>
+      </c>
+      <c r="G49">
         <f>[1]Sheet1!G49</f>
         <v>5</v>
       </c>
-      <c r="I49">
+      <c r="H49">
         <f ca="1">[1]Sheet1!I49</f>
         <v>519</v>
       </c>
-      <c r="J49">
+      <c r="I49">
         <f ca="1">[1]Sheet1!J49</f>
         <v>521.5</v>
       </c>
+      <c r="J49" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" t="str">
-        <f>[1]Sheet1!A50</f>
-        <v>WI</v>
+      <c r="A50" t="s">
+        <v>147</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
         <f>[1]Sheet1!B50</f>
         <v>10</v>
       </c>
+      <c r="C50" s="2">
+        <f ca="1">INT([1]Sheet1!C50*1000)/10</f>
+        <v>48.6</v>
+      </c>
       <c r="D50" s="2">
-        <f ca="1">INT([1]Sheet1!C50*1000)/10</f>
-        <v>48.4</v>
-      </c>
-      <c r="E50" s="2">
         <f ca="1">INT([1]Sheet1!D50*1000)/10</f>
-        <v>51.5</v>
+        <v>51.3</v>
+      </c>
+      <c r="E50" s="1">
+        <f ca="1">[1]Sheet1!E50</f>
+        <v>6.9955403352770507</v>
       </c>
       <c r="F50" s="1">
-        <f ca="1">[1]Sheet1!E50</f>
-        <v>7.6947637589893372</v>
-      </c>
-      <c r="G50" s="1">
         <f ca="1">[1]Sheet1!F50</f>
-        <v>242.30523624101068</v>
-      </c>
-      <c r="H50">
+        <v>243.00445966472296</v>
+      </c>
+      <c r="G50">
         <f>[1]Sheet1!G50</f>
         <v>10</v>
       </c>
-      <c r="I50">
+      <c r="H50">
         <f ca="1">[1]Sheet1!I50</f>
         <v>268</v>
       </c>
-      <c r="J50">
+      <c r="I50">
         <f ca="1">[1]Sheet1!J50</f>
         <v>273</v>
       </c>
+      <c r="J50" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" t="str">
-        <f>[1]Sheet1!A51</f>
-        <v>WY</v>
+      <c r="A51" t="s">
+        <v>148</v>
       </c>
       <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
         <f>[1]Sheet1!B51</f>
         <v>3</v>
       </c>
-      <c r="D51" s="2">
+      <c r="C51" s="2">
         <f ca="1">INT([1]Sheet1!C51*1000)/10</f>
         <v>99.9</v>
       </c>
-      <c r="E51" s="2">
+      <c r="D51" s="2">
         <f ca="1">INT([1]Sheet1!D51*1000)/10</f>
         <v>0</v>
       </c>
+      <c r="E51" s="1">
+        <f ca="1">[1]Sheet1!E51</f>
+        <v>249.99852084761284</v>
+      </c>
       <c r="F51" s="1">
-        <f ca="1">[1]Sheet1!E51</f>
-        <v>249.99994681266142</v>
-      </c>
-      <c r="G51" s="1">
         <f ca="1">[1]Sheet1!F51</f>
-        <v>5.3187338579618881E-5</v>
-      </c>
-      <c r="H51">
+        <v>1.4791523871622303E-3</v>
+      </c>
+      <c r="G51">
         <f>[1]Sheet1!G51</f>
         <v>3</v>
       </c>
-      <c r="I51">
+      <c r="H51">
         <f ca="1">[1]Sheet1!I51</f>
         <v>535</v>
       </c>
-      <c r="J51">
+      <c r="I51">
         <f ca="1">[1]Sheet1!J51</f>
         <v>535</v>
       </c>
+      <c r="J51" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" t="str">
-        <f>[1]Sheet1!A52</f>
-        <v>DC</v>
+      <c r="A52" t="s">
+        <v>149</v>
       </c>
       <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
         <f>[1]Sheet1!B52</f>
         <v>3</v>
       </c>
-      <c r="D52" s="2">
+      <c r="C52" s="2">
         <f ca="1">INT([1]Sheet1!C52*1000)/10</f>
         <v>0</v>
       </c>
-      <c r="E52" s="2">
+      <c r="D52" s="2">
         <f ca="1">INT([1]Sheet1!D52*1000)/10</f>
-        <v>100</v>
+        <v>99.9</v>
+      </c>
+      <c r="E52" s="1">
+        <f ca="1">[1]Sheet1!E52</f>
+        <v>249.99999999996393</v>
       </c>
       <c r="F52" s="1">
-        <f ca="1">[1]Sheet1!E52</f>
-        <v>250</v>
-      </c>
-      <c r="G52" s="1">
         <f ca="1">[1]Sheet1!F52</f>
-        <v>0</v>
-      </c>
-      <c r="H52">
+        <v>3.6067149267182685E-11</v>
+      </c>
+      <c r="G52">
         <f>[1]Sheet1!G52</f>
         <v>3</v>
       </c>
-      <c r="I52">
+      <c r="H52">
         <f ca="1">[1]Sheet1!I52</f>
         <v>0</v>
       </c>
-      <c r="J52">
+      <c r="I52">
         <f ca="1">[1]Sheet1!J52</f>
         <v>1.5</v>
       </c>
+      <c r="J52" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" t="str">
-        <f>[1]Sheet1!A53</f>
-        <v>ME1</v>
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53">
+        <f>[1]Sheet1!B53</f>
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <f>INT([1]Sheet1!C53*1000)/10</f>
+        <v>8.9</v>
+      </c>
+      <c r="D53" s="2">
+        <f>INT([1]Sheet1!D53*1000)/10</f>
+        <v>91</v>
+      </c>
+      <c r="E53" s="1">
+        <f>[1]Sheet1!E53</f>
+        <v>205.36433852419665</v>
+      </c>
+      <c r="F53" s="1">
+        <f>[1]Sheet1!F53</f>
+        <v>44.635661475803346</v>
+      </c>
+      <c r="G53">
+        <f>[1]Sheet1!G53</f>
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <f ca="1">[1]Sheet1!I53</f>
+        <v>139</v>
+      </c>
+      <c r="I53">
+        <f ca="1">[1]Sheet1!J53</f>
+        <v>139.5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54">
+        <f>[1]Sheet1!B54</f>
+        <v>1</v>
+      </c>
+      <c r="C54" s="2">
+        <f>INT([1]Sheet1!C54*1000)/10</f>
+        <v>60.9</v>
+      </c>
+      <c r="D54" s="2">
+        <f>INT([1]Sheet1!D54*1000)/10</f>
+        <v>39</v>
+      </c>
+      <c r="E54" s="1">
+        <f>[1]Sheet1!E54</f>
+        <v>54.904416880703351</v>
+      </c>
+      <c r="F54" s="1">
+        <f>[1]Sheet1!F54</f>
+        <v>195.09558311929663</v>
+      </c>
+      <c r="G54">
+        <f>[1]Sheet1!G54</f>
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <f ca="1">[1]Sheet1!I54</f>
+        <v>334</v>
+      </c>
+      <c r="I54">
+        <f ca="1">[1]Sheet1!J54</f>
+        <v>334.5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55">
+        <f>[1]Sheet1!B55</f>
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <f>INT([1]Sheet1!C55*1000)/10</f>
+        <v>95.7</v>
+      </c>
+      <c r="D55" s="2">
+        <f>INT([1]Sheet1!D55*1000)/10</f>
+        <v>4.2</v>
+      </c>
+      <c r="E55" s="1">
+        <f>[1]Sheet1!E55</f>
+        <v>228.95356249650004</v>
+      </c>
+      <c r="F55" s="1">
+        <f>[1]Sheet1!F55</f>
+        <v>21.046437503499959</v>
+      </c>
+      <c r="G55">
+        <f>[1]Sheet1!G55</f>
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <f ca="1">[1]Sheet1!I55</f>
+        <v>461</v>
+      </c>
+      <c r="I55">
+        <f ca="1">[1]Sheet1!J55</f>
+        <v>461.5</v>
+      </c>
+      <c r="J55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56">
+        <f>[1]Sheet1!B56</f>
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <f>INT([1]Sheet1!C56*1000)/10</f>
+        <v>59.1</v>
+      </c>
+      <c r="D56" s="2">
+        <f>INT([1]Sheet1!D56*1000)/10</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E56" s="1">
+        <f>[1]Sheet1!E56</f>
+        <v>45.997277367944456</v>
+      </c>
+      <c r="F56" s="1">
+        <f>[1]Sheet1!F56</f>
+        <v>204.00272263205554</v>
+      </c>
+      <c r="G56">
+        <f>[1]Sheet1!G56</f>
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <f ca="1">[1]Sheet1!I56</f>
+        <v>322</v>
+      </c>
+      <c r="I56">
+        <f ca="1">[1]Sheet1!J56</f>
+        <v>322.5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57">
+        <f>[1]Sheet1!B57</f>
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <f>INT([1]Sheet1!C57*1000)/10</f>
+        <v>99.9</v>
+      </c>
+      <c r="D57" s="2">
+        <f>INT([1]Sheet1!D57*1000)/10</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <f>[1]Sheet1!E57</f>
+        <v>249.99843741462246</v>
+      </c>
+      <c r="F57" s="1">
+        <f>[1]Sheet1!F57</f>
+        <v>1.5625853775418364E-3</v>
+      </c>
+      <c r="G57">
+        <f>[1]Sheet1!G57</f>
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <f ca="1">[1]Sheet1!I57</f>
+        <v>534</v>
+      </c>
+      <c r="I57">
+        <f ca="1">[1]Sheet1!J57</f>
+        <v>534.5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824B986C-45CD-5F4F-8FB4-B0D7EF52CC9B}">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <f ca="1">INT(([1]Sheet1!C2*1000)+0.5)/10</f>
+        <v>99.4</v>
+      </c>
+      <c r="D2" s="2">
+        <f ca="1">INT(([1]Sheet1!D2*1000)+0.5)/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="E2">
+        <v>16.431676725154983</v>
+      </c>
+      <c r="F2">
+        <v>413</v>
+      </c>
+      <c r="G2">
+        <v>332</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <f ca="1">INT(([1]SImulations!N2*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <f ca="1">INT(([1]Sheet1!C3*1000)+0.5)/10</f>
+        <v>87.7</v>
+      </c>
+      <c r="D3" s="2">
+        <f ca="1">INT(([1]Sheet1!D3*1000)+0.5)/10</f>
+        <v>12.3</v>
+      </c>
+      <c r="E3">
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3">
+        <f ca="1">INT(([1]SImulations!N3*1000)+0.5)/10</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <f ca="1">INT(([1]Sheet1!C4*1000)+0.5)/10</f>
+        <v>59.9</v>
+      </c>
+      <c r="D4" s="2">
+        <f ca="1">INT(([1]Sheet1!D4*1000)+0.5)/10</f>
+        <v>40.1</v>
+      </c>
+      <c r="E4">
+        <v>18.165902124584949</v>
+      </c>
+      <c r="F4">
+        <v>172</v>
+      </c>
+      <c r="G4">
+        <v>282</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4">
+        <f ca="1">INT(([1]SImulations!N4*1000)+0.5)/10</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <f ca="1">INT(([1]Sheet1!C5*1000)+0.5)/10</f>
+        <v>99.5</v>
+      </c>
+      <c r="D5" s="2">
+        <f ca="1">INT(([1]Sheet1!D5*1000)+0.5)/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>13.416407864998739</v>
+      </c>
+      <c r="F5">
+        <v>325</v>
+      </c>
+      <c r="G5">
+        <v>290</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5">
+        <f ca="1">INT(([1]SImulations!N5*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <f ca="1">INT(([1]Sheet1!C6*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f ca="1">INT(([1]Sheet1!D6*1000)+0.5)/10</f>
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>40.620192023179804</v>
+      </c>
+      <c r="F6">
+        <v>103</v>
+      </c>
+      <c r="G6">
+        <v>237</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6">
+        <f ca="1">INT(([1]SImulations!N6*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <f ca="1">INT(([1]Sheet1!C7*1000)+0.5)/10</f>
+        <v>27.5</v>
+      </c>
+      <c r="D7" s="2">
+        <f ca="1">INT(([1]Sheet1!D7*1000)+0.5)/10</f>
+        <v>72.5</v>
+      </c>
+      <c r="E7">
+        <v>16.431676725154983</v>
+      </c>
+      <c r="F7">
+        <v>224</v>
+      </c>
+      <c r="G7">
+        <v>249</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7">
+        <f ca="1">INT(([1]SImulations!N7*1000)+0.5)/10</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <f ca="1">INT(([1]Sheet1!C8*1000)+0.5)/10</f>
+        <v>10.1</v>
+      </c>
+      <c r="D8" s="2">
+        <f ca="1">INT(([1]Sheet1!D8*1000)+0.5)/10</f>
+        <v>89.9</v>
+      </c>
+      <c r="E8">
+        <v>14.491376746189438</v>
+      </c>
+      <c r="F8">
+        <v>586</v>
+      </c>
+      <c r="G8">
+        <v>128</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8">
+        <f ca="1">INT(([1]SImulations!N8*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <f ca="1">INT(([1]Sheet1!C9*1000)+0.5)/10</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D9" s="2">
+        <f ca="1">INT(([1]Sheet1!D9*1000)+0.5)/10</f>
+        <v>90.8</v>
+      </c>
+      <c r="E9">
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="F9">
+        <v>557</v>
+      </c>
+      <c r="G9">
+        <v>183</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9">
+        <f ca="1">INT(([1]SImulations!N9*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <f ca="1">INT(([1]Sheet1!C10*1000)+0.5)/10</f>
+        <v>53.7</v>
+      </c>
+      <c r="D10" s="2">
+        <f ca="1">INT(([1]Sheet1!D10*1000)+0.5)/10</f>
+        <v>46.3</v>
+      </c>
+      <c r="E10">
+        <v>29.49576240750525</v>
+      </c>
+      <c r="F10">
+        <v>483</v>
+      </c>
+      <c r="G10">
+        <v>380</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10">
+        <f ca="1">INT(([1]SImulations!N10*1000)+0.5)/10</f>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <f ca="1">INT(([1]Sheet1!C11*1000)+0.5)/10</f>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="D11" s="2">
+        <f ca="1">INT(([1]Sheet1!D11*1000)+0.5)/10</f>
+        <v>31.6</v>
+      </c>
+      <c r="E11">
+        <v>21.908902300206645</v>
+      </c>
+      <c r="F11">
+        <v>443</v>
+      </c>
+      <c r="G11">
+        <v>298</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11">
+        <f ca="1">INT(([1]SImulations!N11*1000)+0.5)/10</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <f ca="1">INT(([1]Sheet1!C12*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <f ca="1">INT(([1]Sheet1!D12*1000)+0.5)/10</f>
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>10.954451150103322</v>
+      </c>
+      <c r="F12">
+        <v>88</v>
+      </c>
+      <c r="G12">
+        <v>372</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <f ca="1">INT(([1]SImulations!N12*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <f ca="1">INT(([1]Sheet1!C13*1000)+0.5)/10</f>
+        <v>99.9</v>
+      </c>
+      <c r="D13" s="2">
+        <f ca="1">INT(([1]Sheet1!D13*1000)+0.5)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <v>10.954451150103322</v>
+      </c>
+      <c r="F13">
+        <v>188</v>
+      </c>
+      <c r="G13">
+        <v>173</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13">
+        <f ca="1">INT(([1]SImulations!N13*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <f ca="1">INT(([1]Sheet1!C14*1000)+0.5)/10</f>
+        <v>7.8</v>
+      </c>
+      <c r="D14" s="2">
+        <f ca="1">INT(([1]Sheet1!D14*1000)+0.5)/10</f>
+        <v>92.2</v>
+      </c>
+      <c r="E14">
+        <v>24.494897427831781</v>
+      </c>
+      <c r="F14">
+        <v>359</v>
+      </c>
+      <c r="G14">
+        <v>207</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <f ca="1">INT(([1]SImulations!N14*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <f ca="1">INT(([1]Sheet1!C15*1000)+0.5)/10</f>
+        <v>91.4</v>
+      </c>
+      <c r="D15" s="2">
+        <f ca="1">INT(([1]Sheet1!D15*1000)+0.5)/10</f>
+        <v>8.6</v>
+      </c>
+      <c r="E15">
+        <v>18.165902124584949</v>
+      </c>
+      <c r="F15">
+        <v>413</v>
+      </c>
+      <c r="G15">
+        <v>207</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15">
+        <f ca="1">INT(([1]SImulations!N15*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <f ca="1">INT(([1]Sheet1!C16*1000)+0.5)/10</f>
+        <v>64.8</v>
+      </c>
+      <c r="D16" s="2">
+        <f ca="1">INT(([1]Sheet1!D16*1000)+0.5)/10</f>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E16">
+        <v>13.416407864998739</v>
+      </c>
+      <c r="F16">
+        <v>306</v>
+      </c>
+      <c r="G16">
+        <v>195</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16">
+        <f ca="1">INT(([1]SImulations!N16*1000)+0.5)/10</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <f ca="1">INT(([1]Sheet1!C17*1000)+0.5)/10</f>
+        <v>93.8</v>
+      </c>
+      <c r="D17" s="2">
+        <f ca="1">INT(([1]Sheet1!D17*1000)+0.5)/10</f>
+        <v>6.2</v>
+      </c>
+      <c r="E17">
+        <v>13.416407864998739</v>
+      </c>
+      <c r="F17">
+        <v>266</v>
+      </c>
+      <c r="G17">
+        <v>248</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17">
+        <f ca="1">INT(([1]SImulations!N17*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <f ca="1">INT(([1]Sheet1!C18*1000)+0.5)/10</f>
+        <v>99.4</v>
+      </c>
+      <c r="D18" s="2">
+        <f ca="1">INT(([1]Sheet1!D18*1000)+0.5)/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="E18">
+        <v>15.491933384829668</v>
+      </c>
+      <c r="F18">
+        <v>411</v>
+      </c>
+      <c r="G18">
+        <v>251</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18">
+        <f ca="1">INT(([1]SImulations!N18*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <f ca="1">INT(([1]Sheet1!C19*1000)+0.5)/10</f>
+        <v>96.4</v>
+      </c>
+      <c r="D19" s="2">
+        <f ca="1">INT(([1]Sheet1!D19*1000)+0.5)/10</f>
+        <v>3.6</v>
+      </c>
+      <c r="E19">
+        <v>15.491933384829668</v>
+      </c>
+      <c r="F19">
+        <v>326</v>
+      </c>
+      <c r="G19">
+        <v>335</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19">
+        <f ca="1">INT(([1]SImulations!N19*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <f ca="1">INT(([1]Sheet1!C20*1000)+0.5)/10</f>
+        <v>30.6</v>
+      </c>
+      <c r="D20" s="2">
+        <f ca="1">INT(([1]Sheet1!D20*1000)+0.5)/10</f>
+        <v>69.400000000000006</v>
+      </c>
+      <c r="E20">
+        <v>7.745966692414834</v>
+      </c>
+      <c r="F20">
+        <v>628</v>
+      </c>
+      <c r="G20">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20">
+        <f ca="1">INT(([1]SImulations!N20*1000)+0.5)/10</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <f ca="1">INT(([1]Sheet1!C21*1000)+0.5)/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="2">
+        <f ca="1">INT(([1]Sheet1!D21*1000)+0.5)/10</f>
+        <v>99.5</v>
+      </c>
+      <c r="E21">
+        <v>17.320508075688775</v>
+      </c>
+      <c r="F21">
+        <v>505</v>
+      </c>
+      <c r="G21">
+        <v>185</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21">
+        <f ca="1">INT(([1]SImulations!N21*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <f ca="1">INT(([1]Sheet1!C22*1000)+0.5)/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="D22" s="2">
+        <f ca="1">INT(([1]Sheet1!D22*1000)+0.5)/10</f>
+        <v>99.8</v>
+      </c>
+      <c r="E22">
+        <v>18.165902124584949</v>
+      </c>
+      <c r="F22">
+        <v>607</v>
+      </c>
+      <c r="G22">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22">
+        <f ca="1">INT(([1]SImulations!N22*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2">
+        <f ca="1">INT(([1]Sheet1!C23*1000)+0.5)/10</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D23" s="2">
+        <f ca="1">INT(([1]Sheet1!D23*1000)+0.5)/10</f>
+        <v>60.8</v>
+      </c>
+      <c r="E23">
+        <v>21.908902300206645</v>
+      </c>
+      <c r="F23">
+        <v>418</v>
+      </c>
+      <c r="G23">
+        <v>149</v>
+      </c>
+      <c r="H23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23">
+        <f ca="1">INT(([1]SImulations!N23*1000)+0.5)/10</f>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2">
+        <f ca="1">INT(([1]Sheet1!C24*1000)+0.5)/10</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D24" s="2">
+        <f ca="1">INT(([1]Sheet1!D24*1000)+0.5)/10</f>
+        <v>67.2</v>
+      </c>
+      <c r="E24">
+        <v>17.320508075688775</v>
+      </c>
+      <c r="F24">
+        <v>304</v>
+      </c>
+      <c r="G24">
+        <v>142</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24">
+        <f ca="1">INT(([1]SImulations!N24*1000)+0.5)/10</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2">
+        <f ca="1">INT(([1]Sheet1!C25*1000)+0.5)/10</f>
+        <v>91.2</v>
+      </c>
+      <c r="D25" s="2">
+        <f ca="1">INT(([1]Sheet1!D25*1000)+0.5)/10</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E25">
+        <v>13.416407864998739</v>
+      </c>
+      <c r="F25">
+        <v>373</v>
+      </c>
+      <c r="G25">
+        <v>324</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25">
+        <f ca="1">INT(([1]SImulations!N25*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2">
+        <f ca="1">INT(([1]Sheet1!C26*1000)+0.5)/10</f>
+        <v>90.9</v>
+      </c>
+      <c r="D26" s="2">
+        <f ca="1">INT(([1]Sheet1!D26*1000)+0.5)/10</f>
+        <v>9.1</v>
+      </c>
+      <c r="E26">
+        <v>17.320508075688775</v>
+      </c>
+      <c r="F26">
+        <v>329</v>
+      </c>
+      <c r="G26">
+        <v>251</v>
+      </c>
+      <c r="H26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26">
+        <f ca="1">INT(([1]SImulations!N26*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2">
+        <f ca="1">INT(([1]Sheet1!C27*1000)+0.5)/10</f>
+        <v>90.1</v>
+      </c>
+      <c r="D27" s="2">
+        <f ca="1">INT(([1]Sheet1!D27*1000)+0.5)/10</f>
+        <v>9.9</v>
+      </c>
+      <c r="E27">
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="F27">
+        <v>206</v>
+      </c>
+      <c r="G27">
+        <v>131</v>
+      </c>
+      <c r="H27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27">
+        <f ca="1">INT(([1]SImulations!N27*1000)+0.5)/10</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2">
+        <f ca="1">INT(([1]Sheet1!C28*1000)+0.5)/10</f>
+        <v>98.7</v>
+      </c>
+      <c r="D28" s="2">
+        <f ca="1">INT(([1]Sheet1!D28*1000)+0.5)/10</f>
+        <v>1.3</v>
+      </c>
+      <c r="E28">
+        <v>7.745966692414834</v>
+      </c>
+      <c r="F28">
+        <v>258</v>
+      </c>
+      <c r="G28">
+        <v>209</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <f ca="1">INT(([1]SImulations!N28*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2">
+        <f ca="1">INT(([1]Sheet1!C29*1000)+0.5)/10</f>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="D29" s="2">
+        <f ca="1">INT(([1]Sheet1!D29*1000)+0.5)/10</f>
+        <v>60.2</v>
+      </c>
+      <c r="E29">
+        <v>13.416407864998739</v>
+      </c>
+      <c r="F29">
+        <v>167</v>
+      </c>
+      <c r="G29">
+        <v>220</v>
+      </c>
+      <c r="H29" t="s">
+        <v>87</v>
+      </c>
+      <c r="I29">
+        <f ca="1">INT(([1]SImulations!N29*1000)+0.5)/10</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2">
+        <f ca="1">INT(([1]Sheet1!C30*1000)+0.5)/10</f>
+        <v>36.6</v>
+      </c>
+      <c r="D30" s="2">
+        <f ca="1">INT(([1]Sheet1!D30*1000)+0.5)/10</f>
+        <v>63.4</v>
+      </c>
+      <c r="E30">
+        <v>10.954451150103322</v>
+      </c>
+      <c r="F30">
+        <v>612</v>
+      </c>
+      <c r="G30">
+        <v>54</v>
+      </c>
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30">
+        <f ca="1">INT(([1]SImulations!N30*1000)+0.5)/10</f>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2">
+        <f ca="1">INT(([1]Sheet1!C31*1000)+0.5)/10</f>
+        <v>10.6</v>
+      </c>
+      <c r="D31" s="2">
+        <f ca="1">INT(([1]Sheet1!D31*1000)+0.5)/10</f>
+        <v>89.4</v>
+      </c>
+      <c r="E31">
+        <v>20.493901531919196</v>
+      </c>
+      <c r="F31">
+        <v>551</v>
+      </c>
+      <c r="G31">
+        <v>147</v>
+      </c>
+      <c r="H31" t="s">
+        <v>89</v>
+      </c>
+      <c r="I31">
+        <f ca="1">INT(([1]SImulations!N31*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2">
+        <f ca="1">INT(([1]Sheet1!C32*1000)+0.5)/10</f>
+        <v>18.2</v>
+      </c>
+      <c r="D32" s="2">
+        <f ca="1">INT(([1]Sheet1!D32*1000)+0.5)/10</f>
+        <v>81.8</v>
+      </c>
+      <c r="E32">
+        <v>12.24744871391589</v>
+      </c>
+      <c r="F32">
+        <v>215</v>
+      </c>
+      <c r="G32">
+        <v>303</v>
+      </c>
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32">
+        <f ca="1">INT(([1]SImulations!N32*1000)+0.5)/10</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2">
+        <f ca="1">INT(([1]Sheet1!C33*1000)+0.5)/10</f>
+        <v>1.9</v>
+      </c>
+      <c r="D33" s="2">
+        <f ca="1">INT(([1]Sheet1!D33*1000)+0.5)/10</f>
+        <v>98.1</v>
+      </c>
+      <c r="E33">
+        <v>29.49576240750525</v>
+      </c>
+      <c r="F33">
+        <v>548</v>
+      </c>
+      <c r="G33">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33">
+        <f ca="1">INT(([1]SImulations!N33*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2">
+        <f ca="1">INT(([1]Sheet1!C34*1000)+0.5)/10</f>
+        <v>58.8</v>
+      </c>
+      <c r="D34" s="2">
+        <f ca="1">INT(([1]Sheet1!D34*1000)+0.5)/10</f>
+        <v>41.2</v>
+      </c>
+      <c r="E34">
+        <v>21.213203435596427</v>
+      </c>
+      <c r="F34">
+        <v>499</v>
+      </c>
+      <c r="G34">
+        <v>278</v>
+      </c>
+      <c r="H34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34">
+        <f ca="1">INT(([1]SImulations!N34*1000)+0.5)/10</f>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2">
+        <f ca="1">INT(([1]Sheet1!C35*1000)+0.5)/10</f>
+        <v>99.9</v>
+      </c>
+      <c r="D35" s="2">
+        <f ca="1">INT(([1]Sheet1!D35*1000)+0.5)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="E35">
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="F35">
+        <v>257</v>
+      </c>
+      <c r="G35">
+        <v>136</v>
+      </c>
+      <c r="H35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35">
+        <f ca="1">INT(([1]SImulations!N35*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2">
+        <f ca="1">INT(([1]Sheet1!C36*1000)+0.5)/10</f>
+        <v>71.7</v>
+      </c>
+      <c r="D36" s="2">
+        <f ca="1">INT(([1]Sheet1!D36*1000)+0.5)/10</f>
+        <v>28.3</v>
+      </c>
+      <c r="E36">
+        <v>23.2379000772445</v>
+      </c>
+      <c r="F36">
+        <v>459</v>
+      </c>
+      <c r="G36">
+        <v>191</v>
+      </c>
+      <c r="H36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36">
+        <f ca="1">INT(([1]SImulations!N36*1000)+0.5)/10</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2">
+        <f ca="1">INT(([1]Sheet1!C37*1000)+0.5)/10</f>
+        <v>99.9</v>
+      </c>
+      <c r="D37" s="2">
+        <f ca="1">INT(([1]Sheet1!D37*1000)+0.5)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="E37">
+        <v>14.491376746189438</v>
+      </c>
+      <c r="F37">
+        <v>270</v>
+      </c>
+      <c r="G37">
+        <v>294</v>
+      </c>
+      <c r="H37" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37">
+        <f ca="1">INT(([1]SImulations!N37*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2">
+        <f ca="1">INT(([1]Sheet1!C38*1000)+0.5)/10</f>
+        <v>14</v>
+      </c>
+      <c r="D38" s="2">
+        <f ca="1">INT(([1]Sheet1!D38*1000)+0.5)/10</f>
+        <v>86</v>
+      </c>
+      <c r="E38">
+        <v>14.491376746189438</v>
+      </c>
+      <c r="F38">
+        <v>124</v>
+      </c>
+      <c r="G38">
+        <v>176</v>
+      </c>
+      <c r="H38" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38">
+        <f ca="1">INT(([1]SImulations!N38*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2">
+        <f ca="1">INT(([1]Sheet1!C39*1000)+0.5)/10</f>
+        <v>44.4</v>
+      </c>
+      <c r="D39" s="2">
+        <f ca="1">INT(([1]Sheet1!D39*1000)+0.5)/10</f>
+        <v>55.6</v>
+      </c>
+      <c r="E39">
+        <v>24.494897427831781</v>
+      </c>
+      <c r="F39">
+        <v>498</v>
+      </c>
+      <c r="G39">
+        <v>132</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39">
+        <f ca="1">INT(([1]SImulations!N39*1000)+0.5)/10</f>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="2">
+        <f ca="1">INT(([1]Sheet1!C40*1000)+0.5)/10</f>
+        <v>5.2</v>
+      </c>
+      <c r="D40" s="2">
+        <f ca="1">INT(([1]Sheet1!D40*1000)+0.5)/10</f>
+        <v>94.8</v>
+      </c>
+      <c r="E40">
+        <v>10.954451150103322</v>
+      </c>
+      <c r="F40">
+        <v>619</v>
+      </c>
+      <c r="G40">
+        <v>126</v>
+      </c>
+      <c r="H40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40">
+        <f ca="1">INT(([1]SImulations!N40*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="2">
+        <f ca="1">INT(([1]Sheet1!C41*1000)+0.5)/10</f>
+        <v>87.8</v>
+      </c>
+      <c r="D41" s="2">
+        <f ca="1">INT(([1]Sheet1!D41*1000)+0.5)/10</f>
+        <v>12.2</v>
+      </c>
+      <c r="E41">
+        <v>16.431676725154983</v>
+      </c>
+      <c r="F41">
+        <v>487</v>
+      </c>
+      <c r="G41">
+        <v>322</v>
+      </c>
+      <c r="H41" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41">
+        <f ca="1">INT(([1]SImulations!N41*1000)+0.5)/10</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="2">
+        <f ca="1">INT(([1]Sheet1!C42*1000)+0.5)/10</f>
+        <v>99.7</v>
+      </c>
+      <c r="D42" s="2">
+        <f ca="1">INT(([1]Sheet1!D42*1000)+0.5)/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="E42">
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="F42">
+        <v>257</v>
+      </c>
+      <c r="G42">
+        <v>167</v>
+      </c>
+      <c r="H42" t="s">
+        <v>156</v>
+      </c>
+      <c r="I42">
+        <f ca="1">INT(([1]SImulations!N42*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="2">
+        <f ca="1">INT(([1]Sheet1!C43*1000)+0.5)/10</f>
+        <v>98.7</v>
+      </c>
+      <c r="D43" s="2">
+        <f ca="1">INT(([1]Sheet1!D43*1000)+0.5)/10</f>
+        <v>1.3</v>
+      </c>
+      <c r="E43">
+        <v>18.165902124584949</v>
+      </c>
+      <c r="F43">
+        <v>379</v>
+      </c>
+      <c r="G43">
+        <v>284</v>
+      </c>
+      <c r="H43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43">
+        <f ca="1">INT(([1]SImulations!N43*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2">
+        <f ca="1">INT(([1]Sheet1!C44*1000)+0.5)/10</f>
+        <v>80.3</v>
+      </c>
+      <c r="D44" s="2">
+        <f ca="1">INT(([1]Sheet1!D44*1000)+0.5)/10</f>
+        <v>19.7</v>
+      </c>
+      <c r="E44">
+        <v>33.763886032268267</v>
+      </c>
+      <c r="F44">
+        <v>271</v>
+      </c>
+      <c r="G44">
+        <v>355</v>
+      </c>
+      <c r="H44" t="s">
+        <v>158</v>
+      </c>
+      <c r="I44">
+        <f ca="1">INT(([1]SImulations!N44*1000)+0.5)/10</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2">
+        <f ca="1">INT(([1]Sheet1!C45*1000)+0.5)/10</f>
+        <v>99.8</v>
+      </c>
+      <c r="D45" s="2">
+        <f ca="1">INT(([1]Sheet1!D45*1000)+0.5)/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="E45">
+        <v>13.416407864998739</v>
+      </c>
+      <c r="F45">
+        <v>204</v>
+      </c>
+      <c r="G45">
+        <v>218</v>
+      </c>
+      <c r="H45" t="s">
+        <v>159</v>
+      </c>
+      <c r="I45">
+        <f ca="1">INT(([1]SImulations!N45*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2">
+        <f ca="1">INT(([1]Sheet1!C46*1000)+0.5)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D46" s="2">
+        <f ca="1">INT(([1]Sheet1!D46*1000)+0.5)/10</f>
+        <v>99.9</v>
+      </c>
+      <c r="E46">
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="F46">
+        <v>585</v>
+      </c>
+      <c r="G46">
+        <v>47</v>
+      </c>
+      <c r="H46" t="s">
+        <v>160</v>
+      </c>
+      <c r="I46">
+        <f ca="1">INT(([1]SImulations!N46*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2">
+        <f ca="1">INT(([1]Sheet1!C47*1000)+0.5)/10</f>
+        <v>27.8</v>
+      </c>
+      <c r="D47" s="2">
+        <f ca="1">INT(([1]Sheet1!D47*1000)+0.5)/10</f>
+        <v>72.2</v>
+      </c>
+      <c r="E47">
+        <v>19.748417658131498</v>
+      </c>
+      <c r="F47">
+        <v>508</v>
+      </c>
+      <c r="G47">
+        <v>229</v>
+      </c>
+      <c r="H47" t="s">
+        <v>161</v>
+      </c>
+      <c r="I47">
+        <f ca="1">INT(([1]SImulations!N47*1000)+0.5)/10</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2">
+        <f ca="1">INT(([1]Sheet1!C48*1000)+0.5)/10</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D48" s="2">
+        <f ca="1">INT(([1]Sheet1!D48*1000)+0.5)/10</f>
+        <v>90.8</v>
+      </c>
+      <c r="E48">
+        <v>18.973665961010276</v>
+      </c>
+      <c r="F48">
+        <v>154</v>
+      </c>
+      <c r="G48">
+        <v>131</v>
+      </c>
+      <c r="H48" t="s">
+        <v>162</v>
+      </c>
+      <c r="I48">
+        <f ca="1">INT(([1]SImulations!N48*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="2">
+        <f ca="1">INT(([1]Sheet1!C49*1000)+0.5)/10</f>
+        <v>99.9</v>
+      </c>
+      <c r="D49" s="2">
+        <f ca="1">INT(([1]Sheet1!D49*1000)+0.5)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="E49">
+        <v>12.24744871391589</v>
+      </c>
+      <c r="F49">
+        <v>451</v>
+      </c>
+      <c r="G49">
+        <v>242</v>
+      </c>
+      <c r="H49" t="s">
+        <v>163</v>
+      </c>
+      <c r="I49">
+        <f ca="1">INT(([1]SImulations!N49*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="2">
+        <f ca="1">INT(([1]Sheet1!C50*1000)+0.5)/10</f>
+        <v>48.6</v>
+      </c>
+      <c r="D50" s="2">
+        <f ca="1">INT(([1]Sheet1!D50*1000)+0.5)/10</f>
+        <v>51.4</v>
+      </c>
+      <c r="E50">
+        <v>17.320508075688775</v>
+      </c>
+      <c r="F50">
+        <v>359</v>
+      </c>
+      <c r="G50">
+        <v>146</v>
+      </c>
+      <c r="H50" t="s">
+        <v>164</v>
+      </c>
+      <c r="I50">
+        <f ca="1">INT(([1]SImulations!N50*1000)+0.5)/10</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="2">
+        <f ca="1">INT(([1]Sheet1!C51*1000)+0.5)/10</f>
+        <v>100</v>
+      </c>
+      <c r="D51" s="2">
+        <f ca="1">INT(([1]Sheet1!D51*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="F51">
+        <v>214</v>
+      </c>
+      <c r="G51">
+        <v>177</v>
+      </c>
+      <c r="H51" t="s">
+        <v>165</v>
+      </c>
+      <c r="I51">
+        <f ca="1">INT(([1]SImulations!N51*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="2">
+        <f ca="1">INT(([1]Sheet1!C52*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <f ca="1">INT(([1]Sheet1!D52*1000)+0.5)/10</f>
+        <v>100</v>
+      </c>
+      <c r="E52">
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="F52">
+        <v>536</v>
+      </c>
+      <c r="G52">
+        <v>193</v>
+      </c>
+      <c r="H52" t="s">
+        <v>166</v>
+      </c>
+      <c r="I52">
+        <f ca="1">INT(([1]SImulations!N52*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>150</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53">
-        <f>[1]Sheet1!B53</f>
-        <v>1</v>
+      <c r="C53" s="2">
+        <f>INT(([1]Sheet1!C53*1000)+0.5)/10</f>
+        <v>8.9</v>
       </c>
       <c r="D53" s="2">
-        <f>INT([1]Sheet1!C53*1000)/10</f>
-        <v>6.7</v>
-      </c>
-      <c r="E53" s="2">
-        <f>INT([1]Sheet1!D53*1000)/10</f>
-        <v>93.2</v>
-      </c>
-      <c r="F53" s="1">
-        <f>[1]Sheet1!E53</f>
-        <v>216.31040044518562</v>
-      </c>
-      <c r="G53" s="1">
-        <f>[1]Sheet1!F53</f>
-        <v>33.689599554814379</v>
-      </c>
-      <c r="H53">
-        <f>[1]Sheet1!G53</f>
-        <v>1</v>
+        <f>INT(([1]Sheet1!D53*1000)+0.5)/10</f>
+        <v>91.1</v>
+      </c>
+      <c r="E53">
+        <v>5.4772255750516612</v>
+      </c>
+      <c r="F53">
+        <v>612</v>
+      </c>
+      <c r="G53">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>167</v>
       </c>
       <c r="I53">
-        <f ca="1">[1]Sheet1!I53</f>
-        <v>139</v>
-      </c>
-      <c r="J53">
-        <f ca="1">[1]Sheet1!J53</f>
-        <v>139.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" t="str">
-        <f>[1]Sheet1!A54</f>
-        <v>ME2</v>
+        <f ca="1">INT(([1]SImulations!N53*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>151</v>
       </c>
       <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <f>[1]Sheet1!B54</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C54" s="2">
+        <f>INT(([1]Sheet1!C54*1000)+0.5)/10</f>
+        <v>61</v>
       </c>
       <c r="D54" s="2">
-        <f>INT([1]Sheet1!C54*1000)/10</f>
-        <v>62</v>
-      </c>
-      <c r="E54" s="2">
-        <f>INT([1]Sheet1!D54*1000)/10</f>
-        <v>37.9</v>
-      </c>
-      <c r="F54" s="1">
-        <f>[1]Sheet1!E54</f>
-        <v>60.239325828625233</v>
-      </c>
-      <c r="G54" s="1">
-        <f>[1]Sheet1!F54</f>
-        <v>189.76067417137477</v>
-      </c>
-      <c r="H54">
-        <f>[1]Sheet1!G54</f>
-        <v>1</v>
+        <f>INT(([1]Sheet1!D54*1000)+0.5)/10</f>
+        <v>39</v>
+      </c>
+      <c r="E54">
+        <v>5.4772255750516612</v>
+      </c>
+      <c r="F54">
+        <v>644</v>
+      </c>
+      <c r="G54">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>168</v>
       </c>
       <c r="I54">
-        <f ca="1">[1]Sheet1!I54</f>
-        <v>334</v>
-      </c>
-      <c r="J54">
-        <f ca="1">[1]Sheet1!J54</f>
-        <v>334.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" t="str">
-        <f>[1]Sheet1!A55</f>
-        <v>NE1</v>
+        <f ca="1">INT(([1]SImulations!N54*1000)+0.5)/10</f>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>152</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55">
-        <f>[1]Sheet1!B55</f>
-        <v>1</v>
+      <c r="C55" s="2">
+        <f>INT(([1]Sheet1!C55*1000)+0.5)/10</f>
+        <v>95.8</v>
       </c>
       <c r="D55" s="2">
-        <f>INT([1]Sheet1!C55*1000)/10</f>
-        <v>97.3</v>
-      </c>
-      <c r="E55" s="2">
-        <f>INT([1]Sheet1!D55*1000)/10</f>
-        <v>2.6</v>
-      </c>
-      <c r="F55" s="1">
-        <f>[1]Sheet1!E55</f>
-        <v>236.80913005066762</v>
-      </c>
-      <c r="G55" s="1">
-        <f>[1]Sheet1!F55</f>
-        <v>13.190869949332381</v>
-      </c>
-      <c r="H55">
-        <f>[1]Sheet1!G55</f>
-        <v>1</v>
+        <f>INT(([1]Sheet1!D55*1000)+0.5)/10</f>
+        <v>4.2</v>
+      </c>
+      <c r="E55">
+        <v>5.4772255750516612</v>
+      </c>
+      <c r="F55">
+        <v>242</v>
+      </c>
+      <c r="G55">
+        <v>209</v>
+      </c>
+      <c r="H55" t="s">
+        <v>169</v>
       </c>
       <c r="I55">
-        <f ca="1">[1]Sheet1!I55</f>
-        <v>461</v>
-      </c>
-      <c r="J55">
-        <f ca="1">[1]Sheet1!J55</f>
-        <v>461.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="str">
-        <f>[1]Sheet1!A56</f>
-        <v>NE2</v>
+        <f ca="1">INT(([1]SImulations!N55*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>153</v>
       </c>
       <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <f>[1]Sheet1!B56</f>
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C56" s="2">
+        <f>INT(([1]Sheet1!C56*1000)+0.5)/10</f>
+        <v>59.2</v>
       </c>
       <c r="D56" s="2">
-        <f>INT([1]Sheet1!C56*1000)/10</f>
-        <v>60.1</v>
-      </c>
-      <c r="E56" s="2">
-        <f>INT([1]Sheet1!D56*1000)/10</f>
-        <v>39.799999999999997</v>
-      </c>
-      <c r="F56" s="1">
-        <f>[1]Sheet1!E56</f>
-        <v>50.505283463347482</v>
-      </c>
-      <c r="G56" s="1">
-        <f>[1]Sheet1!F56</f>
-        <v>199.4947165366525</v>
-      </c>
-      <c r="H56">
-        <f>[1]Sheet1!G56</f>
-        <v>1</v>
+        <f>INT(([1]Sheet1!D56*1000)+0.5)/10</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E56">
+        <v>5.4772255750516612</v>
+      </c>
+      <c r="F56">
+        <v>258</v>
+      </c>
+      <c r="G56">
+        <v>193</v>
+      </c>
+      <c r="H56" t="s">
+        <v>170</v>
       </c>
       <c r="I56">
-        <f ca="1">[1]Sheet1!I56</f>
-        <v>322</v>
-      </c>
-      <c r="J56">
-        <f ca="1">[1]Sheet1!J56</f>
-        <v>322.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="str">
-        <f>[1]Sheet1!A57</f>
-        <v>NE3</v>
+        <f ca="1">INT(([1]SImulations!N56*1000)+0.5)/10</f>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>154</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <f>[1]Sheet1!B57</f>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C57" s="2">
+        <f>INT(([1]Sheet1!C57*1000)+0.5)/10</f>
+        <v>100</v>
       </c>
       <c r="D57" s="2">
-        <f>INT([1]Sheet1!C57*1000)/10</f>
-        <v>99.9</v>
-      </c>
-      <c r="E57" s="2">
-        <f>INT([1]Sheet1!D57*1000)/10</f>
+        <f>INT(([1]Sheet1!D57*1000)+0.5)/10</f>
         <v>0</v>
       </c>
-      <c r="F57" s="1">
-        <f>[1]Sheet1!E57</f>
-        <v>249.99993006442173</v>
-      </c>
-      <c r="G57" s="1">
-        <f>[1]Sheet1!F57</f>
-        <v>6.9935578267177334E-5</v>
-      </c>
-      <c r="H57">
-        <f>[1]Sheet1!G57</f>
-        <v>1</v>
+      <c r="E57">
+        <v>5.4772255750516612</v>
+      </c>
+      <c r="F57">
+        <v>274</v>
+      </c>
+      <c r="G57">
+        <v>209</v>
+      </c>
+      <c r="H57" t="s">
+        <v>171</v>
       </c>
       <c r="I57">
-        <f ca="1">[1]Sheet1!I57</f>
-        <v>534</v>
-      </c>
-      <c r="J57">
-        <f ca="1">[1]Sheet1!J57</f>
-        <v>534.5</v>
+        <f ca="1">INT(([1]SImulations!N57*1000)+0.5)/10</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/presidential_forecast.xlsx
+++ b/presidential_forecast.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCD158E-E419-5544-93AB-34B9C4061060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD34464-CD66-E74E-920E-0D311566C06D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="14060" windowHeight="17460" activeTab="1" xr2:uid="{8705FA9F-56CD-4041-A2AF-8023962B8A84}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="14060" windowHeight="17460" firstSheet="2" activeTab="4" xr2:uid="{8705FA9F-56CD-4041-A2AF-8023962B8A84}"/>
   </bookViews>
   <sheets>
     <sheet name="evrace" sheetId="1" r:id="rId1"/>
-    <sheet name="bubble map" sheetId="2" r:id="rId2"/>
+    <sheet name="US Map" sheetId="4" r:id="rId2"/>
+    <sheet name="topline" sheetId="6" r:id="rId3"/>
+    <sheet name="bubble map" sheetId="2" r:id="rId4"/>
+    <sheet name="voteshare" sheetId="7" r:id="rId5"/>
+    <sheet name="winpercentage" sheetId="8" r:id="rId6"/>
+    <sheet name="electoralvotes" sheetId="9" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,11 +40,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="145">
   <si>
     <t>state</t>
   </si>
   <si>
+    <t>electoralVotes</t>
+  </si>
+  <si>
     <t>gopWin</t>
   </si>
   <si>
@@ -217,123 +225,6 @@
     <t>pageLink</t>
   </si>
   <si>
-    <t>alabama</t>
-  </si>
-  <si>
-    <t>alaska</t>
-  </si>
-  <si>
-    <t>arizona</t>
-  </si>
-  <si>
-    <t>arkansas</t>
-  </si>
-  <si>
-    <t>california</t>
-  </si>
-  <si>
-    <t>colorado</t>
-  </si>
-  <si>
-    <t>connecticut</t>
-  </si>
-  <si>
-    <t>delaware</t>
-  </si>
-  <si>
-    <t>florida</t>
-  </si>
-  <si>
-    <t>georgia</t>
-  </si>
-  <si>
-    <t>hawaii</t>
-  </si>
-  <si>
-    <t>idaho</t>
-  </si>
-  <si>
-    <t>illinois</t>
-  </si>
-  <si>
-    <t>indiana</t>
-  </si>
-  <si>
-    <t>iowa</t>
-  </si>
-  <si>
-    <t>kansas</t>
-  </si>
-  <si>
-    <t>kentucky</t>
-  </si>
-  <si>
-    <t>louisiana</t>
-  </si>
-  <si>
-    <t>maine</t>
-  </si>
-  <si>
-    <t>maryland</t>
-  </si>
-  <si>
-    <t>massachusetts</t>
-  </si>
-  <si>
-    <t>michigan</t>
-  </si>
-  <si>
-    <t>minnesota</t>
-  </si>
-  <si>
-    <t>missouri</t>
-  </si>
-  <si>
-    <t>mississippi</t>
-  </si>
-  <si>
-    <t>montana</t>
-  </si>
-  <si>
-    <t>nebraska</t>
-  </si>
-  <si>
-    <t>nevada</t>
-  </si>
-  <si>
-    <t>new_hampshire</t>
-  </si>
-  <si>
-    <t>new_jersey</t>
-  </si>
-  <si>
-    <t>new_mexico</t>
-  </si>
-  <si>
-    <t>new_york</t>
-  </si>
-  <si>
-    <t>north_carolina</t>
-  </si>
-  <si>
-    <t>north_dakota</t>
-  </si>
-  <si>
-    <t>ohio</t>
-  </si>
-  <si>
-    <t>oklahoma</t>
-  </si>
-  <si>
-    <t>oregon</t>
-  </si>
-  <si>
-    <t>pennsylvania</t>
-  </si>
-  <si>
-    <t>rhode_island</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -502,58 +393,88 @@
     <t>Nebraska-3</t>
   </si>
   <si>
-    <t>south_carolina</t>
-  </si>
-  <si>
-    <t>south_dakota</t>
-  </si>
-  <si>
-    <t>tennessee</t>
-  </si>
-  <si>
-    <t>texas</t>
-  </si>
-  <si>
-    <t>utah</t>
-  </si>
-  <si>
-    <t>vermont</t>
-  </si>
-  <si>
-    <t>virginia</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>west_virginia</t>
-  </si>
-  <si>
-    <t>wisconsin</t>
-  </si>
-  <si>
-    <t>wyoming</t>
-  </si>
-  <si>
-    <t>dc</t>
-  </si>
-  <si>
-    <t>maine_1</t>
-  </si>
-  <si>
-    <t>maine_2</t>
-  </si>
-  <si>
-    <t>nebraska_1</t>
-  </si>
-  <si>
-    <t>nebraska_2</t>
-  </si>
-  <si>
-    <t>nebraska_3</t>
-  </si>
-  <si>
     <t>tippingPoint</t>
+  </si>
+  <si>
+    <t>New%20Hampshire</t>
+  </si>
+  <si>
+    <t>New%20Jersey</t>
+  </si>
+  <si>
+    <t>New%20Mexico</t>
+  </si>
+  <si>
+    <t>New%20York</t>
+  </si>
+  <si>
+    <t>North%20Carolina</t>
+  </si>
+  <si>
+    <t>North%20Dakota</t>
+  </si>
+  <si>
+    <t>Rhode%20Island</t>
+  </si>
+  <si>
+    <t>South%20Carolina</t>
+  </si>
+  <si>
+    <t>South%20Dakota</t>
+  </si>
+  <si>
+    <t>West%20Virginia</t>
+  </si>
+  <si>
+    <t>Dc</t>
+  </si>
+  <si>
+    <t>Maine%201</t>
+  </si>
+  <si>
+    <t>Maine%202</t>
+  </si>
+  <si>
+    <t>Nebraska%201</t>
+  </si>
+  <si>
+    <t>Nebraska%202</t>
+  </si>
+  <si>
+    <t>Nebraska%203</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>vote</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>Democrats</t>
+  </si>
+  <si>
+    <t>cand</t>
+  </si>
+  <si>
+    <t>abbrev</t>
+  </si>
+  <si>
+    <t>District%20of%20Columbia</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
@@ -564,10 +485,16 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Brandon Grotesque Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Brandon Grotesque Regular"/>
       <family val="2"/>
     </font>
@@ -592,10 +519,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,10 +558,32 @@
       <sheetName val="State Similarity "/>
       <sheetName val="Pollsters"/>
       <sheetName val="Dem_Primary"/>
+      <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="58">
+          <cell r="D58">
+            <v>0.45739999999999997</v>
+          </cell>
+          <cell r="E58">
+            <v>0.54259999999999997</v>
+          </cell>
+          <cell r="F58">
+            <v>0.46029373370733512</v>
+          </cell>
+          <cell r="G58">
+            <v>0.49902211622587733</v>
+          </cell>
+          <cell r="K58">
+            <v>242.58495902259983</v>
+          </cell>
+          <cell r="L58">
+            <v>295.41504097740039</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
@@ -665,16 +616,16 @@
             <v>9</v>
           </cell>
           <cell r="C2">
-            <v>0.99398981432329681</v>
+            <v>0.99278720135675869</v>
           </cell>
           <cell r="D2">
-            <v>6.0101856767031947E-3</v>
+            <v>7.2127986432413138E-3</v>
           </cell>
           <cell r="E2">
-            <v>246.9949071616484</v>
+            <v>246.39360067837936</v>
           </cell>
           <cell r="F2">
-            <v>3.0050928383516009</v>
+            <v>3.6063993216206427</v>
           </cell>
           <cell r="G2">
             <v>9</v>
@@ -691,16 +642,16 @@
             <v>3</v>
           </cell>
           <cell r="C3">
-            <v>0.87691055618023661</v>
+            <v>0.85104425851909515</v>
           </cell>
           <cell r="D3">
-            <v>0.12308944381976339</v>
+            <v>0.14895574148090485</v>
           </cell>
           <cell r="E3">
-            <v>188.4552780901183</v>
+            <v>175.52212925954757</v>
           </cell>
           <cell r="F3">
-            <v>61.544721909881702</v>
+            <v>74.477870740452431</v>
           </cell>
           <cell r="G3">
             <v>3</v>
@@ -717,25 +668,25 @@
             <v>11</v>
           </cell>
           <cell r="C4">
-            <v>0.59867880078826752</v>
+            <v>0.56325761380655703</v>
           </cell>
           <cell r="D4">
-            <v>0.40132119921173248</v>
+            <v>0.43674238619344297</v>
           </cell>
           <cell r="E4">
-            <v>49.339400394133762</v>
+            <v>31.628806903278516</v>
           </cell>
           <cell r="F4">
-            <v>200.66059960586625</v>
+            <v>218.37119309672147</v>
           </cell>
           <cell r="G4">
             <v>11</v>
           </cell>
           <cell r="I4">
-            <v>323</v>
+            <v>322</v>
           </cell>
           <cell r="J4">
-            <v>328.5</v>
+            <v>327.5</v>
           </cell>
         </row>
         <row r="5">
@@ -743,16 +694,16 @@
             <v>6</v>
           </cell>
           <cell r="C5">
-            <v>0.99543850348481111</v>
+            <v>0.994418435175354</v>
           </cell>
           <cell r="D5">
-            <v>4.5614965151888898E-3</v>
+            <v>5.5815648246460015E-3</v>
           </cell>
           <cell r="E5">
-            <v>247.71925174240556</v>
+            <v>247.20921758767699</v>
           </cell>
           <cell r="F5">
-            <v>2.2807482575944391</v>
+            <v>2.7907824123230114</v>
           </cell>
           <cell r="G5">
             <v>6</v>
@@ -769,25 +720,25 @@
             <v>55</v>
           </cell>
           <cell r="C6">
-            <v>5.2443424179922943E-5</v>
+            <v>1.6887168013877954E-4</v>
           </cell>
           <cell r="D6">
-            <v>0.99994755657582013</v>
+            <v>0.99983112831986121</v>
           </cell>
           <cell r="E6">
-            <v>249.97377828791002</v>
+            <v>249.91556415993063</v>
           </cell>
           <cell r="F6">
-            <v>2.62217120899777E-2</v>
+            <v>8.443584006937499E-2</v>
           </cell>
           <cell r="G6">
             <v>55</v>
           </cell>
           <cell r="I6">
-            <v>3</v>
+            <v>7</v>
           </cell>
           <cell r="J6">
-            <v>30.5</v>
+            <v>34.5</v>
           </cell>
         </row>
         <row r="7">
@@ -795,16 +746,16 @@
             <v>9</v>
           </cell>
           <cell r="C7">
-            <v>0.27484407209645012</v>
+            <v>0.25336274767843397</v>
           </cell>
           <cell r="D7">
-            <v>0.72515592790354988</v>
+            <v>0.74663725232156608</v>
           </cell>
           <cell r="E7">
-            <v>112.57796395177495</v>
+            <v>123.31862616078301</v>
           </cell>
           <cell r="F7">
-            <v>137.42203604822504</v>
+            <v>126.68137383921699</v>
           </cell>
           <cell r="G7">
             <v>9</v>
@@ -821,16 +772,16 @@
             <v>7</v>
           </cell>
           <cell r="C8">
-            <v>0.10088082787210056</v>
+            <v>8.9386921939366329E-2</v>
           </cell>
           <cell r="D8">
-            <v>0.89911917212789949</v>
+            <v>0.91061307806063363</v>
           </cell>
           <cell r="E8">
-            <v>199.55958606394972</v>
+            <v>205.30653903031686</v>
           </cell>
           <cell r="F8">
-            <v>50.440413936050277</v>
+            <v>44.693460969683144</v>
           </cell>
           <cell r="G8">
             <v>7</v>
@@ -847,16 +798,16 @@
             <v>3</v>
           </cell>
           <cell r="C9">
-            <v>9.2015492101282112E-2</v>
+            <v>8.2520455826202876E-2</v>
           </cell>
           <cell r="D9">
-            <v>0.90798450789871787</v>
+            <v>0.91747954417379707</v>
           </cell>
           <cell r="E9">
-            <v>203.99225394935891</v>
+            <v>208.73977208689857</v>
           </cell>
           <cell r="F9">
-            <v>46.007746050641089</v>
+            <v>41.260227913101431</v>
           </cell>
           <cell r="G9">
             <v>3</v>
@@ -873,16 +824,16 @@
             <v>29</v>
           </cell>
           <cell r="C10">
-            <v>0.53698337528069362</v>
+            <v>0.50209267513065226</v>
           </cell>
           <cell r="D10">
-            <v>0.46301662471930638</v>
+            <v>0.49790732486934774</v>
           </cell>
           <cell r="E10">
-            <v>18.491687640346811</v>
+            <v>1.0463375653261275</v>
           </cell>
           <cell r="F10">
-            <v>231.50831235965319</v>
+            <v>248.95366243467387</v>
           </cell>
           <cell r="G10">
             <v>29</v>
@@ -899,16 +850,16 @@
             <v>16</v>
           </cell>
           <cell r="C11">
-            <v>0.68358309526451877</v>
+            <v>0.65261825103710458</v>
           </cell>
           <cell r="D11">
-            <v>0.31641690473548123</v>
+            <v>0.34738174896289542</v>
           </cell>
           <cell r="E11">
-            <v>91.79154763225938</v>
+            <v>76.309125518552293</v>
           </cell>
           <cell r="F11">
-            <v>158.20845236774062</v>
+            <v>173.69087448144771</v>
           </cell>
           <cell r="G11">
             <v>16</v>
@@ -925,25 +876,25 @@
             <v>4</v>
           </cell>
           <cell r="C12">
-            <v>8.5626849524750848E-5</v>
+            <v>7.0486979989290688E-5</v>
           </cell>
           <cell r="D12">
-            <v>0.99991437315047527</v>
+            <v>0.99992951302001076</v>
           </cell>
           <cell r="E12">
-            <v>249.95718657523764</v>
+            <v>249.96475651000534</v>
           </cell>
           <cell r="F12">
-            <v>4.2813424762357499E-2</v>
+            <v>3.5243489994655874E-2</v>
           </cell>
           <cell r="G12">
             <v>4</v>
           </cell>
           <cell r="I12">
-            <v>58</v>
+            <v>3</v>
           </cell>
           <cell r="J12">
-            <v>60</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="13">
@@ -951,16 +902,16 @@
             <v>4</v>
           </cell>
           <cell r="C13">
-            <v>0.99861631864262157</v>
+            <v>0.99817841853456268</v>
           </cell>
           <cell r="D13">
-            <v>1.3836813573784301E-3</v>
+            <v>1.8215814654373164E-3</v>
           </cell>
           <cell r="E13">
-            <v>249.3081593213108</v>
+            <v>249.08920926728135</v>
           </cell>
           <cell r="F13">
-            <v>0.69184067868920351</v>
+            <v>0.91079073271865241</v>
           </cell>
           <cell r="G13">
             <v>4</v>
@@ -977,16 +928,16 @@
             <v>20</v>
           </cell>
           <cell r="C14">
-            <v>7.7921294447547945E-2</v>
+            <v>6.9336054789256918E-2</v>
           </cell>
           <cell r="D14">
-            <v>0.92207870555245208</v>
+            <v>0.93066394521074303</v>
           </cell>
           <cell r="E14">
-            <v>211.03935277622602</v>
+            <v>215.33197260537156</v>
           </cell>
           <cell r="F14">
-            <v>38.960647223773975</v>
+            <v>34.668027394628439</v>
           </cell>
           <cell r="G14">
             <v>20</v>
@@ -1003,25 +954,25 @@
             <v>11</v>
           </cell>
           <cell r="C15">
-            <v>0.9135062498768588</v>
+            <v>0.8913987912500051</v>
           </cell>
           <cell r="D15">
-            <v>8.64937501231412E-2</v>
+            <v>0.1086012087499949</v>
           </cell>
           <cell r="E15">
-            <v>206.75312493842938</v>
+            <v>195.69939562500255</v>
           </cell>
           <cell r="F15">
-            <v>43.24687506157062</v>
+            <v>54.300604374997448</v>
           </cell>
           <cell r="G15">
             <v>11</v>
           </cell>
           <cell r="I15">
-            <v>444</v>
+            <v>438</v>
           </cell>
           <cell r="J15">
-            <v>449.5</v>
+            <v>443.5</v>
           </cell>
         </row>
         <row r="16">
@@ -1029,16 +980,16 @@
             <v>6</v>
           </cell>
           <cell r="C16">
-            <v>0.64843877459065635</v>
+            <v>0.59141583026672206</v>
           </cell>
           <cell r="D16">
-            <v>0.35156122540934365</v>
+            <v>0.40858416973327794</v>
           </cell>
           <cell r="E16">
-            <v>74.219387295328175</v>
+            <v>45.707915133361034</v>
           </cell>
           <cell r="F16">
-            <v>175.78061270467182</v>
+            <v>204.29208486663896</v>
           </cell>
           <cell r="G16">
             <v>6</v>
@@ -1055,16 +1006,16 @@
             <v>6</v>
           </cell>
           <cell r="C17">
-            <v>0.93815334801063321</v>
+            <v>0.92080146193278078</v>
           </cell>
           <cell r="D17">
-            <v>6.1846651989366785E-2</v>
+            <v>7.9198538067219215E-2</v>
           </cell>
           <cell r="E17">
-            <v>219.07667400531662</v>
+            <v>210.4007309663904</v>
           </cell>
           <cell r="F17">
-            <v>30.923325994683381</v>
+            <v>39.599269033609602</v>
           </cell>
           <cell r="G17">
             <v>6</v>
@@ -1081,16 +1032,16 @@
             <v>8</v>
           </cell>
           <cell r="C18">
-            <v>0.9942192330403411</v>
+            <v>0.99310690286357073</v>
           </cell>
           <cell r="D18">
-            <v>5.7807669596589006E-3</v>
+            <v>6.8930971364292715E-3</v>
           </cell>
           <cell r="E18">
-            <v>247.10961652017053</v>
+            <v>246.55345143178536</v>
           </cell>
           <cell r="F18">
-            <v>2.8903834798294668</v>
+            <v>3.446548568214638</v>
           </cell>
           <cell r="G18">
             <v>8</v>
@@ -1107,16 +1058,16 @@
             <v>8</v>
           </cell>
           <cell r="C19">
-            <v>0.96366969174141881</v>
+            <v>0.95560281187600105</v>
           </cell>
           <cell r="D19">
-            <v>3.633030825858119E-2</v>
+            <v>4.4397188123998954E-2</v>
           </cell>
           <cell r="E19">
-            <v>231.83484587070939</v>
+            <v>227.8014059380005</v>
           </cell>
           <cell r="F19">
-            <v>18.165154129290613</v>
+            <v>22.198594061999501</v>
           </cell>
           <cell r="G19">
             <v>8</v>
@@ -1133,16 +1084,16 @@
             <v>2</v>
           </cell>
           <cell r="C20">
-            <v>0.30620567433935336</v>
+            <v>0.28317887720372492</v>
           </cell>
           <cell r="D20">
-            <v>0.69379432566064669</v>
+            <v>0.71682112279627508</v>
           </cell>
           <cell r="E20">
-            <v>96.897162830323325</v>
+            <v>108.41056139813755</v>
           </cell>
           <cell r="F20">
-            <v>153.10283716967666</v>
+            <v>141.58943860186247</v>
           </cell>
           <cell r="G20">
             <v>2</v>
@@ -1159,16 +1110,16 @@
             <v>10</v>
           </cell>
           <cell r="C21">
-            <v>5.4170897503696552E-3</v>
+            <v>4.788342923002357E-3</v>
           </cell>
           <cell r="D21">
-            <v>0.9945829102496303</v>
+            <v>0.99521165707699766</v>
           </cell>
           <cell r="E21">
-            <v>247.29145512481517</v>
+            <v>247.60582853849883</v>
           </cell>
           <cell r="F21">
-            <v>2.7085448751848276</v>
+            <v>2.3941714615011733</v>
           </cell>
           <cell r="G21">
             <v>10</v>
@@ -1185,16 +1136,16 @@
             <v>11</v>
           </cell>
           <cell r="C22">
-            <v>2.4013146351760601E-3</v>
+            <v>1.9420263001282989E-3</v>
           </cell>
           <cell r="D22">
-            <v>0.99759868536482399</v>
+            <v>0.9980579736998717</v>
           </cell>
           <cell r="E22">
-            <v>248.79934268241195</v>
+            <v>249.02898684993585</v>
           </cell>
           <cell r="F22">
-            <v>1.2006573175880533</v>
+            <v>0.97101315006415234</v>
           </cell>
           <cell r="G22">
             <v>11</v>
@@ -1211,16 +1162,16 @@
             <v>16</v>
           </cell>
           <cell r="C23">
-            <v>0.39214246895643673</v>
+            <v>0.36494037374632815</v>
           </cell>
           <cell r="D23">
-            <v>0.60785753104356322</v>
+            <v>0.63505962625367185</v>
           </cell>
           <cell r="E23">
-            <v>53.928765521781628</v>
+            <v>67.529813126835919</v>
           </cell>
           <cell r="F23">
-            <v>196.07123447821837</v>
+            <v>182.4701868731641</v>
           </cell>
           <cell r="G23">
             <v>16</v>
@@ -1237,16 +1188,16 @@
             <v>10</v>
           </cell>
           <cell r="C24">
-            <v>0.32786844655247088</v>
+            <v>0.30274312213065102</v>
           </cell>
           <cell r="D24">
-            <v>0.67213155344752917</v>
+            <v>0.69725687786934898</v>
           </cell>
           <cell r="E24">
-            <v>86.065776723764571</v>
+            <v>98.628438934674492</v>
           </cell>
           <cell r="F24">
-            <v>163.93422327623543</v>
+            <v>151.37156106532552</v>
           </cell>
           <cell r="G24">
             <v>10</v>
@@ -1263,25 +1214,25 @@
             <v>6</v>
           </cell>
           <cell r="C25">
-            <v>0.91196072553744745</v>
+            <v>0.90046866186958652</v>
           </cell>
           <cell r="D25">
-            <v>8.8039274462552553E-2</v>
+            <v>9.9531338130413483E-2</v>
           </cell>
           <cell r="E25">
-            <v>205.98036276872372</v>
+            <v>200.23433093479329</v>
           </cell>
           <cell r="F25">
-            <v>44.019637231276278</v>
+            <v>49.765669065206708</v>
           </cell>
           <cell r="G25">
             <v>6</v>
           </cell>
           <cell r="I25">
-            <v>438</v>
+            <v>449</v>
           </cell>
           <cell r="J25">
-            <v>441</v>
+            <v>452</v>
           </cell>
         </row>
         <row r="26">
@@ -1289,16 +1240,16 @@
             <v>10</v>
           </cell>
           <cell r="C26">
-            <v>0.90883519064701124</v>
+            <v>0.89034257942989181</v>
           </cell>
           <cell r="D26">
-            <v>9.1164809352988763E-2</v>
+            <v>0.10965742057010819</v>
           </cell>
           <cell r="E26">
-            <v>204.41759532350562</v>
+            <v>195.17128971494591</v>
           </cell>
           <cell r="F26">
-            <v>45.582404676494377</v>
+            <v>54.828710285054086</v>
           </cell>
           <cell r="G26">
             <v>10</v>
@@ -1315,16 +1266,16 @@
             <v>3</v>
           </cell>
           <cell r="C27">
-            <v>0.90092932177088569</v>
+            <v>0.88078558825072406</v>
           </cell>
           <cell r="D27">
-            <v>9.9070678229114306E-2</v>
+            <v>0.11921441174927594</v>
           </cell>
           <cell r="E27">
-            <v>200.46466088544284</v>
+            <v>190.39279412536203</v>
           </cell>
           <cell r="F27">
-            <v>49.535339114557161</v>
+            <v>59.60720587463797</v>
           </cell>
           <cell r="G27">
             <v>3</v>
@@ -1341,16 +1292,16 @@
             <v>2</v>
           </cell>
           <cell r="C28">
-            <v>0.98703151434058145</v>
+            <v>0.98151930803152654</v>
           </cell>
           <cell r="D28">
-            <v>1.2968485659418549E-2</v>
+            <v>1.8480691968473462E-2</v>
           </cell>
           <cell r="E28">
-            <v>243.51575717029075</v>
+            <v>240.75965401576326</v>
           </cell>
           <cell r="F28">
-            <v>6.4842428297092454</v>
+            <v>9.2403459842367397</v>
           </cell>
           <cell r="G28">
             <v>2</v>
@@ -1367,16 +1318,16 @@
             <v>6</v>
           </cell>
           <cell r="C29">
-            <v>0.39843367583041944</v>
+            <v>0.3694266781233097</v>
           </cell>
           <cell r="D29">
-            <v>0.60156632416958056</v>
+            <v>0.63057332187669024</v>
           </cell>
           <cell r="E29">
-            <v>50.783162084790277</v>
+            <v>65.286660938345136</v>
           </cell>
           <cell r="F29">
-            <v>199.21683791520974</v>
+            <v>184.71333906165486</v>
           </cell>
           <cell r="G29">
             <v>6</v>
@@ -1393,16 +1344,16 @@
             <v>4</v>
           </cell>
           <cell r="C30">
-            <v>0.36568544695139188</v>
+            <v>0.33526393240960917</v>
           </cell>
           <cell r="D30">
-            <v>0.63431455304860807</v>
+            <v>0.66473606759039083</v>
           </cell>
           <cell r="E30">
-            <v>67.157276524304052</v>
+            <v>82.368033795195416</v>
           </cell>
           <cell r="F30">
-            <v>182.84272347569595</v>
+            <v>167.6319662048046</v>
           </cell>
           <cell r="G30">
             <v>4</v>
@@ -1419,16 +1370,16 @@
             <v>14</v>
           </cell>
           <cell r="C31">
-            <v>0.10623061695858292</v>
+            <v>9.4451030443819264E-2</v>
           </cell>
           <cell r="D31">
-            <v>0.89376938304141706</v>
+            <v>0.90554896955618069</v>
           </cell>
           <cell r="E31">
-            <v>196.88469152070854</v>
+            <v>202.7744847780904</v>
           </cell>
           <cell r="F31">
-            <v>53.115308479291457</v>
+            <v>47.225515221909603</v>
           </cell>
           <cell r="G31">
             <v>14</v>
@@ -1445,16 +1396,16 @@
             <v>5</v>
           </cell>
           <cell r="C32">
-            <v>0.18163701968590681</v>
+            <v>0.16399829437368951</v>
           </cell>
           <cell r="D32">
-            <v>0.81836298031409316</v>
+            <v>0.83600170562631049</v>
           </cell>
           <cell r="E32">
-            <v>159.18149015704657</v>
+            <v>168.00085281315523</v>
           </cell>
           <cell r="F32">
-            <v>90.818509842953432</v>
+            <v>81.999147186844766</v>
           </cell>
           <cell r="G32">
             <v>5</v>
@@ -1471,16 +1422,16 @@
             <v>29</v>
           </cell>
           <cell r="C33">
-            <v>1.9189997860945596E-2</v>
+            <v>1.4032293357624966E-2</v>
           </cell>
           <cell r="D33">
-            <v>0.98081000213905445</v>
+            <v>0.98596770664237499</v>
           </cell>
           <cell r="E33">
-            <v>240.4050010695272</v>
+            <v>242.98385332118752</v>
           </cell>
           <cell r="F33">
-            <v>9.5949989304727978</v>
+            <v>7.0161466788124756</v>
           </cell>
           <cell r="G33">
             <v>29</v>
@@ -1497,16 +1448,16 @@
             <v>15</v>
           </cell>
           <cell r="C34">
-            <v>0.58780030899632263</v>
+            <v>0.54220219226562927</v>
           </cell>
           <cell r="D34">
-            <v>0.41219969100367737</v>
+            <v>0.45779780773437073</v>
           </cell>
           <cell r="E34">
-            <v>43.900154498161314</v>
+            <v>21.101096132814632</v>
           </cell>
           <cell r="F34">
-            <v>206.09984550183867</v>
+            <v>228.89890386718537</v>
           </cell>
           <cell r="G34">
             <v>15</v>
@@ -1523,25 +1474,25 @@
             <v>3</v>
           </cell>
           <cell r="C35">
-            <v>0.99924798800491021</v>
+            <v>0.99864859178381005</v>
           </cell>
           <cell r="D35">
-            <v>7.5201199508978522E-4</v>
+            <v>1.3514082161899532E-3</v>
           </cell>
           <cell r="E35">
-            <v>249.62399400245511</v>
+            <v>249.32429589190502</v>
           </cell>
           <cell r="F35">
-            <v>0.37600599754489394</v>
+            <v>0.67570410809497616</v>
           </cell>
           <cell r="G35">
             <v>3</v>
           </cell>
           <cell r="I35">
-            <v>531</v>
+            <v>524</v>
           </cell>
           <cell r="J35">
-            <v>532.5</v>
+            <v>525.5</v>
           </cell>
         </row>
         <row r="36">
@@ -1549,16 +1500,16 @@
             <v>18</v>
           </cell>
           <cell r="C36">
-            <v>0.71654869406148969</v>
+            <v>0.68457936173902345</v>
           </cell>
           <cell r="D36">
-            <v>0.28345130593851031</v>
+            <v>0.31542063826097655</v>
           </cell>
           <cell r="E36">
-            <v>108.27434703074483</v>
+            <v>92.289680869511727</v>
           </cell>
           <cell r="F36">
-            <v>141.72565296925518</v>
+            <v>157.71031913048827</v>
           </cell>
           <cell r="G36">
             <v>18</v>
@@ -1575,25 +1526,25 @@
             <v>7</v>
           </cell>
           <cell r="C37">
-            <v>0.99903751943119845</v>
+            <v>0.99877021217444462</v>
           </cell>
           <cell r="D37">
-            <v>9.624805688015492E-4</v>
+            <v>1.229787825555384E-3</v>
           </cell>
           <cell r="E37">
-            <v>249.51875971559923</v>
+            <v>249.38510608722231</v>
           </cell>
           <cell r="F37">
-            <v>0.48124028440076927</v>
+            <v>0.61489391277768846</v>
           </cell>
           <cell r="G37">
             <v>7</v>
           </cell>
           <cell r="I37">
-            <v>524</v>
+            <v>527</v>
           </cell>
           <cell r="J37">
-            <v>527.5</v>
+            <v>530.5</v>
           </cell>
         </row>
         <row r="38">
@@ -1601,16 +1552,16 @@
             <v>7</v>
           </cell>
           <cell r="C38">
-            <v>0.13986526897532298</v>
+            <v>0.12596442764367022</v>
           </cell>
           <cell r="D38">
-            <v>0.86013473102467697</v>
+            <v>0.87403557235632978</v>
           </cell>
           <cell r="E38">
-            <v>180.06736551233851</v>
+            <v>187.0177861781649</v>
           </cell>
           <cell r="F38">
-            <v>69.932634487661488</v>
+            <v>62.982213821835103</v>
           </cell>
           <cell r="G38">
             <v>7</v>
@@ -1627,16 +1578,16 @@
             <v>20</v>
           </cell>
           <cell r="C39">
-            <v>0.44358136102356804</v>
+            <v>0.41739402478395637</v>
           </cell>
           <cell r="D39">
-            <v>0.55641863897643196</v>
+            <v>0.58260597521604363</v>
           </cell>
           <cell r="E39">
-            <v>28.209319488215979</v>
+            <v>41.302987608021816</v>
           </cell>
           <cell r="F39">
-            <v>221.79068051178402</v>
+            <v>208.69701239197818</v>
           </cell>
           <cell r="G39">
             <v>20</v>
@@ -1653,16 +1604,16 @@
             <v>4</v>
           </cell>
           <cell r="C40">
-            <v>5.2429124252093166E-2</v>
+            <v>4.2612218488891497E-2</v>
           </cell>
           <cell r="D40">
-            <v>0.94757087574790688</v>
+            <v>0.95738778151110848</v>
           </cell>
           <cell r="E40">
-            <v>223.78543787395338</v>
+            <v>228.69389075555424</v>
           </cell>
           <cell r="F40">
-            <v>26.214562126046616</v>
+            <v>21.306109244445764</v>
           </cell>
           <cell r="G40">
             <v>4</v>
@@ -1679,16 +1630,16 @@
             <v>9</v>
           </cell>
           <cell r="C41">
-            <v>0.87751328507730775</v>
+            <v>0.85503314728721913</v>
           </cell>
           <cell r="D41">
-            <v>0.12248671492269225</v>
+            <v>0.14496685271278087</v>
           </cell>
           <cell r="E41">
-            <v>188.75664253865386</v>
+            <v>177.51657364360955</v>
           </cell>
           <cell r="F41">
-            <v>61.243357461346136</v>
+            <v>72.483426356390453</v>
           </cell>
           <cell r="G41">
             <v>9</v>
@@ -1705,16 +1656,16 @@
             <v>3</v>
           </cell>
           <cell r="C42">
-            <v>0.99653884438293605</v>
+            <v>0.99453761012583386</v>
           </cell>
           <cell r="D42">
-            <v>3.461155617063949E-3</v>
+            <v>5.4623898741661403E-3</v>
           </cell>
           <cell r="E42">
-            <v>248.26942219146804</v>
+            <v>247.2688050629169</v>
           </cell>
           <cell r="F42">
-            <v>1.7305778085319616</v>
+            <v>2.731194937083103</v>
           </cell>
           <cell r="G42">
             <v>3</v>
@@ -1731,16 +1682,16 @@
             <v>11</v>
           </cell>
           <cell r="C43">
-            <v>0.98717680189582446</v>
+            <v>0.9824001339542765</v>
           </cell>
           <cell r="D43">
-            <v>1.2823198104175537E-2</v>
+            <v>1.75998660457235E-2</v>
           </cell>
           <cell r="E43">
-            <v>243.58840094791222</v>
+            <v>241.20006697713822</v>
           </cell>
           <cell r="F43">
-            <v>6.4115990520877801</v>
+            <v>8.7999330228617794</v>
           </cell>
           <cell r="G43">
             <v>11</v>
@@ -1757,16 +1708,16 @@
             <v>38</v>
           </cell>
           <cell r="C44">
-            <v>0.8027732355937196</v>
+            <v>0.76629816646005111</v>
           </cell>
           <cell r="D44">
-            <v>0.1972267644062804</v>
+            <v>0.23370183353994889</v>
           </cell>
           <cell r="E44">
-            <v>151.38661779685981</v>
+            <v>133.14908323002555</v>
           </cell>
           <cell r="F44">
-            <v>98.613382203140191</v>
+            <v>116.85091676997445</v>
           </cell>
           <cell r="G44">
             <v>38</v>
@@ -1783,16 +1734,16 @@
             <v>6</v>
           </cell>
           <cell r="C45">
-            <v>0.99751195589779007</v>
+            <v>0.99639732377846979</v>
           </cell>
           <cell r="D45">
-            <v>2.4880441022099298E-3</v>
+            <v>3.6026762215302099E-3</v>
           </cell>
           <cell r="E45">
-            <v>248.75597794889504</v>
+            <v>248.1986618892349</v>
           </cell>
           <cell r="F45">
-            <v>1.2440220511049631</v>
+            <v>1.8013381107651014</v>
           </cell>
           <cell r="G45">
             <v>6</v>
@@ -1809,16 +1760,16 @@
             <v>3</v>
           </cell>
           <cell r="C46">
-            <v>7.5305270719718128E-4</v>
+            <v>6.3787953307640067E-4</v>
           </cell>
           <cell r="D46">
-            <v>0.99924694729280283</v>
+            <v>0.99936212046692363</v>
           </cell>
           <cell r="E46">
-            <v>249.62347364640141</v>
+            <v>249.68106023346178</v>
           </cell>
           <cell r="F46">
-            <v>0.37652635359859232</v>
+            <v>0.31893976653822165</v>
           </cell>
           <cell r="G46">
             <v>3</v>
@@ -1835,16 +1786,16 @@
             <v>13</v>
           </cell>
           <cell r="C47">
-            <v>0.27753296112237857</v>
+            <v>0.25661843882505031</v>
           </cell>
           <cell r="D47">
-            <v>0.72246703887762143</v>
+            <v>0.74338156117494969</v>
           </cell>
           <cell r="E47">
-            <v>111.23351943881073</v>
+            <v>121.69078058747485</v>
           </cell>
           <cell r="F47">
-            <v>138.76648056118927</v>
+            <v>128.30921941252515</v>
           </cell>
           <cell r="G47">
             <v>13</v>
@@ -1861,16 +1812,16 @@
             <v>12</v>
           </cell>
           <cell r="C48">
-            <v>9.1732923464213675E-2</v>
+            <v>8.0768993318544716E-2</v>
           </cell>
           <cell r="D48">
-            <v>0.90826707653578631</v>
+            <v>0.9192310066814553</v>
           </cell>
           <cell r="E48">
-            <v>204.13353826789313</v>
+            <v>209.61550334072766</v>
           </cell>
           <cell r="F48">
-            <v>45.86646173210687</v>
+            <v>40.384496659272344</v>
           </cell>
           <cell r="G48">
             <v>12</v>
@@ -1887,16 +1838,16 @@
             <v>5</v>
           </cell>
           <cell r="C49">
-            <v>0.99891018720365632</v>
+            <v>0.99857804466196609</v>
           </cell>
           <cell r="D49">
-            <v>1.089812796343681E-3</v>
+            <v>1.4219553380339089E-3</v>
           </cell>
           <cell r="E49">
-            <v>249.4550936018282</v>
+            <v>249.28902233098302</v>
           </cell>
           <cell r="F49">
-            <v>0.54490639817180408</v>
+            <v>0.71097766901698378</v>
           </cell>
           <cell r="G49">
             <v>5</v>
@@ -1913,16 +1864,16 @@
             <v>10</v>
           </cell>
           <cell r="C50">
-            <v>0.4860089193294459</v>
+            <v>0.44929677340519975</v>
           </cell>
           <cell r="D50">
-            <v>0.5139910806705541</v>
+            <v>0.5507032265948002</v>
           </cell>
           <cell r="E50">
-            <v>6.9955403352770507</v>
+            <v>25.351613297400128</v>
           </cell>
           <cell r="F50">
-            <v>243.00445966472296</v>
+            <v>224.64838670259988</v>
           </cell>
           <cell r="G50">
             <v>10</v>
@@ -1939,25 +1890,25 @@
             <v>3</v>
           </cell>
           <cell r="C51">
-            <v>0.99999704169522574</v>
+            <v>0.99998873785141207</v>
           </cell>
           <cell r="D51">
-            <v>2.9583047742587354E-6</v>
+            <v>1.126214858793162E-5</v>
           </cell>
           <cell r="E51">
-            <v>249.99852084761284</v>
+            <v>249.99436892570603</v>
           </cell>
           <cell r="F51">
-            <v>1.4791523871622303E-3</v>
+            <v>5.6310742939729153E-3</v>
           </cell>
           <cell r="G51">
             <v>3</v>
           </cell>
           <cell r="I51">
-            <v>535</v>
+            <v>534</v>
           </cell>
           <cell r="J51">
-            <v>535</v>
+            <v>535.5</v>
           </cell>
         </row>
         <row r="52">
@@ -1965,16 +1916,16 @@
             <v>3</v>
           </cell>
           <cell r="C52">
-            <v>7.2118245624597554E-14</v>
+            <v>3.7548911748993836E-13</v>
           </cell>
           <cell r="D52">
-            <v>0.99999999999992784</v>
+            <v>0.99999999999962452</v>
           </cell>
           <cell r="E52">
-            <v>249.99999999996393</v>
+            <v>249.99999999981225</v>
           </cell>
           <cell r="F52">
-            <v>3.6067149267182685E-11</v>
+            <v>1.8775381249724887E-10</v>
           </cell>
           <cell r="G52">
             <v>3</v>
@@ -1991,16 +1942,16 @@
             <v>1</v>
           </cell>
           <cell r="C53">
-            <v>8.9271322951606655E-2</v>
+            <v>7.559569148169544E-2</v>
           </cell>
           <cell r="D53">
-            <v>0.91072867704839333</v>
+            <v>0.92440430851830457</v>
           </cell>
           <cell r="E53">
-            <v>205.36433852419665</v>
+            <v>212.20215425915231</v>
           </cell>
           <cell r="F53">
-            <v>44.635661475803346</v>
+            <v>37.797845740847691</v>
           </cell>
           <cell r="G53">
             <v>1</v>
@@ -2017,16 +1968,16 @@
             <v>1</v>
           </cell>
           <cell r="C54">
-            <v>0.60980883376140671</v>
+            <v>0.58648910605980409</v>
           </cell>
           <cell r="D54">
-            <v>0.39019116623859329</v>
+            <v>0.41351089394019591</v>
           </cell>
           <cell r="E54">
-            <v>54.904416880703351</v>
+            <v>43.244553029902043</v>
           </cell>
           <cell r="F54">
-            <v>195.09558311929663</v>
+            <v>206.75544697009795</v>
           </cell>
           <cell r="G54">
             <v>1</v>
@@ -2043,16 +1994,16 @@
             <v>1</v>
           </cell>
           <cell r="C55">
-            <v>0.95790712499300013</v>
+            <v>0.94836976976365661</v>
           </cell>
           <cell r="D55">
-            <v>4.2092875006999875E-2</v>
+            <v>5.1630230236343388E-2</v>
           </cell>
           <cell r="E55">
-            <v>228.95356249650004</v>
+            <v>224.18488488182834</v>
           </cell>
           <cell r="F55">
-            <v>21.046437503499959</v>
+            <v>25.815115118171661</v>
           </cell>
           <cell r="G55">
             <v>1</v>
@@ -2069,25 +2020,25 @@
             <v>1</v>
           </cell>
           <cell r="C56">
-            <v>0.59199455473588891</v>
+            <v>0.57097651197386545</v>
           </cell>
           <cell r="D56">
-            <v>0.40800544526411109</v>
+            <v>0.42902348802613455</v>
           </cell>
           <cell r="E56">
-            <v>45.997277367944456</v>
+            <v>35.488255986932728</v>
           </cell>
           <cell r="F56">
-            <v>204.00272263205554</v>
+            <v>214.51174401306727</v>
           </cell>
           <cell r="G56">
             <v>1</v>
           </cell>
           <cell r="I56">
-            <v>322</v>
+            <v>333</v>
           </cell>
           <cell r="J56">
-            <v>322.5</v>
+            <v>333.5</v>
           </cell>
         </row>
         <row r="57">
@@ -2095,25 +2046,25 @@
             <v>1</v>
           </cell>
           <cell r="C57">
-            <v>0.99999687482924493</v>
+            <v>0.99999563694472704</v>
           </cell>
           <cell r="D57">
-            <v>3.1251707550694618E-6</v>
+            <v>4.3630552729601035E-6</v>
           </cell>
           <cell r="E57">
-            <v>249.99843741462246</v>
+            <v>249.99781847236352</v>
           </cell>
           <cell r="F57">
-            <v>1.5625853775418364E-3</v>
+            <v>2.1815276364804959E-3</v>
           </cell>
           <cell r="G57">
             <v>1</v>
           </cell>
           <cell r="I57">
-            <v>534</v>
+            <v>537</v>
           </cell>
           <cell r="J57">
-            <v>534.5</v>
+            <v>537</v>
           </cell>
         </row>
       </sheetData>
@@ -2125,12 +2076,12 @@
         </row>
         <row r="3">
           <cell r="N3">
-            <v>5.0000000000000001E-4</v>
+            <v>4.4999999999999999E-4</v>
           </cell>
         </row>
         <row r="4">
           <cell r="N4">
-            <v>6.9750000000000006E-2</v>
+            <v>6.7250000000000004E-2</v>
           </cell>
         </row>
         <row r="5">
@@ -2145,27 +2096,27 @@
         </row>
         <row r="7">
           <cell r="N7">
-            <v>1.745E-2</v>
+            <v>1.805E-2</v>
           </cell>
         </row>
         <row r="8">
           <cell r="N8">
-            <v>0</v>
+            <v>5.0000000000000002E-5</v>
           </cell>
         </row>
         <row r="9">
           <cell r="N9">
-            <v>0</v>
+            <v>2.0000000000000001E-4</v>
           </cell>
         </row>
         <row r="10">
           <cell r="N10">
-            <v>0.108</v>
+            <v>0.10324999999999999</v>
           </cell>
         </row>
         <row r="11">
           <cell r="N11">
-            <v>2.75E-2</v>
+            <v>2.58E-2</v>
           </cell>
         </row>
         <row r="12">
@@ -2180,22 +2131,22 @@
         </row>
         <row r="14">
           <cell r="N14">
-            <v>0</v>
+            <v>1E-4</v>
           </cell>
         </row>
         <row r="15">
           <cell r="N15">
-            <v>2.0000000000000001E-4</v>
+            <v>3.5E-4</v>
           </cell>
         </row>
         <row r="16">
           <cell r="N16">
-            <v>4.4400000000000002E-2</v>
+            <v>5.7200000000000001E-2</v>
           </cell>
         </row>
         <row r="17">
           <cell r="N17">
-            <v>1.4999999999999999E-4</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="18">
@@ -2210,7 +2161,7 @@
         </row>
         <row r="20">
           <cell r="N20">
-            <v>3.2649999999999998E-2</v>
+            <v>3.4200000000000001E-2</v>
           </cell>
         </row>
         <row r="21">
@@ -2225,27 +2176,27 @@
         </row>
         <row r="23">
           <cell r="N23">
-            <v>7.0949999999999999E-2</v>
+            <v>7.4300000000000005E-2</v>
           </cell>
         </row>
         <row r="24">
           <cell r="N24">
-            <v>3.9899999999999998E-2</v>
+            <v>3.9649999999999998E-2</v>
           </cell>
         </row>
         <row r="25">
           <cell r="N25">
-            <v>4.4999999999999999E-4</v>
+            <v>2.9999999999999997E-4</v>
           </cell>
         </row>
         <row r="26">
           <cell r="N26">
-            <v>2.5000000000000001E-4</v>
+            <v>2.0000000000000001E-4</v>
           </cell>
         </row>
         <row r="27">
           <cell r="N27">
-            <v>5.9999999999999995E-4</v>
+            <v>2.5000000000000001E-4</v>
           </cell>
         </row>
         <row r="28">
@@ -2255,22 +2206,22 @@
         </row>
         <row r="29">
           <cell r="N29">
-            <v>8.4849999999999995E-2</v>
+            <v>8.2100000000000006E-2</v>
           </cell>
         </row>
         <row r="30">
           <cell r="N30">
-            <v>7.0550000000000002E-2</v>
+            <v>6.5100000000000005E-2</v>
           </cell>
         </row>
         <row r="31">
           <cell r="N31">
-            <v>0</v>
+            <v>1E-4</v>
           </cell>
         </row>
         <row r="32">
           <cell r="N32">
-            <v>1.65E-3</v>
+            <v>1.6999999999999999E-3</v>
           </cell>
         </row>
         <row r="33">
@@ -2280,7 +2231,7 @@
         </row>
         <row r="34">
           <cell r="N34">
-            <v>8.7400000000000005E-2</v>
+            <v>9.035E-2</v>
           </cell>
         </row>
         <row r="35">
@@ -2300,12 +2251,12 @@
         </row>
         <row r="38">
           <cell r="N38">
-            <v>1E-4</v>
+            <v>2.0000000000000001E-4</v>
           </cell>
         </row>
         <row r="39">
           <cell r="N39">
-            <v>9.7299999999999998E-2</v>
+            <v>9.4100000000000003E-2</v>
           </cell>
         </row>
         <row r="40">
@@ -2315,7 +2266,7 @@
         </row>
         <row r="41">
           <cell r="N41">
-            <v>6.9999999999999999E-4</v>
+            <v>5.9999999999999995E-4</v>
           </cell>
         </row>
         <row r="42">
@@ -2345,12 +2296,12 @@
         </row>
         <row r="47">
           <cell r="N47">
-            <v>1.555E-2</v>
+            <v>1.7250000000000001E-2</v>
           </cell>
         </row>
         <row r="48">
           <cell r="N48">
-            <v>0</v>
+            <v>5.0000000000000002E-5</v>
           </cell>
         </row>
         <row r="49">
@@ -2360,7 +2311,7 @@
         </row>
         <row r="50">
           <cell r="N50">
-            <v>0.12035</v>
+            <v>0.1139</v>
           </cell>
         </row>
         <row r="51">
@@ -2375,22 +2326,22 @@
         </row>
         <row r="53">
           <cell r="N53">
-            <v>0</v>
+            <v>1E-4</v>
           </cell>
         </row>
         <row r="54">
           <cell r="N54">
-            <v>4.1399999999999999E-2</v>
+            <v>4.2299999999999997E-2</v>
           </cell>
         </row>
         <row r="55">
           <cell r="N55">
-            <v>5.0000000000000002E-5</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="56">
           <cell r="N56">
-            <v>4.3900000000000002E-2</v>
+            <v>4.7100000000000003E-2</v>
           </cell>
         </row>
         <row r="57">
@@ -2407,6 +2358,7 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2712,7 +2664,7 @@
   <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -2754,15 +2706,15 @@
         <v>evX</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <f>[1]Sheet1!B2</f>
@@ -2770,19 +2722,19 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">INT([1]Sheet1!C2*1000)/10</f>
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">INT([1]Sheet1!D2*1000)/10</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">[1]Sheet1!E2</f>
-        <v>246.9949071616484</v>
+        <v>246.39360067837936</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">[1]Sheet1!F2</f>
-        <v>3.0050928383516009</v>
+        <v>3.6063993216206427</v>
       </c>
       <c r="G2">
         <f>[1]Sheet1!G2</f>
@@ -2797,12 +2749,12 @@
         <v>487.5</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <f>[1]Sheet1!B3</f>
@@ -2810,19 +2762,19 @@
       </c>
       <c r="C3" s="2">
         <f ca="1">INT([1]Sheet1!C3*1000)/10</f>
-        <v>87.6</v>
+        <v>85.1</v>
       </c>
       <c r="D3" s="2">
         <f ca="1">INT([1]Sheet1!D3*1000)/10</f>
-        <v>12.3</v>
+        <v>14.8</v>
       </c>
       <c r="E3" s="1">
         <f ca="1">[1]Sheet1!E3</f>
-        <v>188.4552780901183</v>
+        <v>175.52212925954757</v>
       </c>
       <c r="F3" s="1">
         <f ca="1">[1]Sheet1!F3</f>
-        <v>61.544721909881702</v>
+        <v>74.477870740452431</v>
       </c>
       <c r="G3">
         <f>[1]Sheet1!G3</f>
@@ -2837,12 +2789,12 @@
         <v>414.5</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <f>[1]Sheet1!B4</f>
@@ -2850,19 +2802,19 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">INT([1]Sheet1!C4*1000)/10</f>
-        <v>59.8</v>
+        <v>56.3</v>
       </c>
       <c r="D4" s="2">
         <f ca="1">INT([1]Sheet1!D4*1000)/10</f>
-        <v>40.1</v>
+        <v>43.6</v>
       </c>
       <c r="E4" s="1">
         <f ca="1">[1]Sheet1!E4</f>
-        <v>49.339400394133762</v>
+        <v>31.628806903278516</v>
       </c>
       <c r="F4" s="1">
         <f ca="1">[1]Sheet1!F4</f>
-        <v>200.66059960586625</v>
+        <v>218.37119309672147</v>
       </c>
       <c r="G4">
         <f>[1]Sheet1!G4</f>
@@ -2870,19 +2822,19 @@
       </c>
       <c r="H4">
         <f ca="1">[1]Sheet1!I4</f>
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I4">
         <f ca="1">[1]Sheet1!J4</f>
-        <v>328.5</v>
+        <v>327.5</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <f>[1]Sheet1!B5</f>
@@ -2890,19 +2842,19 @@
       </c>
       <c r="C5" s="2">
         <f ca="1">INT([1]Sheet1!C5*1000)/10</f>
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">INT([1]Sheet1!D5*1000)/10</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="1">
         <f ca="1">[1]Sheet1!E5</f>
-        <v>247.71925174240556</v>
+        <v>247.20921758767699</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">[1]Sheet1!F5</f>
-        <v>2.2807482575944391</v>
+        <v>2.7907824123230114</v>
       </c>
       <c r="G5">
         <f>[1]Sheet1!G5</f>
@@ -2917,12 +2869,12 @@
         <v>503</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <f>[1]Sheet1!B6</f>
@@ -2938,11 +2890,11 @@
       </c>
       <c r="E6" s="1">
         <f ca="1">[1]Sheet1!E6</f>
-        <v>249.97377828791002</v>
+        <v>249.91556415993063</v>
       </c>
       <c r="F6" s="1">
         <f ca="1">[1]Sheet1!F6</f>
-        <v>2.62217120899777E-2</v>
+        <v>8.443584006937499E-2</v>
       </c>
       <c r="G6">
         <f>[1]Sheet1!G6</f>
@@ -2950,19 +2902,19 @@
       </c>
       <c r="H6">
         <f ca="1">[1]Sheet1!I6</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I6">
         <f ca="1">[1]Sheet1!J6</f>
-        <v>30.5</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B7">
         <f>[1]Sheet1!B7</f>
@@ -2970,19 +2922,19 @@
       </c>
       <c r="C7" s="2">
         <f ca="1">INT([1]Sheet1!C7*1000)/10</f>
-        <v>27.4</v>
+        <v>25.3</v>
       </c>
       <c r="D7" s="2">
         <f ca="1">INT([1]Sheet1!D7*1000)/10</f>
-        <v>72.5</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="E7" s="1">
         <f ca="1">[1]Sheet1!E7</f>
-        <v>112.57796395177495</v>
+        <v>123.31862616078301</v>
       </c>
       <c r="F7" s="1">
         <f ca="1">[1]Sheet1!F7</f>
-        <v>137.42203604822504</v>
+        <v>126.68137383921699</v>
       </c>
       <c r="G7">
         <f>[1]Sheet1!G7</f>
@@ -2997,12 +2949,12 @@
         <v>192.5</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <f>[1]Sheet1!B8</f>
@@ -3010,19 +2962,19 @@
       </c>
       <c r="C8" s="2">
         <f ca="1">INT([1]Sheet1!C8*1000)/10</f>
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="D8" s="2">
         <f ca="1">INT([1]Sheet1!D8*1000)/10</f>
-        <v>89.9</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1">
         <f ca="1">[1]Sheet1!E8</f>
-        <v>199.55958606394972</v>
+        <v>205.30653903031686</v>
       </c>
       <c r="F8" s="1">
         <f ca="1">[1]Sheet1!F8</f>
-        <v>50.440413936050277</v>
+        <v>44.693460969683144</v>
       </c>
       <c r="G8">
         <f>[1]Sheet1!G8</f>
@@ -3037,12 +2989,12 @@
         <v>158.5</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B9">
         <f>[1]Sheet1!B9</f>
@@ -3050,19 +3002,19 @@
       </c>
       <c r="C9" s="2">
         <f ca="1">INT([1]Sheet1!C9*1000)/10</f>
-        <v>9.1999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D9" s="2">
         <f ca="1">INT([1]Sheet1!D9*1000)/10</f>
-        <v>90.7</v>
+        <v>91.7</v>
       </c>
       <c r="E9" s="1">
         <f ca="1">[1]Sheet1!E9</f>
-        <v>203.99225394935891</v>
+        <v>208.73977208689857</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">[1]Sheet1!F9</f>
-        <v>46.007746050641089</v>
+        <v>41.260227913101431</v>
       </c>
       <c r="G9">
         <f>[1]Sheet1!G9</f>
@@ -3077,12 +3029,12 @@
         <v>153.5</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <f>[1]Sheet1!B10</f>
@@ -3090,19 +3042,19 @@
       </c>
       <c r="C10" s="2">
         <f ca="1">INT([1]Sheet1!C10*1000)/10</f>
-        <v>53.6</v>
+        <v>50.2</v>
       </c>
       <c r="D10" s="2">
         <f ca="1">INT([1]Sheet1!D10*1000)/10</f>
-        <v>46.3</v>
+        <v>49.7</v>
       </c>
       <c r="E10" s="1">
         <f ca="1">[1]Sheet1!E10</f>
-        <v>18.491687640346811</v>
+        <v>1.0463375653261275</v>
       </c>
       <c r="F10" s="1">
         <f ca="1">[1]Sheet1!F10</f>
-        <v>231.50831235965319</v>
+        <v>248.95366243467387</v>
       </c>
       <c r="G10">
         <f>[1]Sheet1!G10</f>
@@ -3117,12 +3069,12 @@
         <v>292.5</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <f>[1]Sheet1!B11</f>
@@ -3130,19 +3082,19 @@
       </c>
       <c r="C11" s="2">
         <f ca="1">INT([1]Sheet1!C11*1000)/10</f>
-        <v>68.3</v>
+        <v>65.2</v>
       </c>
       <c r="D11" s="2">
         <f ca="1">INT([1]Sheet1!D11*1000)/10</f>
-        <v>31.6</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="E11" s="1">
         <f ca="1">[1]Sheet1!E11</f>
-        <v>91.79154763225938</v>
+        <v>76.309125518552293</v>
       </c>
       <c r="F11" s="1">
         <f ca="1">[1]Sheet1!F11</f>
-        <v>158.20845236774062</v>
+        <v>173.69087448144771</v>
       </c>
       <c r="G11">
         <f>[1]Sheet1!G11</f>
@@ -3157,12 +3109,12 @@
         <v>349</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <f>[1]Sheet1!B12</f>
@@ -3178,11 +3130,11 @@
       </c>
       <c r="E12" s="1">
         <f ca="1">[1]Sheet1!E12</f>
-        <v>249.95718657523764</v>
+        <v>249.96475651000534</v>
       </c>
       <c r="F12" s="1">
         <f ca="1">[1]Sheet1!F12</f>
-        <v>4.2813424762357499E-2</v>
+        <v>3.5243489994655874E-2</v>
       </c>
       <c r="G12">
         <f>[1]Sheet1!G12</f>
@@ -3190,19 +3142,19 @@
       </c>
       <c r="H12">
         <f ca="1">[1]Sheet1!I12</f>
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="I12">
         <f ca="1">[1]Sheet1!J12</f>
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <f>[1]Sheet1!B13</f>
@@ -3218,11 +3170,11 @@
       </c>
       <c r="E13" s="1">
         <f ca="1">[1]Sheet1!E13</f>
-        <v>249.3081593213108</v>
+        <v>249.08920926728135</v>
       </c>
       <c r="F13" s="1">
         <f ca="1">[1]Sheet1!F13</f>
-        <v>0.69184067868920351</v>
+        <v>0.91079073271865241</v>
       </c>
       <c r="G13">
         <f>[1]Sheet1!G13</f>
@@ -3237,12 +3189,12 @@
         <v>517</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <f>[1]Sheet1!B14</f>
@@ -3250,19 +3202,19 @@
       </c>
       <c r="C14" s="2">
         <f ca="1">INT([1]Sheet1!C14*1000)/10</f>
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="D14" s="2">
         <f ca="1">INT([1]Sheet1!D14*1000)/10</f>
-        <v>92.2</v>
+        <v>93</v>
       </c>
       <c r="E14" s="1">
         <f ca="1">[1]Sheet1!E14</f>
-        <v>211.03935277622602</v>
+        <v>215.33197260537156</v>
       </c>
       <c r="F14" s="1">
         <f ca="1">[1]Sheet1!F14</f>
-        <v>38.960647223773975</v>
+        <v>34.668027394628439</v>
       </c>
       <c r="G14">
         <f>[1]Sheet1!G14</f>
@@ -3277,12 +3229,12 @@
         <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <f>[1]Sheet1!B15</f>
@@ -3290,19 +3242,19 @@
       </c>
       <c r="C15" s="2">
         <f ca="1">INT([1]Sheet1!C15*1000)/10</f>
-        <v>91.3</v>
+        <v>89.1</v>
       </c>
       <c r="D15" s="2">
         <f ca="1">INT([1]Sheet1!D15*1000)/10</f>
-        <v>8.6</v>
+        <v>10.8</v>
       </c>
       <c r="E15" s="1">
         <f ca="1">[1]Sheet1!E15</f>
-        <v>206.75312493842938</v>
+        <v>195.69939562500255</v>
       </c>
       <c r="F15" s="1">
         <f ca="1">[1]Sheet1!F15</f>
-        <v>43.24687506157062</v>
+        <v>54.300604374997448</v>
       </c>
       <c r="G15">
         <f>[1]Sheet1!G15</f>
@@ -3310,19 +3262,19 @@
       </c>
       <c r="H15">
         <f ca="1">[1]Sheet1!I15</f>
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I15">
         <f ca="1">[1]Sheet1!J15</f>
-        <v>449.5</v>
+        <v>443.5</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <f>[1]Sheet1!B16</f>
@@ -3330,19 +3282,19 @@
       </c>
       <c r="C16" s="2">
         <f ca="1">INT([1]Sheet1!C16*1000)/10</f>
-        <v>64.8</v>
+        <v>59.1</v>
       </c>
       <c r="D16" s="2">
         <f ca="1">INT([1]Sheet1!D16*1000)/10</f>
-        <v>35.1</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E16" s="1">
         <f ca="1">[1]Sheet1!E16</f>
-        <v>74.219387295328175</v>
+        <v>45.707915133361034</v>
       </c>
       <c r="F16" s="1">
         <f ca="1">[1]Sheet1!F16</f>
-        <v>175.78061270467182</v>
+        <v>204.29208486663896</v>
       </c>
       <c r="G16">
         <f>[1]Sheet1!G16</f>
@@ -3357,12 +3309,12 @@
         <v>338</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <f>[1]Sheet1!B17</f>
@@ -3370,19 +3322,19 @@
       </c>
       <c r="C17" s="2">
         <f ca="1">INT([1]Sheet1!C17*1000)/10</f>
-        <v>93.8</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2">
         <f ca="1">INT([1]Sheet1!D17*1000)/10</f>
-        <v>6.1</v>
+        <v>7.9</v>
       </c>
       <c r="E17" s="1">
         <f ca="1">[1]Sheet1!E17</f>
-        <v>219.07667400531662</v>
+        <v>210.4007309663904</v>
       </c>
       <c r="F17" s="1">
         <f ca="1">[1]Sheet1!F17</f>
-        <v>30.923325994683381</v>
+        <v>39.599269033609602</v>
       </c>
       <c r="G17">
         <f>[1]Sheet1!G17</f>
@@ -3397,12 +3349,12 @@
         <v>458</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B18">
         <f>[1]Sheet1!B18</f>
@@ -3410,19 +3362,19 @@
       </c>
       <c r="C18" s="2">
         <f ca="1">INT([1]Sheet1!C18*1000)/10</f>
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="D18" s="2">
         <f ca="1">INT([1]Sheet1!D18*1000)/10</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E18" s="1">
         <f ca="1">[1]Sheet1!E18</f>
-        <v>247.10961652017053</v>
+        <v>246.55345143178536</v>
       </c>
       <c r="F18" s="1">
         <f ca="1">[1]Sheet1!F18</f>
-        <v>2.8903834798294668</v>
+        <v>3.446548568214638</v>
       </c>
       <c r="G18">
         <f>[1]Sheet1!G18</f>
@@ -3437,12 +3389,12 @@
         <v>496</v>
       </c>
       <c r="J18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B19">
         <f>[1]Sheet1!B19</f>
@@ -3450,19 +3402,19 @@
       </c>
       <c r="C19" s="2">
         <f ca="1">INT([1]Sheet1!C19*1000)/10</f>
-        <v>96.3</v>
+        <v>95.5</v>
       </c>
       <c r="D19" s="2">
         <f ca="1">INT([1]Sheet1!D19*1000)/10</f>
-        <v>3.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E19" s="1">
         <f ca="1">[1]Sheet1!E19</f>
-        <v>231.83484587070939</v>
+        <v>227.8014059380005</v>
       </c>
       <c r="F19" s="1">
         <f ca="1">[1]Sheet1!F19</f>
-        <v>18.165154129290613</v>
+        <v>22.198594061999501</v>
       </c>
       <c r="G19">
         <f>[1]Sheet1!G19</f>
@@ -3477,12 +3429,12 @@
         <v>466</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B20">
         <f>[1]Sheet1!B20</f>
@@ -3490,19 +3442,19 @@
       </c>
       <c r="C20" s="2">
         <f ca="1">INT([1]Sheet1!C20*1000)/10</f>
-        <v>30.6</v>
+        <v>28.3</v>
       </c>
       <c r="D20" s="2">
         <f ca="1">INT([1]Sheet1!D20*1000)/10</f>
-        <v>69.3</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="E20" s="1">
         <f ca="1">[1]Sheet1!E20</f>
-        <v>96.897162830323325</v>
+        <v>108.41056139813755</v>
       </c>
       <c r="F20" s="1">
         <f ca="1">[1]Sheet1!F20</f>
-        <v>153.10283716967666</v>
+        <v>141.58943860186247</v>
       </c>
       <c r="G20">
         <f>[1]Sheet1!G20</f>
@@ -3517,12 +3469,12 @@
         <v>211</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B21">
         <f>[1]Sheet1!B21</f>
@@ -3530,19 +3482,19 @@
       </c>
       <c r="C21" s="2">
         <f ca="1">INT([1]Sheet1!C21*1000)/10</f>
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D21" s="2">
         <f ca="1">INT([1]Sheet1!D21*1000)/10</f>
-        <v>99.4</v>
+        <v>99.5</v>
       </c>
       <c r="E21" s="1">
         <f ca="1">[1]Sheet1!E21</f>
-        <v>247.29145512481517</v>
+        <v>247.60582853849883</v>
       </c>
       <c r="F21" s="1">
         <f ca="1">[1]Sheet1!F21</f>
-        <v>2.7085448751848276</v>
+        <v>2.3941714615011733</v>
       </c>
       <c r="G21">
         <f>[1]Sheet1!G21</f>
@@ -3557,12 +3509,12 @@
         <v>81</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B22">
         <f>[1]Sheet1!B22</f>
@@ -3570,19 +3522,19 @@
       </c>
       <c r="C22" s="2">
         <f ca="1">INT([1]Sheet1!C22*1000)/10</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D22" s="2">
         <f ca="1">INT([1]Sheet1!D22*1000)/10</f>
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="E22" s="1">
         <f ca="1">[1]Sheet1!E22</f>
-        <v>248.79934268241195</v>
+        <v>249.02898684993585</v>
       </c>
       <c r="F22" s="1">
         <f ca="1">[1]Sheet1!F22</f>
-        <v>1.2006573175880533</v>
+        <v>0.97101315006415234</v>
       </c>
       <c r="G22">
         <f>[1]Sheet1!G22</f>
@@ -3597,12 +3549,12 @@
         <v>70.5</v>
       </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="B23">
         <f>[1]Sheet1!B23</f>
@@ -3610,19 +3562,19 @@
       </c>
       <c r="C23" s="2">
         <f ca="1">INT([1]Sheet1!C23*1000)/10</f>
-        <v>39.200000000000003</v>
+        <v>36.4</v>
       </c>
       <c r="D23" s="2">
         <f ca="1">INT([1]Sheet1!D23*1000)/10</f>
-        <v>60.7</v>
+        <v>63.5</v>
       </c>
       <c r="E23" s="1">
         <f ca="1">[1]Sheet1!E23</f>
-        <v>53.928765521781628</v>
+        <v>67.529813126835919</v>
       </c>
       <c r="F23" s="1">
         <f ca="1">[1]Sheet1!F23</f>
-        <v>196.07123447821837</v>
+        <v>182.4701868731641</v>
       </c>
       <c r="G23">
         <f>[1]Sheet1!G23</f>
@@ -3637,12 +3589,12 @@
         <v>234</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="B24">
         <f>[1]Sheet1!B24</f>
@@ -3650,19 +3602,19 @@
       </c>
       <c r="C24" s="2">
         <f ca="1">INT([1]Sheet1!C24*1000)/10</f>
-        <v>32.700000000000003</v>
+        <v>30.2</v>
       </c>
       <c r="D24" s="2">
         <f ca="1">INT([1]Sheet1!D24*1000)/10</f>
-        <v>67.2</v>
+        <v>69.7</v>
       </c>
       <c r="E24" s="1">
         <f ca="1">[1]Sheet1!E24</f>
-        <v>86.065776723764571</v>
+        <v>98.628438934674492</v>
       </c>
       <c r="F24" s="1">
         <f ca="1">[1]Sheet1!F24</f>
-        <v>163.93422327623543</v>
+        <v>151.37156106532552</v>
       </c>
       <c r="G24">
         <f>[1]Sheet1!G24</f>
@@ -3677,12 +3629,12 @@
         <v>217</v>
       </c>
       <c r="J24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B25">
         <f>[1]Sheet1!B25</f>
@@ -3690,19 +3642,19 @@
       </c>
       <c r="C25" s="2">
         <f ca="1">INT([1]Sheet1!C25*1000)/10</f>
-        <v>91.1</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2">
         <f ca="1">INT([1]Sheet1!D25*1000)/10</f>
-        <v>8.8000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="E25" s="1">
         <f ca="1">[1]Sheet1!E25</f>
-        <v>205.98036276872372</v>
+        <v>200.23433093479329</v>
       </c>
       <c r="F25" s="1">
         <f ca="1">[1]Sheet1!F25</f>
-        <v>44.019637231276278</v>
+        <v>49.765669065206708</v>
       </c>
       <c r="G25">
         <f>[1]Sheet1!G25</f>
@@ -3710,11 +3662,11 @@
       </c>
       <c r="H25">
         <f ca="1">[1]Sheet1!I25</f>
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="I25">
         <f ca="1">[1]Sheet1!J25</f>
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="J25" t="s">
         <v>84</v>
@@ -3722,7 +3674,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="B26">
         <f>[1]Sheet1!B26</f>
@@ -3730,19 +3682,19 @@
       </c>
       <c r="C26" s="2">
         <f ca="1">INT([1]Sheet1!C26*1000)/10</f>
-        <v>90.8</v>
+        <v>89</v>
       </c>
       <c r="D26" s="2">
         <f ca="1">INT([1]Sheet1!D26*1000)/10</f>
-        <v>9.1</v>
+        <v>10.9</v>
       </c>
       <c r="E26" s="1">
         <f ca="1">[1]Sheet1!E26</f>
-        <v>204.41759532350562</v>
+        <v>195.17128971494591</v>
       </c>
       <c r="F26" s="1">
         <f ca="1">[1]Sheet1!F26</f>
-        <v>45.582404676494377</v>
+        <v>54.828710285054086</v>
       </c>
       <c r="G26">
         <f>[1]Sheet1!G26</f>
@@ -3757,12 +3709,12 @@
         <v>433</v>
       </c>
       <c r="J26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B27">
         <f>[1]Sheet1!B27</f>
@@ -3770,19 +3722,19 @@
       </c>
       <c r="C27" s="2">
         <f ca="1">INT([1]Sheet1!C27*1000)/10</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27" s="2">
         <f ca="1">INT([1]Sheet1!D27*1000)/10</f>
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
       <c r="E27" s="1">
         <f ca="1">[1]Sheet1!E27</f>
-        <v>200.46466088544284</v>
+        <v>190.39279412536203</v>
       </c>
       <c r="F27" s="1">
         <f ca="1">[1]Sheet1!F27</f>
-        <v>49.535339114557161</v>
+        <v>59.60720587463797</v>
       </c>
       <c r="G27">
         <f>[1]Sheet1!G27</f>
@@ -3797,12 +3749,12 @@
         <v>426.5</v>
       </c>
       <c r="J27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="B28">
         <f>[1]Sheet1!B28</f>
@@ -3810,19 +3762,19 @@
       </c>
       <c r="C28" s="2">
         <f ca="1">INT([1]Sheet1!C28*1000)/10</f>
-        <v>98.7</v>
+        <v>98.1</v>
       </c>
       <c r="D28" s="2">
         <f ca="1">INT([1]Sheet1!D28*1000)/10</f>
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="E28" s="1">
         <f ca="1">[1]Sheet1!E28</f>
-        <v>243.51575717029075</v>
+        <v>240.75965401576326</v>
       </c>
       <c r="F28" s="1">
         <f ca="1">[1]Sheet1!F28</f>
-        <v>6.4842428297092454</v>
+        <v>9.2403459842367397</v>
       </c>
       <c r="G28">
         <f>[1]Sheet1!G28</f>
@@ -3837,12 +3789,12 @@
         <v>471</v>
       </c>
       <c r="J28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="B29">
         <f>[1]Sheet1!B29</f>
@@ -3850,19 +3802,19 @@
       </c>
       <c r="C29" s="2">
         <f ca="1">INT([1]Sheet1!C29*1000)/10</f>
-        <v>39.799999999999997</v>
+        <v>36.9</v>
       </c>
       <c r="D29" s="2">
         <f ca="1">INT([1]Sheet1!D29*1000)/10</f>
-        <v>60.1</v>
+        <v>63</v>
       </c>
       <c r="E29" s="1">
         <f ca="1">[1]Sheet1!E29</f>
-        <v>50.783162084790277</v>
+        <v>65.286660938345136</v>
       </c>
       <c r="F29" s="1">
         <f ca="1">[1]Sheet1!F29</f>
-        <v>199.21683791520974</v>
+        <v>184.71333906165486</v>
       </c>
       <c r="G29">
         <f>[1]Sheet1!G29</f>
@@ -3877,12 +3829,12 @@
         <v>245</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="B30">
         <f>[1]Sheet1!B30</f>
@@ -3890,19 +3842,19 @@
       </c>
       <c r="C30" s="2">
         <f ca="1">INT([1]Sheet1!C30*1000)/10</f>
-        <v>36.5</v>
+        <v>33.5</v>
       </c>
       <c r="D30" s="2">
         <f ca="1">INT([1]Sheet1!D30*1000)/10</f>
-        <v>63.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="E30" s="1">
         <f ca="1">[1]Sheet1!E30</f>
-        <v>67.157276524304052</v>
+        <v>82.368033795195416</v>
       </c>
       <c r="F30" s="1">
         <f ca="1">[1]Sheet1!F30</f>
-        <v>182.84272347569595</v>
+        <v>167.6319662048046</v>
       </c>
       <c r="G30">
         <f>[1]Sheet1!G30</f>
@@ -3917,12 +3869,12 @@
         <v>224</v>
       </c>
       <c r="J30" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="B31">
         <f>[1]Sheet1!B31</f>
@@ -3930,19 +3882,19 @@
       </c>
       <c r="C31" s="2">
         <f ca="1">INT([1]Sheet1!C31*1000)/10</f>
-        <v>10.6</v>
+        <v>9.4</v>
       </c>
       <c r="D31" s="2">
         <f ca="1">INT([1]Sheet1!D31*1000)/10</f>
-        <v>89.3</v>
+        <v>90.5</v>
       </c>
       <c r="E31" s="1">
         <f ca="1">[1]Sheet1!E31</f>
-        <v>196.88469152070854</v>
+        <v>202.7744847780904</v>
       </c>
       <c r="F31" s="1">
         <f ca="1">[1]Sheet1!F31</f>
-        <v>53.115308479291457</v>
+        <v>47.225515221909603</v>
       </c>
       <c r="G31">
         <f>[1]Sheet1!G31</f>
@@ -3957,12 +3909,12 @@
         <v>169</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="B32">
         <f>[1]Sheet1!B32</f>
@@ -3970,19 +3922,19 @@
       </c>
       <c r="C32" s="2">
         <f ca="1">INT([1]Sheet1!C32*1000)/10</f>
-        <v>18.100000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="D32" s="2">
         <f ca="1">INT([1]Sheet1!D32*1000)/10</f>
-        <v>81.8</v>
+        <v>83.6</v>
       </c>
       <c r="E32" s="1">
         <f ca="1">[1]Sheet1!E32</f>
-        <v>159.18149015704657</v>
+        <v>168.00085281315523</v>
       </c>
       <c r="F32" s="1">
         <f ca="1">[1]Sheet1!F32</f>
-        <v>90.818509842953432</v>
+        <v>81.999147186844766</v>
       </c>
       <c r="G32">
         <f>[1]Sheet1!G32</f>
@@ -3997,12 +3949,12 @@
         <v>185.5</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="B33">
         <f>[1]Sheet1!B33</f>
@@ -4010,19 +3962,19 @@
       </c>
       <c r="C33" s="2">
         <f ca="1">INT([1]Sheet1!C33*1000)/10</f>
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="D33" s="2">
         <f ca="1">INT([1]Sheet1!D33*1000)/10</f>
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="E33" s="1">
         <f ca="1">[1]Sheet1!E33</f>
-        <v>240.4050010695272</v>
+        <v>242.98385332118752</v>
       </c>
       <c r="F33" s="1">
         <f ca="1">[1]Sheet1!F33</f>
-        <v>9.5949989304727978</v>
+        <v>7.0161466788124756</v>
       </c>
       <c r="G33">
         <f>[1]Sheet1!G33</f>
@@ -4037,12 +3989,12 @@
         <v>100.5</v>
       </c>
       <c r="J33" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B34">
         <f>[1]Sheet1!B34</f>
@@ -4050,19 +4002,19 @@
       </c>
       <c r="C34" s="2">
         <f ca="1">INT([1]Sheet1!C34*1000)/10</f>
-        <v>58.7</v>
+        <v>54.2</v>
       </c>
       <c r="D34" s="2">
         <f ca="1">INT([1]Sheet1!D34*1000)/10</f>
-        <v>41.2</v>
+        <v>45.7</v>
       </c>
       <c r="E34" s="1">
         <f ca="1">[1]Sheet1!E34</f>
-        <v>43.900154498161314</v>
+        <v>21.101096132814632</v>
       </c>
       <c r="F34" s="1">
         <f ca="1">[1]Sheet1!F34</f>
-        <v>206.09984550183867</v>
+        <v>228.89890386718537</v>
       </c>
       <c r="G34">
         <f>[1]Sheet1!G34</f>
@@ -4077,12 +4029,12 @@
         <v>314.5</v>
       </c>
       <c r="J34" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="B35">
         <f>[1]Sheet1!B35</f>
@@ -4090,19 +4042,19 @@
       </c>
       <c r="C35" s="2">
         <f ca="1">INT([1]Sheet1!C35*1000)/10</f>
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="D35" s="2">
         <f ca="1">INT([1]Sheet1!D35*1000)/10</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E35" s="1">
         <f ca="1">[1]Sheet1!E35</f>
-        <v>249.62399400245511</v>
+        <v>249.32429589190502</v>
       </c>
       <c r="F35" s="1">
         <f ca="1">[1]Sheet1!F35</f>
-        <v>0.37600599754489394</v>
+        <v>0.67570410809497616</v>
       </c>
       <c r="G35">
         <f>[1]Sheet1!G35</f>
@@ -4110,19 +4062,19 @@
       </c>
       <c r="H35">
         <f ca="1">[1]Sheet1!I35</f>
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="I35">
         <f ca="1">[1]Sheet1!J35</f>
-        <v>532.5</v>
+        <v>525.5</v>
       </c>
       <c r="J35" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="B36">
         <f>[1]Sheet1!B36</f>
@@ -4130,19 +4082,19 @@
       </c>
       <c r="C36" s="2">
         <f ca="1">INT([1]Sheet1!C36*1000)/10</f>
-        <v>71.599999999999994</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="D36" s="2">
         <f ca="1">INT([1]Sheet1!D36*1000)/10</f>
-        <v>28.3</v>
+        <v>31.5</v>
       </c>
       <c r="E36" s="1">
         <f ca="1">[1]Sheet1!E36</f>
-        <v>108.27434703074483</v>
+        <v>92.289680869511727</v>
       </c>
       <c r="F36" s="1">
         <f ca="1">[1]Sheet1!F36</f>
-        <v>141.72565296925518</v>
+        <v>157.71031913048827</v>
       </c>
       <c r="G36">
         <f>[1]Sheet1!G36</f>
@@ -4157,12 +4109,12 @@
         <v>366</v>
       </c>
       <c r="J36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B37">
         <f>[1]Sheet1!B37</f>
@@ -4170,19 +4122,19 @@
       </c>
       <c r="C37" s="2">
         <f ca="1">INT([1]Sheet1!C37*1000)/10</f>
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="D37" s="2">
         <f ca="1">INT([1]Sheet1!D37*1000)/10</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E37" s="1">
         <f ca="1">[1]Sheet1!E37</f>
-        <v>249.51875971559923</v>
+        <v>249.38510608722231</v>
       </c>
       <c r="F37" s="1">
         <f ca="1">[1]Sheet1!F37</f>
-        <v>0.48124028440076927</v>
+        <v>0.61489391277768846</v>
       </c>
       <c r="G37">
         <f>[1]Sheet1!G37</f>
@@ -4190,19 +4142,19 @@
       </c>
       <c r="H37">
         <f ca="1">[1]Sheet1!I37</f>
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="I37">
         <f ca="1">[1]Sheet1!J37</f>
-        <v>527.5</v>
+        <v>530.5</v>
       </c>
       <c r="J37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="B38">
         <f>[1]Sheet1!B38</f>
@@ -4210,19 +4162,19 @@
       </c>
       <c r="C38" s="2">
         <f ca="1">INT([1]Sheet1!C38*1000)/10</f>
-        <v>13.9</v>
+        <v>12.5</v>
       </c>
       <c r="D38" s="2">
         <f ca="1">INT([1]Sheet1!D38*1000)/10</f>
-        <v>86</v>
+        <v>87.4</v>
       </c>
       <c r="E38" s="1">
         <f ca="1">[1]Sheet1!E38</f>
-        <v>180.06736551233851</v>
+        <v>187.0177861781649</v>
       </c>
       <c r="F38" s="1">
         <f ca="1">[1]Sheet1!F38</f>
-        <v>69.932634487661488</v>
+        <v>62.982213821835103</v>
       </c>
       <c r="G38">
         <f>[1]Sheet1!G38</f>
@@ -4237,12 +4189,12 @@
         <v>179.5</v>
       </c>
       <c r="J38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B39">
         <f>[1]Sheet1!B39</f>
@@ -4250,19 +4202,19 @@
       </c>
       <c r="C39" s="2">
         <f ca="1">INT([1]Sheet1!C39*1000)/10</f>
-        <v>44.3</v>
+        <v>41.7</v>
       </c>
       <c r="D39" s="2">
         <f ca="1">INT([1]Sheet1!D39*1000)/10</f>
-        <v>55.6</v>
+        <v>58.2</v>
       </c>
       <c r="E39" s="1">
         <f ca="1">[1]Sheet1!E39</f>
-        <v>28.209319488215979</v>
+        <v>41.302987608021816</v>
       </c>
       <c r="F39" s="1">
         <f ca="1">[1]Sheet1!F39</f>
-        <v>221.79068051178402</v>
+        <v>208.69701239197818</v>
       </c>
       <c r="G39">
         <f>[1]Sheet1!G39</f>
@@ -4277,12 +4229,12 @@
         <v>258</v>
       </c>
       <c r="J39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="B40">
         <f>[1]Sheet1!B40</f>
@@ -4290,19 +4242,19 @@
       </c>
       <c r="C40" s="2">
         <f ca="1">INT([1]Sheet1!C40*1000)/10</f>
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="D40" s="2">
         <f ca="1">INT([1]Sheet1!D40*1000)/10</f>
-        <v>94.7</v>
+        <v>95.7</v>
       </c>
       <c r="E40" s="1">
         <f ca="1">[1]Sheet1!E40</f>
-        <v>223.78543787395338</v>
+        <v>228.69389075555424</v>
       </c>
       <c r="F40" s="1">
         <f ca="1">[1]Sheet1!F40</f>
-        <v>26.214562126046616</v>
+        <v>21.306109244445764</v>
       </c>
       <c r="G40">
         <f>[1]Sheet1!G40</f>
@@ -4317,12 +4269,12 @@
         <v>117</v>
       </c>
       <c r="J40" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="B41">
         <f>[1]Sheet1!B41</f>
@@ -4330,19 +4282,19 @@
       </c>
       <c r="C41" s="2">
         <f ca="1">INT([1]Sheet1!C41*1000)/10</f>
-        <v>87.7</v>
+        <v>85.5</v>
       </c>
       <c r="D41" s="2">
         <f ca="1">INT([1]Sheet1!D41*1000)/10</f>
-        <v>12.2</v>
+        <v>14.4</v>
       </c>
       <c r="E41" s="1">
         <f ca="1">[1]Sheet1!E41</f>
-        <v>188.75664253865386</v>
+        <v>177.51657364360955</v>
       </c>
       <c r="F41" s="1">
         <f ca="1">[1]Sheet1!F41</f>
-        <v>61.243357461346136</v>
+        <v>72.483426356390453</v>
       </c>
       <c r="G41">
         <f>[1]Sheet1!G41</f>
@@ -4357,12 +4309,12 @@
         <v>420.5</v>
       </c>
       <c r="J41" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B42">
         <f>[1]Sheet1!B42</f>
@@ -4370,19 +4322,19 @@
       </c>
       <c r="C42" s="2">
         <f ca="1">INT([1]Sheet1!C42*1000)/10</f>
-        <v>99.6</v>
+        <v>99.4</v>
       </c>
       <c r="D42" s="2">
         <f ca="1">INT([1]Sheet1!D42*1000)/10</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E42" s="1">
         <f ca="1">[1]Sheet1!E42</f>
-        <v>248.26942219146804</v>
+        <v>247.2688050629169</v>
       </c>
       <c r="F42" s="1">
         <f ca="1">[1]Sheet1!F42</f>
-        <v>1.7305778085319616</v>
+        <v>2.731194937083103</v>
       </c>
       <c r="G42">
         <f>[1]Sheet1!G42</f>
@@ -4397,12 +4349,12 @@
         <v>507.5</v>
       </c>
       <c r="J42" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B43">
         <f>[1]Sheet1!B43</f>
@@ -4410,19 +4362,19 @@
       </c>
       <c r="C43" s="2">
         <f ca="1">INT([1]Sheet1!C43*1000)/10</f>
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="D43" s="2">
         <f ca="1">INT([1]Sheet1!D43*1000)/10</f>
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="E43" s="1">
         <f ca="1">[1]Sheet1!E43</f>
-        <v>243.58840094791222</v>
+        <v>241.20006697713822</v>
       </c>
       <c r="F43" s="1">
         <f ca="1">[1]Sheet1!F43</f>
-        <v>6.4115990520877801</v>
+        <v>8.7999330228617794</v>
       </c>
       <c r="G43">
         <f>[1]Sheet1!G43</f>
@@ -4437,12 +4389,12 @@
         <v>477.5</v>
       </c>
       <c r="J43" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B44">
         <f>[1]Sheet1!B44</f>
@@ -4450,19 +4402,19 @@
       </c>
       <c r="C44" s="2">
         <f ca="1">INT([1]Sheet1!C44*1000)/10</f>
-        <v>80.2</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="D44" s="2">
         <f ca="1">INT([1]Sheet1!D44*1000)/10</f>
-        <v>19.7</v>
+        <v>23.3</v>
       </c>
       <c r="E44" s="1">
         <f ca="1">[1]Sheet1!E44</f>
-        <v>151.38661779685981</v>
+        <v>133.14908323002555</v>
       </c>
       <c r="F44" s="1">
         <f ca="1">[1]Sheet1!F44</f>
-        <v>98.613382203140191</v>
+        <v>116.85091676997445</v>
       </c>
       <c r="G44">
         <f>[1]Sheet1!G44</f>
@@ -4477,12 +4429,12 @@
         <v>394</v>
       </c>
       <c r="J44" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="B45">
         <f>[1]Sheet1!B45</f>
@@ -4490,19 +4442,19 @@
       </c>
       <c r="C45" s="2">
         <f ca="1">INT([1]Sheet1!C45*1000)/10</f>
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="D45" s="2">
         <f ca="1">INT([1]Sheet1!D45*1000)/10</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E45" s="1">
         <f ca="1">[1]Sheet1!E45</f>
-        <v>248.75597794889504</v>
+        <v>248.1986618892349</v>
       </c>
       <c r="F45" s="1">
         <f ca="1">[1]Sheet1!F45</f>
-        <v>1.2440220511049631</v>
+        <v>1.8013381107651014</v>
       </c>
       <c r="G45">
         <f>[1]Sheet1!G45</f>
@@ -4517,12 +4469,12 @@
         <v>512</v>
       </c>
       <c r="J45" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B46">
         <f>[1]Sheet1!B46</f>
@@ -4538,11 +4490,11 @@
       </c>
       <c r="E46" s="1">
         <f ca="1">[1]Sheet1!E46</f>
-        <v>249.62347364640141</v>
+        <v>249.68106023346178</v>
       </c>
       <c r="F46" s="1">
         <f ca="1">[1]Sheet1!F46</f>
-        <v>0.37652635359859232</v>
+        <v>0.31893976653822165</v>
       </c>
       <c r="G46">
         <f>[1]Sheet1!G46</f>
@@ -4557,12 +4509,12 @@
         <v>63.5</v>
       </c>
       <c r="J46" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="B47">
         <f>[1]Sheet1!B47</f>
@@ -4570,19 +4522,19 @@
       </c>
       <c r="C47" s="2">
         <f ca="1">INT([1]Sheet1!C47*1000)/10</f>
-        <v>27.7</v>
+        <v>25.6</v>
       </c>
       <c r="D47" s="2">
         <f ca="1">INT([1]Sheet1!D47*1000)/10</f>
-        <v>72.2</v>
+        <v>74.3</v>
       </c>
       <c r="E47" s="1">
         <f ca="1">[1]Sheet1!E47</f>
-        <v>111.23351943881073</v>
+        <v>121.69078058747485</v>
       </c>
       <c r="F47" s="1">
         <f ca="1">[1]Sheet1!F47</f>
-        <v>138.76648056118927</v>
+        <v>128.30921941252515</v>
       </c>
       <c r="G47">
         <f>[1]Sheet1!G47</f>
@@ -4597,12 +4549,12 @@
         <v>203.5</v>
       </c>
       <c r="J47" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B48">
         <f>[1]Sheet1!B48</f>
@@ -4610,19 +4562,19 @@
       </c>
       <c r="C48" s="2">
         <f ca="1">INT([1]Sheet1!C48*1000)/10</f>
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2">
         <f ca="1">INT([1]Sheet1!D48*1000)/10</f>
-        <v>90.8</v>
+        <v>91.9</v>
       </c>
       <c r="E48" s="1">
         <f ca="1">[1]Sheet1!E48</f>
-        <v>204.13353826789313</v>
+        <v>209.61550334072766</v>
       </c>
       <c r="F48" s="1">
         <f ca="1">[1]Sheet1!F48</f>
-        <v>45.86646173210687</v>
+        <v>40.384496659272344</v>
       </c>
       <c r="G48">
         <f>[1]Sheet1!G48</f>
@@ -4637,12 +4589,12 @@
         <v>146</v>
       </c>
       <c r="J48" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B49">
         <f>[1]Sheet1!B49</f>
@@ -4658,11 +4610,11 @@
       </c>
       <c r="E49" s="1">
         <f ca="1">[1]Sheet1!E49</f>
-        <v>249.4550936018282</v>
+        <v>249.28902233098302</v>
       </c>
       <c r="F49" s="1">
         <f ca="1">[1]Sheet1!F49</f>
-        <v>0.54490639817180408</v>
+        <v>0.71097766901698378</v>
       </c>
       <c r="G49">
         <f>[1]Sheet1!G49</f>
@@ -4677,12 +4629,12 @@
         <v>521.5</v>
       </c>
       <c r="J49" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="B50">
         <f>[1]Sheet1!B50</f>
@@ -4690,19 +4642,19 @@
       </c>
       <c r="C50" s="2">
         <f ca="1">INT([1]Sheet1!C50*1000)/10</f>
-        <v>48.6</v>
+        <v>44.9</v>
       </c>
       <c r="D50" s="2">
         <f ca="1">INT([1]Sheet1!D50*1000)/10</f>
-        <v>51.3</v>
+        <v>55</v>
       </c>
       <c r="E50" s="1">
         <f ca="1">[1]Sheet1!E50</f>
-        <v>6.9955403352770507</v>
+        <v>25.351613297400128</v>
       </c>
       <c r="F50" s="1">
         <f ca="1">[1]Sheet1!F50</f>
-        <v>243.00445966472296</v>
+        <v>224.64838670259988</v>
       </c>
       <c r="G50">
         <f>[1]Sheet1!G50</f>
@@ -4717,12 +4669,12 @@
         <v>273</v>
       </c>
       <c r="J50" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="B51">
         <f>[1]Sheet1!B51</f>
@@ -4738,11 +4690,11 @@
       </c>
       <c r="E51" s="1">
         <f ca="1">[1]Sheet1!E51</f>
-        <v>249.99852084761284</v>
+        <v>249.99436892570603</v>
       </c>
       <c r="F51" s="1">
         <f ca="1">[1]Sheet1!F51</f>
-        <v>1.4791523871622303E-3</v>
+        <v>5.6310742939729153E-3</v>
       </c>
       <c r="G51">
         <f>[1]Sheet1!G51</f>
@@ -4750,19 +4702,19 @@
       </c>
       <c r="H51">
         <f ca="1">[1]Sheet1!I51</f>
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I51">
         <f ca="1">[1]Sheet1!J51</f>
-        <v>535</v>
+        <v>535.5</v>
       </c>
       <c r="J51" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="B52">
         <f>[1]Sheet1!B52</f>
@@ -4778,11 +4730,11 @@
       </c>
       <c r="E52" s="1">
         <f ca="1">[1]Sheet1!E52</f>
-        <v>249.99999999996393</v>
+        <v>249.99999999981225</v>
       </c>
       <c r="F52" s="1">
         <f ca="1">[1]Sheet1!F52</f>
-        <v>3.6067149267182685E-11</v>
+        <v>1.8775381249724887E-10</v>
       </c>
       <c r="G52">
         <f>[1]Sheet1!G52</f>
@@ -4797,32 +4749,32 @@
         <v>1.5</v>
       </c>
       <c r="J52" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="B53">
         <f>[1]Sheet1!B53</f>
         <v>1</v>
       </c>
       <c r="C53" s="2">
-        <f>INT([1]Sheet1!C53*1000)/10</f>
-        <v>8.9</v>
+        <f ca="1">INT([1]Sheet1!C53*1000)/10</f>
+        <v>7.5</v>
       </c>
       <c r="D53" s="2">
-        <f>INT([1]Sheet1!D53*1000)/10</f>
-        <v>91</v>
+        <f ca="1">INT([1]Sheet1!D53*1000)/10</f>
+        <v>92.4</v>
       </c>
       <c r="E53" s="1">
-        <f>[1]Sheet1!E53</f>
-        <v>205.36433852419665</v>
+        <f ca="1">[1]Sheet1!E53</f>
+        <v>212.20215425915231</v>
       </c>
       <c r="F53" s="1">
-        <f>[1]Sheet1!F53</f>
-        <v>44.635661475803346</v>
+        <f ca="1">[1]Sheet1!F53</f>
+        <v>37.797845740847691</v>
       </c>
       <c r="G53">
         <f>[1]Sheet1!G53</f>
@@ -4837,32 +4789,32 @@
         <v>139.5</v>
       </c>
       <c r="J53" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="B54">
         <f>[1]Sheet1!B54</f>
         <v>1</v>
       </c>
       <c r="C54" s="2">
-        <f>INT([1]Sheet1!C54*1000)/10</f>
-        <v>60.9</v>
+        <f ca="1">INT([1]Sheet1!C54*1000)/10</f>
+        <v>58.6</v>
       </c>
       <c r="D54" s="2">
-        <f>INT([1]Sheet1!D54*1000)/10</f>
-        <v>39</v>
+        <f ca="1">INT([1]Sheet1!D54*1000)/10</f>
+        <v>41.3</v>
       </c>
       <c r="E54" s="1">
-        <f>[1]Sheet1!E54</f>
-        <v>54.904416880703351</v>
+        <f ca="1">[1]Sheet1!E54</f>
+        <v>43.244553029902043</v>
       </c>
       <c r="F54" s="1">
-        <f>[1]Sheet1!F54</f>
-        <v>195.09558311929663</v>
+        <f ca="1">[1]Sheet1!F54</f>
+        <v>206.75544697009795</v>
       </c>
       <c r="G54">
         <f>[1]Sheet1!G54</f>
@@ -4877,32 +4829,32 @@
         <v>334.5</v>
       </c>
       <c r="J54" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="B55">
         <f>[1]Sheet1!B55</f>
         <v>1</v>
       </c>
       <c r="C55" s="2">
-        <f>INT([1]Sheet1!C55*1000)/10</f>
-        <v>95.7</v>
+        <f ca="1">INT([1]Sheet1!C55*1000)/10</f>
+        <v>94.8</v>
       </c>
       <c r="D55" s="2">
-        <f>INT([1]Sheet1!D55*1000)/10</f>
-        <v>4.2</v>
+        <f ca="1">INT([1]Sheet1!D55*1000)/10</f>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E55" s="1">
-        <f>[1]Sheet1!E55</f>
-        <v>228.95356249650004</v>
+        <f ca="1">[1]Sheet1!E55</f>
+        <v>224.18488488182834</v>
       </c>
       <c r="F55" s="1">
-        <f>[1]Sheet1!F55</f>
-        <v>21.046437503499959</v>
+        <f ca="1">[1]Sheet1!F55</f>
+        <v>25.815115118171661</v>
       </c>
       <c r="G55">
         <f>[1]Sheet1!G55</f>
@@ -4917,32 +4869,32 @@
         <v>461.5</v>
       </c>
       <c r="J55" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="B56">
         <f>[1]Sheet1!B56</f>
         <v>1</v>
       </c>
       <c r="C56" s="2">
-        <f>INT([1]Sheet1!C56*1000)/10</f>
-        <v>59.1</v>
+        <f ca="1">INT([1]Sheet1!C56*1000)/10</f>
+        <v>57</v>
       </c>
       <c r="D56" s="2">
-        <f>INT([1]Sheet1!D56*1000)/10</f>
-        <v>40.799999999999997</v>
+        <f ca="1">INT([1]Sheet1!D56*1000)/10</f>
+        <v>42.9</v>
       </c>
       <c r="E56" s="1">
-        <f>[1]Sheet1!E56</f>
-        <v>45.997277367944456</v>
+        <f ca="1">[1]Sheet1!E56</f>
+        <v>35.488255986932728</v>
       </c>
       <c r="F56" s="1">
-        <f>[1]Sheet1!F56</f>
-        <v>204.00272263205554</v>
+        <f ca="1">[1]Sheet1!F56</f>
+        <v>214.51174401306727</v>
       </c>
       <c r="G56">
         <f>[1]Sheet1!G56</f>
@@ -4950,39 +4902,39 @@
       </c>
       <c r="H56">
         <f ca="1">[1]Sheet1!I56</f>
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="I56">
         <f ca="1">[1]Sheet1!J56</f>
-        <v>322.5</v>
+        <v>333.5</v>
       </c>
       <c r="J56" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="B57">
         <f>[1]Sheet1!B57</f>
         <v>1</v>
       </c>
       <c r="C57" s="2">
-        <f>INT([1]Sheet1!C57*1000)/10</f>
+        <f ca="1">INT([1]Sheet1!C57*1000)/10</f>
         <v>99.9</v>
       </c>
       <c r="D57" s="2">
-        <f>INT([1]Sheet1!D57*1000)/10</f>
+        <f ca="1">INT([1]Sheet1!D57*1000)/10</f>
         <v>0</v>
       </c>
       <c r="E57" s="1">
-        <f>[1]Sheet1!E57</f>
-        <v>249.99843741462246</v>
+        <f ca="1">[1]Sheet1!E57</f>
+        <v>249.99781847236352</v>
       </c>
       <c r="F57" s="1">
-        <f>[1]Sheet1!F57</f>
-        <v>1.5625853775418364E-3</v>
+        <f ca="1">[1]Sheet1!F57</f>
+        <v>2.1815276364804959E-3</v>
       </c>
       <c r="G57">
         <f>[1]Sheet1!G57</f>
@@ -4990,14 +4942,14 @@
       </c>
       <c r="H57">
         <f ca="1">[1]Sheet1!I57</f>
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="I57">
         <f ca="1">[1]Sheet1!J57</f>
-        <v>534.5</v>
+        <v>537</v>
       </c>
       <c r="J57" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5006,11 +4958,1456 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C32385E-AB56-0749-8BAE-D8A0FEE6562B}">
+  <dimension ref="A1:G57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="str">
+        <f>[1]Sheet1!A1</f>
+        <v>state</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>[1]Sheet1!C1</f>
+        <v>gopWin</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>[1]Sheet1!D1</f>
+        <v>demWin</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2">
+        <f ca="1">INT([1]Sheet1!C2*1000)/10</f>
+        <v>99.2</v>
+      </c>
+      <c r="C2" s="2">
+        <f ca="1">INT([1]Sheet1!D2*1000)/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <f ca="1">INT(([1]SImulations!N2*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>637</v>
+      </c>
+      <c r="G2">
+        <v>338.6934</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2">
+        <f ca="1">INT([1]Sheet1!C3*1000)/10</f>
+        <v>85.1</v>
+      </c>
+      <c r="C3" s="2">
+        <f ca="1">INT([1]Sheet1!D3*1000)/10</f>
+        <v>14.8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <f ca="1">INT(([1]SImulations!N3*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>245</v>
+      </c>
+      <c r="G3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2">
+        <f ca="1">INT([1]Sheet1!C4*1000)/10</f>
+        <v>56.3</v>
+      </c>
+      <c r="C4" s="2">
+        <f ca="1">INT([1]Sheet1!D4*1000)/10</f>
+        <v>43.6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <f ca="1">INT(([1]SImulations!N4*1000)+0.5)/10</f>
+        <v>6.7</v>
+      </c>
+      <c r="F4">
+        <v>315</v>
+      </c>
+      <c r="G4">
+        <v>306.58010000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2">
+        <f ca="1">INT([1]Sheet1!C5*1000)/10</f>
+        <v>99.4</v>
+      </c>
+      <c r="C5" s="2">
+        <f ca="1">INT([1]Sheet1!D5*1000)/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f ca="1">INT(([1]SImulations!N5*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>560</v>
+      </c>
+      <c r="G5">
+        <v>315.63869999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2">
+        <f ca="1">INT([1]Sheet1!C6*1000)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <f ca="1">INT([1]Sheet1!D6*1000)/10</f>
+        <v>99.9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <f ca="1">INT(([1]SImulations!N6*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>223</v>
+      </c>
+      <c r="G6">
+        <v>253.92189999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2">
+        <f ca="1">INT([1]Sheet1!C7*1000)/10</f>
+        <v>25.3</v>
+      </c>
+      <c r="C7" s="2">
+        <f ca="1">INT([1]Sheet1!D7*1000)/10</f>
+        <v>74.599999999999994</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <f ca="1">INT(([1]SImulations!N7*1000)+0.5)/10</f>
+        <v>1.8</v>
+      </c>
+      <c r="F7">
+        <v>400</v>
+      </c>
+      <c r="G7">
+        <v>245.56450000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2">
+        <f ca="1">INT([1]Sheet1!C8*1000)/10</f>
+        <v>8.9</v>
+      </c>
+      <c r="C8" s="2">
+        <f ca="1">INT([1]Sheet1!D8*1000)/10</f>
+        <v>91</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f ca="1">INT(([1]SImulations!N8*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>-1000</v>
+      </c>
+      <c r="G8">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2">
+        <f ca="1">INT([1]Sheet1!C9*1000)/10</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C9" s="2">
+        <f ca="1">INT([1]Sheet1!D9*1000)/10</f>
+        <v>91.7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <f ca="1">INT(([1]SImulations!N9*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>-1000</v>
+      </c>
+      <c r="G9">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2">
+        <f ca="1">INT([1]Sheet1!C10*1000)/10</f>
+        <v>50.2</v>
+      </c>
+      <c r="C10" s="2">
+        <f ca="1">INT([1]Sheet1!D10*1000)/10</f>
+        <v>49.7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <f ca="1">INT(([1]SImulations!N10*1000)+0.5)/10</f>
+        <v>10.3</v>
+      </c>
+      <c r="F10">
+        <v>714</v>
+      </c>
+      <c r="G10">
+        <v>397.81540000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2">
+        <f ca="1">INT([1]Sheet1!C11*1000)/10</f>
+        <v>65.2</v>
+      </c>
+      <c r="C11" s="2">
+        <f ca="1">INT([1]Sheet1!D11*1000)/10</f>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <f ca="1">INT(([1]SImulations!N11*1000)+0.5)/10</f>
+        <v>2.6</v>
+      </c>
+      <c r="F11">
+        <v>680.01170000000002</v>
+      </c>
+      <c r="G11">
+        <v>335.23540000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="2">
+        <f ca="1">INT([1]Sheet1!C12*1000)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <f ca="1">INT([1]Sheet1!D12*1000)/10</f>
+        <v>99.9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <f ca="1">INT(([1]SImulations!N12*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>380</v>
+      </c>
+      <c r="G12">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2">
+        <f ca="1">INT([1]Sheet1!C13*1000)/10</f>
+        <v>99.8</v>
+      </c>
+      <c r="C13" s="2">
+        <f ca="1">INT([1]Sheet1!D13*1000)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <f ca="1">INT(([1]SImulations!N13*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>310.18509999999998</v>
+      </c>
+      <c r="G13">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="2">
+        <f ca="1">INT([1]Sheet1!C14*1000)/10</f>
+        <v>6.9</v>
+      </c>
+      <c r="C14" s="2">
+        <f ca="1">INT([1]Sheet1!D14*1000)/10</f>
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <f ca="1">INT(([1]SImulations!N14*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>596.66020000000003</v>
+      </c>
+      <c r="G14">
+        <v>231.2954</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="2">
+        <f ca="1">INT([1]Sheet1!C15*1000)/10</f>
+        <v>89.1</v>
+      </c>
+      <c r="C15" s="2">
+        <f ca="1">INT([1]Sheet1!D15*1000)/10</f>
+        <v>10.8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <f ca="1">INT(([1]SImulations!N15*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>633.41110000000003</v>
+      </c>
+      <c r="G15">
+        <v>228.42140000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2">
+        <f ca="1">INT([1]Sheet1!C16*1000)/10</f>
+        <v>59.1</v>
+      </c>
+      <c r="C16" s="2">
+        <f ca="1">INT([1]Sheet1!D16*1000)/10</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <f ca="1">INT(([1]SImulations!N16*1000)+0.5)/10</f>
+        <v>5.7</v>
+      </c>
+      <c r="F16">
+        <v>545.84569999999997</v>
+      </c>
+      <c r="G16">
+        <v>202.6782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2">
+        <f ca="1">INT([1]Sheet1!C17*1000)/10</f>
+        <v>92</v>
+      </c>
+      <c r="C17" s="2">
+        <f ca="1">INT([1]Sheet1!D17*1000)/10</f>
+        <v>7.9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <f ca="1">INT(([1]SImulations!N17*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>487</v>
+      </c>
+      <c r="G17">
+        <v>259.1592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="2">
+        <f ca="1">INT([1]Sheet1!C18*1000)/10</f>
+        <v>99.3</v>
+      </c>
+      <c r="C18" s="2">
+        <f ca="1">INT([1]Sheet1!D18*1000)/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <f ca="1">INT(([1]SImulations!N18*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>655.14840000000004</v>
+      </c>
+      <c r="G18">
+        <v>264.9658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="2">
+        <f ca="1">INT([1]Sheet1!C19*1000)/10</f>
+        <v>95.5</v>
+      </c>
+      <c r="C19" s="2">
+        <f ca="1">INT([1]Sheet1!D19*1000)/10</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <f ca="1">INT(([1]SImulations!N19*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>561.44039999999995</v>
+      </c>
+      <c r="G19">
+        <v>369.81349999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2">
+        <f ca="1">INT([1]Sheet1!C20*1000)/10</f>
+        <v>28.3</v>
+      </c>
+      <c r="C20" s="2">
+        <f ca="1">INT([1]Sheet1!D20*1000)/10</f>
+        <v>71.599999999999994</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <f ca="1">INT(([1]SImulations!N20*1000)+0.5)/10</f>
+        <v>3.4</v>
+      </c>
+      <c r="F20">
+        <v>807.31050000000005</v>
+      </c>
+      <c r="G20">
+        <v>109.855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2">
+        <f ca="1">INT([1]Sheet1!C21*1000)/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="C21" s="2">
+        <f ca="1">INT([1]Sheet1!D21*1000)/10</f>
+        <v>99.5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <f ca="1">INT(([1]SImulations!N21*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>-1000</v>
+      </c>
+      <c r="G21">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2">
+        <f ca="1">INT([1]Sheet1!C22*1000)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="2">
+        <f ca="1">INT([1]Sheet1!D22*1000)/10</f>
+        <v>99.8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <f ca="1">INT(([1]SImulations!N22*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>-1000</v>
+      </c>
+      <c r="G22">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2">
+        <f ca="1">INT([1]Sheet1!C23*1000)/10</f>
+        <v>36.4</v>
+      </c>
+      <c r="C23" s="2">
+        <f ca="1">INT([1]Sheet1!D23*1000)/10</f>
+        <v>63.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <f ca="1">INT(([1]SImulations!N23*1000)+0.5)/10</f>
+        <v>7.4</v>
+      </c>
+      <c r="F23">
+        <v>645.64649999999995</v>
+      </c>
+      <c r="G23">
+        <v>181.3647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="2">
+        <f ca="1">INT([1]Sheet1!C24*1000)/10</f>
+        <v>30.2</v>
+      </c>
+      <c r="C24" s="2">
+        <f ca="1">INT([1]Sheet1!D24*1000)/10</f>
+        <v>69.7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <f ca="1">INT(([1]SImulations!N24*1000)+0.5)/10</f>
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>530.85940000000005</v>
+      </c>
+      <c r="G24">
+        <v>141.5874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="2">
+        <f ca="1">INT([1]Sheet1!C25*1000)/10</f>
+        <v>90</v>
+      </c>
+      <c r="C25" s="2">
+        <f ca="1">INT([1]Sheet1!D25*1000)/10</f>
+        <v>9.9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <f ca="1">INT(([1]SImulations!N25*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>598.60159999999996</v>
+      </c>
+      <c r="G25">
+        <v>342.15140000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="2">
+        <f ca="1">INT([1]Sheet1!C26*1000)/10</f>
+        <v>89</v>
+      </c>
+      <c r="C26" s="2">
+        <f ca="1">INT([1]Sheet1!D26*1000)/10</f>
+        <v>10.9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <f ca="1">INT(([1]SImulations!N26*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>557</v>
+      </c>
+      <c r="G26">
+        <v>261.12299999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="2">
+        <f ca="1">INT([1]Sheet1!C27*1000)/10</f>
+        <v>88</v>
+      </c>
+      <c r="C27" s="2">
+        <f ca="1">INT([1]Sheet1!D27*1000)/10</f>
+        <v>11.9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <f ca="1">INT(([1]SImulations!N27*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>370.09809999999999</v>
+      </c>
+      <c r="G27">
+        <v>112.7705</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="2">
+        <f ca="1">INT([1]Sheet1!C28*1000)/10</f>
+        <v>98.1</v>
+      </c>
+      <c r="C28" s="2">
+        <f ca="1">INT([1]Sheet1!D28*1000)/10</f>
+        <v>1.8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <f ca="1">INT(([1]SImulations!N28*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>473.83640000000003</v>
+      </c>
+      <c r="G28">
+        <v>210.05269999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="2">
+        <f ca="1">INT([1]Sheet1!C29*1000)/10</f>
+        <v>36.9</v>
+      </c>
+      <c r="C29" s="2">
+        <f ca="1">INT([1]Sheet1!D29*1000)/10</f>
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <f ca="1">INT(([1]SImulations!N29*1000)+0.5)/10</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F29">
+        <v>267.87650000000002</v>
+      </c>
+      <c r="G29">
+        <v>219.09569999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="2">
+        <f ca="1">INT([1]Sheet1!C30*1000)/10</f>
+        <v>33.5</v>
+      </c>
+      <c r="C30" s="2">
+        <f ca="1">INT([1]Sheet1!D30*1000)/10</f>
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <f ca="1">INT(([1]SImulations!N30*1000)+0.5)/10</f>
+        <v>6.5</v>
+      </c>
+      <c r="F30">
+        <v>-1000</v>
+      </c>
+      <c r="G30">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="2">
+        <f ca="1">INT([1]Sheet1!C31*1000)/10</f>
+        <v>9.4</v>
+      </c>
+      <c r="C31" s="2">
+        <f ca="1">INT([1]Sheet1!D31*1000)/10</f>
+        <v>90.5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31">
+        <f ca="1">INT(([1]SImulations!N31*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>785</v>
+      </c>
+      <c r="G31">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="2">
+        <f ca="1">INT([1]Sheet1!C32*1000)/10</f>
+        <v>16.3</v>
+      </c>
+      <c r="C32" s="2">
+        <f ca="1">INT([1]Sheet1!D32*1000)/10</f>
+        <v>83.6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <f ca="1">INT(([1]SImulations!N32*1000)+0.5)/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="F32">
+        <v>385.37740000000002</v>
+      </c>
+      <c r="G32">
+        <v>314.1035</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="2">
+        <f ca="1">INT([1]Sheet1!C33*1000)/10</f>
+        <v>1.4</v>
+      </c>
+      <c r="C33" s="2">
+        <f ca="1">INT([1]Sheet1!D33*1000)/10</f>
+        <v>98.5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33">
+        <f ca="1">INT(([1]SImulations!N33*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>753.57809999999995</v>
+      </c>
+      <c r="G33">
+        <v>163.25880000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="2">
+        <f ca="1">INT([1]Sheet1!C34*1000)/10</f>
+        <v>54.2</v>
+      </c>
+      <c r="C34" s="2">
+        <f ca="1">INT([1]Sheet1!D34*1000)/10</f>
+        <v>45.7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34">
+        <f ca="1">INT(([1]SImulations!N34*1000)+0.5)/10</f>
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <v>728.60839999999996</v>
+      </c>
+      <c r="G34">
+        <v>284.50290000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="2">
+        <f ca="1">INT([1]Sheet1!C35*1000)/10</f>
+        <v>99.8</v>
+      </c>
+      <c r="C35" s="2">
+        <f ca="1">INT([1]Sheet1!D35*1000)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35">
+        <f ca="1">INT(([1]SImulations!N35*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>467.07420000000002</v>
+      </c>
+      <c r="G35">
+        <v>117.3823</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="2">
+        <f ca="1">INT([1]Sheet1!C36*1000)/10</f>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="C36" s="2">
+        <f ca="1">INT([1]Sheet1!D36*1000)/10</f>
+        <v>31.5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36">
+        <f ca="1">INT(([1]SImulations!N36*1000)+0.5)/10</f>
+        <v>1.9</v>
+      </c>
+      <c r="F36">
+        <v>670.71969999999999</v>
+      </c>
+      <c r="G36">
+        <v>219.48830000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="2">
+        <f ca="1">INT([1]Sheet1!C37*1000)/10</f>
+        <v>99.8</v>
+      </c>
+      <c r="C37" s="2">
+        <f ca="1">INT([1]Sheet1!D37*1000)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37">
+        <f ca="1">INT(([1]SImulations!N37*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>500.19630000000001</v>
+      </c>
+      <c r="G37">
+        <v>306.41800000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="2">
+        <f ca="1">INT([1]Sheet1!C38*1000)/10</f>
+        <v>12.5</v>
+      </c>
+      <c r="C38" s="2">
+        <f ca="1">INT([1]Sheet1!D38*1000)/10</f>
+        <v>87.4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <f ca="1">INT(([1]SImulations!N38*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>240.2783</v>
+      </c>
+      <c r="G38">
+        <v>139.56540000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="2">
+        <f ca="1">INT([1]Sheet1!C39*1000)/10</f>
+        <v>41.7</v>
+      </c>
+      <c r="C39" s="2">
+        <f ca="1">INT([1]Sheet1!D39*1000)/10</f>
+        <v>58.2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39">
+        <f ca="1">INT(([1]SImulations!N39*1000)+0.5)/10</f>
+        <v>9.4</v>
+      </c>
+      <c r="F39">
+        <v>730.35350000000005</v>
+      </c>
+      <c r="G39">
+        <v>200.85599999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="2">
+        <f ca="1">INT([1]Sheet1!C40*1000)/10</f>
+        <v>4.2</v>
+      </c>
+      <c r="C40" s="2">
+        <f ca="1">INT([1]Sheet1!D40*1000)/10</f>
+        <v>95.7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40">
+        <f ca="1">INT(([1]SImulations!N40*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>-1000</v>
+      </c>
+      <c r="G40">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2">
+        <f ca="1">INT([1]Sheet1!C41*1000)/10</f>
+        <v>85.5</v>
+      </c>
+      <c r="C41" s="2">
+        <f ca="1">INT([1]Sheet1!D41*1000)/10</f>
+        <v>14.4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41">
+        <f ca="1">INT(([1]SImulations!N41*1000)+0.5)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="F41">
+        <v>712.43949999999995</v>
+      </c>
+      <c r="G41">
+        <v>315.63869999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="2">
+        <f ca="1">INT([1]Sheet1!C42*1000)/10</f>
+        <v>99.4</v>
+      </c>
+      <c r="C42" s="2">
+        <f ca="1">INT([1]Sheet1!D42*1000)/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42">
+        <f ca="1">INT(([1]SImulations!N42*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>468.07420000000002</v>
+      </c>
+      <c r="G42">
+        <v>163.51660000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="2">
+        <f ca="1">INT([1]Sheet1!C43*1000)/10</f>
+        <v>98.2</v>
+      </c>
+      <c r="C43" s="2">
+        <f ca="1">INT([1]Sheet1!D43*1000)/10</f>
+        <v>1.7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43">
+        <f ca="1">INT(([1]SImulations!N43*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>640.85940000000005</v>
+      </c>
+      <c r="G43">
+        <v>294.8193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="2">
+        <f ca="1">INT([1]Sheet1!C44*1000)/10</f>
+        <v>76.599999999999994</v>
+      </c>
+      <c r="C44" s="2">
+        <f ca="1">INT([1]Sheet1!D44*1000)/10</f>
+        <v>23.3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44">
+        <f ca="1">INT(([1]SImulations!N44*1000)+0.5)/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="F44">
+        <v>480.99020000000002</v>
+      </c>
+      <c r="G44">
+        <v>374.28609999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="2">
+        <f ca="1">INT([1]Sheet1!C45*1000)/10</f>
+        <v>99.6</v>
+      </c>
+      <c r="C45" s="2">
+        <f ca="1">INT([1]Sheet1!D45*1000)/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45">
+        <f ca="1">INT(([1]SImulations!N45*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>330.10840000000002</v>
+      </c>
+      <c r="G45">
+        <v>234.97800000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="2">
+        <f ca="1">INT([1]Sheet1!C46*1000)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <f ca="1">INT([1]Sheet1!D46*1000)/10</f>
+        <v>99.9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46">
+        <f ca="1">INT(([1]SImulations!N46*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>-1000</v>
+      </c>
+      <c r="G46">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="2">
+        <f ca="1">INT([1]Sheet1!C47*1000)/10</f>
+        <v>25.6</v>
+      </c>
+      <c r="C47" s="2">
+        <f ca="1">INT([1]Sheet1!D47*1000)/10</f>
+        <v>74.3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47">
+        <f ca="1">INT(([1]SImulations!N47*1000)+0.5)/10</f>
+        <v>1.7</v>
+      </c>
+      <c r="F47">
+        <v>731.02639999999997</v>
+      </c>
+      <c r="G47">
+        <v>252.7842</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="2">
+        <f ca="1">INT([1]Sheet1!C48*1000)/10</f>
+        <v>8</v>
+      </c>
+      <c r="C48" s="2">
+        <f ca="1">INT([1]Sheet1!D48*1000)/10</f>
+        <v>91.9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <f ca="1">INT(([1]SImulations!N48*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>256.93650000000002</v>
+      </c>
+      <c r="G48">
+        <v>88.0762</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="2">
+        <f ca="1">INT([1]Sheet1!C49*1000)/10</f>
+        <v>99.8</v>
+      </c>
+      <c r="C49" s="2">
+        <f ca="1">INT([1]Sheet1!D49*1000)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49">
+        <f ca="1">INT(([1]SImulations!N49*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>701</v>
+      </c>
+      <c r="G49">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="2">
+        <f ca="1">INT([1]Sheet1!C50*1000)/10</f>
+        <v>44.9</v>
+      </c>
+      <c r="C50" s="2">
+        <f ca="1">INT([1]Sheet1!D50*1000)/10</f>
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50">
+        <f ca="1">INT(([1]SImulations!N50*1000)+0.5)/10</f>
+        <v>11.4</v>
+      </c>
+      <c r="F50">
+        <v>585.25289999999995</v>
+      </c>
+      <c r="G50">
+        <v>163.25880000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="2">
+        <f ca="1">INT([1]Sheet1!C51*1000)/10</f>
+        <v>99.9</v>
+      </c>
+      <c r="C51" s="2">
+        <f ca="1">INT([1]Sheet1!D51*1000)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51">
+        <f ca="1">INT(([1]SImulations!N51*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>385.92869999999999</v>
+      </c>
+      <c r="G51">
+        <v>179.62549999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="2">
+        <f ca="1">INT([1]Sheet1!C52*1000)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <f ca="1">INT([1]Sheet1!D52*1000)/10</f>
+        <v>99.9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52">
+        <f ca="1">INT(([1]SImulations!N52*1000)+0.5)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA49CC4-0A10-5F4E-B6C5-D2D09E1743F4}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2">
+        <f ca="1">INT(([1]Results!$D$58*1000)+0.5)/10</f>
+        <v>45.7</v>
+      </c>
+      <c r="C2">
+        <f ca="1">INT(([1]Results!$F$58*1000)+0.5)/10</f>
+        <v>46</v>
+      </c>
+      <c r="D2">
+        <f ca="1">INT(([1]Results!$K$58*10)+0.5)/10</f>
+        <v>242.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3">
+        <f ca="1">INT(([1]Results!$E$58*1000)+0.5)/10</f>
+        <v>54.3</v>
+      </c>
+      <c r="C3">
+        <f ca="1">INT(([1]Results!$G$58*1000)+0.5)/10</f>
+        <v>49.9</v>
+      </c>
+      <c r="D3">
+        <f ca="1">INT(([1]Results!$L$58*10)+0.5)/10</f>
+        <v>295.39999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824B986C-45CD-5F4F-8FB4-B0D7EF52CC9B}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -5020,44 +6417,44 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <f ca="1">INT(([1]Sheet1!C2*1000)+0.5)/10</f>
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">INT(([1]Sheet1!D2*1000)+0.5)/10</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
         <v>16.431676725154983</v>
@@ -5069,7 +6466,7 @@
         <v>332</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2">
         <f ca="1">INT(([1]SImulations!N2*1000)+0.5)/10</f>
@@ -5078,18 +6475,18 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">INT(([1]Sheet1!C3*1000)+0.5)/10</f>
-        <v>87.7</v>
+        <v>85.1</v>
       </c>
       <c r="D3" s="2">
         <f ca="1">INT(([1]Sheet1!D3*1000)+0.5)/10</f>
-        <v>12.3</v>
+        <v>14.9</v>
       </c>
       <c r="E3">
         <v>9.4868329805051381</v>
@@ -5101,27 +6498,27 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3">
         <f ca="1">INT(([1]SImulations!N3*1000)+0.5)/10</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">INT(([1]Sheet1!C4*1000)+0.5)/10</f>
-        <v>59.9</v>
+        <v>56.3</v>
       </c>
       <c r="D4" s="2">
         <f ca="1">INT(([1]Sheet1!D4*1000)+0.5)/10</f>
-        <v>40.1</v>
+        <v>43.7</v>
       </c>
       <c r="E4">
         <v>18.165902124584949</v>
@@ -5133,27 +6530,27 @@
         <v>282</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4">
         <f ca="1">INT(([1]SImulations!N4*1000)+0.5)/10</f>
-        <v>7</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <f ca="1">INT(([1]Sheet1!C5*1000)+0.5)/10</f>
-        <v>99.5</v>
+        <v>99.4</v>
       </c>
       <c r="D5" s="2">
         <f ca="1">INT(([1]Sheet1!D5*1000)+0.5)/10</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E5">
         <v>13.416407864998739</v>
@@ -5165,7 +6562,7 @@
         <v>290</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I5">
         <f ca="1">INT(([1]SImulations!N5*1000)+0.5)/10</f>
@@ -5174,10 +6571,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <f ca="1">INT(([1]Sheet1!C6*1000)+0.5)/10</f>
@@ -5197,7 +6594,7 @@
         <v>237</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6">
         <f ca="1">INT(([1]SImulations!N6*1000)+0.5)/10</f>
@@ -5206,18 +6603,18 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">INT(([1]Sheet1!C7*1000)+0.5)/10</f>
-        <v>27.5</v>
+        <v>25.3</v>
       </c>
       <c r="D7" s="2">
         <f ca="1">INT(([1]Sheet1!D7*1000)+0.5)/10</f>
-        <v>72.5</v>
+        <v>74.7</v>
       </c>
       <c r="E7">
         <v>16.431676725154983</v>
@@ -5229,27 +6626,27 @@
         <v>249</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7">
         <f ca="1">INT(([1]SImulations!N7*1000)+0.5)/10</f>
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <f ca="1">INT(([1]Sheet1!C8*1000)+0.5)/10</f>
-        <v>10.1</v>
+        <v>8.9</v>
       </c>
       <c r="D8" s="2">
         <f ca="1">INT(([1]Sheet1!D8*1000)+0.5)/10</f>
-        <v>89.9</v>
+        <v>91.1</v>
       </c>
       <c r="E8">
         <v>14.491376746189438</v>
@@ -5261,7 +6658,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I8">
         <f ca="1">INT(([1]SImulations!N8*1000)+0.5)/10</f>
@@ -5270,18 +6667,18 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <f ca="1">INT(([1]Sheet1!C9*1000)+0.5)/10</f>
-        <v>9.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D9" s="2">
         <f ca="1">INT(([1]Sheet1!D9*1000)+0.5)/10</f>
-        <v>90.8</v>
+        <v>91.7</v>
       </c>
       <c r="E9">
         <v>9.4868329805051381</v>
@@ -5293,7 +6690,7 @@
         <v>183</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9">
         <f ca="1">INT(([1]SImulations!N9*1000)+0.5)/10</f>
@@ -5302,18 +6699,18 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <f ca="1">INT(([1]Sheet1!C10*1000)+0.5)/10</f>
-        <v>53.7</v>
+        <v>50.2</v>
       </c>
       <c r="D10" s="2">
         <f ca="1">INT(([1]Sheet1!D10*1000)+0.5)/10</f>
-        <v>46.3</v>
+        <v>49.8</v>
       </c>
       <c r="E10">
         <v>29.49576240750525</v>
@@ -5325,27 +6722,27 @@
         <v>380</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10">
         <f ca="1">INT(([1]SImulations!N10*1000)+0.5)/10</f>
-        <v>10.8</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
         <f ca="1">INT(([1]Sheet1!C11*1000)+0.5)/10</f>
-        <v>68.400000000000006</v>
+        <v>65.3</v>
       </c>
       <c r="D11" s="2">
         <f ca="1">INT(([1]Sheet1!D11*1000)+0.5)/10</f>
-        <v>31.6</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="E11">
         <v>21.908902300206645</v>
@@ -5357,19 +6754,19 @@
         <v>298</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11">
         <f ca="1">INT(([1]SImulations!N11*1000)+0.5)/10</f>
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <f ca="1">INT(([1]Sheet1!C12*1000)+0.5)/10</f>
@@ -5389,7 +6786,7 @@
         <v>372</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12">
         <f ca="1">INT(([1]SImulations!N12*1000)+0.5)/10</f>
@@ -5398,18 +6795,18 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <f ca="1">INT(([1]Sheet1!C13*1000)+0.5)/10</f>
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="D13" s="2">
         <f ca="1">INT(([1]Sheet1!D13*1000)+0.5)/10</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E13">
         <v>10.954451150103322</v>
@@ -5421,7 +6818,7 @@
         <v>173</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13">
         <f ca="1">INT(([1]SImulations!N13*1000)+0.5)/10</f>
@@ -5430,18 +6827,18 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <f ca="1">INT(([1]Sheet1!C14*1000)+0.5)/10</f>
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="D14" s="2">
         <f ca="1">INT(([1]Sheet1!D14*1000)+0.5)/10</f>
-        <v>92.2</v>
+        <v>93.1</v>
       </c>
       <c r="E14">
         <v>24.494897427831781</v>
@@ -5453,7 +6850,7 @@
         <v>207</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I14">
         <f ca="1">INT(([1]SImulations!N14*1000)+0.5)/10</f>
@@ -5462,18 +6859,18 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2">
         <f ca="1">INT(([1]Sheet1!C15*1000)+0.5)/10</f>
-        <v>91.4</v>
+        <v>89.1</v>
       </c>
       <c r="D15" s="2">
         <f ca="1">INT(([1]Sheet1!D15*1000)+0.5)/10</f>
-        <v>8.6</v>
+        <v>10.9</v>
       </c>
       <c r="E15">
         <v>18.165902124584949</v>
@@ -5485,7 +6882,7 @@
         <v>207</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I15">
         <f ca="1">INT(([1]SImulations!N15*1000)+0.5)/10</f>
@@ -5494,18 +6891,18 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
         <f ca="1">INT(([1]Sheet1!C16*1000)+0.5)/10</f>
-        <v>64.8</v>
+        <v>59.1</v>
       </c>
       <c r="D16" s="2">
         <f ca="1">INT(([1]Sheet1!D16*1000)+0.5)/10</f>
-        <v>35.200000000000003</v>
+        <v>40.9</v>
       </c>
       <c r="E16">
         <v>13.416407864998739</v>
@@ -5517,27 +6914,27 @@
         <v>195</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16">
         <f ca="1">INT(([1]SImulations!N16*1000)+0.5)/10</f>
-        <v>4.4000000000000004</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
         <f ca="1">INT(([1]Sheet1!C17*1000)+0.5)/10</f>
-        <v>93.8</v>
+        <v>92.1</v>
       </c>
       <c r="D17" s="2">
         <f ca="1">INT(([1]Sheet1!D17*1000)+0.5)/10</f>
-        <v>6.2</v>
+        <v>7.9</v>
       </c>
       <c r="E17">
         <v>13.416407864998739</v>
@@ -5549,7 +6946,7 @@
         <v>248</v>
       </c>
       <c r="H17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17">
         <f ca="1">INT(([1]SImulations!N17*1000)+0.5)/10</f>
@@ -5558,18 +6955,18 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2">
         <f ca="1">INT(([1]Sheet1!C18*1000)+0.5)/10</f>
-        <v>99.4</v>
+        <v>99.3</v>
       </c>
       <c r="D18" s="2">
         <f ca="1">INT(([1]Sheet1!D18*1000)+0.5)/10</f>
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E18">
         <v>15.491933384829668</v>
@@ -5581,7 +6978,7 @@
         <v>251</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18">
         <f ca="1">INT(([1]SImulations!N18*1000)+0.5)/10</f>
@@ -5590,18 +6987,18 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <f ca="1">INT(([1]Sheet1!C19*1000)+0.5)/10</f>
-        <v>96.4</v>
+        <v>95.6</v>
       </c>
       <c r="D19" s="2">
         <f ca="1">INT(([1]Sheet1!D19*1000)+0.5)/10</f>
-        <v>3.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E19">
         <v>15.491933384829668</v>
@@ -5613,7 +7010,7 @@
         <v>335</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19">
         <f ca="1">INT(([1]SImulations!N19*1000)+0.5)/10</f>
@@ -5622,18 +7019,18 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <f ca="1">INT(([1]Sheet1!C20*1000)+0.5)/10</f>
-        <v>30.6</v>
+        <v>28.3</v>
       </c>
       <c r="D20" s="2">
         <f ca="1">INT(([1]Sheet1!D20*1000)+0.5)/10</f>
-        <v>69.400000000000006</v>
+        <v>71.7</v>
       </c>
       <c r="E20">
         <v>7.745966692414834</v>
@@ -5645,19 +7042,19 @@
         <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I20">
         <f ca="1">INT(([1]SImulations!N20*1000)+0.5)/10</f>
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
         <f ca="1">INT(([1]Sheet1!C21*1000)+0.5)/10</f>
@@ -5677,7 +7074,7 @@
         <v>185</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21">
         <f ca="1">INT(([1]SImulations!N21*1000)+0.5)/10</f>
@@ -5686,10 +7083,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
         <f ca="1">INT(([1]Sheet1!C22*1000)+0.5)/10</f>
@@ -5709,7 +7106,7 @@
         <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I22">
         <f ca="1">INT(([1]SImulations!N22*1000)+0.5)/10</f>
@@ -5718,18 +7115,18 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
         <f ca="1">INT(([1]Sheet1!C23*1000)+0.5)/10</f>
-        <v>39.200000000000003</v>
+        <v>36.5</v>
       </c>
       <c r="D23" s="2">
         <f ca="1">INT(([1]Sheet1!D23*1000)+0.5)/10</f>
-        <v>60.8</v>
+        <v>63.5</v>
       </c>
       <c r="E23">
         <v>21.908902300206645</v>
@@ -5741,27 +7138,27 @@
         <v>149</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I23">
         <f ca="1">INT(([1]SImulations!N23*1000)+0.5)/10</f>
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
         <f ca="1">INT(([1]Sheet1!C24*1000)+0.5)/10</f>
-        <v>32.799999999999997</v>
+        <v>30.3</v>
       </c>
       <c r="D24" s="2">
         <f ca="1">INT(([1]Sheet1!D24*1000)+0.5)/10</f>
-        <v>67.2</v>
+        <v>69.7</v>
       </c>
       <c r="E24">
         <v>17.320508075688775</v>
@@ -5773,7 +7170,7 @@
         <v>142</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <f ca="1">INT(([1]SImulations!N24*1000)+0.5)/10</f>
@@ -5782,18 +7179,18 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2">
         <f ca="1">INT(([1]Sheet1!C25*1000)+0.5)/10</f>
-        <v>91.2</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2">
         <f ca="1">INT(([1]Sheet1!D25*1000)+0.5)/10</f>
-        <v>8.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>13.416407864998739</v>
@@ -5814,18 +7211,18 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2">
         <f ca="1">INT(([1]Sheet1!C26*1000)+0.5)/10</f>
-        <v>90.9</v>
+        <v>89</v>
       </c>
       <c r="D26" s="2">
         <f ca="1">INT(([1]Sheet1!D26*1000)+0.5)/10</f>
-        <v>9.1</v>
+        <v>11</v>
       </c>
       <c r="E26">
         <v>17.320508075688775</v>
@@ -5837,7 +7234,7 @@
         <v>251</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I26">
         <f ca="1">INT(([1]SImulations!N26*1000)+0.5)/10</f>
@@ -5846,18 +7243,18 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2">
         <f ca="1">INT(([1]Sheet1!C27*1000)+0.5)/10</f>
-        <v>90.1</v>
+        <v>88.1</v>
       </c>
       <c r="D27" s="2">
         <f ca="1">INT(([1]Sheet1!D27*1000)+0.5)/10</f>
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
       <c r="E27">
         <v>9.4868329805051381</v>
@@ -5869,27 +7266,27 @@
         <v>131</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I27">
         <f ca="1">INT(([1]SImulations!N27*1000)+0.5)/10</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="2">
         <f ca="1">INT(([1]Sheet1!C28*1000)+0.5)/10</f>
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="D28" s="2">
         <f ca="1">INT(([1]Sheet1!D28*1000)+0.5)/10</f>
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="E28">
         <v>7.745966692414834</v>
@@ -5901,7 +7298,7 @@
         <v>209</v>
       </c>
       <c r="H28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I28">
         <f ca="1">INT(([1]SImulations!N28*1000)+0.5)/10</f>
@@ -5910,18 +7307,18 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" s="2">
         <f ca="1">INT(([1]Sheet1!C29*1000)+0.5)/10</f>
-        <v>39.799999999999997</v>
+        <v>36.9</v>
       </c>
       <c r="D29" s="2">
         <f ca="1">INT(([1]Sheet1!D29*1000)+0.5)/10</f>
-        <v>60.2</v>
+        <v>63.1</v>
       </c>
       <c r="E29">
         <v>13.416407864998739</v>
@@ -5933,27 +7330,27 @@
         <v>220</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I29">
         <f ca="1">INT(([1]SImulations!N29*1000)+0.5)/10</f>
-        <v>8.5</v>
+        <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2">
         <f ca="1">INT(([1]Sheet1!C30*1000)+0.5)/10</f>
-        <v>36.6</v>
+        <v>33.5</v>
       </c>
       <c r="D30" s="2">
         <f ca="1">INT(([1]Sheet1!D30*1000)+0.5)/10</f>
-        <v>63.4</v>
+        <v>66.5</v>
       </c>
       <c r="E30">
         <v>10.954451150103322</v>
@@ -5965,27 +7362,27 @@
         <v>54</v>
       </c>
       <c r="H30" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="I30">
         <f ca="1">INT(([1]SImulations!N30*1000)+0.5)/10</f>
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2">
         <f ca="1">INT(([1]Sheet1!C31*1000)+0.5)/10</f>
-        <v>10.6</v>
+        <v>9.4</v>
       </c>
       <c r="D31" s="2">
         <f ca="1">INT(([1]Sheet1!D31*1000)+0.5)/10</f>
-        <v>89.4</v>
+        <v>90.6</v>
       </c>
       <c r="E31">
         <v>20.493901531919196</v>
@@ -5997,7 +7394,7 @@
         <v>147</v>
       </c>
       <c r="H31" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="I31">
         <f ca="1">INT(([1]SImulations!N31*1000)+0.5)/10</f>
@@ -6006,18 +7403,18 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="2">
         <f ca="1">INT(([1]Sheet1!C32*1000)+0.5)/10</f>
-        <v>18.2</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D32" s="2">
         <f ca="1">INT(([1]Sheet1!D32*1000)+0.5)/10</f>
-        <v>81.8</v>
+        <v>83.6</v>
       </c>
       <c r="E32">
         <v>12.24744871391589</v>
@@ -6029,7 +7426,7 @@
         <v>303</v>
       </c>
       <c r="H32" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="I32">
         <f ca="1">INT(([1]SImulations!N32*1000)+0.5)/10</f>
@@ -6038,18 +7435,18 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" s="2">
         <f ca="1">INT(([1]Sheet1!C33*1000)+0.5)/10</f>
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="D33" s="2">
         <f ca="1">INT(([1]Sheet1!D33*1000)+0.5)/10</f>
-        <v>98.1</v>
+        <v>98.6</v>
       </c>
       <c r="E33">
         <v>29.49576240750525</v>
@@ -6061,7 +7458,7 @@
         <v>81</v>
       </c>
       <c r="H33" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="I33">
         <f ca="1">INT(([1]SImulations!N33*1000)+0.5)/10</f>
@@ -6070,18 +7467,18 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2">
         <f ca="1">INT(([1]Sheet1!C34*1000)+0.5)/10</f>
-        <v>58.8</v>
+        <v>54.2</v>
       </c>
       <c r="D34" s="2">
         <f ca="1">INT(([1]Sheet1!D34*1000)+0.5)/10</f>
-        <v>41.2</v>
+        <v>45.8</v>
       </c>
       <c r="E34">
         <v>21.213203435596427</v>
@@ -6093,19 +7490,19 @@
         <v>278</v>
       </c>
       <c r="H34" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="I34">
         <f ca="1">INT(([1]SImulations!N34*1000)+0.5)/10</f>
-        <v>8.6999999999999993</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2">
         <f ca="1">INT(([1]Sheet1!C35*1000)+0.5)/10</f>
@@ -6125,7 +7522,7 @@
         <v>136</v>
       </c>
       <c r="H35" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="I35">
         <f ca="1">INT(([1]SImulations!N35*1000)+0.5)/10</f>
@@ -6134,18 +7531,18 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2">
         <f ca="1">INT(([1]Sheet1!C36*1000)+0.5)/10</f>
-        <v>71.7</v>
+        <v>68.5</v>
       </c>
       <c r="D36" s="2">
         <f ca="1">INT(([1]Sheet1!D36*1000)+0.5)/10</f>
-        <v>28.3</v>
+        <v>31.5</v>
       </c>
       <c r="E36">
         <v>23.2379000772445</v>
@@ -6157,7 +7554,7 @@
         <v>191</v>
       </c>
       <c r="H36" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I36">
         <f ca="1">INT(([1]SImulations!N36*1000)+0.5)/10</f>
@@ -6166,10 +7563,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2">
         <f ca="1">INT(([1]Sheet1!C37*1000)+0.5)/10</f>
@@ -6189,7 +7586,7 @@
         <v>294</v>
       </c>
       <c r="H37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I37">
         <f ca="1">INT(([1]SImulations!N37*1000)+0.5)/10</f>
@@ -6198,18 +7595,18 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2">
         <f ca="1">INT(([1]Sheet1!C38*1000)+0.5)/10</f>
-        <v>14</v>
+        <v>12.6</v>
       </c>
       <c r="D38" s="2">
         <f ca="1">INT(([1]Sheet1!D38*1000)+0.5)/10</f>
-        <v>86</v>
+        <v>87.4</v>
       </c>
       <c r="E38">
         <v>14.491376746189438</v>
@@ -6221,7 +7618,7 @@
         <v>176</v>
       </c>
       <c r="H38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I38">
         <f ca="1">INT(([1]SImulations!N38*1000)+0.5)/10</f>
@@ -6230,18 +7627,18 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="2">
         <f ca="1">INT(([1]Sheet1!C39*1000)+0.5)/10</f>
-        <v>44.4</v>
+        <v>41.7</v>
       </c>
       <c r="D39" s="2">
         <f ca="1">INT(([1]Sheet1!D39*1000)+0.5)/10</f>
-        <v>55.6</v>
+        <v>58.3</v>
       </c>
       <c r="E39">
         <v>24.494897427831781</v>
@@ -6253,27 +7650,27 @@
         <v>132</v>
       </c>
       <c r="H39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I39">
         <f ca="1">INT(([1]SImulations!N39*1000)+0.5)/10</f>
-        <v>9.6999999999999993</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2">
         <f ca="1">INT(([1]Sheet1!C40*1000)+0.5)/10</f>
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="D40" s="2">
         <f ca="1">INT(([1]Sheet1!D40*1000)+0.5)/10</f>
-        <v>94.8</v>
+        <v>95.7</v>
       </c>
       <c r="E40">
         <v>10.954451150103322</v>
@@ -6285,7 +7682,7 @@
         <v>126</v>
       </c>
       <c r="H40" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="I40">
         <f ca="1">INT(([1]SImulations!N40*1000)+0.5)/10</f>
@@ -6294,18 +7691,18 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2">
         <f ca="1">INT(([1]Sheet1!C41*1000)+0.5)/10</f>
-        <v>87.8</v>
+        <v>85.5</v>
       </c>
       <c r="D41" s="2">
         <f ca="1">INT(([1]Sheet1!D41*1000)+0.5)/10</f>
-        <v>12.2</v>
+        <v>14.5</v>
       </c>
       <c r="E41">
         <v>16.431676725154983</v>
@@ -6317,7 +7714,7 @@
         <v>322</v>
       </c>
       <c r="H41" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="I41">
         <f ca="1">INT(([1]SImulations!N41*1000)+0.5)/10</f>
@@ -6326,18 +7723,18 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2">
         <f ca="1">INT(([1]Sheet1!C42*1000)+0.5)/10</f>
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="D42" s="2">
         <f ca="1">INT(([1]Sheet1!D42*1000)+0.5)/10</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E42">
         <v>9.4868329805051381</v>
@@ -6349,7 +7746,7 @@
         <v>167</v>
       </c>
       <c r="H42" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="I42">
         <f ca="1">INT(([1]SImulations!N42*1000)+0.5)/10</f>
@@ -6358,18 +7755,18 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2">
         <f ca="1">INT(([1]Sheet1!C43*1000)+0.5)/10</f>
-        <v>98.7</v>
+        <v>98.2</v>
       </c>
       <c r="D43" s="2">
         <f ca="1">INT(([1]Sheet1!D43*1000)+0.5)/10</f>
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="E43">
         <v>18.165902124584949</v>
@@ -6381,7 +7778,7 @@
         <v>284</v>
       </c>
       <c r="H43" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="I43">
         <f ca="1">INT(([1]SImulations!N43*1000)+0.5)/10</f>
@@ -6390,18 +7787,18 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2">
         <f ca="1">INT(([1]Sheet1!C44*1000)+0.5)/10</f>
-        <v>80.3</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="D44" s="2">
         <f ca="1">INT(([1]Sheet1!D44*1000)+0.5)/10</f>
-        <v>19.7</v>
+        <v>23.4</v>
       </c>
       <c r="E44">
         <v>33.763886032268267</v>
@@ -6413,7 +7810,7 @@
         <v>355</v>
       </c>
       <c r="H44" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="I44">
         <f ca="1">INT(([1]SImulations!N44*1000)+0.5)/10</f>
@@ -6422,18 +7819,18 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2">
         <f ca="1">INT(([1]Sheet1!C45*1000)+0.5)/10</f>
-        <v>99.8</v>
+        <v>99.6</v>
       </c>
       <c r="D45" s="2">
         <f ca="1">INT(([1]Sheet1!D45*1000)+0.5)/10</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E45">
         <v>13.416407864998739</v>
@@ -6445,7 +7842,7 @@
         <v>218</v>
       </c>
       <c r="H45" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="I45">
         <f ca="1">INT(([1]SImulations!N45*1000)+0.5)/10</f>
@@ -6454,10 +7851,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" s="2">
         <f ca="1">INT(([1]Sheet1!C46*1000)+0.5)/10</f>
@@ -6477,7 +7874,7 @@
         <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="I46">
         <f ca="1">INT(([1]SImulations!N46*1000)+0.5)/10</f>
@@ -6486,18 +7883,18 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2">
         <f ca="1">INT(([1]Sheet1!C47*1000)+0.5)/10</f>
-        <v>27.8</v>
+        <v>25.7</v>
       </c>
       <c r="D47" s="2">
         <f ca="1">INT(([1]Sheet1!D47*1000)+0.5)/10</f>
-        <v>72.2</v>
+        <v>74.3</v>
       </c>
       <c r="E47">
         <v>19.748417658131498</v>
@@ -6509,27 +7906,27 @@
         <v>229</v>
       </c>
       <c r="H47" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="I47">
         <f ca="1">INT(([1]SImulations!N47*1000)+0.5)/10</f>
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2">
         <f ca="1">INT(([1]Sheet1!C48*1000)+0.5)/10</f>
-        <v>9.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="D48" s="2">
         <f ca="1">INT(([1]Sheet1!D48*1000)+0.5)/10</f>
-        <v>90.8</v>
+        <v>91.9</v>
       </c>
       <c r="E48">
         <v>18.973665961010276</v>
@@ -6541,7 +7938,7 @@
         <v>131</v>
       </c>
       <c r="H48" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="I48">
         <f ca="1">INT(([1]SImulations!N48*1000)+0.5)/10</f>
@@ -6550,10 +7947,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2">
         <f ca="1">INT(([1]Sheet1!C49*1000)+0.5)/10</f>
@@ -6573,7 +7970,7 @@
         <v>242</v>
       </c>
       <c r="H49" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="I49">
         <f ca="1">INT(([1]SImulations!N49*1000)+0.5)/10</f>
@@ -6582,18 +7979,18 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50" s="2">
         <f ca="1">INT(([1]Sheet1!C50*1000)+0.5)/10</f>
-        <v>48.6</v>
+        <v>44.9</v>
       </c>
       <c r="D50" s="2">
         <f ca="1">INT(([1]Sheet1!D50*1000)+0.5)/10</f>
-        <v>51.4</v>
+        <v>55.1</v>
       </c>
       <c r="E50">
         <v>17.320508075688775</v>
@@ -6605,19 +8002,19 @@
         <v>146</v>
       </c>
       <c r="H50" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="I50">
         <f ca="1">INT(([1]SImulations!N50*1000)+0.5)/10</f>
-        <v>12</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2">
         <f ca="1">INT(([1]Sheet1!C51*1000)+0.5)/10</f>
@@ -6637,7 +8034,7 @@
         <v>177</v>
       </c>
       <c r="H51" t="s">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="I51">
         <f ca="1">INT(([1]SImulations!N51*1000)+0.5)/10</f>
@@ -6646,10 +8043,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2">
         <f ca="1">INT(([1]Sheet1!C52*1000)+0.5)/10</f>
@@ -6669,7 +8066,7 @@
         <v>193</v>
       </c>
       <c r="H52" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="I52">
         <f ca="1">INT(([1]SImulations!N52*1000)+0.5)/10</f>
@@ -6678,18 +8075,18 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" s="2">
-        <f>INT(([1]Sheet1!C53*1000)+0.5)/10</f>
-        <v>8.9</v>
+        <f ca="1">INT(([1]Sheet1!C53*1000)+0.5)/10</f>
+        <v>7.6</v>
       </c>
       <c r="D53" s="2">
-        <f>INT(([1]Sheet1!D53*1000)+0.5)/10</f>
-        <v>91.1</v>
+        <f ca="1">INT(([1]Sheet1!D53*1000)+0.5)/10</f>
+        <v>92.4</v>
       </c>
       <c r="E53">
         <v>5.4772255750516612</v>
@@ -6701,7 +8098,7 @@
         <v>26</v>
       </c>
       <c r="H53" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="I53">
         <f ca="1">INT(([1]SImulations!N53*1000)+0.5)/10</f>
@@ -6710,18 +8107,18 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" s="2">
-        <f>INT(([1]Sheet1!C54*1000)+0.5)/10</f>
-        <v>61</v>
+        <f ca="1">INT(([1]Sheet1!C54*1000)+0.5)/10</f>
+        <v>58.6</v>
       </c>
       <c r="D54" s="2">
-        <f>INT(([1]Sheet1!D54*1000)+0.5)/10</f>
-        <v>39</v>
+        <f ca="1">INT(([1]Sheet1!D54*1000)+0.5)/10</f>
+        <v>41.4</v>
       </c>
       <c r="E54">
         <v>5.4772255750516612</v>
@@ -6733,27 +8130,27 @@
         <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="I54">
         <f ca="1">INT(([1]SImulations!N54*1000)+0.5)/10</f>
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" s="2">
-        <f>INT(([1]Sheet1!C55*1000)+0.5)/10</f>
-        <v>95.8</v>
+        <f ca="1">INT(([1]Sheet1!C55*1000)+0.5)/10</f>
+        <v>94.8</v>
       </c>
       <c r="D55" s="2">
-        <f>INT(([1]Sheet1!D55*1000)+0.5)/10</f>
-        <v>4.2</v>
+        <f ca="1">INT(([1]Sheet1!D55*1000)+0.5)/10</f>
+        <v>5.2</v>
       </c>
       <c r="E55">
         <v>5.4772255750516612</v>
@@ -6765,7 +8162,7 @@
         <v>209</v>
       </c>
       <c r="H55" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="I55">
         <f ca="1">INT(([1]SImulations!N55*1000)+0.5)/10</f>
@@ -6774,18 +8171,18 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" s="2">
-        <f>INT(([1]Sheet1!C56*1000)+0.5)/10</f>
-        <v>59.2</v>
+        <f ca="1">INT(([1]Sheet1!C56*1000)+0.5)/10</f>
+        <v>57.1</v>
       </c>
       <c r="D56" s="2">
-        <f>INT(([1]Sheet1!D56*1000)+0.5)/10</f>
-        <v>40.799999999999997</v>
+        <f ca="1">INT(([1]Sheet1!D56*1000)+0.5)/10</f>
+        <v>42.9</v>
       </c>
       <c r="E56">
         <v>5.4772255750516612</v>
@@ -6797,26 +8194,26 @@
         <v>193</v>
       </c>
       <c r="H56" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="I56">
         <f ca="1">INT(([1]SImulations!N56*1000)+0.5)/10</f>
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
       <c r="C57" s="2">
-        <f>INT(([1]Sheet1!C57*1000)+0.5)/10</f>
+        <f ca="1">INT(([1]Sheet1!C57*1000)+0.5)/10</f>
         <v>100</v>
       </c>
       <c r="D57" s="2">
-        <f>INT(([1]Sheet1!D57*1000)+0.5)/10</f>
+        <f ca="1">INT(([1]Sheet1!D57*1000)+0.5)/10</f>
         <v>0</v>
       </c>
       <c r="E57">
@@ -6829,7 +8226,7 @@
         <v>209</v>
       </c>
       <c r="H57" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="I57">
         <f ca="1">INT(([1]SImulations!N57*1000)+0.5)/10</f>
@@ -6839,4 +8236,1656 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD00230-77B4-F74A-949A-E4343E03F949}">
+  <dimension ref="A1:D115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2">
+        <v>99.3</v>
+      </c>
+      <c r="D2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>85.1</v>
+      </c>
+      <c r="D3">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>56.3</v>
+      </c>
+      <c r="D4">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5">
+        <v>99.4</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>25.3</v>
+      </c>
+      <c r="D7">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>8.9</v>
+      </c>
+      <c r="D8">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D9">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10">
+        <v>50.1</v>
+      </c>
+      <c r="D10">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>65.2</v>
+      </c>
+      <c r="D11">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <v>99.8</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <v>6.9</v>
+      </c>
+      <c r="D14">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15">
+        <v>89.1</v>
+      </c>
+      <c r="D15">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>59.1</v>
+      </c>
+      <c r="D16">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17">
+        <v>92</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18">
+        <v>99.3</v>
+      </c>
+      <c r="D18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19">
+        <v>95.5</v>
+      </c>
+      <c r="D19">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <v>28.2</v>
+      </c>
+      <c r="D20">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22">
+        <v>0.2</v>
+      </c>
+      <c r="D22">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23">
+        <v>36.5</v>
+      </c>
+      <c r="D23">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24">
+        <v>30.3</v>
+      </c>
+      <c r="D24">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25">
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26">
+        <v>89</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27">
+        <v>88</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28">
+        <v>98.2</v>
+      </c>
+      <c r="D28">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29">
+        <v>36.9</v>
+      </c>
+      <c r="D29">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30">
+        <v>33.5</v>
+      </c>
+      <c r="D30">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31">
+        <v>9.4</v>
+      </c>
+      <c r="D31">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D32">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33">
+        <v>1.4</v>
+      </c>
+      <c r="D33">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34">
+        <v>53.9</v>
+      </c>
+      <c r="D34">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35">
+        <v>99.9</v>
+      </c>
+      <c r="D35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36">
+        <v>68.3</v>
+      </c>
+      <c r="D36">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37">
+        <v>99.9</v>
+      </c>
+      <c r="D37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38">
+        <v>12.5</v>
+      </c>
+      <c r="D38">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39">
+        <v>41.7</v>
+      </c>
+      <c r="D39">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40">
+        <v>4.2</v>
+      </c>
+      <c r="D40">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B41" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <v>85.4</v>
+      </c>
+      <c r="D41">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42">
+        <v>99.5</v>
+      </c>
+      <c r="D42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43">
+        <v>98.2</v>
+      </c>
+      <c r="D43">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44">
+        <v>76.5</v>
+      </c>
+      <c r="D44">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45">
+        <v>99.6</v>
+      </c>
+      <c r="D45">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46">
+        <v>0.1</v>
+      </c>
+      <c r="D46">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47">
+        <v>25.6</v>
+      </c>
+      <c r="D47">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49">
+        <v>99.9</v>
+      </c>
+      <c r="D49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50">
+        <v>44.8</v>
+      </c>
+      <c r="D50">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53">
+        <v>7.6</v>
+      </c>
+      <c r="D53">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54">
+        <v>58.6</v>
+      </c>
+      <c r="D54">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55">
+        <v>94.8</v>
+      </c>
+      <c r="D55">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56">
+        <v>57.1</v>
+      </c>
+      <c r="D56">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58">
+        <v>46</v>
+      </c>
+      <c r="D58">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="3">
+        <v>99.3</v>
+      </c>
+      <c r="D59">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="3">
+        <v>85.1</v>
+      </c>
+      <c r="D60">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="3">
+        <v>56.3</v>
+      </c>
+      <c r="D61">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="3">
+        <v>99.4</v>
+      </c>
+      <c r="D62">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="3">
+        <v>25.3</v>
+      </c>
+      <c r="D64">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="D65">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D66">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" s="3">
+        <v>50.2</v>
+      </c>
+      <c r="D67">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="3">
+        <v>65.3</v>
+      </c>
+      <c r="D68">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="3">
+        <v>99.8</v>
+      </c>
+      <c r="D70">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="D71">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="3">
+        <v>89.1</v>
+      </c>
+      <c r="D72">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="3">
+        <v>59.1</v>
+      </c>
+      <c r="D73">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="3">
+        <v>92.1</v>
+      </c>
+      <c r="D74">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="3">
+        <v>99.3</v>
+      </c>
+      <c r="D75">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="3">
+        <v>95.6</v>
+      </c>
+      <c r="D76">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="D77">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D78">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="D79">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="3">
+        <v>36.5</v>
+      </c>
+      <c r="D80">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="3">
+        <v>30.3</v>
+      </c>
+      <c r="D81">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="3">
+        <v>90</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="3">
+        <v>89</v>
+      </c>
+      <c r="D83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="3">
+        <v>88.1</v>
+      </c>
+      <c r="D84">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="D85">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="3">
+        <v>36.9</v>
+      </c>
+      <c r="D86">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="3">
+        <v>33.5</v>
+      </c>
+      <c r="D87">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="D88">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D89">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="D90">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C91" s="3">
+        <v>54.2</v>
+      </c>
+      <c r="D91">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="D92">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" s="3">
+        <v>68.5</v>
+      </c>
+      <c r="D93">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="D94">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="D95">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="3">
+        <v>41.7</v>
+      </c>
+      <c r="D96">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="D97">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="3">
+        <v>85.5</v>
+      </c>
+      <c r="D98">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="D99">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B100" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="3">
+        <v>98.2</v>
+      </c>
+      <c r="D100">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="3">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="D101">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="3">
+        <v>99.6</v>
+      </c>
+      <c r="D102">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B103" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D103">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="3">
+        <v>25.7</v>
+      </c>
+      <c r="D104">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B105" t="s">
+        <v>107</v>
+      </c>
+      <c r="C105" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="D105">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B106" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="3">
+        <v>99.9</v>
+      </c>
+      <c r="D106">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="3">
+        <v>44.9</v>
+      </c>
+      <c r="D107">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="3">
+        <v>100</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B109" t="s">
+        <v>111</v>
+      </c>
+      <c r="C109" s="3">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B110" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="3">
+        <v>7.6</v>
+      </c>
+      <c r="D110">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B111" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="3">
+        <v>58.6</v>
+      </c>
+      <c r="D111">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B112" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112" s="3">
+        <v>94.8</v>
+      </c>
+      <c r="D112">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="3">
+        <v>57.1</v>
+      </c>
+      <c r="D113">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" s="3">
+        <v>100</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="4">
+        <v>43771</v>
+      </c>
+      <c r="B115" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115" s="3">
+        <v>46.3</v>
+      </c>
+      <c r="D115">
+        <v>53.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6360E3A0-48E7-334E-AF55-1C4FC7343003}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AEE1EDC-448F-A744-96EC-F4A1D30FA9F6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/presidential_forecast.xlsx
+++ b/presidential_forecast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhkersting/Desktop/jhkforecasts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD941237-65DD-BC42-8B56-7D9CF2C12392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857846F2-03E9-3D4D-9EB4-AB578D35BC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="14060" windowHeight="17460" firstSheet="2" activeTab="4" xr2:uid="{8705FA9F-56CD-4041-A2AF-8023962B8A84}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="2" activeTab="5" xr2:uid="{8705FA9F-56CD-4041-A2AF-8023962B8A84}"/>
   </bookViews>
   <sheets>
     <sheet name="evrace" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="topline" sheetId="6" r:id="rId3"/>
     <sheet name="bubble map" sheetId="2" r:id="rId4"/>
     <sheet name="timechange" sheetId="7" r:id="rId5"/>
+    <sheet name="votecharts" sheetId="8" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7651" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7673" uniqueCount="157">
   <si>
     <t>state</t>
   </si>
@@ -492,14 +493,32 @@
   <si>
     <t>ev</t>
   </si>
+  <si>
+    <t>voteLable</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>vote90</t>
+  </si>
+  <si>
+    <t>vote10</t>
+  </si>
+  <si>
+    <t>yText</t>
+  </si>
+  <si>
+    <t>USev</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -537,8 +556,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -566,6 +585,7 @@
       <sheetName val="Results"/>
       <sheetName val="Sheet1"/>
       <sheetName val="SImulations"/>
+      <sheetName val="histogram"/>
       <sheetName val="Vote Share Calculations"/>
       <sheetName val="Polling Calculation"/>
       <sheetName val=" US Polls"/>
@@ -581,22 +601,25 @@
       <sheetData sheetId="1">
         <row r="58">
           <cell r="D58">
-            <v>0.43535000000000001</v>
+            <v>0.45374999999999999</v>
           </cell>
           <cell r="E58">
-            <v>0.56464999999999999</v>
+            <v>0.54625000000000001</v>
           </cell>
           <cell r="F58">
-            <v>0.45784479678188855</v>
+            <v>0.45761812088009679</v>
           </cell>
           <cell r="G58">
-            <v>0.5014710531513239</v>
+            <v>0.50169772905311572</v>
+          </cell>
+          <cell r="H58">
+            <v>3.9684150066787521E-2</v>
           </cell>
           <cell r="K58">
-            <v>237.81140833624696</v>
+            <v>237.37334733513987</v>
           </cell>
           <cell r="L58">
-            <v>300.1885916637529</v>
+            <v>300.62665266486022</v>
           </cell>
         </row>
       </sheetData>
@@ -632,16 +655,16 @@
             <v>9</v>
           </cell>
           <cell r="C2">
-            <v>0.99188264046504671</v>
+            <v>0.99172301331173496</v>
           </cell>
           <cell r="D2">
-            <v>8.1173595349532945E-3</v>
+            <v>8.2769866882650422E-3</v>
           </cell>
           <cell r="E2">
-            <v>245.94132023252337</v>
+            <v>245.86150665586752</v>
           </cell>
           <cell r="F2">
-            <v>4.0586797674766331</v>
+            <v>4.1384933441324847</v>
           </cell>
           <cell r="G2">
             <v>9</v>
@@ -658,16 +681,16 @@
             <v>3</v>
           </cell>
           <cell r="C3">
-            <v>0.84695070686995588</v>
+            <v>0.84601245166414596</v>
           </cell>
           <cell r="D3">
-            <v>0.15304929313004412</v>
+            <v>0.15398754833585404</v>
           </cell>
           <cell r="E3">
-            <v>173.47535343497796</v>
+            <v>173.006225832073</v>
           </cell>
           <cell r="F3">
-            <v>76.524646565022039</v>
+            <v>76.993774167927</v>
           </cell>
           <cell r="G3">
             <v>3</v>
@@ -684,16 +707,16 @@
             <v>11</v>
           </cell>
           <cell r="C4">
-            <v>0.54015547114248341</v>
+            <v>0.53825015361839457</v>
           </cell>
           <cell r="D4">
-            <v>0.45984452885751659</v>
+            <v>0.46174984638160543</v>
           </cell>
           <cell r="E4">
-            <v>20.077735571241707</v>
+            <v>19.125076809197282</v>
           </cell>
           <cell r="F4">
-            <v>229.9222644287583</v>
+            <v>230.87492319080272</v>
           </cell>
           <cell r="G4">
             <v>11</v>
@@ -710,16 +733,16 @@
             <v>6</v>
           </cell>
           <cell r="C5">
-            <v>0.99397614197037965</v>
+            <v>0.9939180254480855</v>
           </cell>
           <cell r="D5">
-            <v>6.0238580296203548E-3</v>
+            <v>6.0819745519145041E-3</v>
           </cell>
           <cell r="E5">
-            <v>246.98807098518981</v>
+            <v>246.95901272404274</v>
           </cell>
           <cell r="F5">
-            <v>3.0119290148101925</v>
+            <v>3.0409872759572636</v>
           </cell>
           <cell r="G5">
             <v>6</v>
@@ -736,16 +759,16 @@
             <v>55</v>
           </cell>
           <cell r="C6">
-            <v>1.0851548181805761E-4</v>
+            <v>1.0279159934332051E-4</v>
           </cell>
           <cell r="D6">
-            <v>0.99989148451818199</v>
+            <v>0.99989720840065666</v>
           </cell>
           <cell r="E6">
-            <v>249.94574225909099</v>
+            <v>249.9486042003283</v>
           </cell>
           <cell r="F6">
-            <v>5.4257740909008589E-2</v>
+            <v>5.1395799671695386E-2</v>
           </cell>
           <cell r="G6">
             <v>55</v>
@@ -762,16 +785,16 @@
             <v>9</v>
           </cell>
           <cell r="C7">
-            <v>0.24285686151189068</v>
+            <v>0.24172621246235892</v>
           </cell>
           <cell r="D7">
-            <v>0.75714313848810932</v>
+            <v>0.75827378753764108</v>
           </cell>
           <cell r="E7">
-            <v>128.57156924405467</v>
+            <v>129.13689376882053</v>
           </cell>
           <cell r="F7">
-            <v>121.42843075594533</v>
+            <v>120.86310623117947</v>
           </cell>
           <cell r="G7">
             <v>9</v>
@@ -788,16 +811,16 @@
             <v>7</v>
           </cell>
           <cell r="C8">
-            <v>8.3842777063575763E-2</v>
+            <v>8.3150773113467163E-2</v>
           </cell>
           <cell r="D8">
-            <v>0.91615722293642421</v>
+            <v>0.91684922688653281</v>
           </cell>
           <cell r="E8">
-            <v>208.0786114682121</v>
+            <v>208.4246134432664</v>
           </cell>
           <cell r="F8">
-            <v>41.921388531787898</v>
+            <v>41.575386556733605</v>
           </cell>
           <cell r="G8">
             <v>7</v>
@@ -814,16 +837,16 @@
             <v>3</v>
           </cell>
           <cell r="C9">
-            <v>7.4914402137335995E-2</v>
+            <v>7.4261487578209939E-2</v>
           </cell>
           <cell r="D9">
-            <v>0.92508559786266398</v>
+            <v>0.92573851242179006</v>
           </cell>
           <cell r="E9">
-            <v>212.54279893133199</v>
+            <v>212.86925621089506</v>
           </cell>
           <cell r="F9">
-            <v>37.457201068668013</v>
+            <v>37.13074378910494</v>
           </cell>
           <cell r="G9">
             <v>3</v>
@@ -840,16 +863,16 @@
             <v>29</v>
           </cell>
           <cell r="C10">
-            <v>0.48081624761776776</v>
+            <v>0.47909737299117611</v>
           </cell>
           <cell r="D10">
-            <v>0.51918375238223224</v>
+            <v>0.52090262700882395</v>
           </cell>
           <cell r="E10">
-            <v>9.5918761911161212</v>
+            <v>10.451313504411946</v>
           </cell>
           <cell r="F10">
-            <v>240.40812380888389</v>
+            <v>239.54868649558804</v>
           </cell>
           <cell r="G10">
             <v>29</v>
@@ -866,16 +889,16 @@
             <v>16</v>
           </cell>
           <cell r="C11">
-            <v>0.64597918765447704</v>
+            <v>0.6448954388107101</v>
           </cell>
           <cell r="D11">
-            <v>0.35402081234552296</v>
+            <v>0.3551045611892899</v>
           </cell>
           <cell r="E11">
-            <v>72.989593827238522</v>
+            <v>72.447719405355045</v>
           </cell>
           <cell r="F11">
-            <v>177.01040617276146</v>
+            <v>177.55228059464497</v>
           </cell>
           <cell r="G11">
             <v>16</v>
@@ -892,16 +915,16 @@
             <v>4</v>
           </cell>
           <cell r="C12">
-            <v>5.937855748133006E-5</v>
+            <v>5.8054164838126137E-5</v>
           </cell>
           <cell r="D12">
-            <v>0.99994062144251872</v>
+            <v>0.99994194583516183</v>
           </cell>
           <cell r="E12">
-            <v>249.97031072125932</v>
+            <v>249.97097291758092</v>
           </cell>
           <cell r="F12">
-            <v>2.9689278740676173E-2</v>
+            <v>2.9027082419077033E-2</v>
           </cell>
           <cell r="G12">
             <v>4</v>
@@ -918,16 +941,16 @@
             <v>4</v>
           </cell>
           <cell r="C13">
-            <v>0.99799805838896083</v>
+            <v>0.99797606880990963</v>
           </cell>
           <cell r="D13">
-            <v>2.0019416110391708E-3</v>
+            <v>2.0239311900903667E-3</v>
           </cell>
           <cell r="E13">
-            <v>248.99902919448041</v>
+            <v>248.98803440495482</v>
           </cell>
           <cell r="F13">
-            <v>1.0009708055195858</v>
+            <v>1.0119655950451829</v>
           </cell>
           <cell r="G13">
             <v>4</v>
@@ -944,16 +967,16 @@
             <v>20</v>
           </cell>
           <cell r="C14">
-            <v>6.0404501123809684E-2</v>
+            <v>5.9766155817065986E-2</v>
           </cell>
           <cell r="D14">
-            <v>0.93959549887619032</v>
+            <v>0.94023384418293399</v>
           </cell>
           <cell r="E14">
-            <v>219.79774943809517</v>
+            <v>220.11692209146699</v>
           </cell>
           <cell r="F14">
-            <v>30.202250561904833</v>
+            <v>29.883077908533011</v>
           </cell>
           <cell r="G14">
             <v>20</v>
@@ -970,16 +993,16 @@
             <v>11</v>
           </cell>
           <cell r="C15">
-            <v>0.89204944296377864</v>
+            <v>0.89140802540938369</v>
           </cell>
           <cell r="D15">
-            <v>0.10795055703622136</v>
+            <v>0.10859197459061631</v>
           </cell>
           <cell r="E15">
-            <v>196.02472148188932</v>
+            <v>195.70401270469185</v>
           </cell>
           <cell r="F15">
-            <v>53.975278518110684</v>
+            <v>54.295987295308151</v>
           </cell>
           <cell r="G15">
             <v>11</v>
@@ -996,16 +1019,16 @@
             <v>6</v>
           </cell>
           <cell r="C16">
-            <v>0.5845546848528782</v>
+            <v>0.58312840605689753</v>
           </cell>
           <cell r="D16">
-            <v>0.4154453151471218</v>
+            <v>0.41687159394310247</v>
           </cell>
           <cell r="E16">
-            <v>42.277342426439105</v>
+            <v>41.564203028448766</v>
           </cell>
           <cell r="F16">
-            <v>207.72265757356089</v>
+            <v>208.43579697155124</v>
           </cell>
           <cell r="G16">
             <v>6</v>
@@ -1022,16 +1045,16 @@
             <v>6</v>
           </cell>
           <cell r="C17">
-            <v>0.91867823691137729</v>
+            <v>0.91810100167969355</v>
           </cell>
           <cell r="D17">
-            <v>8.1321763088622712E-2</v>
+            <v>8.1898998320306449E-2</v>
           </cell>
           <cell r="E17">
-            <v>209.33911845568866</v>
+            <v>209.05050083984679</v>
           </cell>
           <cell r="F17">
-            <v>40.660881544311337</v>
+            <v>40.949499160153209</v>
           </cell>
           <cell r="G17">
             <v>6</v>
@@ -1048,16 +1071,16 @@
             <v>8</v>
           </cell>
           <cell r="C18">
-            <v>0.9925813375299376</v>
+            <v>0.99252509081674989</v>
           </cell>
           <cell r="D18">
-            <v>7.4186624700623982E-3</v>
+            <v>7.4749091832501113E-3</v>
           </cell>
           <cell r="E18">
-            <v>246.29066876496881</v>
+            <v>246.26254540837493</v>
           </cell>
           <cell r="F18">
-            <v>3.7093312350311862</v>
+            <v>3.7374545916250668</v>
           </cell>
           <cell r="G18">
             <v>8</v>
@@ -1074,16 +1097,16 @@
             <v>8</v>
           </cell>
           <cell r="C19">
-            <v>0.95179636688845159</v>
+            <v>0.95132211759299068</v>
           </cell>
           <cell r="D19">
-            <v>4.8203633111548405E-2</v>
+            <v>4.8677882407009321E-2</v>
           </cell>
           <cell r="E19">
-            <v>225.89818344422579</v>
+            <v>225.66105879649535</v>
           </cell>
           <cell r="F19">
-            <v>24.101816555774207</v>
+            <v>24.338941203504646</v>
           </cell>
           <cell r="G19">
             <v>8</v>
@@ -1100,16 +1123,16 @@
             <v>2</v>
           </cell>
           <cell r="C20">
-            <v>0.26881004308135675</v>
+            <v>0.26754950677967904</v>
           </cell>
           <cell r="D20">
-            <v>0.7311899569186433</v>
+            <v>0.73245049322032096</v>
           </cell>
           <cell r="E20">
-            <v>115.59497845932162</v>
+            <v>116.2252466101605</v>
           </cell>
           <cell r="F20">
-            <v>134.40502154067838</v>
+            <v>133.7747533898395</v>
           </cell>
           <cell r="G20">
             <v>2</v>
@@ -1126,16 +1149,16 @@
             <v>10</v>
           </cell>
           <cell r="C21">
-            <v>4.2518311390714854E-3</v>
+            <v>4.1924615068545069E-3</v>
           </cell>
           <cell r="D21">
-            <v>0.99574816886092854</v>
+            <v>0.99580753849314552</v>
           </cell>
           <cell r="E21">
-            <v>247.87408443046428</v>
+            <v>247.90376924657272</v>
           </cell>
           <cell r="F21">
-            <v>2.1259155695357208</v>
+            <v>2.0962307534272782</v>
           </cell>
           <cell r="G21">
             <v>10</v>
@@ -1152,16 +1175,16 @@
             <v>11</v>
           </cell>
           <cell r="C22">
-            <v>1.6533151190050203E-3</v>
+            <v>1.6172131603189842E-3</v>
           </cell>
           <cell r="D22">
-            <v>0.99834668488099498</v>
+            <v>0.99838278683968107</v>
           </cell>
           <cell r="E22">
-            <v>249.17334244049752</v>
+            <v>249.19139341984052</v>
           </cell>
           <cell r="F22">
-            <v>0.82665755950247899</v>
+            <v>0.80860658015947706</v>
           </cell>
           <cell r="G22">
             <v>11</v>
@@ -1178,16 +1201,16 @@
             <v>16</v>
           </cell>
           <cell r="C23">
-            <v>0.32749028524981316</v>
+            <v>0.32538645040848807</v>
           </cell>
           <cell r="D23">
-            <v>0.67250971475018684</v>
+            <v>0.67461354959151199</v>
           </cell>
           <cell r="E23">
-            <v>86.254857375093422</v>
+            <v>87.30677479575597</v>
           </cell>
           <cell r="F23">
-            <v>163.74514262490658</v>
+            <v>162.69322520424402</v>
           </cell>
           <cell r="G23">
             <v>16</v>
@@ -1204,16 +1227,16 @@
             <v>10</v>
           </cell>
           <cell r="C24">
-            <v>0.28976610632414501</v>
+            <v>0.28853287606288669</v>
           </cell>
           <cell r="D24">
-            <v>0.71023389367585499</v>
+            <v>0.71146712393711331</v>
           </cell>
           <cell r="E24">
-            <v>105.1169468379275</v>
+            <v>105.73356196855666</v>
           </cell>
           <cell r="F24">
-            <v>144.88305316207249</v>
+            <v>144.26643803144333</v>
           </cell>
           <cell r="G24">
             <v>10</v>
@@ -1230,16 +1253,16 @@
             <v>6</v>
           </cell>
           <cell r="C25">
-            <v>0.89503463115236404</v>
+            <v>0.89438662304139405</v>
           </cell>
           <cell r="D25">
-            <v>0.10496536884763596</v>
+            <v>0.10561337695860595</v>
           </cell>
           <cell r="E25">
-            <v>197.51731557618203</v>
+            <v>197.19331152069702</v>
           </cell>
           <cell r="F25">
-            <v>52.482684423817972</v>
+            <v>52.806688479302977</v>
           </cell>
           <cell r="G25">
             <v>6</v>
@@ -1256,16 +1279,16 @@
             <v>10</v>
           </cell>
           <cell r="C26">
-            <v>0.88916389827928155</v>
+            <v>0.88854773102890305</v>
           </cell>
           <cell r="D26">
-            <v>0.11083610172071845</v>
+            <v>0.11145226897109695</v>
           </cell>
           <cell r="E26">
-            <v>194.58194913964078</v>
+            <v>194.27386551445153</v>
           </cell>
           <cell r="F26">
-            <v>55.418050860359216</v>
+            <v>55.726134485548471</v>
           </cell>
           <cell r="G26">
             <v>10</v>
@@ -1282,16 +1305,16 @@
             <v>3</v>
           </cell>
           <cell r="C27">
-            <v>0.87804916772829877</v>
+            <v>0.8773135388949953</v>
           </cell>
           <cell r="D27">
-            <v>0.12195083227170123</v>
+            <v>0.1226864611050047</v>
           </cell>
           <cell r="E27">
-            <v>189.02458386414938</v>
+            <v>188.65676944749765</v>
           </cell>
           <cell r="F27">
-            <v>60.975416135850622</v>
+            <v>61.343230552502348</v>
           </cell>
           <cell r="G27">
             <v>3</v>
@@ -1308,16 +1331,16 @@
             <v>2</v>
           </cell>
           <cell r="C28">
-            <v>0.979474786541081</v>
+            <v>0.97918709949385474</v>
           </cell>
           <cell r="D28">
-            <v>2.0525213458919001E-2</v>
+            <v>2.081290050614526E-2</v>
           </cell>
           <cell r="E28">
-            <v>239.73739327054048</v>
+            <v>239.59354974692735</v>
           </cell>
           <cell r="F28">
-            <v>10.26260672945952</v>
+            <v>10.406450253072649</v>
           </cell>
           <cell r="G28">
             <v>2</v>
@@ -1334,16 +1357,16 @@
             <v>6</v>
           </cell>
           <cell r="C29">
-            <v>0.35590673570677522</v>
+            <v>0.35451896996970295</v>
           </cell>
           <cell r="D29">
-            <v>0.64409326429322478</v>
+            <v>0.64548103003029711</v>
           </cell>
           <cell r="E29">
-            <v>72.046632146612382</v>
+            <v>72.740515015148532</v>
           </cell>
           <cell r="F29">
-            <v>177.95336785338762</v>
+            <v>177.25948498485147</v>
           </cell>
           <cell r="G29">
             <v>6</v>
@@ -1360,16 +1383,16 @@
             <v>4</v>
           </cell>
           <cell r="C30">
-            <v>0.31891687807884816</v>
+            <v>0.31746565270302179</v>
           </cell>
           <cell r="D30">
-            <v>0.68108312192115184</v>
+            <v>0.68253434729697826</v>
           </cell>
           <cell r="E30">
-            <v>90.541560960575922</v>
+            <v>91.267173648489106</v>
           </cell>
           <cell r="F30">
-            <v>159.45843903942409</v>
+            <v>158.73282635151088</v>
           </cell>
           <cell r="G30">
             <v>4</v>
@@ -1386,16 +1409,16 @@
             <v>14</v>
           </cell>
           <cell r="C31">
-            <v>8.9095902540158381E-2</v>
+            <v>8.8413189575837908E-2</v>
           </cell>
           <cell r="D31">
-            <v>0.91090409745984158</v>
+            <v>0.91158681042416212</v>
           </cell>
           <cell r="E31">
-            <v>205.45204872992082</v>
+            <v>205.79340521208107</v>
           </cell>
           <cell r="F31">
-            <v>44.547951270079182</v>
+            <v>44.206594787918931</v>
           </cell>
           <cell r="G31">
             <v>14</v>
@@ -1412,16 +1435,16 @@
             <v>5</v>
           </cell>
           <cell r="C32">
-            <v>0.15543410127327276</v>
+            <v>0.15456436591131012</v>
           </cell>
           <cell r="D32">
-            <v>0.84456589872672727</v>
+            <v>0.84543563408868994</v>
           </cell>
           <cell r="E32">
-            <v>172.28294936336363</v>
+            <v>172.71781704434494</v>
           </cell>
           <cell r="F32">
-            <v>77.717050636636372</v>
+            <v>77.28218295565506</v>
           </cell>
           <cell r="G32">
             <v>5</v>
@@ -1438,16 +1461,16 @@
             <v>29</v>
           </cell>
           <cell r="C33">
-            <v>1.1648668486967833E-2</v>
+            <v>1.1416557848671918E-2</v>
           </cell>
           <cell r="D33">
-            <v>0.98835133151303212</v>
+            <v>0.9885834421513281</v>
           </cell>
           <cell r="E33">
-            <v>244.17566575651608</v>
+            <v>244.29172107566407</v>
           </cell>
           <cell r="F33">
-            <v>5.8243342434839178</v>
+            <v>5.7082789243359287</v>
           </cell>
           <cell r="G33">
             <v>29</v>
@@ -1464,16 +1487,16 @@
             <v>15</v>
           </cell>
           <cell r="C34">
-            <v>0.52194244255444344</v>
+            <v>0.52007986728381539</v>
           </cell>
           <cell r="D34">
-            <v>0.47805755744555656</v>
+            <v>0.47992013271618461</v>
           </cell>
           <cell r="E34">
-            <v>10.971221277221721</v>
+            <v>10.039933641907695</v>
           </cell>
           <cell r="F34">
-            <v>239.02877872277827</v>
+            <v>239.96006635809232</v>
           </cell>
           <cell r="G34">
             <v>15</v>
@@ -1490,16 +1513,16 @@
             <v>3</v>
           </cell>
           <cell r="C35">
-            <v>0.99871193365997923</v>
+            <v>0.99870119402166546</v>
           </cell>
           <cell r="D35">
-            <v>1.2880663400207659E-3</v>
+            <v>1.2988059783345385E-3</v>
           </cell>
           <cell r="E35">
-            <v>249.35596682998963</v>
+            <v>249.35059701083273</v>
           </cell>
           <cell r="F35">
-            <v>0.64403317001037408</v>
+            <v>0.64940298916727102</v>
           </cell>
           <cell r="G35">
             <v>3</v>
@@ -1516,16 +1539,16 @@
             <v>18</v>
           </cell>
           <cell r="C36">
-            <v>0.67537652218822752</v>
+            <v>0.67409794784588384</v>
           </cell>
           <cell r="D36">
-            <v>0.32462347781177248</v>
+            <v>0.32590205215411616</v>
           </cell>
           <cell r="E36">
-            <v>87.688261094113756</v>
+            <v>87.048973922941926</v>
           </cell>
           <cell r="F36">
-            <v>162.31173890588624</v>
+            <v>162.95102607705809</v>
           </cell>
           <cell r="G36">
             <v>18</v>
@@ -1542,16 +1565,16 @@
             <v>7</v>
           </cell>
           <cell r="C37">
-            <v>0.99866127418260842</v>
+            <v>0.99864876925726831</v>
           </cell>
           <cell r="D37">
-            <v>1.3387258173915839E-3</v>
+            <v>1.3512307427316905E-3</v>
           </cell>
           <cell r="E37">
-            <v>249.3306370913042</v>
+            <v>249.32438462863416</v>
           </cell>
           <cell r="F37">
-            <v>0.66936290869580262</v>
+            <v>0.67561537136583638</v>
           </cell>
           <cell r="G37">
             <v>7</v>
@@ -1568,16 +1591,16 @@
             <v>7</v>
           </cell>
           <cell r="C38">
-            <v>0.11897933809342459</v>
+            <v>0.11822915873942977</v>
           </cell>
           <cell r="D38">
-            <v>0.88102066190657546</v>
+            <v>0.88177084126057026</v>
           </cell>
           <cell r="E38">
-            <v>190.51033095328771</v>
+            <v>190.88542063028513</v>
           </cell>
           <cell r="F38">
-            <v>59.489669046712294</v>
+            <v>59.114579369714875</v>
           </cell>
           <cell r="G38">
             <v>7</v>
@@ -1594,16 +1617,16 @@
             <v>20</v>
           </cell>
           <cell r="C39">
-            <v>0.39105492942613751</v>
+            <v>0.38938482171139838</v>
           </cell>
           <cell r="D39">
-            <v>0.60894507057386249</v>
+            <v>0.61061517828860157</v>
           </cell>
           <cell r="E39">
-            <v>54.472535286931247</v>
+            <v>55.307589144300806</v>
           </cell>
           <cell r="F39">
-            <v>195.52746471306875</v>
+            <v>194.69241085569919</v>
           </cell>
           <cell r="G39">
             <v>20</v>
@@ -1620,16 +1643,16 @@
             <v>4</v>
           </cell>
           <cell r="C40">
-            <v>3.8541567185598903E-2</v>
+            <v>3.799904946884574E-2</v>
           </cell>
           <cell r="D40">
-            <v>0.96145843281440113</v>
+            <v>0.96200095053115431</v>
           </cell>
           <cell r="E40">
-            <v>230.72921640720051</v>
+            <v>231.00047526557711</v>
           </cell>
           <cell r="F40">
-            <v>19.270783592799489</v>
+            <v>18.999524734422891</v>
           </cell>
           <cell r="G40">
             <v>4</v>
@@ -1646,16 +1669,16 @@
             <v>9</v>
           </cell>
           <cell r="C41">
-            <v>0.84994063937252196</v>
+            <v>0.8491444441152961</v>
           </cell>
           <cell r="D41">
-            <v>0.15005936062747804</v>
+            <v>0.1508555558847039</v>
           </cell>
           <cell r="E41">
-            <v>174.97031968626098</v>
+            <v>174.57222205764805</v>
           </cell>
           <cell r="F41">
-            <v>75.029680313739021</v>
+            <v>75.427777942351952</v>
           </cell>
           <cell r="G41">
             <v>9</v>
@@ -1672,16 +1695,16 @@
             <v>3</v>
           </cell>
           <cell r="C42">
-            <v>0.99497043896296111</v>
+            <v>0.99492300414800272</v>
           </cell>
           <cell r="D42">
-            <v>5.0295610370388877E-3</v>
+            <v>5.0769958519972791E-3</v>
           </cell>
           <cell r="E42">
-            <v>247.48521948148056</v>
+            <v>247.46150207400137</v>
           </cell>
           <cell r="F42">
-            <v>2.5147805185194443</v>
+            <v>2.5384979259986267</v>
           </cell>
           <cell r="G42">
             <v>3</v>
@@ -1698,16 +1721,16 @@
             <v>11</v>
           </cell>
           <cell r="C43">
-            <v>0.98003625738592237</v>
+            <v>0.97973421565153829</v>
           </cell>
           <cell r="D43">
-            <v>1.9963742614077629E-2</v>
+            <v>2.0265784348461713E-2</v>
           </cell>
           <cell r="E43">
-            <v>240.0181286929612</v>
+            <v>239.86710782576912</v>
           </cell>
           <cell r="F43">
-            <v>9.9818713070388014</v>
+            <v>10.132892174230875</v>
           </cell>
           <cell r="G43">
             <v>11</v>
@@ -1724,16 +1747,16 @@
             <v>38</v>
           </cell>
           <cell r="C44">
-            <v>0.75341937472487075</v>
+            <v>0.75222791398448607</v>
           </cell>
           <cell r="D44">
-            <v>0.24658062527512925</v>
+            <v>0.24777208601551393</v>
           </cell>
           <cell r="E44">
-            <v>126.70968736243537</v>
+            <v>126.11395699224303</v>
           </cell>
           <cell r="F44">
-            <v>123.29031263756463</v>
+            <v>123.88604300775697</v>
           </cell>
           <cell r="G44">
             <v>38</v>
@@ -1750,16 +1773,16 @@
             <v>6</v>
           </cell>
           <cell r="C45">
-            <v>0.99595364100658146</v>
+            <v>0.99591253564633975</v>
           </cell>
           <cell r="D45">
-            <v>4.0463589934185418E-3</v>
+            <v>4.0874643536602528E-3</v>
           </cell>
           <cell r="E45">
-            <v>247.9768205032907</v>
+            <v>247.9562678231699</v>
           </cell>
           <cell r="F45">
-            <v>2.0231794967093037</v>
+            <v>2.0437321768301047</v>
           </cell>
           <cell r="G45">
             <v>6</v>
@@ -1776,16 +1799,16 @@
             <v>3</v>
           </cell>
           <cell r="C46">
-            <v>4.9262663059956315E-4</v>
+            <v>4.8277107181415998E-4</v>
           </cell>
           <cell r="D46">
-            <v>0.99950737336940043</v>
+            <v>0.99951722892818584</v>
           </cell>
           <cell r="E46">
-            <v>249.75368668470023</v>
+            <v>249.75861446409291</v>
           </cell>
           <cell r="F46">
-            <v>0.24631331529977274</v>
+            <v>0.24138553590708511</v>
           </cell>
           <cell r="G46">
             <v>3</v>
@@ -1802,16 +1825,16 @@
             <v>13</v>
           </cell>
           <cell r="C47">
-            <v>0.2453784467012104</v>
+            <v>0.24424887467229739</v>
           </cell>
           <cell r="D47">
-            <v>0.75462155329878966</v>
+            <v>0.75575112532770261</v>
           </cell>
           <cell r="E47">
-            <v>127.31077664939481</v>
+            <v>127.8755626638513</v>
           </cell>
           <cell r="F47">
-            <v>122.68922335060519</v>
+            <v>122.1244373361487</v>
           </cell>
           <cell r="G47">
             <v>13</v>
@@ -1828,16 +1851,16 @@
             <v>12</v>
           </cell>
           <cell r="C48">
-            <v>7.4757572168975078E-2</v>
+            <v>7.4054994509587621E-2</v>
           </cell>
           <cell r="D48">
-            <v>0.92524242783102495</v>
+            <v>0.92594500549041237</v>
           </cell>
           <cell r="E48">
-            <v>212.62121391551244</v>
+            <v>212.97250274520616</v>
           </cell>
           <cell r="F48">
-            <v>37.378786084487558</v>
+            <v>37.027497254793843</v>
           </cell>
           <cell r="G48">
             <v>12</v>
@@ -1854,16 +1877,16 @@
             <v>5</v>
           </cell>
           <cell r="C49">
-            <v>0.99844627615688497</v>
+            <v>0.99843001501824902</v>
           </cell>
           <cell r="D49">
-            <v>1.5537238431150291E-3</v>
+            <v>1.5699849817509826E-3</v>
           </cell>
           <cell r="E49">
-            <v>249.22313807844247</v>
+            <v>249.21500750912449</v>
           </cell>
           <cell r="F49">
-            <v>0.77686192155752565</v>
+            <v>0.78499249087550993</v>
           </cell>
           <cell r="G49">
             <v>5</v>
@@ -1880,16 +1903,16 @@
             <v>10</v>
           </cell>
           <cell r="C50">
-            <v>0.41545292761715896</v>
+            <v>0.41344216556257685</v>
           </cell>
           <cell r="D50">
-            <v>0.58454707238284098</v>
+            <v>0.58655783443742315</v>
           </cell>
           <cell r="E50">
-            <v>42.273536191420519</v>
+            <v>43.278917218711577</v>
           </cell>
           <cell r="F50">
-            <v>207.72646380857947</v>
+            <v>206.72108278128843</v>
           </cell>
           <cell r="G50">
             <v>10</v>
@@ -1906,16 +1929,16 @@
             <v>3</v>
           </cell>
           <cell r="C51">
-            <v>0.99999328911557239</v>
+            <v>0.99999321723353662</v>
           </cell>
           <cell r="D51">
-            <v>6.7108844276075885E-6</v>
+            <v>6.7827664633757223E-6</v>
           </cell>
           <cell r="E51">
-            <v>249.9966445577862</v>
+            <v>249.99660861676833</v>
           </cell>
           <cell r="F51">
-            <v>3.355442213802462E-3</v>
+            <v>3.3913832316727621E-3</v>
           </cell>
           <cell r="G51">
             <v>3</v>
@@ -1932,16 +1955,16 @@
             <v>3</v>
           </cell>
           <cell r="C52">
-            <v>5.0802462367118574E-14</v>
+            <v>4.7669840228478305E-14</v>
           </cell>
           <cell r="D52">
-            <v>0.99999999999994915</v>
+            <v>0.99999999999995237</v>
           </cell>
           <cell r="E52">
-            <v>249.99999999997459</v>
+            <v>249.99999999997615</v>
           </cell>
           <cell r="F52">
-            <v>2.5409008230781183E-11</v>
+            <v>2.3845814212108962E-11</v>
           </cell>
           <cell r="G52">
             <v>3</v>
@@ -1958,16 +1981,16 @@
             <v>1</v>
           </cell>
           <cell r="C53">
-            <v>7.2890515122036412E-2</v>
+            <v>7.224926820295334E-2</v>
           </cell>
           <cell r="D53">
-            <v>0.92710948487796363</v>
+            <v>0.9277507317970467</v>
           </cell>
           <cell r="E53">
-            <v>213.55474243898178</v>
+            <v>213.87536589852334</v>
           </cell>
           <cell r="F53">
-            <v>36.445257561018224</v>
+            <v>36.124634101476659</v>
           </cell>
           <cell r="G53">
             <v>1</v>
@@ -1984,16 +2007,16 @@
             <v>1</v>
           </cell>
           <cell r="C54">
-            <v>0.58164224954333799</v>
+            <v>0.58048074566184193</v>
           </cell>
           <cell r="D54">
-            <v>0.41835775045666201</v>
+            <v>0.41951925433815807</v>
           </cell>
           <cell r="E54">
-            <v>40.821124771668991</v>
+            <v>40.240372830920968</v>
           </cell>
           <cell r="F54">
-            <v>209.17887522833101</v>
+            <v>209.75962716907904</v>
           </cell>
           <cell r="G54">
             <v>1</v>
@@ -2010,16 +2033,16 @@
             <v>1</v>
           </cell>
           <cell r="C55">
-            <v>0.94628903973557743</v>
+            <v>0.94578554215824784</v>
           </cell>
           <cell r="D55">
-            <v>5.3710960264422569E-2</v>
+            <v>5.4214457841752162E-2</v>
           </cell>
           <cell r="E55">
-            <v>223.14451986778874</v>
+            <v>222.89277107912392</v>
           </cell>
           <cell r="F55">
-            <v>26.855480132211255</v>
+            <v>27.107228920876082</v>
           </cell>
           <cell r="G55">
             <v>1</v>
@@ -2036,16 +2059,16 @@
             <v>1</v>
           </cell>
           <cell r="C56">
-            <v>0.56661570175981513</v>
+            <v>0.56557104132752811</v>
           </cell>
           <cell r="D56">
-            <v>0.43338429824018487</v>
+            <v>0.43442895867247189</v>
           </cell>
           <cell r="E56">
-            <v>33.307850879907562</v>
+            <v>32.785520663764053</v>
           </cell>
           <cell r="F56">
-            <v>216.69214912009244</v>
+            <v>217.21447933623594</v>
           </cell>
           <cell r="G56">
             <v>1</v>
@@ -2062,16 +2085,16 @@
             <v>1</v>
           </cell>
           <cell r="C57">
-            <v>0.99999532878106923</v>
+            <v>0.99999525201000283</v>
           </cell>
           <cell r="D57">
-            <v>4.6712189307740459E-6</v>
+            <v>4.7479899971669681E-6</v>
           </cell>
           <cell r="E57">
-            <v>249.99766439053462</v>
+            <v>249.99762600500142</v>
           </cell>
           <cell r="F57">
-            <v>2.3356094653763648E-3</v>
+            <v>2.373994998578155E-3</v>
           </cell>
           <cell r="G57">
             <v>1</v>
@@ -2085,54 +2108,71 @@
         </row>
       </sheetData>
       <sheetData sheetId="3">
+        <row r="1">
+          <cell r="TC1">
+            <v>94.8</v>
+          </cell>
+          <cell r="TD1">
+            <v>94.8</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="N2">
-            <v>0</v>
+            <v>5.5000000000000003E-4</v>
           </cell>
         </row>
         <row r="3">
           <cell r="N3">
-            <v>1.15E-3</v>
+            <v>1.495E-2</v>
+          </cell>
+          <cell r="ABZ3">
+            <v>4.5999999999999996</v>
           </cell>
         </row>
         <row r="4">
           <cell r="N4">
-            <v>7.4149999999999994E-2</v>
+            <v>4.7550000000000002E-2</v>
+          </cell>
+          <cell r="TC4">
+            <v>238.3</v>
+          </cell>
+          <cell r="TD4">
+            <v>299.7</v>
           </cell>
         </row>
         <row r="5">
           <cell r="N5">
-            <v>0</v>
+            <v>3.5E-4</v>
           </cell>
         </row>
         <row r="6">
           <cell r="N6">
-            <v>0</v>
+            <v>5.5000000000000003E-4</v>
           </cell>
         </row>
         <row r="7">
           <cell r="N7">
-            <v>1.9800000000000002E-2</v>
+            <v>3.6600000000000001E-2</v>
           </cell>
         </row>
         <row r="8">
           <cell r="N8">
-            <v>0</v>
+            <v>1.8499999999999999E-2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="N9">
-            <v>5.0000000000000002E-5</v>
+            <v>1.72E-2</v>
           </cell>
         </row>
         <row r="10">
           <cell r="N10">
-            <v>0.1076</v>
+            <v>5.015E-2</v>
           </cell>
         </row>
         <row r="11">
           <cell r="N11">
-            <v>2.5850000000000001E-2</v>
+            <v>3.2750000000000001E-2</v>
           </cell>
         </row>
         <row r="12">
@@ -2142,192 +2182,192 @@
         </row>
         <row r="13">
           <cell r="N13">
-            <v>0</v>
+            <v>5.0000000000000002E-5</v>
           </cell>
         </row>
         <row r="14">
           <cell r="N14">
-            <v>0</v>
+            <v>1.3650000000000001E-2</v>
           </cell>
         </row>
         <row r="15">
           <cell r="N15">
-            <v>2.5000000000000001E-4</v>
+            <v>9.7999999999999997E-3</v>
           </cell>
         </row>
         <row r="16">
           <cell r="N16">
-            <v>4.6649999999999997E-2</v>
+            <v>4.265E-2</v>
           </cell>
         </row>
         <row r="17">
           <cell r="N17">
-            <v>2.9999999999999997E-4</v>
+            <v>6.45E-3</v>
           </cell>
         </row>
         <row r="18">
           <cell r="N18">
-            <v>0</v>
+            <v>4.0000000000000002E-4</v>
           </cell>
         </row>
         <row r="19">
           <cell r="N19">
-            <v>0</v>
+            <v>3.5999999999999999E-3</v>
           </cell>
         </row>
         <row r="20">
           <cell r="N20">
-            <v>3.3950000000000001E-2</v>
+            <v>4.02E-2</v>
           </cell>
         </row>
         <row r="21">
           <cell r="N21">
-            <v>0</v>
+            <v>1.5499999999999999E-3</v>
           </cell>
         </row>
         <row r="22">
           <cell r="N22">
-            <v>0</v>
+            <v>1.6999999999999999E-3</v>
           </cell>
         </row>
         <row r="23">
           <cell r="N23">
-            <v>7.0999999999999994E-2</v>
+            <v>4.9799999999999997E-2</v>
           </cell>
         </row>
         <row r="24">
           <cell r="N24">
-            <v>4.1549999999999997E-2</v>
+            <v>4.07E-2</v>
           </cell>
         </row>
         <row r="25">
           <cell r="N25">
-            <v>2.5000000000000001E-4</v>
+            <v>9.1000000000000004E-3</v>
           </cell>
         </row>
         <row r="26">
           <cell r="N26">
-            <v>3.5E-4</v>
+            <v>1.06E-2</v>
           </cell>
         </row>
         <row r="27">
           <cell r="N27">
-            <v>2.5000000000000001E-4</v>
+            <v>1.09E-2</v>
           </cell>
         </row>
         <row r="28">
           <cell r="N28">
-            <v>0</v>
+            <v>2E-3</v>
           </cell>
         </row>
         <row r="29">
           <cell r="N29">
-            <v>8.3099999999999993E-2</v>
+            <v>4.4450000000000003E-2</v>
           </cell>
         </row>
         <row r="30">
           <cell r="N30">
-            <v>6.8750000000000006E-2</v>
+            <v>4.5600000000000002E-2</v>
           </cell>
         </row>
         <row r="31">
           <cell r="N31">
-            <v>5.0000000000000002E-5</v>
+            <v>1.89E-2</v>
           </cell>
         </row>
         <row r="32">
           <cell r="N32">
-            <v>1.8E-3</v>
+            <v>2.8750000000000001E-2</v>
           </cell>
         </row>
         <row r="33">
           <cell r="N33">
-            <v>0</v>
+            <v>2.2499999999999998E-3</v>
           </cell>
         </row>
         <row r="34">
           <cell r="N34">
-            <v>8.6199999999999999E-2</v>
+            <v>4.6949999999999999E-2</v>
           </cell>
         </row>
         <row r="35">
           <cell r="N35">
-            <v>0</v>
+            <v>1.4999999999999999E-4</v>
           </cell>
         </row>
         <row r="36">
           <cell r="N36">
-            <v>1.745E-2</v>
+            <v>3.32E-2</v>
           </cell>
         </row>
         <row r="37">
           <cell r="N37">
-            <v>0</v>
+            <v>1E-4</v>
           </cell>
         </row>
         <row r="38">
           <cell r="N38">
-            <v>1E-4</v>
+            <v>2.4750000000000001E-2</v>
           </cell>
         </row>
         <row r="39">
           <cell r="N39">
-            <v>9.7549999999999998E-2</v>
+            <v>4.9700000000000001E-2</v>
           </cell>
         </row>
         <row r="40">
           <cell r="N40">
-            <v>0</v>
+            <v>1.0800000000000001E-2</v>
           </cell>
         </row>
         <row r="41">
           <cell r="N41">
-            <v>8.0000000000000004E-4</v>
+            <v>1.515E-2</v>
           </cell>
         </row>
         <row r="42">
           <cell r="N42">
-            <v>0</v>
+            <v>3.5E-4</v>
           </cell>
         </row>
         <row r="43">
           <cell r="N43">
-            <v>0</v>
+            <v>1.9E-3</v>
           </cell>
         </row>
         <row r="44">
           <cell r="N44">
-            <v>5.3499999999999997E-3</v>
+            <v>2.8400000000000002E-2</v>
           </cell>
         </row>
         <row r="45">
           <cell r="N45">
-            <v>0</v>
+            <v>1.4999999999999999E-4</v>
           </cell>
         </row>
         <row r="46">
           <cell r="N46">
-            <v>0</v>
+            <v>2.9999999999999997E-4</v>
           </cell>
         </row>
         <row r="47">
           <cell r="N47">
-            <v>1.8100000000000002E-2</v>
+            <v>3.5499999999999997E-2</v>
           </cell>
         </row>
         <row r="48">
           <cell r="N48">
-            <v>0</v>
+            <v>1.6049999999999998E-2</v>
           </cell>
         </row>
         <row r="49">
           <cell r="N49">
-            <v>0</v>
+            <v>2.5000000000000001E-4</v>
           </cell>
         </row>
         <row r="50">
           <cell r="N50">
-            <v>0.11409999999999999</v>
+            <v>0.05</v>
           </cell>
         </row>
         <row r="51">
@@ -2342,22 +2382,22 @@
         </row>
         <row r="53">
           <cell r="N53">
-            <v>5.0000000000000002E-5</v>
+            <v>1.7049999999999999E-2</v>
           </cell>
         </row>
         <row r="54">
           <cell r="N54">
-            <v>4.1250000000000002E-2</v>
+            <v>3.1949999999999999E-2</v>
           </cell>
         </row>
         <row r="55">
           <cell r="N55">
-            <v>5.0000000000000002E-5</v>
+            <v>5.1999999999999998E-3</v>
           </cell>
         </row>
         <row r="56">
           <cell r="N56">
-            <v>4.215E-2</v>
+            <v>2.9850000000000002E-2</v>
           </cell>
         </row>
         <row r="57">
@@ -2375,6 +2415,7 @@
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2746,11 +2787,11 @@
       </c>
       <c r="E2" s="1">
         <f ca="1">[1]Sheet1!E2</f>
-        <v>245.94132023252337</v>
+        <v>245.86150665586752</v>
       </c>
       <c r="F2" s="1">
         <f ca="1">[1]Sheet1!F2</f>
-        <v>4.0586797674766331</v>
+        <v>4.1384933441324847</v>
       </c>
       <c r="G2">
         <f>[1]Sheet1!G2</f>
@@ -2786,11 +2827,11 @@
       </c>
       <c r="E3" s="1">
         <f ca="1">[1]Sheet1!E3</f>
-        <v>173.47535343497796</v>
+        <v>173.006225832073</v>
       </c>
       <c r="F3" s="1">
         <f ca="1">[1]Sheet1!F3</f>
-        <v>76.524646565022039</v>
+        <v>76.993774167927</v>
       </c>
       <c r="G3">
         <f>[1]Sheet1!G3</f>
@@ -2818,19 +2859,19 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">INT([1]Sheet1!C4*1000)/10</f>
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="D4" s="2">
         <f ca="1">INT([1]Sheet1!D4*1000)/10</f>
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="E4" s="1">
         <f ca="1">[1]Sheet1!E4</f>
-        <v>20.077735571241707</v>
+        <v>19.125076809197282</v>
       </c>
       <c r="F4" s="1">
         <f ca="1">[1]Sheet1!F4</f>
-        <v>229.9222644287583</v>
+        <v>230.87492319080272</v>
       </c>
       <c r="G4">
         <f>[1]Sheet1!G4</f>
@@ -2866,11 +2907,11 @@
       </c>
       <c r="E5" s="1">
         <f ca="1">[1]Sheet1!E5</f>
-        <v>246.98807098518981</v>
+        <v>246.95901272404274</v>
       </c>
       <c r="F5" s="1">
         <f ca="1">[1]Sheet1!F5</f>
-        <v>3.0119290148101925</v>
+        <v>3.0409872759572636</v>
       </c>
       <c r="G5">
         <f>[1]Sheet1!G5</f>
@@ -2906,11 +2947,11 @@
       </c>
       <c r="E6" s="1">
         <f ca="1">[1]Sheet1!E6</f>
-        <v>249.94574225909099</v>
+        <v>249.9486042003283</v>
       </c>
       <c r="F6" s="1">
         <f ca="1">[1]Sheet1!F6</f>
-        <v>5.4257740909008589E-2</v>
+        <v>5.1395799671695386E-2</v>
       </c>
       <c r="G6">
         <f>[1]Sheet1!G6</f>
@@ -2938,19 +2979,19 @@
       </c>
       <c r="C7" s="2">
         <f ca="1">INT([1]Sheet1!C7*1000)/10</f>
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D7" s="2">
         <f ca="1">INT([1]Sheet1!D7*1000)/10</f>
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="E7" s="1">
         <f ca="1">[1]Sheet1!E7</f>
-        <v>128.57156924405467</v>
+        <v>129.13689376882053</v>
       </c>
       <c r="F7" s="1">
         <f ca="1">[1]Sheet1!F7</f>
-        <v>121.42843075594533</v>
+        <v>120.86310623117947</v>
       </c>
       <c r="G7">
         <f>[1]Sheet1!G7</f>
@@ -2986,11 +3027,11 @@
       </c>
       <c r="E8" s="1">
         <f ca="1">[1]Sheet1!E8</f>
-        <v>208.0786114682121</v>
+        <v>208.4246134432664</v>
       </c>
       <c r="F8" s="1">
         <f ca="1">[1]Sheet1!F8</f>
-        <v>41.921388531787898</v>
+        <v>41.575386556733605</v>
       </c>
       <c r="G8">
         <f>[1]Sheet1!G8</f>
@@ -3026,11 +3067,11 @@
       </c>
       <c r="E9" s="1">
         <f ca="1">[1]Sheet1!E9</f>
-        <v>212.54279893133199</v>
+        <v>212.86925621089506</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">[1]Sheet1!F9</f>
-        <v>37.457201068668013</v>
+        <v>37.13074378910494</v>
       </c>
       <c r="G9">
         <f>[1]Sheet1!G9</f>
@@ -3058,19 +3099,19 @@
       </c>
       <c r="C10" s="2">
         <f ca="1">INT([1]Sheet1!C10*1000)/10</f>
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="D10" s="2">
         <f ca="1">INT([1]Sheet1!D10*1000)/10</f>
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1">
         <f ca="1">[1]Sheet1!E10</f>
-        <v>9.5918761911161212</v>
+        <v>10.451313504411946</v>
       </c>
       <c r="F10" s="1">
         <f ca="1">[1]Sheet1!F10</f>
-        <v>240.40812380888389</v>
+        <v>239.54868649558804</v>
       </c>
       <c r="G10">
         <f>[1]Sheet1!G10</f>
@@ -3098,19 +3139,19 @@
       </c>
       <c r="C11" s="2">
         <f ca="1">INT([1]Sheet1!C11*1000)/10</f>
-        <v>64.5</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="D11" s="2">
         <f ca="1">INT([1]Sheet1!D11*1000)/10</f>
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="E11" s="1">
         <f ca="1">[1]Sheet1!E11</f>
-        <v>72.989593827238522</v>
+        <v>72.447719405355045</v>
       </c>
       <c r="F11" s="1">
         <f ca="1">[1]Sheet1!F11</f>
-        <v>177.01040617276146</v>
+        <v>177.55228059464497</v>
       </c>
       <c r="G11">
         <f>[1]Sheet1!G11</f>
@@ -3146,11 +3187,11 @@
       </c>
       <c r="E12" s="1">
         <f ca="1">[1]Sheet1!E12</f>
-        <v>249.97031072125932</v>
+        <v>249.97097291758092</v>
       </c>
       <c r="F12" s="1">
         <f ca="1">[1]Sheet1!F12</f>
-        <v>2.9689278740676173E-2</v>
+        <v>2.9027082419077033E-2</v>
       </c>
       <c r="G12">
         <f>[1]Sheet1!G12</f>
@@ -3186,11 +3227,11 @@
       </c>
       <c r="E13" s="1">
         <f ca="1">[1]Sheet1!E13</f>
-        <v>248.99902919448041</v>
+        <v>248.98803440495482</v>
       </c>
       <c r="F13" s="1">
         <f ca="1">[1]Sheet1!F13</f>
-        <v>1.0009708055195858</v>
+        <v>1.0119655950451829</v>
       </c>
       <c r="G13">
         <f>[1]Sheet1!G13</f>
@@ -3218,19 +3259,19 @@
       </c>
       <c r="C14" s="2">
         <f ca="1">INT([1]Sheet1!C14*1000)/10</f>
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="D14" s="2">
         <f ca="1">INT([1]Sheet1!D14*1000)/10</f>
-        <v>93.9</v>
+        <v>94</v>
       </c>
       <c r="E14" s="1">
         <f ca="1">[1]Sheet1!E14</f>
-        <v>219.79774943809517</v>
+        <v>220.11692209146699</v>
       </c>
       <c r="F14" s="1">
         <f ca="1">[1]Sheet1!F14</f>
-        <v>30.202250561904833</v>
+        <v>29.883077908533011</v>
       </c>
       <c r="G14">
         <f>[1]Sheet1!G14</f>
@@ -3258,19 +3299,19 @@
       </c>
       <c r="C15" s="2">
         <f ca="1">INT([1]Sheet1!C15*1000)/10</f>
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="D15" s="2">
         <f ca="1">INT([1]Sheet1!D15*1000)/10</f>
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="E15" s="1">
         <f ca="1">[1]Sheet1!E15</f>
-        <v>196.02472148188932</v>
+        <v>195.70401270469185</v>
       </c>
       <c r="F15" s="1">
         <f ca="1">[1]Sheet1!F15</f>
-        <v>53.975278518110684</v>
+        <v>54.295987295308151</v>
       </c>
       <c r="G15">
         <f>[1]Sheet1!G15</f>
@@ -3298,19 +3339,19 @@
       </c>
       <c r="C16" s="2">
         <f ca="1">INT([1]Sheet1!C16*1000)/10</f>
-        <v>58.4</v>
+        <v>58.3</v>
       </c>
       <c r="D16" s="2">
         <f ca="1">INT([1]Sheet1!D16*1000)/10</f>
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="E16" s="1">
         <f ca="1">[1]Sheet1!E16</f>
-        <v>42.277342426439105</v>
+        <v>41.564203028448766</v>
       </c>
       <c r="F16" s="1">
         <f ca="1">[1]Sheet1!F16</f>
-        <v>207.72265757356089</v>
+        <v>208.43579697155124</v>
       </c>
       <c r="G16">
         <f>[1]Sheet1!G16</f>
@@ -3346,11 +3387,11 @@
       </c>
       <c r="E17" s="1">
         <f ca="1">[1]Sheet1!E17</f>
-        <v>209.33911845568866</v>
+        <v>209.05050083984679</v>
       </c>
       <c r="F17" s="1">
         <f ca="1">[1]Sheet1!F17</f>
-        <v>40.660881544311337</v>
+        <v>40.949499160153209</v>
       </c>
       <c r="G17">
         <f>[1]Sheet1!G17</f>
@@ -3386,11 +3427,11 @@
       </c>
       <c r="E18" s="1">
         <f ca="1">[1]Sheet1!E18</f>
-        <v>246.29066876496881</v>
+        <v>246.26254540837493</v>
       </c>
       <c r="F18" s="1">
         <f ca="1">[1]Sheet1!F18</f>
-        <v>3.7093312350311862</v>
+        <v>3.7374545916250668</v>
       </c>
       <c r="G18">
         <f>[1]Sheet1!G18</f>
@@ -3426,11 +3467,11 @@
       </c>
       <c r="E19" s="1">
         <f ca="1">[1]Sheet1!E19</f>
-        <v>225.89818344422579</v>
+        <v>225.66105879649535</v>
       </c>
       <c r="F19" s="1">
         <f ca="1">[1]Sheet1!F19</f>
-        <v>24.101816555774207</v>
+        <v>24.338941203504646</v>
       </c>
       <c r="G19">
         <f>[1]Sheet1!G19</f>
@@ -3458,19 +3499,19 @@
       </c>
       <c r="C20" s="2">
         <f ca="1">INT([1]Sheet1!C20*1000)/10</f>
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="D20" s="2">
         <f ca="1">INT([1]Sheet1!D20*1000)/10</f>
-        <v>73.099999999999994</v>
+        <v>73.2</v>
       </c>
       <c r="E20" s="1">
         <f ca="1">[1]Sheet1!E20</f>
-        <v>115.59497845932162</v>
+        <v>116.2252466101605</v>
       </c>
       <c r="F20" s="1">
         <f ca="1">[1]Sheet1!F20</f>
-        <v>134.40502154067838</v>
+        <v>133.7747533898395</v>
       </c>
       <c r="G20">
         <f>[1]Sheet1!G20</f>
@@ -3506,11 +3547,11 @@
       </c>
       <c r="E21" s="1">
         <f ca="1">[1]Sheet1!E21</f>
-        <v>247.87408443046428</v>
+        <v>247.90376924657272</v>
       </c>
       <c r="F21" s="1">
         <f ca="1">[1]Sheet1!F21</f>
-        <v>2.1259155695357208</v>
+        <v>2.0962307534272782</v>
       </c>
       <c r="G21">
         <f>[1]Sheet1!G21</f>
@@ -3546,11 +3587,11 @@
       </c>
       <c r="E22" s="1">
         <f ca="1">[1]Sheet1!E22</f>
-        <v>249.17334244049752</v>
+        <v>249.19139341984052</v>
       </c>
       <c r="F22" s="1">
         <f ca="1">[1]Sheet1!F22</f>
-        <v>0.82665755950247899</v>
+        <v>0.80860658015947706</v>
       </c>
       <c r="G22">
         <f>[1]Sheet1!G22</f>
@@ -3578,19 +3619,19 @@
       </c>
       <c r="C23" s="2">
         <f ca="1">INT([1]Sheet1!C23*1000)/10</f>
-        <v>32.700000000000003</v>
+        <v>32.5</v>
       </c>
       <c r="D23" s="2">
         <f ca="1">INT([1]Sheet1!D23*1000)/10</f>
-        <v>67.2</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="E23" s="1">
         <f ca="1">[1]Sheet1!E23</f>
-        <v>86.254857375093422</v>
+        <v>87.30677479575597</v>
       </c>
       <c r="F23" s="1">
         <f ca="1">[1]Sheet1!F23</f>
-        <v>163.74514262490658</v>
+        <v>162.69322520424402</v>
       </c>
       <c r="G23">
         <f>[1]Sheet1!G23</f>
@@ -3618,19 +3659,19 @@
       </c>
       <c r="C24" s="2">
         <f ca="1">INT([1]Sheet1!C24*1000)/10</f>
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D24" s="2">
         <f ca="1">INT([1]Sheet1!D24*1000)/10</f>
-        <v>71</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="E24" s="1">
         <f ca="1">[1]Sheet1!E24</f>
-        <v>105.1169468379275</v>
+        <v>105.73356196855666</v>
       </c>
       <c r="F24" s="1">
         <f ca="1">[1]Sheet1!F24</f>
-        <v>144.88305316207249</v>
+        <v>144.26643803144333</v>
       </c>
       <c r="G24">
         <f>[1]Sheet1!G24</f>
@@ -3658,19 +3699,19 @@
       </c>
       <c r="C25" s="2">
         <f ca="1">INT([1]Sheet1!C25*1000)/10</f>
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="D25" s="2">
         <f ca="1">INT([1]Sheet1!D25*1000)/10</f>
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="E25" s="1">
         <f ca="1">[1]Sheet1!E25</f>
-        <v>197.51731557618203</v>
+        <v>197.19331152069702</v>
       </c>
       <c r="F25" s="1">
         <f ca="1">[1]Sheet1!F25</f>
-        <v>52.482684423817972</v>
+        <v>52.806688479302977</v>
       </c>
       <c r="G25">
         <f>[1]Sheet1!G25</f>
@@ -3698,19 +3739,19 @@
       </c>
       <c r="C26" s="2">
         <f ca="1">INT([1]Sheet1!C26*1000)/10</f>
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="D26" s="2">
         <f ca="1">INT([1]Sheet1!D26*1000)/10</f>
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="E26" s="1">
         <f ca="1">[1]Sheet1!E26</f>
-        <v>194.58194913964078</v>
+        <v>194.27386551445153</v>
       </c>
       <c r="F26" s="1">
         <f ca="1">[1]Sheet1!F26</f>
-        <v>55.418050860359216</v>
+        <v>55.726134485548471</v>
       </c>
       <c r="G26">
         <f>[1]Sheet1!G26</f>
@@ -3738,19 +3779,19 @@
       </c>
       <c r="C27" s="2">
         <f ca="1">INT([1]Sheet1!C27*1000)/10</f>
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="D27" s="2">
         <f ca="1">INT([1]Sheet1!D27*1000)/10</f>
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E27" s="1">
         <f ca="1">[1]Sheet1!E27</f>
-        <v>189.02458386414938</v>
+        <v>188.65676944749765</v>
       </c>
       <c r="F27" s="1">
         <f ca="1">[1]Sheet1!F27</f>
-        <v>60.975416135850622</v>
+        <v>61.343230552502348</v>
       </c>
       <c r="G27">
         <f>[1]Sheet1!G27</f>
@@ -3786,11 +3827,11 @@
       </c>
       <c r="E28" s="1">
         <f ca="1">[1]Sheet1!E28</f>
-        <v>239.73739327054048</v>
+        <v>239.59354974692735</v>
       </c>
       <c r="F28" s="1">
         <f ca="1">[1]Sheet1!F28</f>
-        <v>10.26260672945952</v>
+        <v>10.406450253072649</v>
       </c>
       <c r="G28">
         <f>[1]Sheet1!G28</f>
@@ -3818,19 +3859,19 @@
       </c>
       <c r="C29" s="2">
         <f ca="1">INT([1]Sheet1!C29*1000)/10</f>
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D29" s="2">
         <f ca="1">INT([1]Sheet1!D29*1000)/10</f>
-        <v>64.400000000000006</v>
+        <v>64.5</v>
       </c>
       <c r="E29" s="1">
         <f ca="1">[1]Sheet1!E29</f>
-        <v>72.046632146612382</v>
+        <v>72.740515015148532</v>
       </c>
       <c r="F29" s="1">
         <f ca="1">[1]Sheet1!F29</f>
-        <v>177.95336785338762</v>
+        <v>177.25948498485147</v>
       </c>
       <c r="G29">
         <f>[1]Sheet1!G29</f>
@@ -3858,19 +3899,19 @@
       </c>
       <c r="C30" s="2">
         <f ca="1">INT([1]Sheet1!C30*1000)/10</f>
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="D30" s="2">
         <f ca="1">INT([1]Sheet1!D30*1000)/10</f>
-        <v>68.099999999999994</v>
+        <v>68.2</v>
       </c>
       <c r="E30" s="1">
         <f ca="1">[1]Sheet1!E30</f>
-        <v>90.541560960575922</v>
+        <v>91.267173648489106</v>
       </c>
       <c r="F30" s="1">
         <f ca="1">[1]Sheet1!F30</f>
-        <v>159.45843903942409</v>
+        <v>158.73282635151088</v>
       </c>
       <c r="G30">
         <f>[1]Sheet1!G30</f>
@@ -3898,19 +3939,19 @@
       </c>
       <c r="C31" s="2">
         <f ca="1">INT([1]Sheet1!C31*1000)/10</f>
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D31" s="2">
         <f ca="1">INT([1]Sheet1!D31*1000)/10</f>
-        <v>91</v>
+        <v>91.1</v>
       </c>
       <c r="E31" s="1">
         <f ca="1">[1]Sheet1!E31</f>
-        <v>205.45204872992082</v>
+        <v>205.79340521208107</v>
       </c>
       <c r="F31" s="1">
         <f ca="1">[1]Sheet1!F31</f>
-        <v>44.547951270079182</v>
+        <v>44.206594787918931</v>
       </c>
       <c r="G31">
         <f>[1]Sheet1!G31</f>
@@ -3938,19 +3979,19 @@
       </c>
       <c r="C32" s="2">
         <f ca="1">INT([1]Sheet1!C32*1000)/10</f>
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D32" s="2">
         <f ca="1">INT([1]Sheet1!D32*1000)/10</f>
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="E32" s="1">
         <f ca="1">[1]Sheet1!E32</f>
-        <v>172.28294936336363</v>
+        <v>172.71781704434494</v>
       </c>
       <c r="F32" s="1">
         <f ca="1">[1]Sheet1!F32</f>
-        <v>77.717050636636372</v>
+        <v>77.28218295565506</v>
       </c>
       <c r="G32">
         <f>[1]Sheet1!G32</f>
@@ -3986,11 +4027,11 @@
       </c>
       <c r="E33" s="1">
         <f ca="1">[1]Sheet1!E33</f>
-        <v>244.17566575651608</v>
+        <v>244.29172107566407</v>
       </c>
       <c r="F33" s="1">
         <f ca="1">[1]Sheet1!F33</f>
-        <v>5.8243342434839178</v>
+        <v>5.7082789243359287</v>
       </c>
       <c r="G33">
         <f>[1]Sheet1!G33</f>
@@ -4018,19 +4059,19 @@
       </c>
       <c r="C34" s="2">
         <f ca="1">INT([1]Sheet1!C34*1000)/10</f>
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2">
         <f ca="1">INT([1]Sheet1!D34*1000)/10</f>
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="E34" s="1">
         <f ca="1">[1]Sheet1!E34</f>
-        <v>10.971221277221721</v>
+        <v>10.039933641907695</v>
       </c>
       <c r="F34" s="1">
         <f ca="1">[1]Sheet1!F34</f>
-        <v>239.02877872277827</v>
+        <v>239.96006635809232</v>
       </c>
       <c r="G34">
         <f>[1]Sheet1!G34</f>
@@ -4066,11 +4107,11 @@
       </c>
       <c r="E35" s="1">
         <f ca="1">[1]Sheet1!E35</f>
-        <v>249.35596682998963</v>
+        <v>249.35059701083273</v>
       </c>
       <c r="F35" s="1">
         <f ca="1">[1]Sheet1!F35</f>
-        <v>0.64403317001037408</v>
+        <v>0.64940298916727102</v>
       </c>
       <c r="G35">
         <f>[1]Sheet1!G35</f>
@@ -4098,19 +4139,19 @@
       </c>
       <c r="C36" s="2">
         <f ca="1">INT([1]Sheet1!C36*1000)/10</f>
-        <v>67.5</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="D36" s="2">
         <f ca="1">INT([1]Sheet1!D36*1000)/10</f>
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="E36" s="1">
         <f ca="1">[1]Sheet1!E36</f>
-        <v>87.688261094113756</v>
+        <v>87.048973922941926</v>
       </c>
       <c r="F36" s="1">
         <f ca="1">[1]Sheet1!F36</f>
-        <v>162.31173890588624</v>
+        <v>162.95102607705809</v>
       </c>
       <c r="G36">
         <f>[1]Sheet1!G36</f>
@@ -4146,11 +4187,11 @@
       </c>
       <c r="E37" s="1">
         <f ca="1">[1]Sheet1!E37</f>
-        <v>249.3306370913042</v>
+        <v>249.32438462863416</v>
       </c>
       <c r="F37" s="1">
         <f ca="1">[1]Sheet1!F37</f>
-        <v>0.66936290869580262</v>
+        <v>0.67561537136583638</v>
       </c>
       <c r="G37">
         <f>[1]Sheet1!G37</f>
@@ -4186,11 +4227,11 @@
       </c>
       <c r="E38" s="1">
         <f ca="1">[1]Sheet1!E38</f>
-        <v>190.51033095328771</v>
+        <v>190.88542063028513</v>
       </c>
       <c r="F38" s="1">
         <f ca="1">[1]Sheet1!F38</f>
-        <v>59.489669046712294</v>
+        <v>59.114579369714875</v>
       </c>
       <c r="G38">
         <f>[1]Sheet1!G38</f>
@@ -4218,19 +4259,19 @@
       </c>
       <c r="C39" s="2">
         <f ca="1">INT([1]Sheet1!C39*1000)/10</f>
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="D39" s="2">
         <f ca="1">INT([1]Sheet1!D39*1000)/10</f>
-        <v>60.8</v>
+        <v>61</v>
       </c>
       <c r="E39" s="1">
         <f ca="1">[1]Sheet1!E39</f>
-        <v>54.472535286931247</v>
+        <v>55.307589144300806</v>
       </c>
       <c r="F39" s="1">
         <f ca="1">[1]Sheet1!F39</f>
-        <v>195.52746471306875</v>
+        <v>194.69241085569919</v>
       </c>
       <c r="G39">
         <f>[1]Sheet1!G39</f>
@@ -4258,19 +4299,19 @@
       </c>
       <c r="C40" s="2">
         <f ca="1">INT([1]Sheet1!C40*1000)/10</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D40" s="2">
         <f ca="1">INT([1]Sheet1!D40*1000)/10</f>
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="E40" s="1">
         <f ca="1">[1]Sheet1!E40</f>
-        <v>230.72921640720051</v>
+        <v>231.00047526557711</v>
       </c>
       <c r="F40" s="1">
         <f ca="1">[1]Sheet1!F40</f>
-        <v>19.270783592799489</v>
+        <v>18.999524734422891</v>
       </c>
       <c r="G40">
         <f>[1]Sheet1!G40</f>
@@ -4306,11 +4347,11 @@
       </c>
       <c r="E41" s="1">
         <f ca="1">[1]Sheet1!E41</f>
-        <v>174.97031968626098</v>
+        <v>174.57222205764805</v>
       </c>
       <c r="F41" s="1">
         <f ca="1">[1]Sheet1!F41</f>
-        <v>75.029680313739021</v>
+        <v>75.427777942351952</v>
       </c>
       <c r="G41">
         <f>[1]Sheet1!G41</f>
@@ -4346,11 +4387,11 @@
       </c>
       <c r="E42" s="1">
         <f ca="1">[1]Sheet1!E42</f>
-        <v>247.48521948148056</v>
+        <v>247.46150207400137</v>
       </c>
       <c r="F42" s="1">
         <f ca="1">[1]Sheet1!F42</f>
-        <v>2.5147805185194443</v>
+        <v>2.5384979259986267</v>
       </c>
       <c r="G42">
         <f>[1]Sheet1!G42</f>
@@ -4378,19 +4419,19 @@
       </c>
       <c r="C43" s="2">
         <f ca="1">INT([1]Sheet1!C43*1000)/10</f>
-        <v>98</v>
+        <v>97.9</v>
       </c>
       <c r="D43" s="2">
         <f ca="1">INT([1]Sheet1!D43*1000)/10</f>
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1">
         <f ca="1">[1]Sheet1!E43</f>
-        <v>240.0181286929612</v>
+        <v>239.86710782576912</v>
       </c>
       <c r="F43" s="1">
         <f ca="1">[1]Sheet1!F43</f>
-        <v>9.9818713070388014</v>
+        <v>10.132892174230875</v>
       </c>
       <c r="G43">
         <f>[1]Sheet1!G43</f>
@@ -4418,19 +4459,19 @@
       </c>
       <c r="C44" s="2">
         <f ca="1">INT([1]Sheet1!C44*1000)/10</f>
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="D44" s="2">
         <f ca="1">INT([1]Sheet1!D44*1000)/10</f>
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="E44" s="1">
         <f ca="1">[1]Sheet1!E44</f>
-        <v>126.70968736243537</v>
+        <v>126.11395699224303</v>
       </c>
       <c r="F44" s="1">
         <f ca="1">[1]Sheet1!F44</f>
-        <v>123.29031263756463</v>
+        <v>123.88604300775697</v>
       </c>
       <c r="G44">
         <f>[1]Sheet1!G44</f>
@@ -4466,11 +4507,11 @@
       </c>
       <c r="E45" s="1">
         <f ca="1">[1]Sheet1!E45</f>
-        <v>247.9768205032907</v>
+        <v>247.9562678231699</v>
       </c>
       <c r="F45" s="1">
         <f ca="1">[1]Sheet1!F45</f>
-        <v>2.0231794967093037</v>
+        <v>2.0437321768301047</v>
       </c>
       <c r="G45">
         <f>[1]Sheet1!G45</f>
@@ -4506,11 +4547,11 @@
       </c>
       <c r="E46" s="1">
         <f ca="1">[1]Sheet1!E46</f>
-        <v>249.75368668470023</v>
+        <v>249.75861446409291</v>
       </c>
       <c r="F46" s="1">
         <f ca="1">[1]Sheet1!F46</f>
-        <v>0.24631331529977274</v>
+        <v>0.24138553590708511</v>
       </c>
       <c r="G46">
         <f>[1]Sheet1!G46</f>
@@ -4538,19 +4579,19 @@
       </c>
       <c r="C47" s="2">
         <f ca="1">INT([1]Sheet1!C47*1000)/10</f>
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D47" s="2">
         <f ca="1">INT([1]Sheet1!D47*1000)/10</f>
-        <v>75.400000000000006</v>
+        <v>75.5</v>
       </c>
       <c r="E47" s="1">
         <f ca="1">[1]Sheet1!E47</f>
-        <v>127.31077664939481</v>
+        <v>127.8755626638513</v>
       </c>
       <c r="F47" s="1">
         <f ca="1">[1]Sheet1!F47</f>
-        <v>122.68922335060519</v>
+        <v>122.1244373361487</v>
       </c>
       <c r="G47">
         <f>[1]Sheet1!G47</f>
@@ -4586,11 +4627,11 @@
       </c>
       <c r="E48" s="1">
         <f ca="1">[1]Sheet1!E48</f>
-        <v>212.62121391551244</v>
+        <v>212.97250274520616</v>
       </c>
       <c r="F48" s="1">
         <f ca="1">[1]Sheet1!F48</f>
-        <v>37.378786084487558</v>
+        <v>37.027497254793843</v>
       </c>
       <c r="G48">
         <f>[1]Sheet1!G48</f>
@@ -4626,11 +4667,11 @@
       </c>
       <c r="E49" s="1">
         <f ca="1">[1]Sheet1!E49</f>
-        <v>249.22313807844247</v>
+        <v>249.21500750912449</v>
       </c>
       <c r="F49" s="1">
         <f ca="1">[1]Sheet1!F49</f>
-        <v>0.77686192155752565</v>
+        <v>0.78499249087550993</v>
       </c>
       <c r="G49">
         <f>[1]Sheet1!G49</f>
@@ -4658,19 +4699,19 @@
       </c>
       <c r="C50" s="2">
         <f ca="1">INT([1]Sheet1!C50*1000)/10</f>
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="D50" s="2">
         <f ca="1">INT([1]Sheet1!D50*1000)/10</f>
-        <v>58.4</v>
+        <v>58.6</v>
       </c>
       <c r="E50" s="1">
         <f ca="1">[1]Sheet1!E50</f>
-        <v>42.273536191420519</v>
+        <v>43.278917218711577</v>
       </c>
       <c r="F50" s="1">
         <f ca="1">[1]Sheet1!F50</f>
-        <v>207.72646380857947</v>
+        <v>206.72108278128843</v>
       </c>
       <c r="G50">
         <f>[1]Sheet1!G50</f>
@@ -4706,11 +4747,11 @@
       </c>
       <c r="E51" s="1">
         <f ca="1">[1]Sheet1!E51</f>
-        <v>249.9966445577862</v>
+        <v>249.99660861676833</v>
       </c>
       <c r="F51" s="1">
         <f ca="1">[1]Sheet1!F51</f>
-        <v>3.355442213802462E-3</v>
+        <v>3.3913832316727621E-3</v>
       </c>
       <c r="G51">
         <f>[1]Sheet1!G51</f>
@@ -4746,11 +4787,11 @@
       </c>
       <c r="E52" s="1">
         <f ca="1">[1]Sheet1!E52</f>
-        <v>249.99999999997459</v>
+        <v>249.99999999997615</v>
       </c>
       <c r="F52" s="1">
         <f ca="1">[1]Sheet1!F52</f>
-        <v>2.5409008230781183E-11</v>
+        <v>2.3845814212108962E-11</v>
       </c>
       <c r="G52">
         <f>[1]Sheet1!G52</f>
@@ -4786,11 +4827,11 @@
       </c>
       <c r="E53" s="1">
         <f ca="1">[1]Sheet1!E53</f>
-        <v>213.55474243898178</v>
+        <v>213.87536589852334</v>
       </c>
       <c r="F53" s="1">
         <f ca="1">[1]Sheet1!F53</f>
-        <v>36.445257561018224</v>
+        <v>36.124634101476659</v>
       </c>
       <c r="G53">
         <f>[1]Sheet1!G53</f>
@@ -4818,19 +4859,19 @@
       </c>
       <c r="C54" s="2">
         <f ca="1">INT([1]Sheet1!C54*1000)/10</f>
-        <v>58.1</v>
+        <v>58</v>
       </c>
       <c r="D54" s="2">
         <f ca="1">INT([1]Sheet1!D54*1000)/10</f>
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="E54" s="1">
         <f ca="1">[1]Sheet1!E54</f>
-        <v>40.821124771668991</v>
+        <v>40.240372830920968</v>
       </c>
       <c r="F54" s="1">
         <f ca="1">[1]Sheet1!F54</f>
-        <v>209.17887522833101</v>
+        <v>209.75962716907904</v>
       </c>
       <c r="G54">
         <f>[1]Sheet1!G54</f>
@@ -4858,19 +4899,19 @@
       </c>
       <c r="C55" s="2">
         <f ca="1">INT([1]Sheet1!C55*1000)/10</f>
-        <v>94.6</v>
+        <v>94.5</v>
       </c>
       <c r="D55" s="2">
         <f ca="1">INT([1]Sheet1!D55*1000)/10</f>
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="E55" s="1">
         <f ca="1">[1]Sheet1!E55</f>
-        <v>223.14451986778874</v>
+        <v>222.89277107912392</v>
       </c>
       <c r="F55" s="1">
         <f ca="1">[1]Sheet1!F55</f>
-        <v>26.855480132211255</v>
+        <v>27.107228920876082</v>
       </c>
       <c r="G55">
         <f>[1]Sheet1!G55</f>
@@ -4898,19 +4939,19 @@
       </c>
       <c r="C56" s="2">
         <f ca="1">INT([1]Sheet1!C56*1000)/10</f>
-        <v>56.6</v>
+        <v>56.5</v>
       </c>
       <c r="D56" s="2">
         <f ca="1">INT([1]Sheet1!D56*1000)/10</f>
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="E56" s="1">
         <f ca="1">[1]Sheet1!E56</f>
-        <v>33.307850879907562</v>
+        <v>32.785520663764053</v>
       </c>
       <c r="F56" s="1">
         <f ca="1">[1]Sheet1!F56</f>
-        <v>216.69214912009244</v>
+        <v>217.21447933623594</v>
       </c>
       <c r="G56">
         <f>[1]Sheet1!G56</f>
@@ -4946,11 +4987,11 @@
       </c>
       <c r="E57" s="1">
         <f ca="1">[1]Sheet1!E57</f>
-        <v>249.99766439053462</v>
+        <v>249.99762600500142</v>
       </c>
       <c r="F57" s="1">
         <f ca="1">[1]Sheet1!F57</f>
-        <v>2.3356094653763648E-3</v>
+        <v>2.373994998578155E-3</v>
       </c>
       <c r="G57">
         <f>[1]Sheet1!G57</f>
@@ -5026,7 +5067,7 @@
       </c>
       <c r="E2">
         <f ca="1">INT(([1]SImulations!N2*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
         <v>637</v>
@@ -5052,7 +5093,7 @@
       </c>
       <c r="E3">
         <f ca="1">INT(([1]SImulations!N3*1000)+0.5)/10</f>
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="F3">
         <v>245</v>
@@ -5067,18 +5108,18 @@
       </c>
       <c r="B4" s="2">
         <f ca="1">INT([1]Sheet1!C4*1000)/10</f>
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">INT([1]Sheet1!D4*1000)/10</f>
-        <v>45.9</v>
+        <v>46.1</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
         <f ca="1">INT(([1]SImulations!N4*1000)+0.5)/10</f>
-        <v>7.4</v>
+        <v>4.8</v>
       </c>
       <c r="F4">
         <v>315</v>
@@ -5130,7 +5171,7 @@
       </c>
       <c r="E6">
         <f ca="1">INT(([1]SImulations!N6*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F6">
         <v>223</v>
@@ -5145,18 +5186,18 @@
       </c>
       <c r="B7" s="2">
         <f ca="1">INT([1]Sheet1!C7*1000)/10</f>
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">INT([1]Sheet1!D7*1000)/10</f>
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7">
         <f ca="1">INT(([1]SImulations!N7*1000)+0.5)/10</f>
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="F7">
         <v>400</v>
@@ -5182,7 +5223,7 @@
       </c>
       <c r="E8">
         <f ca="1">INT(([1]SImulations!N8*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F8">
         <v>-1000</v>
@@ -5208,7 +5249,7 @@
       </c>
       <c r="E9">
         <f ca="1">INT(([1]SImulations!N9*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="F9">
         <v>-1000</v>
@@ -5223,18 +5264,18 @@
       </c>
       <c r="B10" s="2">
         <f ca="1">INT([1]Sheet1!C10*1000)/10</f>
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="C10" s="2">
         <f ca="1">INT([1]Sheet1!D10*1000)/10</f>
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10">
         <f ca="1">INT(([1]SImulations!N10*1000)+0.5)/10</f>
-        <v>10.8</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>714</v>
@@ -5249,18 +5290,18 @@
       </c>
       <c r="B11" s="2">
         <f ca="1">INT([1]Sheet1!C11*1000)/10</f>
-        <v>64.5</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="C11" s="2">
         <f ca="1">INT([1]Sheet1!D11*1000)/10</f>
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11">
         <f ca="1">INT(([1]SImulations!N11*1000)+0.5)/10</f>
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="F11">
         <v>680.01170000000002</v>
@@ -5327,18 +5368,18 @@
       </c>
       <c r="B14" s="2">
         <f ca="1">INT([1]Sheet1!C14*1000)/10</f>
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="C14" s="2">
         <f ca="1">INT([1]Sheet1!D14*1000)/10</f>
-        <v>93.9</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14">
         <f ca="1">INT(([1]SImulations!N14*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="F14">
         <v>596.66020000000003</v>
@@ -5353,18 +5394,18 @@
       </c>
       <c r="B15" s="2">
         <f ca="1">INT([1]Sheet1!C15*1000)/10</f>
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="C15" s="2">
         <f ca="1">INT([1]Sheet1!D15*1000)/10</f>
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15">
         <f ca="1">INT(([1]SImulations!N15*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>633.41110000000003</v>
@@ -5379,18 +5420,18 @@
       </c>
       <c r="B16" s="2">
         <f ca="1">INT([1]Sheet1!C16*1000)/10</f>
-        <v>58.4</v>
+        <v>58.3</v>
       </c>
       <c r="C16" s="2">
         <f ca="1">INT([1]Sheet1!D16*1000)/10</f>
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16">
         <f ca="1">INT(([1]SImulations!N16*1000)+0.5)/10</f>
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="F16">
         <v>545.84569999999997</v>
@@ -5416,7 +5457,7 @@
       </c>
       <c r="E17">
         <f ca="1">INT(([1]SImulations!N17*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F17">
         <v>487</v>
@@ -5468,7 +5509,7 @@
       </c>
       <c r="E19">
         <f ca="1">INT(([1]SImulations!N19*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F19">
         <v>561.44039999999995</v>
@@ -5483,18 +5524,18 @@
       </c>
       <c r="B20" s="2">
         <f ca="1">INT([1]Sheet1!C20*1000)/10</f>
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="C20" s="2">
         <f ca="1">INT([1]Sheet1!D20*1000)/10</f>
-        <v>73.099999999999994</v>
+        <v>73.2</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
       </c>
       <c r="E20">
         <f ca="1">INT(([1]SImulations!N20*1000)+0.5)/10</f>
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>807.31050000000005</v>
@@ -5520,7 +5561,7 @@
       </c>
       <c r="E21">
         <f ca="1">INT(([1]SImulations!N21*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F21">
         <v>-1000</v>
@@ -5546,7 +5587,7 @@
       </c>
       <c r="E22">
         <f ca="1">INT(([1]SImulations!N22*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F22">
         <v>-1000</v>
@@ -5561,18 +5602,18 @@
       </c>
       <c r="B23" s="2">
         <f ca="1">INT([1]Sheet1!C23*1000)/10</f>
-        <v>32.700000000000003</v>
+        <v>32.5</v>
       </c>
       <c r="C23" s="2">
         <f ca="1">INT([1]Sheet1!D23*1000)/10</f>
-        <v>67.2</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
       </c>
       <c r="E23">
         <f ca="1">INT(([1]SImulations!N23*1000)+0.5)/10</f>
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="F23">
         <v>645.64649999999995</v>
@@ -5587,18 +5628,18 @@
       </c>
       <c r="B24" s="2">
         <f ca="1">INT([1]Sheet1!C24*1000)/10</f>
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C24" s="2">
         <f ca="1">INT([1]Sheet1!D24*1000)/10</f>
-        <v>71</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
       </c>
       <c r="E24">
         <f ca="1">INT(([1]SImulations!N24*1000)+0.5)/10</f>
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F24">
         <v>530.85940000000005</v>
@@ -5613,18 +5654,18 @@
       </c>
       <c r="B25" s="2">
         <f ca="1">INT([1]Sheet1!C25*1000)/10</f>
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="C25" s="2">
         <f ca="1">INT([1]Sheet1!D25*1000)/10</f>
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
       </c>
       <c r="E25">
         <f ca="1">INT(([1]SImulations!N25*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F25">
         <v>598.60159999999996</v>
@@ -5639,18 +5680,18 @@
       </c>
       <c r="B26" s="2">
         <f ca="1">INT([1]Sheet1!C26*1000)/10</f>
-        <v>88.9</v>
+        <v>88.8</v>
       </c>
       <c r="C26" s="2">
         <f ca="1">INT([1]Sheet1!D26*1000)/10</f>
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
       </c>
       <c r="E26">
         <f ca="1">INT(([1]SImulations!N26*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F26">
         <v>557</v>
@@ -5665,18 +5706,18 @@
       </c>
       <c r="B27" s="2">
         <f ca="1">INT([1]Sheet1!C27*1000)/10</f>
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="C27" s="2">
         <f ca="1">INT([1]Sheet1!D27*1000)/10</f>
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27">
         <f ca="1">INT(([1]SImulations!N27*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F27">
         <v>370.09809999999999</v>
@@ -5702,7 +5743,7 @@
       </c>
       <c r="E28">
         <f ca="1">INT(([1]SImulations!N28*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F28">
         <v>473.83640000000003</v>
@@ -5717,18 +5758,18 @@
       </c>
       <c r="B29" s="2">
         <f ca="1">INT([1]Sheet1!C29*1000)/10</f>
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="C29" s="2">
         <f ca="1">INT([1]Sheet1!D29*1000)/10</f>
-        <v>64.400000000000006</v>
+        <v>64.5</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
       </c>
       <c r="E29">
         <f ca="1">INT(([1]SImulations!N29*1000)+0.5)/10</f>
-        <v>8.3000000000000007</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F29">
         <v>267.87650000000002</v>
@@ -5743,18 +5784,18 @@
       </c>
       <c r="B30" s="2">
         <f ca="1">INT([1]Sheet1!C30*1000)/10</f>
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="C30" s="2">
         <f ca="1">INT([1]Sheet1!D30*1000)/10</f>
-        <v>68.099999999999994</v>
+        <v>68.2</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
       </c>
       <c r="E30">
         <f ca="1">INT(([1]SImulations!N30*1000)+0.5)/10</f>
-        <v>6.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F30">
         <v>-1000</v>
@@ -5769,18 +5810,18 @@
       </c>
       <c r="B31" s="2">
         <f ca="1">INT([1]Sheet1!C31*1000)/10</f>
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C31" s="2">
         <f ca="1">INT([1]Sheet1!D31*1000)/10</f>
-        <v>91</v>
+        <v>91.1</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
       </c>
       <c r="E31">
         <f ca="1">INT(([1]SImulations!N31*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="F31">
         <v>785</v>
@@ -5795,18 +5836,18 @@
       </c>
       <c r="B32" s="2">
         <f ca="1">INT([1]Sheet1!C32*1000)/10</f>
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C32" s="2">
         <f ca="1">INT([1]Sheet1!D32*1000)/10</f>
-        <v>84.4</v>
+        <v>84.5</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
       </c>
       <c r="E32">
         <f ca="1">INT(([1]SImulations!N32*1000)+0.5)/10</f>
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
       <c r="F32">
         <v>385.37740000000002</v>
@@ -5832,7 +5873,7 @@
       </c>
       <c r="E33">
         <f ca="1">INT(([1]SImulations!N33*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F33">
         <v>753.57809999999995</v>
@@ -5847,18 +5888,18 @@
       </c>
       <c r="B34" s="2">
         <f ca="1">INT([1]Sheet1!C34*1000)/10</f>
-        <v>52.1</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2">
         <f ca="1">INT([1]Sheet1!D34*1000)/10</f>
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
       </c>
       <c r="E34">
         <f ca="1">INT(([1]SImulations!N34*1000)+0.5)/10</f>
-        <v>8.6</v>
+        <v>4.7</v>
       </c>
       <c r="F34">
         <v>728.60839999999996</v>
@@ -5899,18 +5940,18 @@
       </c>
       <c r="B36" s="2">
         <f ca="1">INT([1]Sheet1!C36*1000)/10</f>
-        <v>67.5</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="C36" s="2">
         <f ca="1">INT([1]Sheet1!D36*1000)/10</f>
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
       </c>
       <c r="E36">
         <f ca="1">INT(([1]SImulations!N36*1000)+0.5)/10</f>
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="F36">
         <v>670.71969999999999</v>
@@ -5962,7 +6003,7 @@
       </c>
       <c r="E38">
         <f ca="1">INT(([1]SImulations!N38*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F38">
         <v>240.2783</v>
@@ -5977,18 +6018,18 @@
       </c>
       <c r="B39" s="2">
         <f ca="1">INT([1]Sheet1!C39*1000)/10</f>
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="C39" s="2">
         <f ca="1">INT([1]Sheet1!D39*1000)/10</f>
-        <v>60.8</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
       </c>
       <c r="E39">
         <f ca="1">INT(([1]SImulations!N39*1000)+0.5)/10</f>
-        <v>9.8000000000000007</v>
+        <v>5</v>
       </c>
       <c r="F39">
         <v>730.35350000000005</v>
@@ -6003,18 +6044,18 @@
       </c>
       <c r="B40" s="2">
         <f ca="1">INT([1]Sheet1!C40*1000)/10</f>
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="C40" s="2">
         <f ca="1">INT([1]Sheet1!D40*1000)/10</f>
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
       </c>
       <c r="E40">
         <f ca="1">INT(([1]SImulations!N40*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F40">
         <v>-1000</v>
@@ -6040,7 +6081,7 @@
       </c>
       <c r="E41">
         <f ca="1">INT(([1]SImulations!N41*1000)+0.5)/10</f>
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="F41">
         <v>712.43949999999995</v>
@@ -6081,18 +6122,18 @@
       </c>
       <c r="B43" s="2">
         <f ca="1">INT([1]Sheet1!C43*1000)/10</f>
-        <v>98</v>
+        <v>97.9</v>
       </c>
       <c r="C43" s="2">
         <f ca="1">INT([1]Sheet1!D43*1000)/10</f>
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
       </c>
       <c r="E43">
         <f ca="1">INT(([1]SImulations!N43*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F43">
         <v>640.85940000000005</v>
@@ -6107,18 +6148,18 @@
       </c>
       <c r="B44" s="2">
         <f ca="1">INT([1]Sheet1!C44*1000)/10</f>
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="C44" s="2">
         <f ca="1">INT([1]Sheet1!D44*1000)/10</f>
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
       </c>
       <c r="E44">
         <f ca="1">INT(([1]SImulations!N44*1000)+0.5)/10</f>
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="F44">
         <v>480.99020000000002</v>
@@ -6185,18 +6226,18 @@
       </c>
       <c r="B47" s="2">
         <f ca="1">INT([1]Sheet1!C47*1000)/10</f>
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="C47" s="2">
         <f ca="1">INT([1]Sheet1!D47*1000)/10</f>
-        <v>75.400000000000006</v>
+        <v>75.5</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
       </c>
       <c r="E47">
         <f ca="1">INT(([1]SImulations!N47*1000)+0.5)/10</f>
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="F47">
         <v>731.02639999999997</v>
@@ -6222,7 +6263,7 @@
       </c>
       <c r="E48">
         <f ca="1">INT(([1]SImulations!N48*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F48">
         <v>256.93650000000002</v>
@@ -6263,18 +6304,18 @@
       </c>
       <c r="B50" s="2">
         <f ca="1">INT([1]Sheet1!C50*1000)/10</f>
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="C50" s="2">
         <f ca="1">INT([1]Sheet1!D50*1000)/10</f>
-        <v>58.4</v>
+        <v>58.6</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
       </c>
       <c r="E50">
         <f ca="1">INT(([1]SImulations!N50*1000)+0.5)/10</f>
-        <v>11.4</v>
+        <v>5</v>
       </c>
       <c r="F50">
         <v>585.25289999999995</v>
@@ -6385,7 +6426,7 @@
       </c>
       <c r="B2">
         <f ca="1">INT(([1]Results!$D$58*1000)+0.5)/10</f>
-        <v>43.5</v>
+        <v>45.4</v>
       </c>
       <c r="C2">
         <f ca="1">INT(([1]Results!$F$58*1000)+0.5)/10</f>
@@ -6393,7 +6434,7 @@
       </c>
       <c r="D2">
         <f ca="1">INT(([1]Results!$K$58*10)+0.5)/10</f>
-        <v>237.8</v>
+        <v>237.4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6402,15 +6443,15 @@
       </c>
       <c r="B3">
         <f ca="1">INT(([1]Results!$E$58*1000)+0.5)/10</f>
-        <v>56.5</v>
+        <v>54.6</v>
       </c>
       <c r="C3">
         <f ca="1">INT(([1]Results!$G$58*1000)+0.5)/10</f>
-        <v>50.1</v>
+        <v>50.2</v>
       </c>
       <c r="D3">
         <f ca="1">INT(([1]Results!$L$58*10)+0.5)/10</f>
-        <v>300.2</v>
+        <v>300.60000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -6486,7 +6527,7 @@
       </c>
       <c r="I2">
         <f ca="1">INT(([1]SImulations!N2*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6498,11 +6539,11 @@
       </c>
       <c r="C3" s="2">
         <f ca="1">INT(([1]Sheet1!C3*1000)+0.5)/10</f>
-        <v>84.7</v>
+        <v>84.6</v>
       </c>
       <c r="D3" s="2">
         <f ca="1">INT(([1]Sheet1!D3*1000)+0.5)/10</f>
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E3">
         <v>9.4868329805051381</v>
@@ -6518,7 +6559,7 @@
       </c>
       <c r="I3">
         <f ca="1">INT(([1]SImulations!N3*1000)+0.5)/10</f>
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6530,11 +6571,11 @@
       </c>
       <c r="C4" s="2">
         <f ca="1">INT(([1]Sheet1!C4*1000)+0.5)/10</f>
-        <v>54</v>
+        <v>53.8</v>
       </c>
       <c r="D4" s="2">
         <f ca="1">INT(([1]Sheet1!D4*1000)+0.5)/10</f>
-        <v>46</v>
+        <v>46.2</v>
       </c>
       <c r="E4">
         <v>18.165902124584949</v>
@@ -6550,7 +6591,7 @@
       </c>
       <c r="I4">
         <f ca="1">INT(([1]SImulations!N4*1000)+0.5)/10</f>
-        <v>7.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6614,7 +6655,7 @@
       </c>
       <c r="I6">
         <f ca="1">INT(([1]SImulations!N6*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6626,11 +6667,11 @@
       </c>
       <c r="C7" s="2">
         <f ca="1">INT(([1]Sheet1!C7*1000)+0.5)/10</f>
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D7" s="2">
         <f ca="1">INT(([1]Sheet1!D7*1000)+0.5)/10</f>
-        <v>75.7</v>
+        <v>75.8</v>
       </c>
       <c r="E7">
         <v>16.431676725154983</v>
@@ -6646,7 +6687,7 @@
       </c>
       <c r="I7">
         <f ca="1">INT(([1]SImulations!N7*1000)+0.5)/10</f>
-        <v>2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6658,11 +6699,11 @@
       </c>
       <c r="C8" s="2">
         <f ca="1">INT(([1]Sheet1!C8*1000)+0.5)/10</f>
-        <v>8.4</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D8" s="2">
         <f ca="1">INT(([1]Sheet1!D8*1000)+0.5)/10</f>
-        <v>91.6</v>
+        <v>91.7</v>
       </c>
       <c r="E8">
         <v>14.491376746189438</v>
@@ -6678,7 +6719,7 @@
       </c>
       <c r="I8">
         <f ca="1">INT(([1]SImulations!N8*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6690,11 +6731,11 @@
       </c>
       <c r="C9" s="2">
         <f ca="1">INT(([1]Sheet1!C9*1000)+0.5)/10</f>
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D9" s="2">
         <f ca="1">INT(([1]Sheet1!D9*1000)+0.5)/10</f>
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="E9">
         <v>9.4868329805051381</v>
@@ -6710,7 +6751,7 @@
       </c>
       <c r="I9">
         <f ca="1">INT(([1]SImulations!N9*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6722,11 +6763,11 @@
       </c>
       <c r="C10" s="2">
         <f ca="1">INT(([1]Sheet1!C10*1000)+0.5)/10</f>
-        <v>48.1</v>
+        <v>47.9</v>
       </c>
       <c r="D10" s="2">
         <f ca="1">INT(([1]Sheet1!D10*1000)+0.5)/10</f>
-        <v>51.9</v>
+        <v>52.1</v>
       </c>
       <c r="E10">
         <v>29.49576240750525</v>
@@ -6742,7 +6783,7 @@
       </c>
       <c r="I10">
         <f ca="1">INT(([1]SImulations!N10*1000)+0.5)/10</f>
-        <v>10.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6754,11 +6795,11 @@
       </c>
       <c r="C11" s="2">
         <f ca="1">INT(([1]Sheet1!C11*1000)+0.5)/10</f>
-        <v>64.599999999999994</v>
+        <v>64.5</v>
       </c>
       <c r="D11" s="2">
         <f ca="1">INT(([1]Sheet1!D11*1000)+0.5)/10</f>
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="E11">
         <v>21.908902300206645</v>
@@ -6774,7 +6815,7 @@
       </c>
       <c r="I11">
         <f ca="1">INT(([1]SImulations!N11*1000)+0.5)/10</f>
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6870,7 +6911,7 @@
       </c>
       <c r="I14">
         <f ca="1">INT(([1]SImulations!N14*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6882,11 +6923,11 @@
       </c>
       <c r="C15" s="2">
         <f ca="1">INT(([1]Sheet1!C15*1000)+0.5)/10</f>
-        <v>89.2</v>
+        <v>89.1</v>
       </c>
       <c r="D15" s="2">
         <f ca="1">INT(([1]Sheet1!D15*1000)+0.5)/10</f>
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E15">
         <v>18.165902124584949</v>
@@ -6902,7 +6943,7 @@
       </c>
       <c r="I15">
         <f ca="1">INT(([1]SImulations!N15*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6914,11 +6955,11 @@
       </c>
       <c r="C16" s="2">
         <f ca="1">INT(([1]Sheet1!C16*1000)+0.5)/10</f>
-        <v>58.5</v>
+        <v>58.3</v>
       </c>
       <c r="D16" s="2">
         <f ca="1">INT(([1]Sheet1!D16*1000)+0.5)/10</f>
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="E16">
         <v>13.416407864998739</v>
@@ -6934,7 +6975,7 @@
       </c>
       <c r="I16">
         <f ca="1">INT(([1]SImulations!N16*1000)+0.5)/10</f>
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6946,11 +6987,11 @@
       </c>
       <c r="C17" s="2">
         <f ca="1">INT(([1]Sheet1!C17*1000)+0.5)/10</f>
-        <v>91.9</v>
+        <v>91.8</v>
       </c>
       <c r="D17" s="2">
         <f ca="1">INT(([1]Sheet1!D17*1000)+0.5)/10</f>
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E17">
         <v>13.416407864998739</v>
@@ -6966,7 +7007,7 @@
       </c>
       <c r="I17">
         <f ca="1">INT(([1]SImulations!N17*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -7010,11 +7051,11 @@
       </c>
       <c r="C19" s="2">
         <f ca="1">INT(([1]Sheet1!C19*1000)+0.5)/10</f>
-        <v>95.2</v>
+        <v>95.1</v>
       </c>
       <c r="D19" s="2">
         <f ca="1">INT(([1]Sheet1!D19*1000)+0.5)/10</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E19">
         <v>15.491933384829668</v>
@@ -7030,7 +7071,7 @@
       </c>
       <c r="I19">
         <f ca="1">INT(([1]SImulations!N19*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -7042,11 +7083,11 @@
       </c>
       <c r="C20" s="2">
         <f ca="1">INT(([1]Sheet1!C20*1000)+0.5)/10</f>
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="D20" s="2">
         <f ca="1">INT(([1]Sheet1!D20*1000)+0.5)/10</f>
-        <v>73.099999999999994</v>
+        <v>73.2</v>
       </c>
       <c r="E20">
         <v>7.745966692414834</v>
@@ -7062,7 +7103,7 @@
       </c>
       <c r="I20">
         <f ca="1">INT(([1]SImulations!N20*1000)+0.5)/10</f>
-        <v>3.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -7094,7 +7135,7 @@
       </c>
       <c r="I21">
         <f ca="1">INT(([1]SImulations!N21*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -7126,7 +7167,7 @@
       </c>
       <c r="I22">
         <f ca="1">INT(([1]SImulations!N22*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -7138,11 +7179,11 @@
       </c>
       <c r="C23" s="2">
         <f ca="1">INT(([1]Sheet1!C23*1000)+0.5)/10</f>
-        <v>32.700000000000003</v>
+        <v>32.5</v>
       </c>
       <c r="D23" s="2">
         <f ca="1">INT(([1]Sheet1!D23*1000)+0.5)/10</f>
-        <v>67.3</v>
+        <v>67.5</v>
       </c>
       <c r="E23">
         <v>21.908902300206645</v>
@@ -7158,7 +7199,7 @@
       </c>
       <c r="I23">
         <f ca="1">INT(([1]SImulations!N23*1000)+0.5)/10</f>
-        <v>7.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -7170,11 +7211,11 @@
       </c>
       <c r="C24" s="2">
         <f ca="1">INT(([1]Sheet1!C24*1000)+0.5)/10</f>
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="D24" s="2">
         <f ca="1">INT(([1]Sheet1!D24*1000)+0.5)/10</f>
-        <v>71</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="E24">
         <v>17.320508075688775</v>
@@ -7190,7 +7231,7 @@
       </c>
       <c r="I24">
         <f ca="1">INT(([1]SImulations!N24*1000)+0.5)/10</f>
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -7202,11 +7243,11 @@
       </c>
       <c r="C25" s="2">
         <f ca="1">INT(([1]Sheet1!C25*1000)+0.5)/10</f>
-        <v>89.5</v>
+        <v>89.4</v>
       </c>
       <c r="D25" s="2">
         <f ca="1">INT(([1]Sheet1!D25*1000)+0.5)/10</f>
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="E25">
         <v>13.416407864998739</v>
@@ -7222,7 +7263,7 @@
       </c>
       <c r="I25">
         <f ca="1">INT(([1]SImulations!N25*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -7254,7 +7295,7 @@
       </c>
       <c r="I26">
         <f ca="1">INT(([1]SImulations!N26*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -7266,11 +7307,11 @@
       </c>
       <c r="C27" s="2">
         <f ca="1">INT(([1]Sheet1!C27*1000)+0.5)/10</f>
-        <v>87.8</v>
+        <v>87.7</v>
       </c>
       <c r="D27" s="2">
         <f ca="1">INT(([1]Sheet1!D27*1000)+0.5)/10</f>
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E27">
         <v>9.4868329805051381</v>
@@ -7286,7 +7327,7 @@
       </c>
       <c r="I27">
         <f ca="1">INT(([1]SImulations!N27*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -7318,7 +7359,7 @@
       </c>
       <c r="I28">
         <f ca="1">INT(([1]SImulations!N28*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -7330,11 +7371,11 @@
       </c>
       <c r="C29" s="2">
         <f ca="1">INT(([1]Sheet1!C29*1000)+0.5)/10</f>
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="D29" s="2">
         <f ca="1">INT(([1]Sheet1!D29*1000)+0.5)/10</f>
-        <v>64.400000000000006</v>
+        <v>64.5</v>
       </c>
       <c r="E29">
         <v>13.416407864998739</v>
@@ -7350,7 +7391,7 @@
       </c>
       <c r="I29">
         <f ca="1">INT(([1]SImulations!N29*1000)+0.5)/10</f>
-        <v>8.3000000000000007</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -7362,11 +7403,11 @@
       </c>
       <c r="C30" s="2">
         <f ca="1">INT(([1]Sheet1!C30*1000)+0.5)/10</f>
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="D30" s="2">
         <f ca="1">INT(([1]Sheet1!D30*1000)+0.5)/10</f>
-        <v>68.099999999999994</v>
+        <v>68.3</v>
       </c>
       <c r="E30">
         <v>10.954451150103322</v>
@@ -7382,7 +7423,7 @@
       </c>
       <c r="I30">
         <f ca="1">INT(([1]SImulations!N30*1000)+0.5)/10</f>
-        <v>6.9</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -7394,11 +7435,11 @@
       </c>
       <c r="C31" s="2">
         <f ca="1">INT(([1]Sheet1!C31*1000)+0.5)/10</f>
-        <v>8.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="D31" s="2">
         <f ca="1">INT(([1]Sheet1!D31*1000)+0.5)/10</f>
-        <v>91.1</v>
+        <v>91.2</v>
       </c>
       <c r="E31">
         <v>20.493901531919196</v>
@@ -7414,7 +7455,7 @@
       </c>
       <c r="I31">
         <f ca="1">INT(([1]SImulations!N31*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -7446,7 +7487,7 @@
       </c>
       <c r="I32">
         <f ca="1">INT(([1]SImulations!N32*1000)+0.5)/10</f>
-        <v>0.2</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -7458,11 +7499,11 @@
       </c>
       <c r="C33" s="2">
         <f ca="1">INT(([1]Sheet1!C33*1000)+0.5)/10</f>
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D33" s="2">
         <f ca="1">INT(([1]Sheet1!D33*1000)+0.5)/10</f>
-        <v>98.8</v>
+        <v>98.9</v>
       </c>
       <c r="E33">
         <v>29.49576240750525</v>
@@ -7478,7 +7519,7 @@
       </c>
       <c r="I33">
         <f ca="1">INT(([1]SImulations!N33*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -7490,11 +7531,11 @@
       </c>
       <c r="C34" s="2">
         <f ca="1">INT(([1]Sheet1!C34*1000)+0.5)/10</f>
-        <v>52.2</v>
+        <v>52</v>
       </c>
       <c r="D34" s="2">
         <f ca="1">INT(([1]Sheet1!D34*1000)+0.5)/10</f>
-        <v>47.8</v>
+        <v>48</v>
       </c>
       <c r="E34">
         <v>21.213203435596427</v>
@@ -7510,7 +7551,7 @@
       </c>
       <c r="I34">
         <f ca="1">INT(([1]SImulations!N34*1000)+0.5)/10</f>
-        <v>8.6</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -7554,11 +7595,11 @@
       </c>
       <c r="C36" s="2">
         <f ca="1">INT(([1]Sheet1!C36*1000)+0.5)/10</f>
-        <v>67.5</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="D36" s="2">
         <f ca="1">INT(([1]Sheet1!D36*1000)+0.5)/10</f>
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="E36">
         <v>23.2379000772445</v>
@@ -7574,7 +7615,7 @@
       </c>
       <c r="I36">
         <f ca="1">INT(([1]SImulations!N36*1000)+0.5)/10</f>
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -7618,11 +7659,11 @@
       </c>
       <c r="C38" s="2">
         <f ca="1">INT(([1]Sheet1!C38*1000)+0.5)/10</f>
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D38" s="2">
         <f ca="1">INT(([1]Sheet1!D38*1000)+0.5)/10</f>
-        <v>88.1</v>
+        <v>88.2</v>
       </c>
       <c r="E38">
         <v>14.491376746189438</v>
@@ -7638,7 +7679,7 @@
       </c>
       <c r="I38">
         <f ca="1">INT(([1]SImulations!N38*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7650,11 +7691,11 @@
       </c>
       <c r="C39" s="2">
         <f ca="1">INT(([1]Sheet1!C39*1000)+0.5)/10</f>
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="D39" s="2">
         <f ca="1">INT(([1]Sheet1!D39*1000)+0.5)/10</f>
-        <v>60.9</v>
+        <v>61.1</v>
       </c>
       <c r="E39">
         <v>24.494897427831781</v>
@@ -7670,7 +7711,7 @@
       </c>
       <c r="I39">
         <f ca="1">INT(([1]SImulations!N39*1000)+0.5)/10</f>
-        <v>9.8000000000000007</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7682,11 +7723,11 @@
       </c>
       <c r="C40" s="2">
         <f ca="1">INT(([1]Sheet1!C40*1000)+0.5)/10</f>
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D40" s="2">
         <f ca="1">INT(([1]Sheet1!D40*1000)+0.5)/10</f>
-        <v>96.1</v>
+        <v>96.2</v>
       </c>
       <c r="E40">
         <v>10.954451150103322</v>
@@ -7702,7 +7743,7 @@
       </c>
       <c r="I40">
         <f ca="1">INT(([1]SImulations!N40*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -7714,11 +7755,11 @@
       </c>
       <c r="C41" s="2">
         <f ca="1">INT(([1]Sheet1!C41*1000)+0.5)/10</f>
-        <v>85</v>
+        <v>84.9</v>
       </c>
       <c r="D41" s="2">
         <f ca="1">INT(([1]Sheet1!D41*1000)+0.5)/10</f>
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E41">
         <v>16.431676725154983</v>
@@ -7734,7 +7775,7 @@
       </c>
       <c r="I41">
         <f ca="1">INT(([1]SImulations!N41*1000)+0.5)/10</f>
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7798,7 +7839,7 @@
       </c>
       <c r="I43">
         <f ca="1">INT(([1]SImulations!N43*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7810,11 +7851,11 @@
       </c>
       <c r="C44" s="2">
         <f ca="1">INT(([1]Sheet1!C44*1000)+0.5)/10</f>
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="D44" s="2">
         <f ca="1">INT(([1]Sheet1!D44*1000)+0.5)/10</f>
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="E44">
         <v>33.763886032268267</v>
@@ -7830,7 +7871,7 @@
       </c>
       <c r="I44">
         <f ca="1">INT(([1]SImulations!N44*1000)+0.5)/10</f>
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7906,11 +7947,11 @@
       </c>
       <c r="C47" s="2">
         <f ca="1">INT(([1]Sheet1!C47*1000)+0.5)/10</f>
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="D47" s="2">
         <f ca="1">INT(([1]Sheet1!D47*1000)+0.5)/10</f>
-        <v>75.5</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="E47">
         <v>19.748417658131498</v>
@@ -7926,7 +7967,7 @@
       </c>
       <c r="I47">
         <f ca="1">INT(([1]SImulations!N47*1000)+0.5)/10</f>
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7938,11 +7979,11 @@
       </c>
       <c r="C48" s="2">
         <f ca="1">INT(([1]Sheet1!C48*1000)+0.5)/10</f>
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="D48" s="2">
         <f ca="1">INT(([1]Sheet1!D48*1000)+0.5)/10</f>
-        <v>92.5</v>
+        <v>92.6</v>
       </c>
       <c r="E48">
         <v>18.973665961010276</v>
@@ -7958,7 +7999,7 @@
       </c>
       <c r="I48">
         <f ca="1">INT(([1]SImulations!N48*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -8002,11 +8043,11 @@
       </c>
       <c r="C50" s="2">
         <f ca="1">INT(([1]Sheet1!C50*1000)+0.5)/10</f>
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="D50" s="2">
         <f ca="1">INT(([1]Sheet1!D50*1000)+0.5)/10</f>
-        <v>58.5</v>
+        <v>58.7</v>
       </c>
       <c r="E50">
         <v>17.320508075688775</v>
@@ -8022,7 +8063,7 @@
       </c>
       <c r="I50">
         <f ca="1">INT(([1]SImulations!N50*1000)+0.5)/10</f>
-        <v>11.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -8098,11 +8139,11 @@
       </c>
       <c r="C53" s="2">
         <f ca="1">INT(([1]Sheet1!C53*1000)+0.5)/10</f>
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="D53" s="2">
         <f ca="1">INT(([1]Sheet1!D53*1000)+0.5)/10</f>
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="E53">
         <v>5.4772255750516612</v>
@@ -8118,7 +8159,7 @@
       </c>
       <c r="I53">
         <f ca="1">INT(([1]SImulations!N53*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -8130,11 +8171,11 @@
       </c>
       <c r="C54" s="2">
         <f ca="1">INT(([1]Sheet1!C54*1000)+0.5)/10</f>
-        <v>58.2</v>
+        <v>58</v>
       </c>
       <c r="D54" s="2">
         <f ca="1">INT(([1]Sheet1!D54*1000)+0.5)/10</f>
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="E54">
         <v>5.4772255750516612</v>
@@ -8150,7 +8191,7 @@
       </c>
       <c r="I54">
         <f ca="1">INT(([1]SImulations!N54*1000)+0.5)/10</f>
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -8182,7 +8223,7 @@
       </c>
       <c r="I55">
         <f ca="1">INT(([1]SImulations!N55*1000)+0.5)/10</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -8194,11 +8235,11 @@
       </c>
       <c r="C56" s="2">
         <f ca="1">INT(([1]Sheet1!C56*1000)+0.5)/10</f>
-        <v>56.7</v>
+        <v>56.6</v>
       </c>
       <c r="D56" s="2">
         <f ca="1">INT(([1]Sheet1!D56*1000)+0.5)/10</f>
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="E56">
         <v>5.4772255750516612</v>
@@ -8214,7 +8255,7 @@
       </c>
       <c r="I56">
         <f ca="1">INT(([1]SImulations!N56*1000)+0.5)/10</f>
-        <v>4.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -8258,7 +8299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD00230-77B4-F74A-949A-E4343E03F949}">
   <dimension ref="A1:F2416"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -56590,4 +56631,276 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D1BC8A-3A4F-D046-9275-F01214CD76A2}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2">
+        <f ca="1">D2-[1]SImulations!ABZ$3</f>
+        <v>41.199999999999996</v>
+      </c>
+      <c r="D2">
+        <f ca="1">ROUND([1]Results!F58*100,1)</f>
+        <v>45.8</v>
+      </c>
+      <c r="E2">
+        <f ca="1">D2+[1]SImulations!ABZ$3</f>
+        <v>50.4</v>
+      </c>
+      <c r="F2">
+        <f ca="1">200+C2*6</f>
+        <v>447.2</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <f ca="1">(E2-C2)*6</f>
+        <v>55.200000000000017</v>
+      </c>
+      <c r="I2">
+        <f ca="1">200+D2*6</f>
+        <v>474.79999999999995</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3">
+        <f ca="1">D3-[1]SImulations!ABZ$3</f>
+        <v>45.6</v>
+      </c>
+      <c r="D3">
+        <f ca="1">ROUND([1]Results!G58*100,1)</f>
+        <v>50.2</v>
+      </c>
+      <c r="E3">
+        <f ca="1">D3+[1]SImulations!ABZ$3</f>
+        <v>54.800000000000004</v>
+      </c>
+      <c r="F3">
+        <f ca="1">200+C3*6</f>
+        <v>473.6</v>
+      </c>
+      <c r="G3">
+        <v>125</v>
+      </c>
+      <c r="H3">
+        <f ca="1">(E3-C3)*6</f>
+        <v>55.200000000000017</v>
+      </c>
+      <c r="I3">
+        <f ca="1">200+D3*6</f>
+        <v>501.20000000000005</v>
+      </c>
+      <c r="J3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4">
+        <f>ROUND(D4-D4/1.2,1)</f>
+        <v>0.7</v>
+      </c>
+      <c r="D4">
+        <f>ROUND([1]Results!H58*100,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <f>ROUND(D4+D4/1.2,1)</f>
+        <v>7.3</v>
+      </c>
+      <c r="F4">
+        <f>200+C4*6</f>
+        <v>204.2</v>
+      </c>
+      <c r="G4">
+        <v>200</v>
+      </c>
+      <c r="H4">
+        <f>(E4-C4)*6</f>
+        <v>39.599999999999994</v>
+      </c>
+      <c r="I4">
+        <f>200+D4*6</f>
+        <v>224</v>
+      </c>
+      <c r="J4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5">
+        <f ca="1">D5-[1]SImulations!$TC$1</f>
+        <v>143.5</v>
+      </c>
+      <c r="D5">
+        <f ca="1">[1]SImulations!$TC$4</f>
+        <v>238.3</v>
+      </c>
+      <c r="E5">
+        <f ca="1">D5+[1]SImulations!$TC$1</f>
+        <v>333.1</v>
+      </c>
+      <c r="F5">
+        <f ca="1">200+C5*(600/538)</f>
+        <v>360.03717472118956</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <f ca="1">(E5-C5)*(600/538)</f>
+        <v>211.44981412639407</v>
+      </c>
+      <c r="I5">
+        <f ca="1">200+D5*(600/538)</f>
+        <v>465.76208178438662</v>
+      </c>
+      <c r="J5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6">
+        <f ca="1">D6-[1]SImulations!$TD$1</f>
+        <v>204.89999999999998</v>
+      </c>
+      <c r="D6">
+        <f ca="1">[1]SImulations!$TD$4</f>
+        <v>299.7</v>
+      </c>
+      <c r="E6">
+        <f ca="1">D6+[1]SImulations!$TD$1</f>
+        <v>394.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F7" ca="1" si="0">200+C6*(600/538)</f>
+        <v>428.51301115241631</v>
+      </c>
+      <c r="G6">
+        <v>125</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H7" ca="1" si="1">(E6-C6)*(600/538)</f>
+        <v>211.44981412639407</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I7" ca="1" si="2">200+D6*(600/538)</f>
+        <v>534.23791821561338</v>
+      </c>
+      <c r="J6">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="J7">
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>